--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D44FA4-7CCE-41A1-AAD8-7187160F329F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9628F-340F-4067-BFF2-D1F3B6985DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="14" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
@@ -639,8 +639,71 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neža</author>
+  </authors>
+  <commentList>
+    <comment ref="A88" authorId="0" shapeId="0" xr:uid="{6DF1250F-C2CC-461E-B380-7016B7F385BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+po vzoru študije številka 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{4136F1E8-28B4-4A5F-AC27-63E7CEFEEE0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+povprečje 5 let</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="331">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1604,6 +1667,36 @@
   <si>
     <t>čisti dobiček/prihodki od prodaje</t>
   </si>
+  <si>
+    <t>Delež delnic, v lasti drugih delničarjev, ne podjetja</t>
+  </si>
+  <si>
+    <t>KAZALCI ZA ODBITEK ZARADI POMANJKANJA TRŽLJIVOSTI</t>
+  </si>
+  <si>
+    <t>total assets</t>
+  </si>
+  <si>
+    <t>book value of equity</t>
+  </si>
+  <si>
+    <t>net income</t>
+  </si>
+  <si>
+    <t>net profit margin</t>
+  </si>
+  <si>
+    <t>market cap</t>
+  </si>
+  <si>
+    <t>Dolžniško financiranje</t>
+  </si>
+  <si>
+    <t>lastniško financiranje</t>
+  </si>
+  <si>
+    <t>neto dolg/EBITDA</t>
+  </si>
 </sst>
 </file>
 
@@ -1619,7 +1712,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,6 +1881,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1851,7 +1959,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -2616,6 +2724,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2629,7 +2750,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="559">
+  <cellXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3049,8 +3170,6 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3138,8 +3257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3174,6 +3291,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3198,13 +3326,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -3373,7 +3506,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'ANALIZA DELNICE'!$C$13:$G$13</c:f>
+              <c:f>'ANALIZA DELNICE'!$C$14:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3397,7 +3530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ANALIZA DELNICE'!$C$14:$G$14</c:f>
+              <c:f>'ANALIZA DELNICE'!$C$15:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3473,7 +3606,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ANALIZA DELNICE'!$C$13:$G$13</c15:sqref>
+                          <c15:sqref>'ANALIZA DELNICE'!$C$14:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3503,7 +3636,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'ANALIZA DELNICE'!$C$14:$G$14</c15:sqref>
+                          <c15:sqref>'ANALIZA DELNICE'!$C$15:$G$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12580,7 +12713,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$54</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12615,7 +12748,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$53:$F$53</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12639,7 +12772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$55:$F$55</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$56:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12673,7 +12806,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$57</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12708,7 +12841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$53:$F$53</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$54:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12732,7 +12865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$58:$F$58</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13159,7 +13292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$35</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13194,7 +13327,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$34:$F$34</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$35:$F$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13218,7 +13351,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$36:$F$36</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$37:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13252,7 +13385,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$38</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13287,7 +13420,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$39:$F$39</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$40:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13321,7 +13454,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$41</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13356,7 +13489,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$42:$F$42</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$43:$F$43</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13795,7 +13928,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$A$71</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13816,7 +13949,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$68:$F$68</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$69:$F$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -13840,7 +13973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$71:$F$71</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$72:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -17094,7 +17227,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'KAZALNIKI - PODJETJE X'!$B$58:$F$58</c:f>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -30604,7 +30737,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31238,7 +31371,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31270,13 +31403,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31308,13 +31441,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31352,7 +31485,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31384,13 +31517,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31422,13 +31555,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31460,13 +31593,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -32247,7 +32380,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32704,7 +32837,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="29"/>
-      <c r="G18" s="461"/>
+      <c r="G18" s="459"/>
     </row>
     <row r="19" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="193" t="s">
@@ -32790,43 +32923,43 @@
       <c r="A21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="435">
+      <c r="B21" s="433">
         <f>B20/'PRIHODKI IN STROŠKI'!B$6</f>
         <v>0.18794790395802333</v>
       </c>
-      <c r="C21" s="435">
+      <c r="C21" s="433">
         <f>C20/'PRIHODKI IN STROŠKI'!C$6</f>
         <v>0.20842355143456792</v>
       </c>
-      <c r="D21" s="435">
+      <c r="D21" s="433">
         <f>D20/'PRIHODKI IN STROŠKI'!D$6</f>
         <v>0.17662969259205374</v>
       </c>
-      <c r="E21" s="435">
+      <c r="E21" s="433">
         <f>E20/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.15445327243300794</v>
       </c>
-      <c r="F21" s="436">
+      <c r="F21" s="434">
         <f>F20/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.15592942626780612</v>
       </c>
-      <c r="G21" s="437">
+      <c r="G21" s="435">
         <f>G20/'PRIHODKI IN STROŠKI'!G$6</f>
         <v>0.15000000000000005</v>
       </c>
-      <c r="H21" s="435">
+      <c r="H21" s="433">
         <f>H20/'PRIHODKI IN STROŠKI'!H$6</f>
         <v>0.12000000000000005</v>
       </c>
-      <c r="I21" s="435">
+      <c r="I21" s="433">
         <f>I20/'PRIHODKI IN STROŠKI'!I$6</f>
         <v>0.12999999999999998</v>
       </c>
-      <c r="J21" s="435">
+      <c r="J21" s="433">
         <f>J20/'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0.13</v>
       </c>
-      <c r="K21" s="438">
+      <c r="K21" s="436">
         <f>K20/'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0.12000000000000001</v>
       </c>
@@ -32835,7 +32968,7 @@
       <c r="A22" s="285" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="439"/>
+      <c r="B22" s="437"/>
       <c r="C22" s="361">
         <f>C20-B20</f>
         <v>3685368</v>
@@ -32880,7 +33013,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="434"/>
+      <c r="B25" s="432"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32895,7 +33028,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33985,7 +34118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B39DD-43BF-4414-9258-52BD9D95E4C8}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -34092,7 +34225,7 @@
       <c r="I4" s="240"/>
       <c r="J4" s="240"/>
       <c r="K4" s="240"/>
-      <c r="L4" s="463"/>
+      <c r="L4" s="461"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="250" t="s">
@@ -34188,7 +34321,7 @@
       <c r="I8" s="240"/>
       <c r="J8" s="240"/>
       <c r="K8" s="240"/>
-      <c r="L8" s="463"/>
+      <c r="L8" s="461"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="302" t="s">
@@ -34675,7 +34808,7 @@
         <f>K24</f>
         <v>180115.56</v>
       </c>
-      <c r="L26" s="434"/>
+      <c r="L26" s="432"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
@@ -34709,7 +34842,7 @@
         <f t="shared" si="7"/>
         <v>6078411.595999999</v>
       </c>
-      <c r="L27" s="434"/>
+      <c r="L27" s="432"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
@@ -34725,7 +34858,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="52"/>
-      <c r="L28" s="434"/>
+      <c r="L28" s="432"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
@@ -36218,8 +36351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0E449A-96AB-4A84-BE80-DE3A976793FE}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37901,8 +38034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCCC69F-E9DD-4E05-8C72-E6D15378301D}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37939,7 +38072,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="420" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="100">
@@ -37959,7 +38092,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="425" t="s">
+      <c r="A6" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="216"/>
@@ -37981,7 +38114,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="431" t="s">
+      <c r="A7" s="429" t="s">
         <v>176</v>
       </c>
       <c r="B7" s="100">
@@ -38001,7 +38134,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="425" t="s">
+      <c r="A8" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="216"/>
@@ -38023,7 +38156,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="420" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="100">
@@ -38043,7 +38176,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="425" t="s">
+      <c r="A10" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="216"/>
@@ -38065,7 +38198,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="432" t="s">
+      <c r="A11" s="430" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="236">
@@ -38090,7 +38223,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="422" t="s">
+      <c r="A12" s="420" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="100">
@@ -38110,7 +38243,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="425" t="s">
+      <c r="A13" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="216"/>
@@ -38132,7 +38265,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="422" t="s">
+      <c r="A14" s="420" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="100">
@@ -38152,7 +38285,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="422" t="s">
+      <c r="A15" s="420" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="100">
@@ -38185,7 +38318,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="422" t="s">
+      <c r="A17" s="420" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="100">
@@ -38205,7 +38338,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="425" t="s">
+      <c r="A18" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="216"/>
@@ -38227,7 +38360,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="431" t="s">
+      <c r="A19" s="429" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="100">
@@ -38247,7 +38380,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="425" t="s">
+      <c r="A20" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="216"/>
@@ -38269,7 +38402,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="422" t="s">
+      <c r="A21" s="420" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="100">
@@ -38294,7 +38427,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="425" t="s">
+      <c r="A22" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="216"/>
@@ -38316,7 +38449,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="432" t="s">
+      <c r="A23" s="430" t="s">
         <v>178</v>
       </c>
       <c r="B23" s="236">
@@ -38341,7 +38474,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="422" t="s">
+      <c r="A24" s="420" t="s">
         <v>182</v>
       </c>
       <c r="B24" s="100">
@@ -38361,7 +38494,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="425" t="s">
+      <c r="A25" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B25" s="216"/>
@@ -38383,7 +38516,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="422" t="s">
+      <c r="A26" s="420" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="100">
@@ -38416,7 +38549,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="420" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="100">
@@ -38436,7 +38569,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="425" t="s">
+      <c r="A29" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="216"/>
@@ -38458,7 +38591,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="429" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="100">
@@ -38478,7 +38611,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="425" t="s">
+      <c r="A31" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B31" s="216"/>
@@ -38500,7 +38633,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="422" t="s">
+      <c r="A32" s="420" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="100">
@@ -38525,7 +38658,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="425" t="s">
+      <c r="A33" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="216"/>
@@ -38547,7 +38680,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="432" t="s">
+      <c r="A34" s="430" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="236">
@@ -38572,7 +38705,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="422" t="s">
+      <c r="A35" s="420" t="s">
         <v>179</v>
       </c>
       <c r="B35" s="100">
@@ -38592,7 +38725,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="425" t="s">
+      <c r="A36" s="423" t="s">
         <v>175</v>
       </c>
       <c r="B36" s="216"/>
@@ -38614,7 +38747,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="422" t="s">
+      <c r="A37" s="420" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="100">
@@ -38647,7 +38780,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="422" t="s">
+      <c r="A39" s="420" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="100">
@@ -38672,7 +38805,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="433" t="s">
+      <c r="A40" s="431" t="s">
         <v>184</v>
       </c>
       <c r="B40" s="240"/>
@@ -38694,32 +38827,32 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="554" t="s">
+      <c r="A41" s="542" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="555">
+      <c r="B41" s="543">
         <f>'FCF - KONČNI_IZRAČUN'!B5</f>
         <v>2885192</v>
       </c>
-      <c r="C41" s="555">
+      <c r="C41" s="543">
         <f>'FCF - KONČNI_IZRAČUN'!C5</f>
         <v>6276734</v>
       </c>
-      <c r="D41" s="555">
+      <c r="D41" s="543">
         <f>'FCF - KONČNI_IZRAČUN'!D5</f>
         <v>8390559</v>
       </c>
-      <c r="E41" s="555">
+      <c r="E41" s="543">
         <f>'FCF - KONČNI_IZRAČUN'!E5</f>
         <v>10217587</v>
       </c>
-      <c r="F41" s="556">
+      <c r="F41" s="544">
         <f>'FCF - KONČNI_IZRAČUN'!F5</f>
         <v>10844757</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="427" t="s">
+      <c r="A42" s="425" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="242">
@@ -38744,7 +38877,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="425" t="s">
+      <c r="A43" s="423" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="216"/>
@@ -38766,7 +38899,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="422" t="s">
+      <c r="A44" s="420" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="100">
@@ -38791,7 +38924,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="422" t="s">
+      <c r="A45" s="420" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="100">
@@ -38804,7 +38937,7 @@
       <c r="F45" s="211"/>
     </row>
     <row r="46" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="426" t="s">
+      <c r="A46" s="424" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="218"/>
@@ -38947,7 +39080,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="557">
+      <c r="B55" s="545">
         <f>AVERAGE(B54:F54)</f>
         <v>0.1015751990728178</v>
       </c>
@@ -38960,22 +39093,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="2" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="429" t="s">
+      <c r="A2" s="427" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="209">
@@ -38995,7 +39129,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="422" t="s">
+      <c r="A3" s="420" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="100">
@@ -39020,7 +39154,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="422" t="s">
+      <c r="A4" s="420" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="100">
@@ -39045,7 +39179,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="422" t="s">
+      <c r="A5" s="420" t="s">
         <v>137</v>
       </c>
       <c r="B5" s="100">
@@ -39070,7 +39204,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="422" t="s">
+      <c r="A6" s="420" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="100">
@@ -39095,7 +39229,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="423" t="s">
+      <c r="A7" s="421" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="212">
@@ -39116,7 +39250,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="429" t="s">
+      <c r="A10" s="427" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="209">
@@ -39136,7 +39270,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="422" t="s">
+      <c r="A11" s="420" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="100">
@@ -39161,7 +39295,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="422" t="s">
+      <c r="A12" s="420" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="100">
@@ -39186,7 +39320,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="422" t="s">
+      <c r="A13" s="420" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="100">
@@ -39211,7 +39345,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="422" t="s">
+      <c r="A14" s="420" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="100">
@@ -39234,7 +39368,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="423" t="s">
+      <c r="A15" s="421" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="212">
@@ -39260,7 +39394,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="429" t="s">
+      <c r="A20" s="427" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="209">
@@ -39280,7 +39414,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="422" t="s">
+      <c r="A21" s="420" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="100">
@@ -39305,7 +39439,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="422" t="s">
+      <c r="A22" s="420" t="s">
         <v>146</v>
       </c>
       <c r="B22" s="100">
@@ -39330,7 +39464,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="424" t="s">
+      <c r="A23" s="422" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="214">
@@ -39356,7 +39490,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="429" t="s">
+      <c r="A27" s="427" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="209">
@@ -39376,7 +39510,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="420" t="s">
         <v>149</v>
       </c>
       <c r="B28" s="100">
@@ -39401,7 +39535,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="422" t="s">
+      <c r="A29" s="420" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="100">
@@ -39426,7 +39560,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="425" t="s">
+      <c r="A30" s="423" t="s">
         <v>151</v>
       </c>
       <c r="B30" s="216"/>
@@ -39448,7 +39582,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="426" t="s">
+      <c r="A31" s="424" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="218"/>
@@ -39469,507 +39603,595 @@
         <v>1.1096668233542433</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="227" t="s">
+    <row r="32" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="564" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="565">
+        <f>(PASIVA!B3+PASIVA!B6)/'KAZALNIKI - PODJETJE X'!B29</f>
+        <v>1.5654143183581095</v>
+      </c>
+      <c r="C32" s="565">
+        <f>(PASIVA!C3+PASIVA!C6)/'KAZALNIKI - PODJETJE X'!C29</f>
+        <v>1.015625861530751</v>
+      </c>
+      <c r="D32" s="565">
+        <f>(PASIVA!D3+PASIVA!D6)/'KAZALNIKI - PODJETJE X'!D29</f>
+        <v>0.65281307357786678</v>
+      </c>
+      <c r="E32" s="565">
+        <f>(PASIVA!E3+PASIVA!E6)/'KAZALNIKI - PODJETJE X'!E29</f>
+        <v>1.0233419604197698</v>
+      </c>
+      <c r="F32" s="566">
+        <f>(PASIVA!F3+PASIVA!F6)/'KAZALNIKI - PODJETJE X'!F29</f>
+        <v>1.0543419990149776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="461"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="227" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="209">
+      <c r="B35" s="209">
         <v>2013</v>
       </c>
-      <c r="C34" s="209">
+      <c r="C35" s="209">
         <v>2014</v>
       </c>
-      <c r="D34" s="209">
+      <c r="D35" s="209">
         <v>2015</v>
       </c>
-      <c r="E34" s="209">
+      <c r="E35" s="209">
         <v>2016</v>
       </c>
-      <c r="F34" s="210">
+      <c r="F35" s="210">
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="430" t="s">
+    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="428" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="220"/>
-      <c r="C35" s="220"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
-    </row>
-    <row r="36" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="425" t="s">
+      <c r="B36" s="220"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="221"/>
+    </row>
+    <row r="37" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="423" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="216">
+      <c r="B37" s="216">
         <f>B21/B22</f>
         <v>1.5214517798186127</v>
       </c>
-      <c r="C36" s="216">
+      <c r="C37" s="216">
         <f>C21/C22</f>
         <v>1.5995777469078718</v>
       </c>
-      <c r="D36" s="216">
+      <c r="D37" s="216">
         <f>D21/D22</f>
         <v>1.5503669996803557</v>
       </c>
-      <c r="E36" s="216">
+      <c r="E37" s="216">
         <f>E21/E22</f>
         <v>1.3700387485177719</v>
       </c>
-      <c r="F36" s="217">
+      <c r="F37" s="217">
         <f>F21/F22</f>
         <v>1.261500923435332</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="427"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="222"/>
-    </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="430" t="s">
-        <v>156</v>
-      </c>
+      <c r="A38" s="425"/>
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
       <c r="E38" s="137"/>
       <c r="F38" s="222"/>
     </row>
-    <row r="39" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="425" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="428" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="137"/>
+      <c r="C39" s="137"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="222"/>
+    </row>
+    <row r="40" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="423" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="216">
+      <c r="B40" s="216">
         <f>(B21-B11)/B22</f>
         <v>0.92093927984828095</v>
       </c>
-      <c r="C39" s="216">
+      <c r="C40" s="216">
         <f>(C21-C11)/C22</f>
         <v>0.96000790450061046</v>
       </c>
-      <c r="D39" s="216">
+      <c r="D40" s="216">
         <f>(D21-D11)/D22</f>
         <v>1.0241765790031805</v>
       </c>
-      <c r="E39" s="216">
+      <c r="E40" s="216">
         <f>(E21-E11)/E22</f>
         <v>0.82680750100789746</v>
       </c>
-      <c r="F39" s="217">
+      <c r="F40" s="217">
         <f>(F21-F11)/F22</f>
         <v>0.7613555611697832</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="427"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="222"/>
-    </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="430" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="425"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="222"/>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="428" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="220"/>
-      <c r="C41" s="220"/>
-      <c r="D41" s="220"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-    </row>
-    <row r="42" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="426" t="s">
+      <c r="B42" s="220"/>
+      <c r="C42" s="220"/>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="221"/>
+    </row>
+    <row r="43" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="424" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="218">
+      <c r="B43" s="218">
         <f>B15/B22</f>
         <v>9.4144900519652935E-2</v>
       </c>
-      <c r="C42" s="218">
+      <c r="C43" s="218">
         <f>C15/C22</f>
         <v>8.3581910409935734E-2</v>
       </c>
-      <c r="D42" s="218">
+      <c r="D43" s="218">
         <f>D15/D22</f>
         <v>0.13090219755202809</v>
       </c>
-      <c r="E42" s="218">
+      <c r="E43" s="218">
         <f>E15/E22</f>
         <v>0.10047632705706151</v>
       </c>
-      <c r="F42" s="219">
+      <c r="F43" s="219">
         <f>F15/F22</f>
         <v>7.9552739882009185E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="227" t="s">
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="227" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="209">
+      <c r="B48" s="209">
         <v>2013</v>
       </c>
-      <c r="C47" s="209">
+      <c r="C48" s="209">
         <v>2014</v>
       </c>
-      <c r="D47" s="209">
+      <c r="D48" s="209">
         <v>2015</v>
       </c>
-      <c r="E47" s="209">
+      <c r="E48" s="209">
         <v>2016</v>
       </c>
-      <c r="F47" s="210">
+      <c r="F48" s="210">
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="430" t="s">
+    <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="428" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="220"/>
-      <c r="C48" s="220"/>
-      <c r="D48" s="220"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="221"/>
-    </row>
-    <row r="49" spans="1:6" s="160" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="428" t="s">
+      <c r="B49" s="220"/>
+      <c r="C49" s="220"/>
+      <c r="D49" s="220"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="221"/>
+    </row>
+    <row r="50" spans="1:6" s="160" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="426" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="223">
+      <c r="B50" s="223">
         <f>(PASIVA!B5+PASIVA!B8)/AKTIVA!B17</f>
         <v>0.57886713264494705</v>
       </c>
-      <c r="C49" s="223">
+      <c r="C50" s="223">
         <f>(PASIVA!C5+PASIVA!C8)/AKTIVA!C17</f>
         <v>0.5115651321201512</v>
       </c>
-      <c r="D49" s="223">
+      <c r="D50" s="223">
         <f>(PASIVA!D5+PASIVA!D8)/AKTIVA!D17</f>
         <v>0.47652037155181509</v>
       </c>
-      <c r="E49" s="223">
+      <c r="E50" s="223">
         <f>(PASIVA!E5+PASIVA!E8)/AKTIVA!E17</f>
         <v>0.49957310180699172</v>
       </c>
-      <c r="F49" s="224">
+      <c r="F50" s="224">
         <f>(PASIVA!F5+PASIVA!F8)/AKTIVA!F17</f>
         <v>0.47849730663629536</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="227" t="s">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="227" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="209">
+      <c r="B54" s="209">
         <v>2013</v>
       </c>
-      <c r="C53" s="209">
+      <c r="C54" s="209">
         <v>2014</v>
       </c>
-      <c r="D53" s="209">
+      <c r="D54" s="209">
         <v>2015</v>
       </c>
-      <c r="E53" s="209">
+      <c r="E54" s="209">
         <v>2016</v>
       </c>
-      <c r="F53" s="210">
+      <c r="F54" s="210">
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="430" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="428" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="222"/>
-    </row>
-    <row r="55" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="425" t="s">
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="222"/>
+    </row>
+    <row r="56" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="423" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="216">
-        <f>'FCF - KONČNI_IZRAČUN'!B5/'KAZALNIKI - PODJETJE X'!$B$61</f>
+      <c r="B56" s="216">
+        <f>'FCF - KONČNI_IZRAČUN'!B5/'KAZALNIKI - PODJETJE X'!$B$62</f>
         <v>3.7947073618181934E-2</v>
       </c>
-      <c r="C55" s="216">
-        <f>'FCF - KONČNI_IZRAČUN'!C5/'KAZALNIKI - PODJETJE X'!$B$61</f>
+      <c r="C56" s="216">
+        <f>'FCF - KONČNI_IZRAČUN'!C5/'KAZALNIKI - PODJETJE X'!$B$62</f>
         <v>8.2553842926136475E-2</v>
       </c>
-      <c r="D55" s="216">
-        <f>'FCF - KONČNI_IZRAČUN'!D5/'KAZALNIKI - PODJETJE X'!$B$61</f>
+      <c r="D56" s="216">
+        <f>'FCF - KONČNI_IZRAČUN'!D5/'KAZALNIKI - PODJETJE X'!$B$62</f>
         <v>0.11035562280454785</v>
       </c>
-      <c r="E55" s="216">
-        <f>'FCF - KONČNI_IZRAČUN'!E5/'KAZALNIKI - PODJETJE X'!$B$61</f>
+      <c r="E56" s="216">
+        <f>'FCF - KONČNI_IZRAČUN'!E5/'KAZALNIKI - PODJETJE X'!$B$62</f>
         <v>0.13438534630942367</v>
       </c>
-      <c r="F55" s="217">
-        <f>'FCF - KONČNI_IZRAČUN'!F5/'KAZALNIKI - PODJETJE X'!$B$61</f>
+      <c r="F56" s="217">
+        <f>'FCF - KONČNI_IZRAČUN'!F5/'KAZALNIKI - PODJETJE X'!$B$62</f>
         <v>0.14263410970579907</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="427"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="137"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="222"/>
-    </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="430" t="s">
-        <v>166</v>
-      </c>
+      <c r="A57" s="425"/>
       <c r="B57" s="137"/>
       <c r="C57" s="137"/>
       <c r="D57" s="137"/>
       <c r="E57" s="137"/>
       <c r="F57" s="222"/>
     </row>
-    <row r="58" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="426" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="428" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="222"/>
+    </row>
+    <row r="59" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="424" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="218">
-        <f>'FCF - KONČNI_IZRAČUN'!B5/'KAZALNIKI - PODJETJE X'!$B$64</f>
+      <c r="B59" s="218">
+        <f>'FCF - KONČNI_IZRAČUN'!B5/'KAZALNIKI - PODJETJE X'!$B$65</f>
         <v>7.6440562317114547E-2</v>
       </c>
-      <c r="C58" s="218">
-        <f>'FCF - KONČNI_IZRAČUN'!C5/'KAZALNIKI - PODJETJE X'!$B$64</f>
+      <c r="C59" s="218">
+        <f>'FCF - KONČNI_IZRAČUN'!C5/'KAZALNIKI - PODJETJE X'!$B$65</f>
         <v>0.16629641163394035</v>
       </c>
-      <c r="D58" s="218">
-        <f>'FCF - KONČNI_IZRAČUN'!D5/'KAZALNIKI - PODJETJE X'!$B$64</f>
+      <c r="D59" s="218">
+        <f>'FCF - KONČNI_IZRAČUN'!D5/'KAZALNIKI - PODJETJE X'!$B$65</f>
         <v>0.22230030033180678</v>
       </c>
-      <c r="E58" s="218">
-        <f>'FCF - KONČNI_IZRAČUN'!E5/'KAZALNIKI - PODJETJE X'!$B$64</f>
+      <c r="E59" s="218">
+        <f>'FCF - KONČNI_IZRAČUN'!E5/'KAZALNIKI - PODJETJE X'!$B$65</f>
         <v>0.27070576093516113</v>
       </c>
-      <c r="F58" s="219">
-        <f>'FCF - KONČNI_IZRAČUN'!F5/'KAZALNIKI - PODJETJE X'!$B$64</f>
+      <c r="F59" s="219">
+        <f>'FCF - KONČNI_IZRAČUN'!F5/'KAZALNIKI - PODJETJE X'!$B$65</f>
         <v>0.28732206496914736</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="161"/>
-      <c r="B60" s="162" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="161"/>
+      <c r="B61" s="162" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="163" t="s">
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="163" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="164">
+      <c r="B62" s="164">
         <f>SUM(AKTIVA!B17:F17)/5</f>
         <v>76032002.599999994</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="161"/>
-      <c r="B63" s="162" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="161"/>
+      <c r="B64" s="162" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="163" t="s">
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="164">
+      <c r="B65" s="164">
         <f>SUM(PASIVA!B25:F25)/5</f>
         <v>37744254</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="227" t="s">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="227" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="209">
+      <c r="B69" s="209">
         <v>2013</v>
       </c>
-      <c r="C68" s="209">
+      <c r="C69" s="209">
         <v>2014</v>
       </c>
-      <c r="D68" s="209">
+      <c r="D69" s="209">
         <v>2015</v>
       </c>
-      <c r="E68" s="209">
+      <c r="E69" s="209">
         <v>2016</v>
       </c>
-      <c r="F68" s="210">
+      <c r="F69" s="210">
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="430" t="s">
+    <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="428" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="220"/>
-      <c r="C69" s="220"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="220"/>
-      <c r="F69" s="221"/>
-    </row>
-    <row r="70" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="425" t="s">
+      <c r="B70" s="220"/>
+      <c r="C70" s="220"/>
+      <c r="D70" s="220"/>
+      <c r="E70" s="220"/>
+      <c r="F70" s="221"/>
+    </row>
+    <row r="71" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="423" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="216">
-        <f>'PRIHODKI IN STROŠKI'!B2/'KAZALNIKI - PODJETJE X'!$B$75</f>
+      <c r="B71" s="216">
+        <f>'PRIHODKI IN STROŠKI'!B2/'KAZALNIKI - PODJETJE X'!$B$76</f>
         <v>4.0307058360021433</v>
       </c>
-      <c r="C70" s="216">
-        <f>'PRIHODKI IN STROŠKI'!C2/'KAZALNIKI - PODJETJE X'!$B$75</f>
+      <c r="C71" s="216">
+        <f>'PRIHODKI IN STROŠKI'!C2/'KAZALNIKI - PODJETJE X'!$B$76</f>
         <v>4.4431984961209761</v>
       </c>
-      <c r="D70" s="216">
-        <f>'PRIHODKI IN STROŠKI'!D2/'KAZALNIKI - PODJETJE X'!$B$75</f>
+      <c r="D71" s="216">
+        <f>'PRIHODKI IN STROŠKI'!D2/'KAZALNIKI - PODJETJE X'!$B$76</f>
         <v>5.0973902888543376</v>
       </c>
-      <c r="E70" s="216">
-        <f>'PRIHODKI IN STROŠKI'!E2/'KAZALNIKI - PODJETJE X'!$B$75</f>
+      <c r="E71" s="216">
+        <f>'PRIHODKI IN STROŠKI'!E2/'KAZALNIKI - PODJETJE X'!$B$76</f>
         <v>5.8223343304106487</v>
       </c>
-      <c r="F70" s="217">
-        <f>'PRIHODKI IN STROŠKI'!F2/'KAZALNIKI - PODJETJE X'!$B$75</f>
+      <c r="F71" s="217">
+        <f>'PRIHODKI IN STROŠKI'!F2/'KAZALNIKI - PODJETJE X'!$B$76</f>
         <v>6.7058092670466412</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="426" t="s">
+    <row r="72" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="424" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="218">
-        <f>365/B70</f>
+      <c r="B72" s="218">
+        <f>365/B71</f>
         <v>90.554859335015465</v>
       </c>
-      <c r="C71" s="218">
-        <f>365/C70</f>
+      <c r="C72" s="218">
+        <f>365/C71</f>
         <v>82.148029244845617</v>
       </c>
-      <c r="D71" s="218">
-        <f>365/D70</f>
+      <c r="D72" s="218">
+        <f>365/D71</f>
         <v>71.605268444538794</v>
       </c>
-      <c r="E71" s="218">
-        <f>365/E70</f>
+      <c r="E72" s="218">
+        <f>365/E71</f>
         <v>62.689632591788417</v>
       </c>
-      <c r="F71" s="219">
-        <f>365/F70</f>
+      <c r="F72" s="219">
+        <f>365/F71</f>
         <v>54.430417786211891</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F73" s="137"/>
-    </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="421"/>
-      <c r="B74" s="162" t="s">
+      <c r="F74" s="137"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="419"/>
+      <c r="B75" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="220"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="163" t="s">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="220"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="163" t="s">
         <v>238</v>
       </c>
-      <c r="B75" s="164">
+      <c r="B76" s="164">
         <f>SUM(AKTIVA!B4:F4,AKTIVA!B9:F9)/5</f>
         <v>20781671.600000001</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="100"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F76" s="137"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="429" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="100"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="137"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="427" t="s">
         <v>319</v>
       </c>
-      <c r="B78" s="209">
+      <c r="B79" s="209">
         <v>2013</v>
       </c>
-      <c r="C78" s="209">
+      <c r="C79" s="209">
         <v>2014</v>
       </c>
-      <c r="D78" s="209">
+      <c r="D79" s="209">
         <v>2015</v>
       </c>
-      <c r="E78" s="209">
+      <c r="E79" s="209">
         <v>2016</v>
       </c>
-      <c r="F78" s="210">
+      <c r="F79" s="210">
         <v>2017</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="427" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="425" t="s">
         <v>320</v>
       </c>
-      <c r="B79" s="137">
+      <c r="B80" s="137">
         <f>'FCF - KONČNI_IZRAČUN'!B5/'PRIHODKI IN STROŠKI'!B2</f>
         <v>3.4443964860898318E-2</v>
       </c>
-      <c r="C79" s="137">
+      <c r="C80" s="137">
         <f>'FCF - KONČNI_IZRAČUN'!C5/'PRIHODKI IN STROŠKI'!C2</f>
         <v>6.7976301441245307E-2</v>
       </c>
-      <c r="D79" s="137">
+      <c r="D80" s="137">
         <f>'FCF - KONČNI_IZRAČUN'!D5/'PRIHODKI IN STROŠKI'!D2</f>
         <v>7.9206811452798662E-2</v>
       </c>
-      <c r="E79" s="137">
+      <c r="E80" s="137">
         <f>'FCF - KONČNI_IZRAČUN'!E5/'PRIHODKI IN STROŠKI'!E2</f>
         <v>8.4444375205375566E-2</v>
       </c>
-      <c r="F79" s="222">
+      <c r="F80" s="222">
         <f>'FCF - KONČNI_IZRAČUN'!F5/'PRIHODKI IN STROŠKI'!F2</f>
         <v>7.7819448891626009E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="558"/>
-      <c r="B80" s="539"/>
-      <c r="C80" s="539"/>
-      <c r="D80" s="539"/>
-      <c r="E80" s="539"/>
-      <c r="F80" s="540"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <f>AVERAGE(B79:F79)</f>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="546"/>
+      <c r="B81" s="535"/>
+      <c r="C81" s="535"/>
+      <c r="D81" s="535"/>
+      <c r="E81" s="535"/>
+      <c r="F81" s="536"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="545">
+        <f>AVERAGE(B80:F80)</f>
         <v>6.877818037038877E-2</v>
       </c>
     </row>
+    <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="559" t="s">
+        <v>322</v>
+      </c>
+      <c r="B88" s="560"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="B89" s="549">
+        <f>AVERAGE(AKTIVA!B17:F17)</f>
+        <v>76032002.599999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="549">
+        <f>AVERAGE(PASIVA!B25:F25)</f>
+        <v>37744254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="57"/>
+      <c r="B91" s="549"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="549">
+        <f>'ANALIZA DELNICE'!G3*'ANALIZA DELNICE'!G9</f>
+        <v>2145767.7735000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="549">
+        <f>AVERAGE('FCF - KONČNI_IZRAČUN'!B5:F5)</f>
+        <v>7722965.7999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="B94" s="189">
+        <f>B82</f>
+        <v>6.877818037038877E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A88:B88"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -39978,7 +40200,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40030,23 +40252,23 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="434" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="470" t="s">
+    <row r="2" spans="1:12" s="432" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="468" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="466"/>
-      <c r="F2" s="471">
+      <c r="B2" s="464"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="464"/>
+      <c r="E2" s="464"/>
+      <c r="F2" s="469">
         <v>11421674</v>
       </c>
-      <c r="G2" s="467"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="466"/>
-      <c r="J2" s="466"/>
-      <c r="K2" s="468"/>
-      <c r="L2" s="469"/>
+      <c r="G2" s="465"/>
+      <c r="H2" s="464"/>
+      <c r="I2" s="464"/>
+      <c r="J2" s="464"/>
+      <c r="K2" s="466"/>
+      <c r="L2" s="467"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
@@ -40554,7 +40776,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="434"/>
+      <c r="G20" s="432"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40568,7 +40790,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40587,43 +40809,43 @@
       <c r="E2" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="444" t="s">
+      <c r="F2" s="442" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="489" t="s">
+      <c r="G2" s="487" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="489" t="s">
+      <c r="H2" s="487" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="489" t="s">
+      <c r="I2" s="487" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="490" t="s">
+      <c r="J2" s="488" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="434"/>
-      <c r="B3" s="444" t="s">
+      <c r="A3" s="432"/>
+      <c r="B3" s="442" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="482">
+      <c r="C3" s="480">
         <f>F5/H3</f>
         <v>1.8231347200545721E-2</v>
       </c>
       <c r="F3" s="57">
         <v>127169209</v>
       </c>
-      <c r="G3" s="464">
+      <c r="G3" s="462">
         <f>PASIVA!F25</f>
         <v>55347711</v>
       </c>
-      <c r="H3" s="464">
+      <c r="H3" s="462">
         <f>PASIVA!F3+PASIVA!F6</f>
         <v>19983877</v>
       </c>
-      <c r="I3" s="464">
+      <c r="I3" s="462">
         <f>'FCF - KONČNI_IZRAČUN'!F4</f>
         <v>703558</v>
       </c>
@@ -40633,31 +40855,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="434"/>
+      <c r="A4" s="432"/>
       <c r="B4" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="483">
+      <c r="C4" s="481">
         <f>I3/J3</f>
         <v>6.1598501235458132E-2</v>
       </c>
-      <c r="D4" s="492">
+      <c r="D4" s="490">
         <v>0.19</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="464"/>
-      <c r="H4" s="464"/>
-      <c r="I4" s="464"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="462"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="434"/>
-      <c r="B5" s="472" t="s">
+      <c r="A5" s="432"/>
+      <c r="B5" s="470" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="484">
+      <c r="C5" s="482">
         <f>C3*(1-C4)</f>
         <v>1.710832353748884E-2</v>
       </c>
@@ -40665,55 +40887,55 @@
         <f>5603+358730</f>
         <v>364333</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
-      <c r="I5" s="465"/>
+      <c r="G5" s="463"/>
+      <c r="H5" s="463"/>
+      <c r="I5" s="463"/>
       <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="480"/>
-      <c r="B6" s="478"/>
-      <c r="C6" s="481"/>
+      <c r="A6" s="478"/>
+      <c r="B6" s="476"/>
+      <c r="C6" s="479"/>
     </row>
     <row r="7" spans="1:13" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="480"/>
-      <c r="B7" s="478"/>
-      <c r="C7" s="481"/>
+      <c r="A7" s="478"/>
+      <c r="B7" s="476"/>
+      <c r="C7" s="479"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="444" t="s">
+      <c r="B8" s="442" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="502">
+      <c r="C8" s="500">
         <f>F9</f>
         <v>1.01</v>
       </c>
-      <c r="F8" s="444" t="s">
+      <c r="F8" s="442" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="489" t="s">
+      <c r="G8" s="487" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="490" t="s">
+      <c r="H8" s="488" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="473" t="s">
+      <c r="B9" s="471" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="503">
+      <c r="C9" s="501">
         <f>H9</f>
         <v>1.3522079935556053</v>
       </c>
-      <c r="F9" s="491">
+      <c r="F9" s="489">
         <v>1.01</v>
       </c>
       <c r="G9" s="175">
         <f>C11/C10</f>
         <v>0.36106058658866663</v>
       </c>
-      <c r="H9" s="522">
+      <c r="H9" s="518">
         <f>C8*(1+(1-C4)*G9)</f>
         <v>1.3522079935556053</v>
       </c>
@@ -40722,7 +40944,7 @@
       <c r="B10" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="485">
+      <c r="C10" s="483">
         <f>G3/(G3+H3)</f>
         <v>0.73472115044222885</v>
       </c>
@@ -40731,7 +40953,7 @@
       <c r="B11" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="486">
+      <c r="C11" s="484">
         <f>H3/(H3+G3)</f>
         <v>0.26527884955777115</v>
       </c>
@@ -40740,51 +40962,51 @@
       <c r="B12" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="520">
+      <c r="C12" s="516">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="544" t="s">
+      <c r="F12" s="551" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="545"/>
-      <c r="H12" s="546"/>
-      <c r="J12" s="512" t="s">
+      <c r="G12" s="552"/>
+      <c r="H12" s="553"/>
+      <c r="J12" s="508" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="514"/>
-      <c r="L12" s="514"/>
-      <c r="M12" s="507"/>
+      <c r="K12" s="510"/>
+      <c r="L12" s="510"/>
+      <c r="M12" s="505"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="520">
+      <c r="C13" s="516">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="F13" s="496">
+      <c r="F13" s="494">
         <v>42736</v>
       </c>
-      <c r="G13" s="497">
+      <c r="G13" s="495">
         <v>8.6E-3</v>
       </c>
-      <c r="H13" s="501">
+      <c r="H13" s="499">
         <f>AVERAGE(G13:G24)</f>
         <v>9.9416666666666664E-3</v>
       </c>
-      <c r="J13" s="513">
+      <c r="J13" s="509">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="475" t="s">
+      <c r="B14" s="473" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="504">
+      <c r="C14" s="502">
         <f>J13</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F14" s="494">
+      <c r="F14" s="492">
         <v>42767</v>
       </c>
       <c r="G14" s="173">
@@ -40792,50 +41014,50 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="475" t="s">
+      <c r="B15" s="473" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="504">
+      <c r="C15" s="502">
         <f>J16</f>
         <v>0.05</v>
       </c>
-      <c r="F15" s="494">
+      <c r="F15" s="492">
         <v>42795</v>
       </c>
       <c r="G15" s="173">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="544" t="s">
+      <c r="J15" s="551" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="545"/>
-      <c r="L15" s="545"/>
-      <c r="M15" s="546"/>
+      <c r="K15" s="552"/>
+      <c r="L15" s="552"/>
+      <c r="M15" s="553"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="476" t="s">
+      <c r="B16" s="474" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="521"/>
-      <c r="F16" s="494">
+      <c r="C16" s="517"/>
+      <c r="F16" s="492">
         <v>42826</v>
       </c>
       <c r="G16" s="173">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J16" s="513">
+      <c r="J16" s="509">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="477" t="s">
+      <c r="B17" s="475" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="487">
+      <c r="C17" s="485">
         <f>C12+C13+C14+C15*C9</f>
         <v>0.15501039967778027</v>
       </c>
-      <c r="F17" s="494">
+      <c r="F17" s="492">
         <v>42856</v>
       </c>
       <c r="G17" s="173">
@@ -40843,9 +41065,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="478"/>
-      <c r="C18" s="479"/>
-      <c r="F18" s="494">
+      <c r="B18" s="476"/>
+      <c r="C18" s="477"/>
+      <c r="F18" s="492">
         <v>42887</v>
       </c>
       <c r="G18" s="173">
@@ -40853,230 +41075,230 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="478"/>
-      <c r="C19" s="479"/>
-      <c r="F19" s="494">
+      <c r="B19" s="476"/>
+      <c r="C19" s="477"/>
+      <c r="F19" s="492">
         <v>42917</v>
       </c>
-      <c r="G19" s="498">
+      <c r="G19" s="496">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="488" t="s">
+      <c r="B20" s="486" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="487">
+      <c r="C20" s="485">
         <f>C17*C10+C5*C11*(1-D4)</f>
         <v>0.11756558505433704</v>
       </c>
-      <c r="F20" s="494">
+      <c r="F20" s="492">
         <v>42948</v>
       </c>
-      <c r="G20" s="498">
+      <c r="G20" s="496">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="494">
+      <c r="F21" s="492">
         <v>42979</v>
       </c>
-      <c r="G21" s="498">
+      <c r="G21" s="496">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="494">
+      <c r="F22" s="492">
         <v>43009</v>
       </c>
-      <c r="G22" s="499">
+      <c r="G22" s="497">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="494">
+      <c r="F23" s="492">
         <v>43040</v>
       </c>
-      <c r="G23" s="498">
+      <c r="G23" s="496">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="495">
+      <c r="F24" s="493">
         <v>43070</v>
       </c>
-      <c r="G24" s="500">
+      <c r="G24" s="498">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="515"/>
-      <c r="G25" s="516"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="512"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="547" t="s">
+      <c r="F26" s="554" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="548"/>
-      <c r="H26" s="549"/>
+      <c r="G26" s="555"/>
+      <c r="H26" s="556"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="517">
+      <c r="F27" s="513">
         <v>42737</v>
       </c>
-      <c r="G27" s="518">
+      <c r="G27" s="514">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H27" s="511">
+      <c r="H27" s="507">
         <f>AVERAGE(G27:G38)</f>
         <v>5.1233333333333332E-2</v>
       </c>
-      <c r="I27" s="510"/>
+      <c r="I27" s="506"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F28" s="494">
+      <c r="F28" s="492">
         <v>42769</v>
       </c>
-      <c r="G28" s="498">
+      <c r="G28" s="496">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="I28" s="510"/>
+      <c r="I28" s="506"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="494">
+      <c r="F29" s="492">
         <v>42795</v>
       </c>
-      <c r="G29" s="498">
+      <c r="G29" s="496">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I29" s="510"/>
+      <c r="I29" s="506"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="494">
+      <c r="F30" s="492">
         <v>42826</v>
       </c>
-      <c r="G30" s="498">
+      <c r="G30" s="496">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="I30" s="510"/>
+      <c r="I30" s="506"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="494">
+      <c r="F31" s="492">
         <v>42856</v>
       </c>
-      <c r="G31" s="498">
+      <c r="G31" s="496">
         <v>4.87E-2</v>
       </c>
-      <c r="I31" s="510"/>
+      <c r="I31" s="506"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="494">
+      <c r="F32" s="492">
         <v>42888</v>
       </c>
-      <c r="G32" s="498">
+      <c r="G32" s="496">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="I32" s="510"/>
+      <c r="I32" s="506"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F33" s="494">
+      <c r="F33" s="492">
         <v>42919</v>
       </c>
-      <c r="G33" s="498">
+      <c r="G33" s="496">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="I33" s="510"/>
+      <c r="I33" s="506"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="494">
+      <c r="F34" s="492">
         <v>42948</v>
       </c>
-      <c r="G34" s="498">
+      <c r="G34" s="496">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="I34" s="510"/>
+      <c r="I34" s="506"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F35" s="494">
+      <c r="F35" s="492">
         <v>42982</v>
       </c>
-      <c r="G35" s="498">
+      <c r="G35" s="496">
         <v>5.04E-2</v>
       </c>
-      <c r="I35" s="510"/>
+      <c r="I35" s="506"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="494">
+      <c r="F36" s="492">
         <v>43012</v>
       </c>
-      <c r="G36" s="498">
+      <c r="G36" s="496">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I36" s="510"/>
+      <c r="I36" s="506"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="494">
+      <c r="F37" s="492">
         <v>43040</v>
       </c>
-      <c r="G37" s="498">
+      <c r="G37" s="496">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="I37" s="510"/>
+      <c r="I37" s="506"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="495">
+      <c r="F38" s="493">
         <v>43070</v>
       </c>
-      <c r="G38" s="500">
+      <c r="G38" s="498">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I38" s="519"/>
+      <c r="I38" s="515"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="515"/>
-      <c r="G39" s="516"/>
+      <c r="F39" s="511"/>
+      <c r="G39" s="512"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="515"/>
-      <c r="G40" s="516"/>
+      <c r="F40" s="511"/>
+      <c r="G40" s="512"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="515"/>
-      <c r="G41" s="516"/>
+      <c r="F41" s="511"/>
+      <c r="G41" s="512"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="515"/>
-      <c r="G42" s="516"/>
+      <c r="F42" s="511"/>
+      <c r="G42" s="512"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="515"/>
-      <c r="G43" s="516"/>
+      <c r="F43" s="511"/>
+      <c r="G43" s="512"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="493" t="s">
+      <c r="B44" s="491" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="493" t="s">
+      <c r="B45" s="491" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="493" t="s">
+      <c r="B46" s="491" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="493" t="s">
+      <c r="B47" s="491" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="493" t="s">
+      <c r="B48" s="491" t="s">
         <v>294</v>
       </c>
     </row>
@@ -41104,7 +41326,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41115,7 +41337,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="535" t="s">
+      <c r="B1" s="531" t="s">
         <v>295</v>
       </c>
     </row>
@@ -41125,25 +41347,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="493" t="s">
+      <c r="B3" s="491" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="532"/>
-      <c r="B7" s="533" t="s">
+      <c r="A7" s="528"/>
+      <c r="B7" s="529" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="534" t="s">
+      <c r="C7" s="530" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="550" t="s">
+      <c r="A8" s="557" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="464" t="s">
+      <c r="B8" s="462" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -41151,8 +41373,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="550"/>
-      <c r="B9" s="464" t="s">
+      <c r="A9" s="557"/>
+      <c r="B9" s="462" t="s">
         <v>304</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -41160,8 +41382,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="550"/>
-      <c r="B10" s="464" t="s">
+      <c r="A10" s="557"/>
+      <c r="B10" s="462" t="s">
         <v>305</v>
       </c>
       <c r="C10" s="56" t="s">
@@ -41169,102 +41391,102 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="551"/>
-      <c r="B11" s="465" t="s">
+      <c r="A11" s="558"/>
+      <c r="B11" s="463" t="s">
         <v>306</v>
       </c>
       <c r="C11" s="96"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="541"/>
-      <c r="B13" s="542" t="s">
+      <c r="A13" s="537"/>
+      <c r="B13" s="538" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="543"/>
+      <c r="C13" s="539"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="536" t="s">
+      <c r="A14" s="532" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="537" t="s">
+      <c r="B14" s="533" t="s">
         <v>307</v>
       </c>
       <c r="C14" s="222"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="538" t="s">
+      <c r="A15" s="534" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="552" t="s">
+      <c r="B15" s="540" t="s">
         <v>312</v>
       </c>
       <c r="C15" s="222"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="536"/>
-      <c r="B16" s="552" t="s">
+      <c r="A16" s="532"/>
+      <c r="B16" s="540" t="s">
         <v>313</v>
       </c>
       <c r="C16" s="222"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="536"/>
-      <c r="B17" s="552" t="s">
+      <c r="A17" s="532"/>
+      <c r="B17" s="540" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="222"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="536"/>
-      <c r="B18" s="552" t="s">
+      <c r="A18" s="532"/>
+      <c r="B18" s="540" t="s">
         <v>315</v>
       </c>
       <c r="C18" s="222"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="536"/>
-      <c r="B19" s="552" t="s">
+      <c r="A19" s="532"/>
+      <c r="B19" s="540" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="222"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="536"/>
-      <c r="B20" s="552" t="s">
+      <c r="A20" s="532"/>
+      <c r="B20" s="540" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="222"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="536"/>
-      <c r="B21" s="552"/>
+      <c r="A21" s="532"/>
+      <c r="B21" s="540"/>
       <c r="C21" s="222"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="536"/>
-      <c r="B22" s="552"/>
+      <c r="A22" s="532"/>
+      <c r="B22" s="540"/>
       <c r="C22" s="222"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="536"/>
-      <c r="B23" s="552"/>
+      <c r="A23" s="532"/>
+      <c r="B23" s="540"/>
       <c r="C23" s="222"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="536"/>
-      <c r="B24" s="552"/>
+      <c r="A24" s="532"/>
+      <c r="B24" s="540"/>
       <c r="C24" s="222"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="536"/>
-      <c r="B25" s="552"/>
+      <c r="A25" s="532"/>
+      <c r="B25" s="540"/>
       <c r="C25" s="222"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="538"/>
-      <c r="B26" s="553"/>
-      <c r="C26" s="540"/>
+      <c r="A26" s="534"/>
+      <c r="B26" s="541"/>
+      <c r="C26" s="536"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41295,52 +41517,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26207D2D-D345-4415-BB7E-16436BF85CD2}">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="505">
+      <c r="C2" s="503">
         <v>2013</v>
       </c>
-      <c r="D2" s="506">
+      <c r="D2" s="504">
         <v>2014</v>
       </c>
-      <c r="E2" s="506">
+      <c r="E2" s="504">
         <v>2015</v>
       </c>
-      <c r="F2" s="506">
+      <c r="F2" s="504">
         <v>2016</v>
       </c>
-      <c r="G2" s="507">
+      <c r="G2" s="505">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="442" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="489">
+      <c r="C3" s="487">
         <v>514215</v>
       </c>
-      <c r="D3" s="489">
+      <c r="D3" s="487">
         <v>514215</v>
       </c>
-      <c r="E3" s="489">
+      <c r="E3" s="487">
         <v>514215</v>
       </c>
-      <c r="F3" s="489">
+      <c r="F3" s="487">
         <v>514215</v>
       </c>
-      <c r="G3" s="490">
+      <c r="G3" s="488">
         <v>514215</v>
       </c>
     </row>
@@ -41348,16 +41571,16 @@
       <c r="B4" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="464">
+      <c r="C4" s="462">
         <v>38105</v>
       </c>
-      <c r="D4" s="464">
+      <c r="D4" s="462">
         <v>8911</v>
       </c>
-      <c r="E4" s="464">
+      <c r="E4" s="462">
         <v>157</v>
       </c>
-      <c r="F4" s="464">
+      <c r="F4" s="462">
         <v>580</v>
       </c>
       <c r="G4" s="56">
@@ -41368,16 +41591,16 @@
       <c r="B5" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="464">
+      <c r="C5" s="462">
         <v>209567</v>
       </c>
-      <c r="D5" s="464">
+      <c r="D5" s="462">
         <v>49000</v>
       </c>
-      <c r="E5" s="464">
+      <c r="E5" s="462">
         <v>1372</v>
       </c>
-      <c r="F5" s="464">
+      <c r="F5" s="462">
         <v>3699</v>
       </c>
       <c r="G5" s="56">
@@ -41385,205 +41608,255 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="530">
+      <c r="C6" s="526">
         <v>64471</v>
       </c>
-      <c r="D6" s="530">
+      <c r="D6" s="526">
         <v>-37933</v>
       </c>
-      <c r="E6" s="530">
+      <c r="E6" s="526">
         <v>63700</v>
       </c>
-      <c r="F6" s="530">
+      <c r="F6" s="526">
         <v>935</v>
       </c>
-      <c r="G6" s="531">
+      <c r="G6" s="527">
         <v>29160</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="440" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="508">
+      <c r="C7" s="170">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="D7" s="508">
+      <c r="D7" s="170">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="E7" s="508">
+      <c r="E7" s="170">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F7" s="508">
+      <c r="F7" s="170">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G7" s="509">
+      <c r="G7" s="472">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="444" t="s">
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="474" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="547">
+        <f>1-C4/C3</f>
+        <v>0.92589675524829107</v>
+      </c>
+      <c r="D8" s="547">
+        <f t="shared" ref="D8:G8" si="0">1-D4/D3</f>
+        <v>0.98267067277306186</v>
+      </c>
+      <c r="E8" s="547">
+        <f t="shared" si="0"/>
+        <v>0.99969468024075536</v>
+      </c>
+      <c r="F8" s="547">
+        <f t="shared" si="0"/>
+        <v>0.99887206713145282</v>
+      </c>
+      <c r="G8" s="548">
+        <f t="shared" si="0"/>
+        <v>0.99872815845512086</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="442" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="489">
+      <c r="C9" s="487">
         <v>4.1729000000000003</v>
       </c>
-      <c r="D8" s="489">
+      <c r="D9" s="487">
         <v>4.1729000000000003</v>
       </c>
-      <c r="E8" s="489">
+      <c r="E9" s="487">
         <v>4.1729000000000003</v>
       </c>
-      <c r="F8" s="489">
+      <c r="F9" s="487">
         <v>4.1729000000000003</v>
       </c>
-      <c r="G8" s="490">
+      <c r="G9" s="488">
         <v>4.1729000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="57" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="464">
+      <c r="C10" s="462">
         <v>5.5</v>
       </c>
-      <c r="D9" s="464">
+      <c r="D10" s="462">
         <v>5.5</v>
       </c>
-      <c r="E9" s="464" t="s">
+      <c r="E10" s="462" t="s">
         <v>279</v>
       </c>
-      <c r="F9" s="464" t="s">
+      <c r="F10" s="462" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G10" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="93" t="s">
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="465" t="s">
+      <c r="C11" s="463" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="465" t="s">
+      <c r="D11" s="463" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="465">
+      <c r="E11" s="463">
         <v>5.5</v>
       </c>
-      <c r="F10" s="465" t="s">
+      <c r="F11" s="463" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G11" s="96" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="283" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="550">
+        <f>C3*C9-C5</f>
+        <v>1936200.7735000001</v>
+      </c>
+      <c r="D12" s="550">
+        <f t="shared" ref="D12:G12" si="1">D3*D9-D5</f>
+        <v>2096767.7735000001</v>
+      </c>
+      <c r="E12" s="550">
+        <f t="shared" si="1"/>
+        <v>2144395.7735000001</v>
+      </c>
+      <c r="F12" s="550">
+        <f t="shared" si="1"/>
+        <v>2142068.7735000001</v>
+      </c>
+      <c r="G12" s="550">
+        <f t="shared" si="1"/>
+        <v>2143782.7735000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="523">
+      <c r="C14" s="519">
         <v>2013</v>
       </c>
-      <c r="D13" s="524">
+      <c r="D14" s="520">
         <v>2014</v>
       </c>
-      <c r="E13" s="524">
+      <c r="E14" s="520">
         <v>2015</v>
       </c>
-      <c r="F13" s="524">
+      <c r="F14" s="520">
         <v>2016</v>
       </c>
-      <c r="G13" s="525">
+      <c r="G14" s="521">
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="444" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="442" t="s">
         <v>288</v>
       </c>
-      <c r="C14" s="527">
+      <c r="C15" s="523">
         <v>0.59040000000000004</v>
       </c>
-      <c r="D14" s="527">
+      <c r="D15" s="523">
         <v>0.62560000000000004</v>
       </c>
-      <c r="E14" s="527">
+      <c r="E15" s="523">
         <v>0.62560000000000004</v>
       </c>
-      <c r="F14" s="527">
+      <c r="F15" s="523">
         <v>0.5877</v>
       </c>
-      <c r="G14" s="528">
+      <c r="G15" s="524">
         <v>0.52659999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="170">
-        <v>0.1968</v>
-      </c>
-      <c r="D15" s="170">
-        <v>0.2198</v>
-      </c>
-      <c r="E15" s="170">
-        <v>0.2198</v>
-      </c>
-      <c r="F15" s="170">
-        <v>0.26040000000000002</v>
-      </c>
-      <c r="G15" s="474">
-        <v>0.30509999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="170">
+        <v>0.1968</v>
+      </c>
+      <c r="D16" s="170">
+        <v>0.2198</v>
+      </c>
+      <c r="E16" s="170">
+        <v>0.2198</v>
+      </c>
+      <c r="F16" s="170">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="G16" s="472">
+        <v>0.30509999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="526">
+      <c r="C17" s="522">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="D16" s="170">
+      <c r="D17" s="170">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="E16" s="170">
+      <c r="E17" s="170">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F16" s="526">
+      <c r="F17" s="522">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="G16" s="474">
+      <c r="G17" s="472">
         <v>9.06E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="93" t="s">
+    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="175">
+      <c r="C18" s="175">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D17" s="175">
+      <c r="D18" s="175">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="E17" s="175">
+      <c r="E18" s="175">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="F17" s="175">
+      <c r="F18" s="175">
         <v>7.51E-2</v>
       </c>
-      <c r="G17" s="529">
+      <c r="G18" s="525">
         <v>7.6399999999999996E-2</v>
       </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="506"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -41597,7 +41870,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41723,7 +41996,7 @@
       <c r="K3" s="34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L3" s="434"/>
+      <c r="L3" s="432"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="356" t="s">
@@ -41893,6 +42166,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="461"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -42342,11 +42616,11 @@
         <v>203</v>
       </c>
       <c r="B23" s="41">
-        <f t="shared" ref="B23:K23" si="9">SUM(B19:B22)+B12</f>
+        <f>SUM(B19:B22)+B12</f>
         <v>84260931</v>
       </c>
       <c r="C23" s="41">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B23:K23" si="9">SUM(C19:C22)+C12</f>
         <v>90935185</v>
       </c>
       <c r="D23" s="41">
@@ -42608,7 +42882,7 @@
       <c r="K31" s="248">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L31" s="434"/>
+      <c r="L31" s="432"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="174" t="s">
@@ -42840,7 +43114,7 @@
         <v>207</v>
       </c>
       <c r="B38" s="349">
-        <f t="shared" si="19"/>
+        <f>B23/B$6</f>
         <v>0.96991077863314534</v>
       </c>
       <c r="C38" s="349">
@@ -42948,10 +43222,10 @@
       <c r="E42" s="8">
         <v>30776943</v>
       </c>
-      <c r="F42" s="447">
+      <c r="F42" s="445">
         <v>34236712</v>
       </c>
-      <c r="G42" s="452">
+      <c r="G42" s="450">
         <f>G43*G44</f>
         <v>37202109.690460496</v>
       </c>
@@ -42971,7 +43245,7 @@
         <f>K43*K44</f>
         <v>51864434.442043714</v>
       </c>
-      <c r="L42" s="451">
+      <c r="L42" s="449">
         <f>SUM(C46:F46)/4</f>
         <v>1.0549655906657875</v>
       </c>
@@ -42992,10 +43266,10 @@
       <c r="E43" s="204">
         <v>1225</v>
       </c>
-      <c r="F43" s="448">
+      <c r="F43" s="446">
         <v>1265</v>
       </c>
-      <c r="G43" s="453">
+      <c r="G43" s="451">
         <f>G45*F43</f>
         <v>1302.95</v>
       </c>
@@ -43040,7 +43314,7 @@
         <f>F42/F43</f>
         <v>27064.594466403163</v>
       </c>
-      <c r="G44" s="454">
+      <c r="G44" s="452">
         <f>F44*G46</f>
         <v>28552.215887379018</v>
       </c>
@@ -43078,109 +43352,109 @@
         <f>E43/D43</f>
         <v>1.1279926335174955</v>
       </c>
-      <c r="F45" s="449">
+      <c r="F45" s="447">
         <f>F43/E43</f>
         <v>1.0326530612244897</v>
       </c>
-      <c r="G45" s="455">
+      <c r="G45" s="453">
         <v>1.03</v>
       </c>
-      <c r="H45" s="455">
+      <c r="H45" s="453">
         <v>1.03</v>
       </c>
-      <c r="I45" s="455">
+      <c r="I45" s="453">
         <v>1.03</v>
       </c>
-      <c r="J45" s="455">
+      <c r="J45" s="453">
         <v>1.03</v>
       </c>
-      <c r="K45" s="455">
+      <c r="K45" s="453">
         <v>1.03</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="440" t="s">
+      <c r="A46" s="438" t="s">
         <v>231</v>
       </c>
-      <c r="B46" s="441"/>
-      <c r="C46" s="442">
+      <c r="B46" s="439"/>
+      <c r="C46" s="440">
         <f>C44/B44</f>
         <v>1.0342314877652128</v>
       </c>
-      <c r="D46" s="442">
+      <c r="D46" s="440">
         <f t="shared" ref="D46:F46" si="23">D44/C44</f>
         <v>1.0623203617402275</v>
       </c>
-      <c r="E46" s="442">
+      <c r="E46" s="440">
         <f t="shared" si="23"/>
         <v>1.0460713532663635</v>
       </c>
-      <c r="F46" s="450">
+      <c r="F46" s="448">
         <f t="shared" si="23"/>
         <v>1.0772391598913471</v>
       </c>
-      <c r="G46" s="456">
+      <c r="G46" s="454">
         <f>$L$42</f>
         <v>1.0549655906657875</v>
       </c>
-      <c r="H46" s="443">
+      <c r="H46" s="441">
         <f t="shared" ref="H46:K46" si="24">$L$42</f>
         <v>1.0549655906657875</v>
       </c>
-      <c r="I46" s="443">
+      <c r="I46" s="441">
         <f t="shared" si="24"/>
         <v>1.0549655906657875</v>
       </c>
-      <c r="J46" s="443">
+      <c r="J46" s="441">
         <f t="shared" si="24"/>
         <v>1.0549655906657875</v>
       </c>
-      <c r="K46" s="457">
+      <c r="K46" s="455">
         <f t="shared" si="24"/>
         <v>1.0549655906657875</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="444" t="s">
+      <c r="A47" s="442" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="445">
+      <c r="B47" s="443">
         <f>B2/B43</f>
         <v>82608.288954635107</v>
       </c>
-      <c r="C47" s="445">
+      <c r="C47" s="443">
         <f t="shared" ref="C47:K47" si="25">C2/C43</f>
         <v>86457.951310861419</v>
       </c>
-      <c r="D47" s="445">
+      <c r="D47" s="443">
         <f t="shared" si="25"/>
         <v>97543.546040515648</v>
       </c>
-      <c r="E47" s="445">
+      <c r="E47" s="443">
         <f t="shared" si="25"/>
         <v>98773.746938775512</v>
       </c>
-      <c r="F47" s="446">
+      <c r="F47" s="444">
         <f t="shared" si="25"/>
         <v>110164.36837944663</v>
       </c>
-      <c r="G47" s="458">
+      <c r="G47" s="456">
         <f t="shared" si="25"/>
         <v>120859.93812502398</v>
       </c>
-      <c r="H47" s="445">
+      <c r="H47" s="443">
         <f t="shared" si="25"/>
         <v>131420.51524274453</v>
       </c>
-      <c r="I47" s="445">
+      <c r="I47" s="443">
         <f t="shared" si="25"/>
         <v>142903.861234829</v>
       </c>
-      <c r="J47" s="445">
+      <c r="J47" s="443">
         <f t="shared" si="25"/>
         <v>155390.60639127038</v>
       </c>
-      <c r="K47" s="446">
+      <c r="K47" s="444">
         <f t="shared" si="25"/>
         <v>168968.42636720664</v>
       </c>
@@ -43209,7 +43483,7 @@
         <f>'FCF - KONČNI_IZRAČUN'!F5/'PRIHODKI IN STROŠKI'!F43</f>
         <v>8572.9304347826092</v>
       </c>
-      <c r="G48" s="459">
+      <c r="G48" s="457">
         <f>'FCF - KONČNI_IZRAČUN'!G5/'PRIHODKI IN STROŠKI'!G43</f>
         <v>10190.756758657404</v>
       </c>
@@ -43243,7 +43517,7 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G50" s="434"/>
+      <c r="G50" s="432"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43257,7 +43531,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44016,7 +44290,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="460"/>
+      <c r="F22" s="458"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -44162,19 +44436,19 @@
         <f>F3/'PRIHODKI IN STROŠKI'!F6</f>
         <v>1.1216062214670557E-3</v>
       </c>
-      <c r="G30" s="462">
+      <c r="G30" s="460">
         <v>0</v>
       </c>
-      <c r="H30" s="462">
+      <c r="H30" s="460">
         <v>0</v>
       </c>
-      <c r="I30" s="462">
+      <c r="I30" s="460">
         <v>0</v>
       </c>
-      <c r="J30" s="462">
+      <c r="J30" s="460">
         <v>0</v>
       </c>
-      <c r="K30" s="462">
+      <c r="K30" s="460">
         <v>0</v>
       </c>
     </row>
@@ -44572,10 +44846,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23540F03-C83E-4C68-8BB8-3F847A129C1D}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45295,28 +45569,75 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="90" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="419">
+      <c r="B25" s="7">
         <v>23009989</v>
       </c>
-      <c r="C25" s="419">
+      <c r="C25" s="7">
         <v>28584812</v>
       </c>
-      <c r="D25" s="419">
+      <c r="D25" s="7">
         <v>36268092</v>
       </c>
-      <c r="E25" s="419">
+      <c r="E25" s="7">
         <v>45510666</v>
       </c>
-      <c r="F25" s="420">
+      <c r="F25" s="563">
         <v>55347711</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="29"/>
+      <c r="A26" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="561">
+        <f>(B3+B6)/(B3+B6+B25)</f>
+        <v>0.36845559048126808</v>
+      </c>
+      <c r="C26" s="561">
+        <f t="shared" ref="C26:F26" si="2">(C3+C6)/(C3+C6+C25)</f>
+        <v>0.29424347266592055</v>
+      </c>
+      <c r="D26" s="561">
+        <f t="shared" si="2"/>
+        <v>0.20101646098422238</v>
+      </c>
+      <c r="E26" s="561">
+        <f t="shared" si="2"/>
+        <v>0.27749450381553842</v>
+      </c>
+      <c r="F26" s="561">
+        <f t="shared" si="2"/>
+        <v>0.26527884955777115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="B27" s="562">
+        <f>B25/(B25+B3+B6)</f>
+        <v>0.63154440951873192</v>
+      </c>
+      <c r="C27" s="562">
+        <f t="shared" ref="C27:F27" si="3">C25/(C25+C3+C6)</f>
+        <v>0.70575652733407945</v>
+      </c>
+      <c r="D27" s="562">
+        <f t="shared" si="3"/>
+        <v>0.79898353901577757</v>
+      </c>
+      <c r="E27" s="562">
+        <f t="shared" si="3"/>
+        <v>0.72250549618446158</v>
+      </c>
+      <c r="F27" s="562">
+        <f t="shared" si="3"/>
+        <v>0.73472115044222885</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E9628F-340F-4067-BFF2-D1F3B6985DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A5AEE-A871-443E-B7B4-39DA2E320B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="14" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1697,12 +1697,15 @@
   <si>
     <t>neto dolg/EBITDA</t>
   </si>
+  <si>
+    <t>rast prihodkov na zaposlenega</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1711,6 +1714,7 @@
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -2750,7 +2754,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="567">
+  <cellXfs count="573">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3204,7 +3208,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3302,6 +3305,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3332,12 +3341,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -11168,19 +11178,19 @@
                   <c:v>110164.36837944663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120859.93812502398</c:v>
+                  <c:v>120079.16153359684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131420.51524274453</c:v>
+                  <c:v>130886.28607162056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142903.861234829</c:v>
+                  <c:v>142666.05181806642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>155390.60639127038</c:v>
+                  <c:v>155505.99648169242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168968.42636720664</c:v>
+                  <c:v>169501.53616504476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11314,19 +11324,19 @@
                         <c:v>34236712</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>37202109.690460496</c:v>
+                        <c:v>37444004.587352239</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40424353.992318377</c:v>
+                        <c:v>40589351.180142321</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>43925691.561392717</c:v>
+                        <c:v>43998911.1042201</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>47730295.937771909</c:v>
+                        <c:v>47694878.63368886</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>51864434.442043714</c:v>
+                        <c:v>51701312.391436085</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11447,19 +11457,19 @@
                         <c:v>1265</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1302.95</c:v>
+                        <c:v>1311.4220183486239</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1342.0385000000001</c:v>
+                        <c:v>1347.5162023398705</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1382.2996550000003</c:v>
+                        <c:v>1384.6038042391328</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1423.7686446500004</c:v>
+                        <c:v>1422.7121658236963</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1466.4817039895004</c:v>
+                        <c:v>1461.8693813968255</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11577,19 +11587,19 @@
                         <c:v>1.0326530612244897</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.03</c:v>
+                        <c:v>1.036697247706422</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1.03</c:v>
+                        <c:v>1.0275229357798166</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1.03</c:v>
+                        <c:v>1.0275229357798163</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1.03</c:v>
+                        <c:v>1.0275229357798166</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1.03</c:v>
+                        <c:v>1.0275229357798163</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -11842,19 +11852,19 @@
                         <c:v>8572.9304347826092</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>10190.756758657404</c:v>
+                        <c:v>9947.8483929255908</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>9409.2804264812203</c:v>
+                        <c:v>9253.4837560181459</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>11173.206190149493</c:v>
+                        <c:v>11103.846640968723</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>11713.463822363263</c:v>
+                        <c:v>11746.060463865857</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>13905.84590465691</c:v>
+                        <c:v>14056.841211507584</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -32837,7 +32847,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="29"/>
-      <c r="G18" s="459"/>
+      <c r="G18" s="458"/>
     </row>
     <row r="19" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="193" t="s">
@@ -34225,7 +34235,7 @@
       <c r="I4" s="240"/>
       <c r="J4" s="240"/>
       <c r="K4" s="240"/>
-      <c r="L4" s="461"/>
+      <c r="L4" s="460"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="250" t="s">
@@ -34321,7 +34331,7 @@
       <c r="I8" s="240"/>
       <c r="J8" s="240"/>
       <c r="K8" s="240"/>
-      <c r="L8" s="461"/>
+      <c r="L8" s="460"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="302" t="s">
@@ -38827,26 +38837,26 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="542" t="s">
+      <c r="A41" s="541" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="543">
+      <c r="B41" s="542">
         <f>'FCF - KONČNI_IZRAČUN'!B5</f>
         <v>2885192</v>
       </c>
-      <c r="C41" s="543">
+      <c r="C41" s="542">
         <f>'FCF - KONČNI_IZRAČUN'!C5</f>
         <v>6276734</v>
       </c>
-      <c r="D41" s="543">
+      <c r="D41" s="542">
         <f>'FCF - KONČNI_IZRAČUN'!D5</f>
         <v>8390559</v>
       </c>
-      <c r="E41" s="543">
+      <c r="E41" s="542">
         <f>'FCF - KONČNI_IZRAČUN'!E5</f>
         <v>10217587</v>
       </c>
-      <c r="F41" s="544">
+      <c r="F41" s="543">
         <f>'FCF - KONČNI_IZRAČUN'!F5</f>
         <v>10844757</v>
       </c>
@@ -39080,7 +39090,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="545">
+      <c r="B55" s="544">
         <f>AVERAGE(B54:F54)</f>
         <v>0.1015751990728178</v>
       </c>
@@ -39096,7 +39106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -39604,32 +39614,32 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="564" t="s">
+      <c r="A32" s="553" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="565">
+      <c r="B32" s="554">
         <f>(PASIVA!B3+PASIVA!B6)/'KAZALNIKI - PODJETJE X'!B29</f>
         <v>1.5654143183581095</v>
       </c>
-      <c r="C32" s="565">
+      <c r="C32" s="554">
         <f>(PASIVA!C3+PASIVA!C6)/'KAZALNIKI - PODJETJE X'!C29</f>
         <v>1.015625861530751</v>
       </c>
-      <c r="D32" s="565">
+      <c r="D32" s="554">
         <f>(PASIVA!D3+PASIVA!D6)/'KAZALNIKI - PODJETJE X'!D29</f>
         <v>0.65281307357786678</v>
       </c>
-      <c r="E32" s="565">
+      <c r="E32" s="554">
         <f>(PASIVA!E3+PASIVA!E6)/'KAZALNIKI - PODJETJE X'!E29</f>
         <v>1.0233419604197698</v>
       </c>
-      <c r="F32" s="566">
+      <c r="F32" s="555">
         <f>(PASIVA!F3+PASIVA!F6)/'KAZALNIKI - PODJETJE X'!F29</f>
         <v>1.0543419990149776</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="461"/>
+      <c r="C33" s="460"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -40115,31 +40125,31 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="546"/>
-      <c r="B81" s="535"/>
-      <c r="C81" s="535"/>
-      <c r="D81" s="535"/>
-      <c r="E81" s="535"/>
-      <c r="F81" s="536"/>
+      <c r="A81" s="545"/>
+      <c r="B81" s="534"/>
+      <c r="C81" s="534"/>
+      <c r="D81" s="534"/>
+      <c r="E81" s="534"/>
+      <c r="F81" s="535"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="545">
+      <c r="B82" s="544">
         <f>AVERAGE(B80:F80)</f>
         <v>6.877818037038877E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="559" t="s">
+      <c r="A88" s="564" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="560"/>
+      <c r="B88" s="565"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="B89" s="549">
+      <c r="B89" s="548">
         <f>AVERAGE(AKTIVA!B17:F17)</f>
         <v>76032002.599999994</v>
       </c>
@@ -40148,20 +40158,20 @@
       <c r="A90" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="B90" s="549">
+      <c r="B90" s="548">
         <f>AVERAGE(PASIVA!B25:F25)</f>
         <v>37744254</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="57"/>
-      <c r="B91" s="549"/>
+      <c r="B91" s="548"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="549">
+      <c r="B92" s="548">
         <f>'ANALIZA DELNICE'!G3*'ANALIZA DELNICE'!G9</f>
         <v>2145767.7735000001</v>
       </c>
@@ -40170,7 +40180,7 @@
       <c r="A93" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="549">
+      <c r="B93" s="548">
         <f>AVERAGE('FCF - KONČNI_IZRAČUN'!B5:F5)</f>
         <v>7722965.7999999998</v>
       </c>
@@ -40253,22 +40263,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="432" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="468" t="s">
+      <c r="A2" s="467" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
-      <c r="E2" s="464"/>
-      <c r="F2" s="469">
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="468">
         <v>11421674</v>
       </c>
-      <c r="G2" s="465"/>
-      <c r="H2" s="464"/>
-      <c r="I2" s="464"/>
-      <c r="J2" s="464"/>
-      <c r="K2" s="466"/>
-      <c r="L2" s="467"/>
+      <c r="G2" s="464"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="463"/>
+      <c r="J2" s="463"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="466"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
@@ -40291,23 +40301,23 @@
       </c>
       <c r="G3" s="35">
         <f>'PRIHODKI IN STROŠKI'!G6-'PRIHODKI IN STROŠKI'!G23</f>
-        <v>13831298.456971526</v>
+        <v>13589403.560079783</v>
       </c>
       <c r="H3" s="36">
         <f>'PRIHODKI IN STROŠKI'!H6-'PRIHODKI IN STROŠKI'!H23</f>
-        <v>13153767.280868977</v>
+        <v>12988770.093045056</v>
       </c>
       <c r="I3" s="36">
         <f>'PRIHODKI IN STROŠKI'!I6-'PRIHODKI IN STROŠKI'!I23</f>
-        <v>16088249.022799492</v>
+        <v>16015029.479972094</v>
       </c>
       <c r="J3" s="36">
         <f>'PRIHODKI IN STROŠKI'!J6-'PRIHODKI IN STROŠKI'!J23</f>
-        <v>17372148.448461413</v>
+        <v>17407565.752544463</v>
       </c>
       <c r="K3" s="282">
         <f>'PRIHODKI IN STROŠKI'!K6-'PRIHODKI IN STROŠKI'!K23</f>
-        <v>21242363.122579873</v>
+        <v>21405485.173187494</v>
       </c>
       <c r="L3" s="284">
         <f>SUM(B7:F7)/5</f>
@@ -40335,23 +40345,23 @@
       </c>
       <c r="G4" s="35">
         <f>G3*G7</f>
-        <v>553251.93827886111</v>
+        <v>543576.1424031913</v>
       </c>
       <c r="H4" s="36">
         <f t="shared" ref="H4:K4" si="0">H3*H7</f>
-        <v>526150.69123475906</v>
+        <v>519550.80372180225</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" si="0"/>
-        <v>643529.96091197967</v>
+        <v>640601.17919888382</v>
       </c>
       <c r="J4" s="36">
         <f t="shared" si="0"/>
-        <v>694885.93793845654</v>
+        <v>696302.63010177854</v>
       </c>
       <c r="K4" s="36">
         <f t="shared" si="0"/>
-        <v>849694.52490319498</v>
+        <v>856219.4069274998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -40380,23 +40390,23 @@
       </c>
       <c r="G5" s="72">
         <f t="shared" si="1"/>
-        <v>13278046.518692665</v>
+        <v>13045827.417676592</v>
       </c>
       <c r="H5" s="70">
         <f t="shared" ref="H5:K5" si="2">H3-H4</f>
-        <v>12627616.589634217</v>
+        <v>12469219.289323254</v>
       </c>
       <c r="I5" s="70">
         <f t="shared" si="2"/>
-        <v>15444719.061887512</v>
+        <v>15374428.300773211</v>
       </c>
       <c r="J5" s="70">
         <f t="shared" si="2"/>
-        <v>16677262.510522956</v>
+        <v>16711263.122442685</v>
       </c>
       <c r="K5" s="70">
         <f t="shared" si="2"/>
-        <v>20392668.597676679</v>
+        <v>20549265.766259994</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -40422,23 +40432,23 @@
       </c>
       <c r="G6" s="389">
         <f>G5/F5</f>
-        <v>1.2243747387509618</v>
+        <v>1.2029617093012404</v>
       </c>
       <c r="H6" s="275">
         <f t="shared" si="3"/>
-        <v>0.9510146369691671</v>
+        <v>0.95580133709479731</v>
       </c>
       <c r="I6" s="275">
         <f t="shared" si="3"/>
-        <v>1.2230905929283442</v>
+        <v>1.2329904498461695</v>
       </c>
       <c r="J6" s="275">
         <f t="shared" si="3"/>
-        <v>1.0798035525085694</v>
+        <v>1.0869518394776503</v>
       </c>
       <c r="K6" s="277">
         <f t="shared" si="3"/>
-        <v>1.2227827309673509</v>
+        <v>1.2296656222630471</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40563,23 +40573,23 @@
       </c>
       <c r="G11" s="264">
         <f t="shared" ref="G11:K11" si="5">G5</f>
-        <v>13278046.518692665</v>
+        <v>13045827.417676592</v>
       </c>
       <c r="H11" s="263">
         <f t="shared" si="5"/>
-        <v>12627616.589634217</v>
+        <v>12469219.289323254</v>
       </c>
       <c r="I11" s="263">
         <f t="shared" si="5"/>
-        <v>15444719.061887512</v>
+        <v>15374428.300773211</v>
       </c>
       <c r="J11" s="263">
         <f t="shared" si="5"/>
-        <v>16677262.510522956</v>
+        <v>16711263.122442685</v>
       </c>
       <c r="K11" s="263">
         <f t="shared" si="5"/>
-        <v>20392668.597676679</v>
+        <v>20549265.766259994</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40743,23 +40753,23 @@
       </c>
       <c r="G15" s="262">
         <f t="shared" si="6"/>
-        <v>4914586.1688606422</v>
+        <v>4682367.0678445715</v>
       </c>
       <c r="H15" s="261">
         <f t="shared" si="6"/>
-        <v>7843034.899814859</v>
+        <v>7684637.5995038971</v>
       </c>
       <c r="I15" s="261">
         <f t="shared" si="6"/>
-        <v>4448263.7569618821</v>
+        <v>4377972.9958475828</v>
       </c>
       <c r="J15" s="261">
         <f t="shared" si="6"/>
-        <v>6143217.9729198311</v>
+        <v>6177218.584839562</v>
       </c>
       <c r="K15" s="261">
         <f t="shared" si="6"/>
-        <v>10891907.142207131</v>
+        <v>11048504.310790446</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -40812,16 +40822,16 @@
       <c r="F2" s="442" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="487" t="s">
+      <c r="G2" s="486" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="487" t="s">
+      <c r="H2" s="486" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="487" t="s">
+      <c r="I2" s="486" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="488" t="s">
+      <c r="J2" s="487" t="s">
         <v>255</v>
       </c>
     </row>
@@ -40830,22 +40840,22 @@
       <c r="B3" s="442" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="480">
+      <c r="C3" s="479">
         <f>F5/H3</f>
         <v>1.8231347200545721E-2</v>
       </c>
       <c r="F3" s="57">
         <v>127169209</v>
       </c>
-      <c r="G3" s="462">
+      <c r="G3" s="461">
         <f>PASIVA!F25</f>
         <v>55347711</v>
       </c>
-      <c r="H3" s="462">
+      <c r="H3" s="461">
         <f>PASIVA!F3+PASIVA!F6</f>
         <v>19983877</v>
       </c>
-      <c r="I3" s="462">
+      <c r="I3" s="461">
         <f>'FCF - KONČNI_IZRAČUN'!F4</f>
         <v>703558</v>
       </c>
@@ -40859,27 +40869,27 @@
       <c r="B4" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="481">
+      <c r="C4" s="480">
         <f>I3/J3</f>
         <v>6.1598501235458132E-2</v>
       </c>
-      <c r="D4" s="490">
+      <c r="D4" s="489">
         <v>0.19</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="462"/>
-      <c r="H4" s="462"/>
-      <c r="I4" s="462"/>
+      <c r="G4" s="461"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="432"/>
-      <c r="B5" s="470" t="s">
+      <c r="B5" s="469" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="482">
+      <c r="C5" s="481">
         <f>C3*(1-C4)</f>
         <v>1.710832353748884E-2</v>
       </c>
@@ -40887,55 +40897,55 @@
         <f>5603+358730</f>
         <v>364333</v>
       </c>
-      <c r="G5" s="463"/>
-      <c r="H5" s="463"/>
-      <c r="I5" s="463"/>
+      <c r="G5" s="462"/>
+      <c r="H5" s="462"/>
+      <c r="I5" s="462"/>
       <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="478"/>
-      <c r="B6" s="476"/>
-      <c r="C6" s="479"/>
+      <c r="A6" s="477"/>
+      <c r="B6" s="475"/>
+      <c r="C6" s="478"/>
     </row>
     <row r="7" spans="1:13" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="478"/>
-      <c r="B7" s="476"/>
-      <c r="C7" s="479"/>
+      <c r="A7" s="477"/>
+      <c r="B7" s="475"/>
+      <c r="C7" s="478"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="442" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="500">
+      <c r="C8" s="499">
         <f>F9</f>
         <v>1.01</v>
       </c>
       <c r="F8" s="442" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="487" t="s">
+      <c r="G8" s="486" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="488" t="s">
+      <c r="H8" s="487" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="471" t="s">
+      <c r="B9" s="470" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="501">
+      <c r="C9" s="500">
         <f>H9</f>
         <v>1.3522079935556053</v>
       </c>
-      <c r="F9" s="489">
+      <c r="F9" s="488">
         <v>1.01</v>
       </c>
       <c r="G9" s="175">
         <f>C11/C10</f>
         <v>0.36106058658866663</v>
       </c>
-      <c r="H9" s="518">
+      <c r="H9" s="517">
         <f>C8*(1+(1-C4)*G9)</f>
         <v>1.3522079935556053</v>
       </c>
@@ -40944,7 +40954,7 @@
       <c r="B10" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="483">
+      <c r="C10" s="482">
         <f>G3/(G3+H3)</f>
         <v>0.73472115044222885</v>
       </c>
@@ -40953,7 +40963,7 @@
       <c r="B11" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="484">
+      <c r="C11" s="483">
         <f>H3/(H3+G3)</f>
         <v>0.26527884955777115</v>
       </c>
@@ -40962,51 +40972,51 @@
       <c r="B12" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="516">
+      <c r="C12" s="515">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="551" t="s">
+      <c r="F12" s="556" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="552"/>
-      <c r="H12" s="553"/>
-      <c r="J12" s="508" t="s">
+      <c r="G12" s="557"/>
+      <c r="H12" s="558"/>
+      <c r="J12" s="507" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="510"/>
-      <c r="L12" s="510"/>
-      <c r="M12" s="505"/>
+      <c r="K12" s="509"/>
+      <c r="L12" s="509"/>
+      <c r="M12" s="504"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="516">
+      <c r="C13" s="515">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="F13" s="494">
+      <c r="F13" s="493">
         <v>42736</v>
       </c>
-      <c r="G13" s="495">
+      <c r="G13" s="494">
         <v>8.6E-3</v>
       </c>
-      <c r="H13" s="499">
+      <c r="H13" s="498">
         <f>AVERAGE(G13:G24)</f>
         <v>9.9416666666666664E-3</v>
       </c>
-      <c r="J13" s="509">
+      <c r="J13" s="508">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="473" t="s">
+      <c r="B14" s="472" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="502">
+      <c r="C14" s="501">
         <f>J13</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F14" s="492">
+      <c r="F14" s="491">
         <v>42767</v>
       </c>
       <c r="G14" s="173">
@@ -41014,50 +41024,50 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="473" t="s">
+      <c r="B15" s="472" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="502">
+      <c r="C15" s="501">
         <f>J16</f>
         <v>0.05</v>
       </c>
-      <c r="F15" s="492">
+      <c r="F15" s="491">
         <v>42795</v>
       </c>
       <c r="G15" s="173">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="551" t="s">
+      <c r="J15" s="556" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="552"/>
-      <c r="L15" s="552"/>
-      <c r="M15" s="553"/>
+      <c r="K15" s="557"/>
+      <c r="L15" s="557"/>
+      <c r="M15" s="558"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="474" t="s">
+      <c r="B16" s="473" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="517"/>
-      <c r="F16" s="492">
+      <c r="C16" s="516"/>
+      <c r="F16" s="491">
         <v>42826</v>
       </c>
       <c r="G16" s="173">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J16" s="509">
+      <c r="J16" s="508">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="475" t="s">
+      <c r="B17" s="474" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="485">
+      <c r="C17" s="484">
         <f>C12+C13+C14+C15*C9</f>
         <v>0.15501039967778027</v>
       </c>
-      <c r="F17" s="492">
+      <c r="F17" s="491">
         <v>42856</v>
       </c>
       <c r="G17" s="173">
@@ -41065,9 +41075,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="476"/>
-      <c r="C18" s="477"/>
-      <c r="F18" s="492">
+      <c r="B18" s="475"/>
+      <c r="C18" s="476"/>
+      <c r="F18" s="491">
         <v>42887</v>
       </c>
       <c r="G18" s="173">
@@ -41075,230 +41085,230 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="476"/>
-      <c r="C19" s="477"/>
-      <c r="F19" s="492">
+      <c r="B19" s="475"/>
+      <c r="C19" s="476"/>
+      <c r="F19" s="491">
         <v>42917</v>
       </c>
-      <c r="G19" s="496">
+      <c r="G19" s="495">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="486" t="s">
+      <c r="B20" s="485" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="485">
+      <c r="C20" s="484">
         <f>C17*C10+C5*C11*(1-D4)</f>
         <v>0.11756558505433704</v>
       </c>
-      <c r="F20" s="492">
+      <c r="F20" s="491">
         <v>42948</v>
       </c>
-      <c r="G20" s="496">
+      <c r="G20" s="495">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="492">
+      <c r="F21" s="491">
         <v>42979</v>
       </c>
-      <c r="G21" s="496">
+      <c r="G21" s="495">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="492">
+      <c r="F22" s="491">
         <v>43009</v>
       </c>
-      <c r="G22" s="497">
+      <c r="G22" s="496">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="492">
+      <c r="F23" s="491">
         <v>43040</v>
       </c>
-      <c r="G23" s="496">
+      <c r="G23" s="495">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="493">
+      <c r="F24" s="492">
         <v>43070</v>
       </c>
-      <c r="G24" s="498">
+      <c r="G24" s="497">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="511"/>
-      <c r="G25" s="512"/>
+      <c r="F25" s="510"/>
+      <c r="G25" s="511"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="554" t="s">
+      <c r="F26" s="559" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="555"/>
-      <c r="H26" s="556"/>
+      <c r="G26" s="560"/>
+      <c r="H26" s="561"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="513">
+      <c r="F27" s="512">
         <v>42737</v>
       </c>
-      <c r="G27" s="514">
+      <c r="G27" s="513">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H27" s="507">
+      <c r="H27" s="506">
         <f>AVERAGE(G27:G38)</f>
         <v>5.1233333333333332E-2</v>
       </c>
-      <c r="I27" s="506"/>
+      <c r="I27" s="505"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F28" s="492">
+      <c r="F28" s="491">
         <v>42769</v>
       </c>
-      <c r="G28" s="496">
+      <c r="G28" s="495">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="I28" s="506"/>
+      <c r="I28" s="505"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="492">
+      <c r="F29" s="491">
         <v>42795</v>
       </c>
-      <c r="G29" s="496">
+      <c r="G29" s="495">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I29" s="506"/>
+      <c r="I29" s="505"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="492">
+      <c r="F30" s="491">
         <v>42826</v>
       </c>
-      <c r="G30" s="496">
+      <c r="G30" s="495">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="I30" s="506"/>
+      <c r="I30" s="505"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="492">
+      <c r="F31" s="491">
         <v>42856</v>
       </c>
-      <c r="G31" s="496">
+      <c r="G31" s="495">
         <v>4.87E-2</v>
       </c>
-      <c r="I31" s="506"/>
+      <c r="I31" s="505"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="492">
+      <c r="F32" s="491">
         <v>42888</v>
       </c>
-      <c r="G32" s="496">
+      <c r="G32" s="495">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="I32" s="506"/>
+      <c r="I32" s="505"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F33" s="492">
+      <c r="F33" s="491">
         <v>42919</v>
       </c>
-      <c r="G33" s="496">
+      <c r="G33" s="495">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="I33" s="506"/>
+      <c r="I33" s="505"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="492">
+      <c r="F34" s="491">
         <v>42948</v>
       </c>
-      <c r="G34" s="496">
+      <c r="G34" s="495">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="I34" s="506"/>
+      <c r="I34" s="505"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F35" s="492">
+      <c r="F35" s="491">
         <v>42982</v>
       </c>
-      <c r="G35" s="496">
+      <c r="G35" s="495">
         <v>5.04E-2</v>
       </c>
-      <c r="I35" s="506"/>
+      <c r="I35" s="505"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="492">
+      <c r="F36" s="491">
         <v>43012</v>
       </c>
-      <c r="G36" s="496">
+      <c r="G36" s="495">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I36" s="506"/>
+      <c r="I36" s="505"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="492">
+      <c r="F37" s="491">
         <v>43040</v>
       </c>
-      <c r="G37" s="496">
+      <c r="G37" s="495">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="I37" s="506"/>
+      <c r="I37" s="505"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="493">
+      <c r="F38" s="492">
         <v>43070</v>
       </c>
-      <c r="G38" s="498">
+      <c r="G38" s="497">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I38" s="515"/>
+      <c r="I38" s="514"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="511"/>
-      <c r="G39" s="512"/>
+      <c r="F39" s="510"/>
+      <c r="G39" s="511"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="511"/>
-      <c r="G40" s="512"/>
+      <c r="F40" s="510"/>
+      <c r="G40" s="511"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="511"/>
-      <c r="G41" s="512"/>
+      <c r="F41" s="510"/>
+      <c r="G41" s="511"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="511"/>
-      <c r="G42" s="512"/>
+      <c r="F42" s="510"/>
+      <c r="G42" s="511"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="511"/>
-      <c r="G43" s="512"/>
+      <c r="F43" s="510"/>
+      <c r="G43" s="511"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="491" t="s">
+      <c r="B44" s="490" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="491" t="s">
+      <c r="B45" s="490" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="491" t="s">
+      <c r="B46" s="490" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="491" t="s">
+      <c r="B47" s="490" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="491" t="s">
+      <c r="B48" s="490" t="s">
         <v>294</v>
       </c>
     </row>
@@ -41337,7 +41347,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="531" t="s">
+      <c r="B1" s="530" t="s">
         <v>295</v>
       </c>
     </row>
@@ -41347,25 +41357,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="491" t="s">
+      <c r="B3" s="490" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="528"/>
-      <c r="B7" s="529" t="s">
+      <c r="A7" s="527"/>
+      <c r="B7" s="528" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="530" t="s">
+      <c r="C7" s="529" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="557" t="s">
+      <c r="A8" s="562" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="462" t="s">
+      <c r="B8" s="461" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -41373,8 +41383,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="557"/>
-      <c r="B9" s="462" t="s">
+      <c r="A9" s="562"/>
+      <c r="B9" s="461" t="s">
         <v>304</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -41382,8 +41392,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="557"/>
-      <c r="B10" s="462" t="s">
+      <c r="A10" s="562"/>
+      <c r="B10" s="461" t="s">
         <v>305</v>
       </c>
       <c r="C10" s="56" t="s">
@@ -41391,102 +41401,102 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="558"/>
-      <c r="B11" s="463" t="s">
+      <c r="A11" s="563"/>
+      <c r="B11" s="462" t="s">
         <v>306</v>
       </c>
       <c r="C11" s="96"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="537"/>
-      <c r="B13" s="538" t="s">
+      <c r="A13" s="536"/>
+      <c r="B13" s="537" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="539"/>
+      <c r="C13" s="538"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="532" t="s">
+      <c r="A14" s="531" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="533" t="s">
+      <c r="B14" s="532" t="s">
         <v>307</v>
       </c>
       <c r="C14" s="222"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="534" t="s">
+      <c r="A15" s="533" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="539" t="s">
         <v>312</v>
       </c>
       <c r="C15" s="222"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="532"/>
-      <c r="B16" s="540" t="s">
+      <c r="A16" s="531"/>
+      <c r="B16" s="539" t="s">
         <v>313</v>
       </c>
       <c r="C16" s="222"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="532"/>
-      <c r="B17" s="540" t="s">
+      <c r="A17" s="531"/>
+      <c r="B17" s="539" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="222"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="532"/>
-      <c r="B18" s="540" t="s">
+      <c r="A18" s="531"/>
+      <c r="B18" s="539" t="s">
         <v>315</v>
       </c>
       <c r="C18" s="222"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="532"/>
-      <c r="B19" s="540" t="s">
+      <c r="A19" s="531"/>
+      <c r="B19" s="539" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="222"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="532"/>
-      <c r="B20" s="540" t="s">
+      <c r="A20" s="531"/>
+      <c r="B20" s="539" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="222"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="532"/>
-      <c r="B21" s="540"/>
+      <c r="A21" s="531"/>
+      <c r="B21" s="539"/>
       <c r="C21" s="222"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="532"/>
-      <c r="B22" s="540"/>
+      <c r="A22" s="531"/>
+      <c r="B22" s="539"/>
       <c r="C22" s="222"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="532"/>
-      <c r="B23" s="540"/>
+      <c r="A23" s="531"/>
+      <c r="B23" s="539"/>
       <c r="C23" s="222"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="532"/>
-      <c r="B24" s="540"/>
+      <c r="A24" s="531"/>
+      <c r="B24" s="539"/>
       <c r="C24" s="222"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="532"/>
-      <c r="B25" s="540"/>
+      <c r="A25" s="531"/>
+      <c r="B25" s="539"/>
       <c r="C25" s="222"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="534"/>
-      <c r="B26" s="541"/>
-      <c r="C26" s="536"/>
+      <c r="A26" s="533"/>
+      <c r="B26" s="540"/>
+      <c r="C26" s="535"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41531,19 +41541,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="503">
+      <c r="C2" s="502">
         <v>2013</v>
       </c>
-      <c r="D2" s="504">
+      <c r="D2" s="503">
         <v>2014</v>
       </c>
-      <c r="E2" s="504">
+      <c r="E2" s="503">
         <v>2015</v>
       </c>
-      <c r="F2" s="504">
+      <c r="F2" s="503">
         <v>2016</v>
       </c>
-      <c r="G2" s="505">
+      <c r="G2" s="504">
         <v>2017</v>
       </c>
     </row>
@@ -41551,19 +41561,19 @@
       <c r="B3" s="442" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="487">
+      <c r="C3" s="486">
         <v>514215</v>
       </c>
-      <c r="D3" s="487">
+      <c r="D3" s="486">
         <v>514215</v>
       </c>
-      <c r="E3" s="487">
+      <c r="E3" s="486">
         <v>514215</v>
       </c>
-      <c r="F3" s="487">
+      <c r="F3" s="486">
         <v>514215</v>
       </c>
-      <c r="G3" s="488">
+      <c r="G3" s="487">
         <v>514215</v>
       </c>
     </row>
@@ -41571,16 +41581,16 @@
       <c r="B4" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="462">
+      <c r="C4" s="461">
         <v>38105</v>
       </c>
-      <c r="D4" s="462">
+      <c r="D4" s="461">
         <v>8911</v>
       </c>
-      <c r="E4" s="462">
+      <c r="E4" s="461">
         <v>157</v>
       </c>
-      <c r="F4" s="462">
+      <c r="F4" s="461">
         <v>580</v>
       </c>
       <c r="G4" s="56">
@@ -41591,16 +41601,16 @@
       <c r="B5" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="462">
+      <c r="C5" s="461">
         <v>209567</v>
       </c>
-      <c r="D5" s="462">
+      <c r="D5" s="461">
         <v>49000</v>
       </c>
-      <c r="E5" s="462">
+      <c r="E5" s="461">
         <v>1372</v>
       </c>
-      <c r="F5" s="462">
+      <c r="F5" s="461">
         <v>3699</v>
       </c>
       <c r="G5" s="56">
@@ -41611,19 +41621,19 @@
       <c r="B6" s="438" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="526">
+      <c r="C6" s="525">
         <v>64471</v>
       </c>
-      <c r="D6" s="526">
+      <c r="D6" s="525">
         <v>-37933</v>
       </c>
-      <c r="E6" s="526">
+      <c r="E6" s="525">
         <v>63700</v>
       </c>
-      <c r="F6" s="526">
+      <c r="F6" s="525">
         <v>935</v>
       </c>
-      <c r="G6" s="527">
+      <c r="G6" s="526">
         <v>29160</v>
       </c>
     </row>
@@ -41643,31 +41653,31 @@
       <c r="F7" s="170">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G7" s="472">
+      <c r="G7" s="471">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="474" t="s">
+      <c r="B8" s="473" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="547">
+      <c r="C8" s="546">
         <f>1-C4/C3</f>
         <v>0.92589675524829107</v>
       </c>
-      <c r="D8" s="547">
+      <c r="D8" s="546">
         <f t="shared" ref="D8:G8" si="0">1-D4/D3</f>
         <v>0.98267067277306186</v>
       </c>
-      <c r="E8" s="547">
+      <c r="E8" s="546">
         <f t="shared" si="0"/>
         <v>0.99969468024075536</v>
       </c>
-      <c r="F8" s="547">
+      <c r="F8" s="546">
         <f t="shared" si="0"/>
         <v>0.99887206713145282</v>
       </c>
-      <c r="G8" s="548">
+      <c r="G8" s="547">
         <f t="shared" si="0"/>
         <v>0.99872815845512086</v>
       </c>
@@ -41676,19 +41686,19 @@
       <c r="B9" s="442" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="487">
+      <c r="C9" s="486">
         <v>4.1729000000000003</v>
       </c>
-      <c r="D9" s="487">
+      <c r="D9" s="486">
         <v>4.1729000000000003</v>
       </c>
-      <c r="E9" s="487">
+      <c r="E9" s="486">
         <v>4.1729000000000003</v>
       </c>
-      <c r="F9" s="487">
+      <c r="F9" s="486">
         <v>4.1729000000000003</v>
       </c>
-      <c r="G9" s="488">
+      <c r="G9" s="487">
         <v>4.1729000000000003</v>
       </c>
     </row>
@@ -41696,16 +41706,16 @@
       <c r="B10" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="462">
+      <c r="C10" s="461">
         <v>5.5</v>
       </c>
-      <c r="D10" s="462">
+      <c r="D10" s="461">
         <v>5.5</v>
       </c>
-      <c r="E10" s="462" t="s">
+      <c r="E10" s="461" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="462" t="s">
+      <c r="F10" s="461" t="s">
         <v>279</v>
       </c>
       <c r="G10" s="56" t="s">
@@ -41716,16 +41726,16 @@
       <c r="B11" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="463" t="s">
+      <c r="C11" s="462" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="463" t="s">
+      <c r="D11" s="462" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="463">
+      <c r="E11" s="462">
         <v>5.5</v>
       </c>
-      <c r="F11" s="463" t="s">
+      <c r="F11" s="462" t="s">
         <v>280</v>
       </c>
       <c r="G11" s="96" t="s">
@@ -41733,23 +41743,23 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="550">
+      <c r="C12" s="549">
         <f>C3*C9-C5</f>
         <v>1936200.7735000001</v>
       </c>
-      <c r="D12" s="550">
+      <c r="D12" s="549">
         <f t="shared" ref="D12:G12" si="1">D3*D9-D5</f>
         <v>2096767.7735000001</v>
       </c>
-      <c r="E12" s="550">
+      <c r="E12" s="549">
         <f t="shared" si="1"/>
         <v>2144395.7735000001</v>
       </c>
-      <c r="F12" s="550">
+      <c r="F12" s="549">
         <f t="shared" si="1"/>
         <v>2142068.7735000001</v>
       </c>
-      <c r="G12" s="550">
+      <c r="G12" s="549">
         <f t="shared" si="1"/>
         <v>2143782.7735000001</v>
       </c>
@@ -41759,19 +41769,19 @@
       <c r="B14" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="519">
+      <c r="C14" s="518">
         <v>2013</v>
       </c>
-      <c r="D14" s="520">
+      <c r="D14" s="519">
         <v>2014</v>
       </c>
-      <c r="E14" s="520">
+      <c r="E14" s="519">
         <v>2015</v>
       </c>
-      <c r="F14" s="520">
+      <c r="F14" s="519">
         <v>2016</v>
       </c>
-      <c r="G14" s="521">
+      <c r="G14" s="520">
         <v>2017</v>
       </c>
     </row>
@@ -41779,19 +41789,19 @@
       <c r="B15" s="442" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="523">
+      <c r="C15" s="522">
         <v>0.59040000000000004</v>
       </c>
-      <c r="D15" s="523">
+      <c r="D15" s="522">
         <v>0.62560000000000004</v>
       </c>
-      <c r="E15" s="523">
+      <c r="E15" s="522">
         <v>0.62560000000000004</v>
       </c>
-      <c r="F15" s="523">
+      <c r="F15" s="522">
         <v>0.5877</v>
       </c>
-      <c r="G15" s="524">
+      <c r="G15" s="523">
         <v>0.52659999999999996</v>
       </c>
     </row>
@@ -41811,7 +41821,7 @@
       <c r="F16" s="170">
         <v>0.26040000000000002</v>
       </c>
-      <c r="G16" s="472">
+      <c r="G16" s="471">
         <v>0.30509999999999998</v>
       </c>
     </row>
@@ -41819,7 +41829,7 @@
       <c r="B17" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="522">
+      <c r="C17" s="521">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="D17" s="170">
@@ -41828,10 +41838,10 @@
       <c r="E17" s="170">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F17" s="522">
+      <c r="F17" s="521">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="G17" s="472">
+      <c r="G17" s="471">
         <v>9.06E-2</v>
       </c>
     </row>
@@ -41851,12 +41861,12 @@
       <c r="F18" s="175">
         <v>7.51E-2</v>
       </c>
-      <c r="G18" s="525">
+      <c r="G18" s="524">
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="506"/>
+      <c r="E22" s="505"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -41867,10 +41877,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14032AB-04F0-45BC-850D-25E7540A9A60}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42166,7 +42176,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="461"/>
+      <c r="B8" s="460"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -42467,23 +42477,23 @@
       </c>
       <c r="G19" s="35">
         <f>G42</f>
-        <v>37202109.690460496</v>
+        <v>37444004.587352239</v>
       </c>
       <c r="H19" s="36">
         <f t="shared" ref="H19:K19" si="7">H42</f>
-        <v>40424353.992318377</v>
+        <v>40589351.180142321</v>
       </c>
       <c r="I19" s="36">
         <f t="shared" si="7"/>
-        <v>43925691.561392717</v>
+        <v>43998911.1042201</v>
       </c>
       <c r="J19" s="36">
         <f t="shared" si="7"/>
-        <v>47730295.937771909</v>
+        <v>47694878.63368886</v>
       </c>
       <c r="K19" s="71">
         <f t="shared" si="7"/>
-        <v>51864434.442043714</v>
+        <v>51701312.391436085</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -42620,7 +42630,7 @@
         <v>84260931</v>
       </c>
       <c r="C23" s="41">
-        <f t="shared" ref="B23:K23" si="9">SUM(C19:C22)+C12</f>
+        <f t="shared" ref="C23:K23" si="9">SUM(C19:C22)+C12</f>
         <v>90935185</v>
       </c>
       <c r="D23" s="41">
@@ -42637,23 +42647,23 @@
       </c>
       <c r="G23" s="396">
         <f t="shared" si="9"/>
-        <v>151370741.52302846</v>
+        <v>151612636.41992021</v>
       </c>
       <c r="H23" s="247">
         <f t="shared" si="9"/>
-        <v>171563414.15273103</v>
+        <v>171728411.34055495</v>
       </c>
       <c r="I23" s="41">
         <f t="shared" si="9"/>
-        <v>190461162.57131255</v>
+        <v>190534382.11413994</v>
       </c>
       <c r="J23" s="41">
         <f t="shared" si="9"/>
-        <v>213602654.39650249</v>
+        <v>213567237.09241945</v>
       </c>
       <c r="K23" s="106">
         <f t="shared" si="9"/>
-        <v>237060034.8721028</v>
+        <v>236896912.82149518</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42679,23 +42689,23 @@
       </c>
       <c r="G24" s="397">
         <f t="shared" si="10"/>
-        <v>1.1169263700687546</v>
+        <v>1.1187112512578472</v>
       </c>
       <c r="H24" s="385">
         <f t="shared" si="10"/>
-        <v>1.133398782529123</v>
+        <v>1.1326787489198478</v>
       </c>
       <c r="I24" s="385">
         <f t="shared" si="10"/>
-        <v>1.1101502235305143</v>
+        <v>1.1095099560217256</v>
       </c>
       <c r="J24" s="385">
         <f t="shared" si="10"/>
-        <v>1.1215024181978586</v>
+        <v>1.1208855573608842</v>
       </c>
       <c r="K24" s="386">
         <f t="shared" si="10"/>
-        <v>1.1098178322824457</v>
+        <v>1.1092380837374414</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -42963,23 +42973,23 @@
       </c>
       <c r="G34" s="23">
         <f>G19/G6</f>
-        <v>0.22519158779736817</v>
+        <v>0.22665582453997152</v>
       </c>
       <c r="H34" s="18">
         <f t="shared" ref="H34:K34" si="18">H19/H6</f>
-        <v>0.21884458001460819</v>
+        <v>0.21973782224872737</v>
       </c>
       <c r="I34" s="18">
         <f t="shared" si="18"/>
-        <v>0.21266432676995764</v>
+        <v>0.21301881600457848</v>
       </c>
       <c r="J34" s="18">
         <f t="shared" si="18"/>
-        <v>0.20664719852498231</v>
+        <v>0.20649386013634943</v>
       </c>
       <c r="K34" s="374">
         <f t="shared" si="18"/>
-        <v>0.20078959717250236</v>
+        <v>0.20015808135277316</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -43135,23 +43145,23 @@
       </c>
       <c r="G38" s="363">
         <f t="shared" ref="G38:K38" si="21">SUM(G34:G37)+G28</f>
-        <v>0.91627646693318088</v>
+        <v>0.91774070367578409</v>
       </c>
       <c r="H38" s="364">
         <f t="shared" si="21"/>
-        <v>0.92878969255170596</v>
+        <v>0.92968293478582509</v>
       </c>
       <c r="I38" s="364">
         <f t="shared" si="21"/>
-        <v>0.92210944151990937</v>
+        <v>0.92246393075453026</v>
       </c>
       <c r="J38" s="364">
         <f t="shared" si="21"/>
-        <v>0.9247876901095482</v>
+        <v>0.92463435172091535</v>
       </c>
       <c r="K38" s="365">
         <f t="shared" si="21"/>
-        <v>0.91776164957238549</v>
+        <v>0.91713013375265628</v>
       </c>
       <c r="N38" s="137"/>
       <c r="O38" s="137"/>
@@ -43227,23 +43237,23 @@
       </c>
       <c r="G42" s="450">
         <f>G43*G44</f>
-        <v>37202109.690460496</v>
+        <v>37444004.587352239</v>
       </c>
       <c r="H42" s="41">
         <f>H43*H44</f>
-        <v>40424353.992318377</v>
+        <v>40589351.180142321</v>
       </c>
       <c r="I42" s="41">
         <f>I43*I44</f>
-        <v>43925691.561392717</v>
+        <v>43998911.1042201</v>
       </c>
       <c r="J42" s="41">
         <f>J43*J44</f>
-        <v>47730295.937771909</v>
+        <v>47694878.63368886</v>
       </c>
       <c r="K42" s="106">
         <f>K43*K44</f>
-        <v>51864434.442043714</v>
+        <v>51701312.391436085</v>
       </c>
       <c r="L42" s="449">
         <f>SUM(C46:F46)/4</f>
@@ -43270,24 +43280,24 @@
         <v>1265</v>
       </c>
       <c r="G43" s="451">
-        <f>G45*F43</f>
-        <v>1302.95</v>
+        <f>G2/G47</f>
+        <v>1311.4220183486239</v>
       </c>
       <c r="H43" s="252">
-        <f>H45*G43</f>
-        <v>1342.0385000000001</v>
+        <f t="shared" ref="H43:K43" si="22">H2/H47</f>
+        <v>1347.5162023398705</v>
       </c>
       <c r="I43" s="252">
-        <f>I45*H43</f>
-        <v>1382.2996550000003</v>
+        <f t="shared" si="22"/>
+        <v>1384.6038042391328</v>
       </c>
       <c r="J43" s="252">
-        <f>J45*I43</f>
-        <v>1423.7686446500004</v>
+        <f t="shared" si="22"/>
+        <v>1422.7121658236963</v>
       </c>
       <c r="K43" s="253">
-        <f>K45*J43</f>
-        <v>1466.4817039895004</v>
+        <f t="shared" si="22"/>
+        <v>1461.8693813968255</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -43319,19 +43329,19 @@
         <v>28552.215887379018</v>
       </c>
       <c r="H44" s="35">
-        <f t="shared" ref="H44:K44" si="22">G44*H46</f>
+        <f t="shared" ref="H44:K44" si="23">G44*H46</f>
         <v>30121.605298445887</v>
       </c>
       <c r="I44" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>31777.257125476681</v>
       </c>
       <c r="J44" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>33523.912833117116</v>
       </c>
       <c r="K44" s="287">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>35366.574503417774</v>
       </c>
     </row>
@@ -43356,20 +43366,25 @@
         <f>F43/E43</f>
         <v>1.0326530612244897</v>
       </c>
-      <c r="G45" s="453">
-        <v>1.03</v>
-      </c>
-      <c r="H45" s="453">
-        <v>1.03</v>
-      </c>
-      <c r="I45" s="453">
-        <v>1.03</v>
-      </c>
-      <c r="J45" s="453">
-        <v>1.03</v>
-      </c>
-      <c r="K45" s="453">
-        <v>1.03</v>
+      <c r="G45" s="567">
+        <f>G43/F43</f>
+        <v>1.036697247706422</v>
+      </c>
+      <c r="H45" s="567">
+        <f>H43/G43</f>
+        <v>1.0275229357798166</v>
+      </c>
+      <c r="I45" s="567">
+        <f>I43/H43</f>
+        <v>1.0275229357798163</v>
+      </c>
+      <c r="J45" s="567">
+        <f t="shared" ref="H45:K45" si="24">J43/I43</f>
+        <v>1.0275229357798166</v>
+      </c>
+      <c r="K45" s="567">
+        <f t="shared" si="24"/>
+        <v>1.0275229357798163</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -43382,35 +43397,35 @@
         <v>1.0342314877652128</v>
       </c>
       <c r="D46" s="440">
-        <f t="shared" ref="D46:F46" si="23">D44/C44</f>
+        <f t="shared" ref="D46:F46" si="25">D44/C44</f>
         <v>1.0623203617402275</v>
       </c>
       <c r="E46" s="440">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.0460713532663635</v>
       </c>
       <c r="F46" s="448">
-        <f t="shared" si="23"/>
+        <f>F44/E44</f>
         <v>1.0772391598913471</v>
       </c>
-      <c r="G46" s="454">
+      <c r="G46" s="453">
         <f>$L$42</f>
         <v>1.0549655906657875</v>
       </c>
       <c r="H46" s="441">
-        <f t="shared" ref="H46:K46" si="24">$L$42</f>
+        <f t="shared" ref="H46:K46" si="26">$L$42</f>
         <v>1.0549655906657875</v>
       </c>
       <c r="I46" s="441">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0549655906657875</v>
       </c>
       <c r="J46" s="441">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0549655906657875</v>
       </c>
-      <c r="K46" s="455">
-        <f t="shared" si="24"/>
+      <c r="K46" s="454">
+        <f t="shared" si="26"/>
         <v>1.0549655906657875</v>
       </c>
     </row>
@@ -43423,40 +43438,40 @@
         <v>82608.288954635107</v>
       </c>
       <c r="C47" s="443">
-        <f t="shared" ref="C47:K47" si="25">C2/C43</f>
+        <f t="shared" ref="C47:K47" si="27">C2/C43</f>
         <v>86457.951310861419</v>
       </c>
       <c r="D47" s="443">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>97543.546040515648</v>
       </c>
       <c r="E47" s="443">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>98773.746938775512</v>
       </c>
       <c r="F47" s="444">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>110164.36837944663</v>
       </c>
-      <c r="G47" s="456">
-        <f t="shared" si="25"/>
-        <v>120859.93812502398</v>
-      </c>
-      <c r="H47" s="443">
-        <f t="shared" si="25"/>
-        <v>131420.51524274453</v>
-      </c>
-      <c r="I47" s="443">
-        <f t="shared" si="25"/>
-        <v>142903.861234829</v>
-      </c>
-      <c r="J47" s="443">
-        <f t="shared" si="25"/>
-        <v>155390.60639127038</v>
-      </c>
-      <c r="K47" s="444">
-        <f t="shared" si="25"/>
-        <v>168968.42636720664</v>
+      <c r="G47" s="455">
+        <f>F47*G49</f>
+        <v>120079.16153359684</v>
+      </c>
+      <c r="H47" s="455">
+        <f t="shared" ref="H47:K47" si="28">G47*H49</f>
+        <v>130886.28607162056</v>
+      </c>
+      <c r="I47" s="455">
+        <f t="shared" si="28"/>
+        <v>142666.05181806642</v>
+      </c>
+      <c r="J47" s="455">
+        <f t="shared" si="28"/>
+        <v>155505.99648169242</v>
+      </c>
+      <c r="K47" s="455">
+        <f t="shared" si="28"/>
+        <v>169501.53616504476</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -43483,41 +43498,69 @@
         <f>'FCF - KONČNI_IZRAČUN'!F5/'PRIHODKI IN STROŠKI'!F43</f>
         <v>8572.9304347826092</v>
       </c>
-      <c r="G48" s="457">
+      <c r="G48" s="456">
         <f>'FCF - KONČNI_IZRAČUN'!G5/'PRIHODKI IN STROŠKI'!G43</f>
-        <v>10190.756758657404</v>
+        <v>9947.8483929255908</v>
       </c>
       <c r="H48" s="110">
         <f>'FCF - KONČNI_IZRAČUN'!H5/'PRIHODKI IN STROŠKI'!H43</f>
-        <v>9409.2804264812203</v>
+        <v>9253.4837560181459</v>
       </c>
       <c r="I48" s="110">
         <f>'FCF - KONČNI_IZRAČUN'!I5/'PRIHODKI IN STROŠKI'!I43</f>
-        <v>11173.206190149493</v>
+        <v>11103.846640968723</v>
       </c>
       <c r="J48" s="110">
         <f>'FCF - KONČNI_IZRAČUN'!J5/'PRIHODKI IN STROŠKI'!J43</f>
-        <v>11713.463822363263</v>
+        <v>11746.060463865857</v>
       </c>
       <c r="K48" s="111">
         <f>'FCF - KONČNI_IZRAČUN'!K5/'PRIHODKI IN STROŠKI'!K43</f>
-        <v>13905.84590465691</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+        <v>14056.841211507584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="568" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="569"/>
+      <c r="C49" s="570">
+        <f>C47/B47</f>
+        <v>1.0466014053183015</v>
+      </c>
+      <c r="D49" s="570">
+        <f t="shared" ref="D49:F49" si="29">D47/C47</f>
+        <v>1.128219493540805</v>
+      </c>
+      <c r="E49" s="570">
+        <f t="shared" si="29"/>
+        <v>1.012611812346343</v>
+      </c>
+      <c r="F49" s="570">
+        <f t="shared" si="29"/>
+        <v>1.1153203335267978</v>
+      </c>
+      <c r="G49" s="571">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H49" s="571">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I49" s="571">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J49" s="571">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K49" s="572">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G50" s="432"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F51" s="566"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44290,7 +44333,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="458"/>
+      <c r="F22" s="457"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -44436,19 +44479,19 @@
         <f>F3/'PRIHODKI IN STROŠKI'!F6</f>
         <v>1.1216062214670557E-3</v>
       </c>
-      <c r="G30" s="460">
+      <c r="G30" s="459">
         <v>0</v>
       </c>
-      <c r="H30" s="460">
+      <c r="H30" s="459">
         <v>0</v>
       </c>
-      <c r="I30" s="460">
+      <c r="I30" s="459">
         <v>0</v>
       </c>
-      <c r="J30" s="460">
+      <c r="J30" s="459">
         <v>0</v>
       </c>
-      <c r="K30" s="460">
+      <c r="K30" s="459">
         <v>0</v>
       </c>
     </row>
@@ -45585,7 +45628,7 @@
       <c r="E25" s="7">
         <v>45510666</v>
       </c>
-      <c r="F25" s="563">
+      <c r="F25" s="552">
         <v>55347711</v>
       </c>
     </row>
@@ -45593,23 +45636,23 @@
       <c r="A26" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="561">
+      <c r="B26" s="550">
         <f>(B3+B6)/(B3+B6+B25)</f>
         <v>0.36845559048126808</v>
       </c>
-      <c r="C26" s="561">
+      <c r="C26" s="550">
         <f t="shared" ref="C26:F26" si="2">(C3+C6)/(C3+C6+C25)</f>
         <v>0.29424347266592055</v>
       </c>
-      <c r="D26" s="561">
+      <c r="D26" s="550">
         <f t="shared" si="2"/>
         <v>0.20101646098422238</v>
       </c>
-      <c r="E26" s="561">
+      <c r="E26" s="550">
         <f t="shared" si="2"/>
         <v>0.27749450381553842</v>
       </c>
-      <c r="F26" s="561">
+      <c r="F26" s="550">
         <f t="shared" si="2"/>
         <v>0.26527884955777115</v>
       </c>
@@ -45618,23 +45661,23 @@
       <c r="A27" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="562">
+      <c r="B27" s="551">
         <f>B25/(B25+B3+B6)</f>
         <v>0.63154440951873192</v>
       </c>
-      <c r="C27" s="562">
+      <c r="C27" s="551">
         <f t="shared" ref="C27:F27" si="3">C25/(C25+C3+C6)</f>
         <v>0.70575652733407945</v>
       </c>
-      <c r="D27" s="562">
+      <c r="D27" s="551">
         <f t="shared" si="3"/>
         <v>0.79898353901577757</v>
       </c>
-      <c r="E27" s="562">
+      <c r="E27" s="551">
         <f t="shared" si="3"/>
         <v>0.72250549618446158</v>
       </c>
-      <c r="F27" s="562">
+      <c r="F27" s="551">
         <f t="shared" si="3"/>
         <v>0.73472115044222885</v>
       </c>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3A5AEE-A871-443E-B7B4-39DA2E320B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98650292-28EF-49CC-9D3B-7C877111B04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -88,6 +88,69 @@
 Vaša različica programa Excel dovoljuje branje te pripombe v niti, vendar pa bodo vse spremembe odstranjene, če bo datoteka odprta v novejši različici programa Excel. Več informacij: https://go.microsoft.com/fwlink/?linkid=870924.
 Pripomba:
     porast amortizacije zaradi velikih investicij v preteklih letih - manjši dobiček</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neža</author>
+  </authors>
+  <commentList>
+    <comment ref="A88" authorId="0" shapeId="0" xr:uid="{6DF1250F-C2CC-461E-B380-7016B7F385BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+po vzoru študije številka 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{4136F1E8-28B4-4A5F-AC27-63E7CEFEEE0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+povprečje 5 let</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -199,6 +262,42 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Neža</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{9293FD7A-8148-4699-B2B9-F26B6815FA64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+vzamemo stopnjo rasti BDP, ki ga UMAR napoveduje za Evropski trg v letu 2018</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={83CD7CC0-628D-4BE5-951D-5983173DE0CC}</author>
     <author>tc={DAE52481-0334-426B-A2C0-4EC3FDED3A67}</author>
     <author>tc={BC1AF11F-074C-47D5-BA8B-09E877F26250}</author>
@@ -268,7 +367,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0D60E299-A915-44F1-B99E-B8BF4859DA93}</author>
@@ -405,7 +504,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A1714CF8-2995-4680-AFC8-079E09211D55}</author>
@@ -477,7 +576,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0520480E-BD66-4C31-90D2-D7A7C5E90B15}</author>
@@ -549,7 +648,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9A790A48-4BFE-4F5C-A7E2-46ECB47B203E}</author>
@@ -612,7 +711,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={004DA307-EE52-4AC4-8614-885AF783F445}</author>
@@ -639,71 +738,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Neža</author>
-  </authors>
-  <commentList>
-    <comment ref="A88" authorId="0" shapeId="0" xr:uid="{6DF1250F-C2CC-461E-B380-7016B7F385BB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Neža:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-po vzoru študije številka 2
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B89" authorId="0" shapeId="0" xr:uid="{4136F1E8-28B4-4A5F-AC27-63E7CEFEEE0F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Neža:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-povprečje 5 let</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="347">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1700,6 +1736,51 @@
   <si>
     <t>rast prihodkov na zaposlenega</t>
   </si>
+  <si>
+    <t>PRIHODKI OD PRODAJE PO VRSTAH PROIZVODOV</t>
+  </si>
+  <si>
+    <t>avtomobilska industrija</t>
+  </si>
+  <si>
+    <t>sesalne enote</t>
+  </si>
+  <si>
+    <t>ventilatorji</t>
+  </si>
+  <si>
+    <t>avtom. Ind. v deležu celotnih prihodkov od prodaje</t>
+  </si>
+  <si>
+    <t>FCFF</t>
+  </si>
+  <si>
+    <t>zap. Leto</t>
+  </si>
+  <si>
+    <t>FCFF DISK.</t>
+  </si>
+  <si>
+    <t>STOPNJA RASTI</t>
+  </si>
+  <si>
+    <t>PREOSTALA VREDNOST</t>
+  </si>
+  <si>
+    <t>VREDNOST ENE DELNICE</t>
+  </si>
+  <si>
+    <t>ŠTEVILO DELNIC (31.12.2017)</t>
+  </si>
+  <si>
+    <t>DISK. PREOSTALA VREDNOST</t>
+  </si>
+  <si>
+    <t>VSOTA DISK. VREDNOSTI</t>
+  </si>
+  <si>
+    <t>NETO DOLG</t>
+  </si>
 </sst>
 </file>
 
@@ -1714,9 +1795,9 @@
     <numFmt numFmtId="166" formatCode="0.000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1900,6 +1981,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1963,7 +2052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2550,19 +2639,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2741,6 +2817,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2754,7 +2871,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="573">
+  <cellXfs count="605">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3040,7 +3157,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3188,12 +3304,7 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3203,13 +3314,13 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3221,26 +3332,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="5" fontId="0" fillId="5" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="5" fontId="0" fillId="5" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="11" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="10" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="10" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="10" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3248,8 +3357,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3258,13 +3367,13 @@
     <xf numFmtId="2" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="16" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3281,7 +3390,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3301,23 +3410,57 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3341,13 +3484,19 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -14293,6 +14442,608 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sl-SI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$98</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avtomobilska industrija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$98:$F$98</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5737566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8362320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13033474</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21373193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22042907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D7B-4B9B-97BA-8FBC8B74CC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sesalne enote</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$99:$F$99</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>49822017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49750276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50816115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52139088</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58562104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D7B-4B9B-97BA-8FBC8B74CC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$A$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ventilatorji</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$100:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6280570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8076665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10029807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13269198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19084478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D7B-4B9B-97BA-8FBC8B74CC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="538869112"/>
+        <c:axId val="538871992"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Delež avtom. Ind. V prihodkih</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'KAZALNIKI - PODJETJE X'!$B$101:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8496142264045143E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0562956000390396E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12303589280439521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17664111194051069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15817476359399896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D7B-4B9B-97BA-8FBC8B74CC70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="444651256"/>
+        <c:axId val="444647096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538869112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538871992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538871992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538869112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="444647096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444651256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="444651256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="444647096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="93000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -18900,6 +19651,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26699,6 +27490,509 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31637,6 +32931,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2499360</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafikon 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41A9C96-6461-47A4-AED0-A1F457A79309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -32390,7 +33720,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32424,7 +33754,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -32478,7 +33808,7 @@
         <f>J9*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0</v>
       </c>
-      <c r="K2" s="287">
+      <c r="K2" s="286">
         <f>K9*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0</v>
       </c>
@@ -32518,7 +33848,7 @@
         <f>J10*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>16168236.199147476</v>
       </c>
-      <c r="K3" s="287">
+      <c r="K3" s="286">
         <f>K10*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>18081167.859627787</v>
       </c>
@@ -32558,7 +33888,7 @@
         <f>J11*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0</v>
       </c>
-      <c r="K4" s="287">
+      <c r="K4" s="286">
         <f>K11*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0</v>
       </c>
@@ -32610,11 +33940,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="137"/>
-      <c r="B6" s="288"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="407"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="406"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="137"/>
@@ -32640,7 +33970,7 @@
       <c r="E8" s="62">
         <v>2016</v>
       </c>
-      <c r="F8" s="304">
+      <c r="F8" s="303">
         <v>2017</v>
       </c>
       <c r="G8" s="63">
@@ -32660,7 +33990,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="344" t="s">
+      <c r="A9" s="343" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="16">
@@ -32695,12 +34025,12 @@
       <c r="J9" s="39">
         <v>0</v>
       </c>
-      <c r="K9" s="345">
+      <c r="K9" s="344">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="343" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="16">
@@ -32739,13 +34069,13 @@
         <f>INVESTICIJE!J19</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K10" s="346">
+      <c r="K10" s="345">
         <f>INVESTICIJE!K19</f>
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="344" t="s">
+      <c r="A11" s="343" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="16">
@@ -32780,51 +34110,51 @@
       <c r="J11" s="68">
         <v>0</v>
       </c>
-      <c r="K11" s="347">
+      <c r="K11" s="346">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="348" t="s">
+      <c r="A12" s="347" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="349">
+      <c r="B12" s="348">
         <f>B5/'PRIHODKI IN STROŠKI'!B$6</f>
         <v>3.2075444549998486E-2</v>
       </c>
-      <c r="C12" s="349">
+      <c r="C12" s="348">
         <f>C5/'PRIHODKI IN STROŠKI'!C$6</f>
         <v>6.1905505233325928E-2</v>
       </c>
-      <c r="D12" s="349">
+      <c r="D12" s="348">
         <f>D5/'PRIHODKI IN STROŠKI'!D$6</f>
         <v>9.9179399554540165E-2</v>
       </c>
-      <c r="E12" s="349">
+      <c r="E12" s="348">
         <f>E5/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.19105127947092529</v>
       </c>
-      <c r="F12" s="350">
+      <c r="F12" s="349">
         <f>F5/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.11341803875334121</v>
       </c>
-      <c r="G12" s="351">
+      <c r="G12" s="350">
         <f>G5/'PRIHODKI IN STROŠKI'!G$6</f>
         <v>0.08</v>
       </c>
-      <c r="H12" s="351">
+      <c r="H12" s="350">
         <f>H5/'PRIHODKI IN STROŠKI'!H$6</f>
         <v>0.08</v>
       </c>
-      <c r="I12" s="351">
+      <c r="I12" s="350">
         <f>I5/'PRIHODKI IN STROŠKI'!I$6</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J12" s="351">
+      <c r="J12" s="350">
         <f>J5/'PRIHODKI IN STROŠKI'!J$6</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K12" s="352">
+      <c r="K12" s="351">
         <f>K5/'PRIHODKI IN STROŠKI'!K$6</f>
         <v>7.0000000000000007E-2</v>
       </c>
@@ -32847,7 +34177,7 @@
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="29"/>
-      <c r="G18" s="458"/>
+      <c r="G18" s="452"/>
     </row>
     <row r="19" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="193" t="s">
@@ -32865,10 +34195,10 @@
       <c r="E19" s="62">
         <v>2016</v>
       </c>
-      <c r="F19" s="304">
+      <c r="F19" s="281">
         <v>2017</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="193">
         <v>2018</v>
       </c>
       <c r="H19" s="62">
@@ -32904,11 +34234,11 @@
         <f>AKTIVA!E7+AKTIVA!E9+AKTIVA!E10-PASIVA!E7</f>
         <v>19711480</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="282">
         <f>AKTIVA!F7+AKTIVA!F9+AKTIVA!F10-PASIVA!F7</f>
         <v>22845703</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="446">
         <f>AKTIVA!G7+AKTIVA!G9+AKTIVA!G10-PASIVA!G7</f>
         <v>24780305.997000005</v>
       </c>
@@ -32930,88 +34260,88 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="433">
+      <c r="B21" s="348">
         <f>B20/'PRIHODKI IN STROŠKI'!B$6</f>
         <v>0.18794790395802333</v>
       </c>
-      <c r="C21" s="433">
+      <c r="C21" s="348">
         <f>C20/'PRIHODKI IN STROŠKI'!C$6</f>
         <v>0.20842355143456792</v>
       </c>
-      <c r="D21" s="433">
+      <c r="D21" s="348">
         <f>D20/'PRIHODKI IN STROŠKI'!D$6</f>
         <v>0.17662969259205374</v>
       </c>
-      <c r="E21" s="433">
+      <c r="E21" s="348">
         <f>E20/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.15445327243300794</v>
       </c>
-      <c r="F21" s="434">
+      <c r="F21" s="413">
         <f>F20/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.15592942626780612</v>
       </c>
-      <c r="G21" s="435">
+      <c r="G21" s="570">
         <f>G20/'PRIHODKI IN STROŠKI'!G$6</f>
         <v>0.15000000000000005</v>
       </c>
-      <c r="H21" s="433">
+      <c r="H21" s="348">
         <f>H20/'PRIHODKI IN STROŠKI'!H$6</f>
         <v>0.12000000000000005</v>
       </c>
-      <c r="I21" s="433">
+      <c r="I21" s="348">
         <f>I20/'PRIHODKI IN STROŠKI'!I$6</f>
         <v>0.12999999999999998</v>
       </c>
-      <c r="J21" s="433">
+      <c r="J21" s="348">
         <f>J20/'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0.13</v>
       </c>
-      <c r="K21" s="436">
+      <c r="K21" s="568">
         <f>K20/'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0.12000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="285" t="s">
+      <c r="A22" s="565" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="437"/>
-      <c r="C22" s="361">
+      <c r="B22" s="566"/>
+      <c r="C22" s="567">
         <f>C20-B20</f>
         <v>3685368</v>
       </c>
-      <c r="D22" s="361">
+      <c r="D22" s="567">
         <f t="shared" ref="D22:K22" si="1">D20-C20</f>
         <v>-241232</v>
       </c>
-      <c r="E22" s="361">
+      <c r="E22" s="567">
         <f t="shared" si="1"/>
         <v>-60617</v>
       </c>
-      <c r="F22" s="361">
+      <c r="F22" s="571">
         <f t="shared" si="1"/>
         <v>3134223</v>
       </c>
-      <c r="G22" s="361">
+      <c r="G22" s="572">
         <f t="shared" si="1"/>
         <v>1934602.9970000051</v>
       </c>
-      <c r="H22" s="361">
+      <c r="H22" s="567">
         <f t="shared" si="1"/>
         <v>-2614244.2249679938</v>
       </c>
-      <c r="I22" s="361">
+      <c r="I22" s="567">
         <f t="shared" si="1"/>
         <v>4685361.7352025472</v>
       </c>
-      <c r="J22" s="361">
+      <c r="J22" s="567">
         <f t="shared" si="1"/>
         <v>3175300.8626107499</v>
       </c>
-      <c r="K22" s="362">
+      <c r="K22" s="569">
         <f t="shared" si="1"/>
         <v>969563.38951661438</v>
       </c>
@@ -33023,7 +34353,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="432"/>
+      <c r="B25" s="431"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33037,8 +34367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C193876C-D9A5-4827-B21A-157B2F90BC90}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33066,7 +34396,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -33149,7 +34479,7 @@
       <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="300" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="97">
@@ -33183,7 +34513,7 @@
         <f>J2</f>
         <v>300267.24369845307</v>
       </c>
-      <c r="K4" s="337">
+      <c r="K4" s="336">
         <f>K2</f>
         <v>335793.11739308748</v>
       </c>
@@ -33249,7 +34579,7 @@
       <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="300" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="97">
@@ -33283,13 +34613,13 @@
         <f>J21*J5</f>
         <v>4203741.4117783438</v>
       </c>
-      <c r="K7" s="337">
+      <c r="K7" s="336">
         <f>K21*K5</f>
         <v>4701103.6435032245</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="300" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="97">
@@ -33323,13 +34653,13 @@
         <f>J22*J5</f>
         <v>7922435.7375822626</v>
       </c>
-      <c r="K8" s="337">
+      <c r="K8" s="336">
         <f>K22*K5</f>
         <v>8859772.2512176149</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="301" t="s">
+      <c r="A9" s="300" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="97">
@@ -33363,52 +34693,52 @@
         <f>J23*J5</f>
         <v>4042059.049786869</v>
       </c>
-      <c r="K9" s="337">
+      <c r="K9" s="336">
         <f>K23*K5</f>
         <v>4520291.9649069468</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="338" t="s">
+      <c r="A10" s="337" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="339">
+      <c r="B10" s="338">
         <f t="shared" ref="B10:F10" si="0">B5+B2</f>
         <v>1354675</v>
       </c>
-      <c r="C10" s="339">
+      <c r="C10" s="338">
         <f t="shared" si="0"/>
         <v>3966638</v>
       </c>
-      <c r="D10" s="339">
+      <c r="D10" s="338">
         <f t="shared" si="0"/>
         <v>8984250</v>
       </c>
-      <c r="E10" s="339">
+      <c r="E10" s="338">
         <f t="shared" si="0"/>
         <v>20992447</v>
       </c>
-      <c r="F10" s="340">
+      <c r="F10" s="339">
         <f t="shared" si="0"/>
         <v>16180331</v>
       </c>
-      <c r="G10" s="339">
+      <c r="G10" s="338">
         <f>G5+G2</f>
         <v>13430925.850374</v>
       </c>
-      <c r="H10" s="341">
+      <c r="H10" s="340">
         <f>H5+H2</f>
         <v>15017506.85055168</v>
       </c>
-      <c r="I10" s="341">
+      <c r="I10" s="340">
         <f>I5+I2</f>
         <v>14726973.04666019</v>
       </c>
-      <c r="J10" s="341">
+      <c r="J10" s="340">
         <f>J5+J2</f>
         <v>16468503.442845929</v>
       </c>
-      <c r="K10" s="342">
+      <c r="K10" s="341">
         <f>K5+K2</f>
         <v>18416960.977020875</v>
       </c>
@@ -33481,7 +34811,7 @@
       <c r="E15" s="62">
         <v>2016</v>
       </c>
-      <c r="F15" s="304">
+      <c r="F15" s="303">
         <v>2017</v>
       </c>
       <c r="G15" s="63">
@@ -33501,7 +34831,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="317" t="s">
+      <c r="A16" s="316" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="120">
@@ -33558,7 +34888,7 @@
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="81"/>
-      <c r="K17" s="328"/>
+      <c r="K17" s="327"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="174" t="s">
@@ -33600,7 +34930,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="329">
+      <c r="K18" s="328">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -33658,10 +34988,10 @@
       <c r="H20" s="134"/>
       <c r="I20" s="134"/>
       <c r="J20" s="134"/>
-      <c r="K20" s="330"/>
+      <c r="K20" s="329"/>
     </row>
     <row r="21" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="322" t="s">
+      <c r="A21" s="321" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="124">
@@ -33696,12 +35026,12 @@
       <c r="J21" s="132">
         <v>0.26</v>
       </c>
-      <c r="K21" s="331">
+      <c r="K21" s="330">
         <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="322" t="s">
+      <c r="A22" s="321" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="124">
@@ -33736,47 +35066,47 @@
       <c r="J22" s="132">
         <v>0.49</v>
       </c>
-      <c r="K22" s="331">
+      <c r="K22" s="330">
         <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="82" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="323" t="s">
+      <c r="A23" s="322" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="332">
+      <c r="B23" s="331">
         <f>B9/B5</f>
         <v>0.52328682119232695</v>
       </c>
-      <c r="C23" s="332">
+      <c r="C23" s="331">
         <f>C9/C5</f>
         <v>0.26067187157226329</v>
       </c>
-      <c r="D23" s="332">
+      <c r="D23" s="331">
         <f>D9/D5</f>
         <v>0.1934003584438371</v>
       </c>
-      <c r="E23" s="332">
+      <c r="E23" s="331">
         <f>E9/E5</f>
         <v>0.12962096483880536</v>
       </c>
-      <c r="F23" s="333">
+      <c r="F23" s="332">
         <f>F9/F5</f>
         <v>0.21014584470347641</v>
       </c>
-      <c r="G23" s="334">
+      <c r="G23" s="333">
         <v>0.25</v>
       </c>
-      <c r="H23" s="335">
+      <c r="H23" s="334">
         <v>0.25</v>
       </c>
-      <c r="I23" s="335">
+      <c r="I23" s="334">
         <v>0.25</v>
       </c>
-      <c r="J23" s="335">
+      <c r="J23" s="334">
         <v>0.25</v>
       </c>
-      <c r="K23" s="336">
+      <c r="K23" s="335">
         <v>0.25</v>
       </c>
     </row>
@@ -33784,6 +35114,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="497"/>
       <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -33827,51 +35158,51 @@
       <c r="J28" s="146">
         <v>2021</v>
       </c>
-      <c r="K28" s="316">
+      <c r="K28" s="315">
         <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="317" t="s">
+      <c r="A29" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="295">
+      <c r="B29" s="294">
         <f>B31</f>
         <v>240390</v>
       </c>
-      <c r="C29" s="295">
+      <c r="C29" s="294">
         <f t="shared" ref="C29:K29" si="3">C31</f>
         <v>211090</v>
       </c>
-      <c r="D29" s="295">
+      <c r="D29" s="294">
         <f t="shared" si="3"/>
         <v>443644</v>
       </c>
-      <c r="E29" s="295">
+      <c r="E29" s="294">
         <f t="shared" si="3"/>
         <v>244397</v>
       </c>
-      <c r="F29" s="300">
+      <c r="F29" s="299">
         <f t="shared" si="3"/>
         <v>164330</v>
       </c>
-      <c r="G29" s="299">
+      <c r="G29" s="298">
         <f t="shared" si="3"/>
         <v>190386.58589503999</v>
       </c>
-      <c r="H29" s="295">
+      <c r="H29" s="294">
         <f t="shared" si="3"/>
         <v>232207.56224521276</v>
       </c>
-      <c r="I29" s="295">
+      <c r="I29" s="294">
         <f t="shared" si="3"/>
         <v>102678.73466403742</v>
       </c>
-      <c r="J29" s="295">
+      <c r="J29" s="294">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K29" s="318">
+      <c r="K29" s="317">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -33880,53 +35211,53 @@
       <c r="A30" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="296"/>
-      <c r="C30" s="296"/>
-      <c r="D30" s="296"/>
-      <c r="E30" s="296"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="298"/>
-      <c r="H30" s="296"/>
-      <c r="I30" s="296"/>
-      <c r="J30" s="296"/>
-      <c r="K30" s="319"/>
+      <c r="B30" s="295"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="295"/>
+      <c r="F30" s="296"/>
+      <c r="G30" s="297"/>
+      <c r="H30" s="295"/>
+      <c r="I30" s="295"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="318"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="292">
+      <c r="B31" s="291">
         <v>240390</v>
       </c>
-      <c r="C31" s="292">
+      <c r="C31" s="291">
         <v>211090</v>
       </c>
-      <c r="D31" s="292">
+      <c r="D31" s="291">
         <v>443644</v>
       </c>
-      <c r="E31" s="292">
+      <c r="E31" s="291">
         <v>244397</v>
       </c>
-      <c r="F31" s="293">
+      <c r="F31" s="292">
         <v>164330</v>
       </c>
-      <c r="G31" s="294">
+      <c r="G31" s="293">
         <f>AKTIVA!G3</f>
         <v>190386.58589503999</v>
       </c>
-      <c r="H31" s="294">
+      <c r="H31" s="293">
         <f>AKTIVA!H3</f>
         <v>232207.56224521276</v>
       </c>
-      <c r="I31" s="294">
+      <c r="I31" s="293">
         <f>AKTIVA!I3</f>
         <v>102678.73466403742</v>
       </c>
-      <c r="J31" s="294">
+      <c r="J31" s="293">
         <f>AKTIVA!J3</f>
         <v>0</v>
       </c>
-      <c r="K31" s="294">
+      <c r="K31" s="293">
         <f>AKTIVA!K3</f>
         <v>0</v>
       </c>
@@ -33935,43 +35266,43 @@
       <c r="A32" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="295">
+      <c r="B32" s="294">
         <f>SUM(B34:B36)</f>
         <v>16819374</v>
       </c>
-      <c r="C32" s="295">
+      <c r="C32" s="294">
         <f t="shared" ref="C32:F32" si="4">SUM(C34:C36)</f>
         <v>17401687</v>
       </c>
-      <c r="D32" s="295">
+      <c r="D32" s="294">
         <f t="shared" si="4"/>
         <v>20044610</v>
       </c>
-      <c r="E32" s="295">
+      <c r="E32" s="294">
         <f t="shared" si="4"/>
         <v>34209780</v>
       </c>
-      <c r="F32" s="300">
+      <c r="F32" s="299">
         <f t="shared" si="4"/>
         <v>42855483</v>
       </c>
-      <c r="G32" s="299">
+      <c r="G32" s="298">
         <f>AKTIVA!G2</f>
         <v>57650135.418910973</v>
       </c>
-      <c r="H32" s="299">
+      <c r="H32" s="298">
         <f>AKTIVA!H2</f>
         <v>65247272.693211831</v>
       </c>
-      <c r="I32" s="299">
+      <c r="I32" s="298">
         <f>AKTIVA!I2</f>
         <v>71956409.32558845</v>
       </c>
-      <c r="J32" s="299">
+      <c r="J32" s="298">
         <f>AKTIVA!J2</f>
         <v>79738941.568726242</v>
       </c>
-      <c r="K32" s="299">
+      <c r="K32" s="298">
         <f>AKTIVA!K2</f>
         <v>88722730.705389395</v>
       </c>
@@ -33980,133 +35311,133 @@
       <c r="A33" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="289"/>
-      <c r="C33" s="289"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="291"/>
-      <c r="H33" s="289"/>
-      <c r="I33" s="289"/>
-      <c r="J33" s="289"/>
-      <c r="K33" s="321"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="288"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="290"/>
+      <c r="H33" s="288"/>
+      <c r="I33" s="288"/>
+      <c r="J33" s="288"/>
+      <c r="K33" s="320"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="322" t="s">
+      <c r="A34" s="321" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="292">
+      <c r="B34" s="291">
         <v>5971597</v>
       </c>
-      <c r="C34" s="292">
+      <c r="C34" s="291">
         <v>6288588</v>
       </c>
-      <c r="D34" s="292">
+      <c r="D34" s="291">
         <v>7301671</v>
       </c>
-      <c r="E34" s="292">
+      <c r="E34" s="291">
         <v>14551903</v>
       </c>
-      <c r="F34" s="293">
+      <c r="F34" s="292">
         <v>17529047</v>
       </c>
-      <c r="G34" s="294">
+      <c r="G34" s="293">
         <f>F34+G7-AMORTIZACIJA!G56</f>
         <v>19782271.298636481</v>
       </c>
-      <c r="H34" s="294">
+      <c r="H34" s="293">
         <f>G34+H7-AMORTIZACIJA!H56</f>
         <v>22326147.018293276</v>
       </c>
-      <c r="I34" s="294">
+      <c r="I34" s="293">
         <f>H34+I7-AMORTIZACIJA!I56</f>
         <v>24674328.676413644</v>
       </c>
-      <c r="J34" s="294">
+      <c r="J34" s="293">
         <f>I34+J7-AMORTIZACIJA!J56</f>
         <v>27340940.212946165</v>
       </c>
-      <c r="K34" s="320">
+      <c r="K34" s="319">
         <f>J34+K7-AMORTIZACIJA!K56</f>
         <v>30363880.871898469</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="322" t="s">
+      <c r="A35" s="321" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="292">
+      <c r="B35" s="291">
         <v>8700466</v>
       </c>
-      <c r="C35" s="292">
+      <c r="C35" s="291">
         <v>8648021</v>
       </c>
-      <c r="D35" s="292">
+      <c r="D35" s="291">
         <v>9792792</v>
       </c>
-      <c r="E35" s="292">
+      <c r="E35" s="291">
         <v>15525706</v>
       </c>
-      <c r="F35" s="293">
+      <c r="F35" s="292">
         <v>19716853</v>
       </c>
-      <c r="G35" s="294">
+      <c r="G35" s="293">
         <f>F35+G8-AMORTIZACIJA!G68</f>
         <v>21681689.952658497</v>
       </c>
-      <c r="H35" s="294">
+      <c r="H35" s="293">
         <f>G35+H8-AMORTIZACIJA!H68</f>
         <v>24092920.255761445</v>
       </c>
-      <c r="I35" s="294">
+      <c r="I35" s="293">
         <f>H35+I8-AMORTIZACIJA!I68</f>
         <v>26036157.492367476</v>
       </c>
-      <c r="J35" s="294">
+      <c r="J35" s="293">
         <f>I35+J8-AMORTIZACIJA!J68</f>
         <v>28468598.476424113</v>
       </c>
-      <c r="K35" s="320">
+      <c r="K35" s="319">
         <f>J35+K8-AMORTIZACIJA!K68</f>
         <v>31448545.995062526</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="323" t="s">
+      <c r="A36" s="322" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="324">
+      <c r="B36" s="323">
         <v>2147311</v>
       </c>
-      <c r="C36" s="324">
+      <c r="C36" s="323">
         <v>2465078</v>
       </c>
-      <c r="D36" s="324">
+      <c r="D36" s="323">
         <v>2950147</v>
       </c>
-      <c r="E36" s="324">
+      <c r="E36" s="323">
         <v>4132171</v>
       </c>
-      <c r="F36" s="325">
+      <c r="F36" s="324">
         <v>5609583</v>
       </c>
-      <c r="G36" s="326">
+      <c r="G36" s="325">
         <f>F36+G9-AMORTIZACIJA!G80</f>
         <v>8009085.1676159995</v>
       </c>
-      <c r="H36" s="326">
+      <c r="H36" s="325">
         <f>G36+H9-AMORTIZACIJA!H80</f>
         <v>10651116.419157118</v>
       </c>
-      <c r="I36" s="326">
+      <c r="I36" s="325">
         <f>H36+I9-AMORTIZACIJA!I80</f>
         <v>13068834.156807318</v>
       </c>
-      <c r="J36" s="326">
+      <c r="J36" s="325">
         <f>I36+J9-AMORTIZACIJA!J80</f>
         <v>15752313.879355954</v>
       </c>
-      <c r="K36" s="327">
+      <c r="K36" s="326">
         <f>J36+K9-AMORTIZACIJA!K80</f>
         <v>18733214.838428389</v>
       </c>
@@ -34128,8 +35459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B39DD-43BF-4414-9258-52BD9D95E4C8}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34157,7 +35488,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="98"/>
@@ -34212,7 +35543,7 @@
       <c r="K3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="300" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="97">
@@ -34235,7 +35566,7 @@
       <c r="I4" s="240"/>
       <c r="J4" s="240"/>
       <c r="K4" s="240"/>
-      <c r="L4" s="460"/>
+      <c r="L4" s="454"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="250" t="s">
@@ -34283,7 +35614,7 @@
       <c r="K6" s="100"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="300" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="97">
@@ -34308,7 +35639,7 @@
       <c r="K7" s="240"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="300" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="97">
@@ -34331,25 +35662,25 @@
       <c r="I8" s="240"/>
       <c r="J8" s="240"/>
       <c r="K8" s="240"/>
-      <c r="L8" s="460"/>
+      <c r="L8" s="454"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="302" t="s">
+      <c r="A9" s="301" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="303">
+      <c r="B9" s="302">
         <v>993652</v>
       </c>
-      <c r="C9" s="303">
+      <c r="C9" s="302">
         <v>1051221</v>
       </c>
-      <c r="D9" s="303">
+      <c r="D9" s="302">
         <v>1139044</v>
       </c>
-      <c r="E9" s="303">
+      <c r="E9" s="302">
         <v>1374122</v>
       </c>
-      <c r="F9" s="408">
+      <c r="F9" s="407">
         <v>1835794</v>
       </c>
       <c r="G9" s="240"/>
@@ -34380,7 +35711,7 @@
       <c r="E12" s="62">
         <v>2016</v>
       </c>
-      <c r="F12" s="304">
+      <c r="F12" s="303">
         <v>2017</v>
       </c>
       <c r="G12" s="63">
@@ -34439,7 +35770,7 @@
         <f>J44/'PRIHODKI IN STROŠKI'!J6</f>
         <v>1.8347826815978499E-3</v>
       </c>
-      <c r="K13" s="305">
+      <c r="K13" s="304">
         <f>K44/'PRIHODKI IN STROŠKI'!K6</f>
         <v>1.7521752574652307E-3</v>
       </c>
@@ -34499,7 +35830,7 @@
         <f>100%</f>
         <v>1</v>
       </c>
-      <c r="K15" s="306">
+      <c r="K15" s="305">
         <f>100%</f>
         <v>1</v>
       </c>
@@ -34544,7 +35875,7 @@
         <f>(J80+J68+J56)/'PRIHODKI IN STROŠKI'!J6</f>
         <v>3.6305708902968005E-2</v>
       </c>
-      <c r="K16" s="307">
+      <c r="K16" s="306">
         <f>(K80+K68+K56)/'PRIHODKI IN STROŠKI'!K6</f>
         <v>3.5219877142417824E-2</v>
       </c>
@@ -34604,7 +35935,7 @@
         <f t="shared" si="2"/>
         <v>0.18330361807540618</v>
       </c>
-      <c r="K18" s="308">
+      <c r="K18" s="307">
         <f t="shared" si="2"/>
         <v>0.18446665085127317</v>
       </c>
@@ -34649,52 +35980,52 @@
         <f t="shared" si="4"/>
         <v>0.6546850189710286</v>
       </c>
-      <c r="K19" s="308">
+      <c r="K19" s="307">
         <f t="shared" si="4"/>
         <v>0.64632076025775254</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="309" t="s">
+      <c r="A20" s="308" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="310">
+      <c r="B20" s="309">
         <f t="shared" ref="B20:F20" si="5">B9/B$5</f>
         <v>0.18209239899311985</v>
       </c>
-      <c r="C20" s="310">
+      <c r="C20" s="309">
         <f t="shared" si="5"/>
         <v>0.20658000777017727</v>
       </c>
-      <c r="D20" s="310">
+      <c r="D20" s="309">
         <f t="shared" si="5"/>
         <v>0.21893492943994033</v>
       </c>
-      <c r="E20" s="310">
+      <c r="E20" s="309">
         <f t="shared" si="5"/>
         <v>0.22941393116790706</v>
       </c>
-      <c r="F20" s="311">
+      <c r="F20" s="310">
         <f t="shared" si="5"/>
         <v>0.25484545276098286</v>
       </c>
-      <c r="G20" s="312">
+      <c r="G20" s="311">
         <f>G80/(G80+G68+G56)</f>
         <v>0.13708039011483203</v>
       </c>
-      <c r="H20" s="312">
+      <c r="H20" s="311">
         <f t="shared" ref="H20:K20" si="6">H80/(H80+H68+H56)</f>
         <v>0.14655676990892039</v>
       </c>
-      <c r="I20" s="312">
+      <c r="I20" s="311">
         <f t="shared" si="6"/>
         <v>0.15445182656847334</v>
       </c>
-      <c r="J20" s="312">
+      <c r="J20" s="311">
         <f t="shared" si="6"/>
         <v>0.16201136295356527</v>
       </c>
-      <c r="K20" s="313">
+      <c r="K20" s="312">
         <f t="shared" si="6"/>
         <v>0.16921258889097424</v>
       </c>
@@ -34716,7 +36047,7 @@
       <c r="C23" s="104"/>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
-      <c r="F23" s="304" t="s">
+      <c r="F23" s="303" t="s">
         <v>241</v>
       </c>
       <c r="G23" s="63">
@@ -34731,7 +36062,7 @@
       <c r="J23" s="62">
         <v>2021</v>
       </c>
-      <c r="K23" s="314">
+      <c r="K23" s="313">
         <v>2022</v>
       </c>
     </row>
@@ -34818,7 +36149,7 @@
         <f>K24</f>
         <v>180115.56</v>
       </c>
-      <c r="L26" s="432"/>
+      <c r="L26" s="431"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="84" t="s">
@@ -34852,7 +36183,7 @@
         <f t="shared" si="7"/>
         <v>6078411.595999999</v>
       </c>
-      <c r="L27" s="432"/>
+      <c r="L27" s="431"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="85" t="s">
@@ -34868,7 +36199,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="52"/>
-      <c r="L28" s="432"/>
+      <c r="L28" s="431"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="86" t="s">
@@ -36276,7 +37607,7 @@
         <f t="shared" si="19"/>
         <v>8809492.5241551027</v>
       </c>
-      <c r="K89" s="315">
+      <c r="K89" s="314">
         <f t="shared" si="19"/>
         <v>9549969.7936748527</v>
       </c>
@@ -36362,7 +37693,7 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38044,8 +39375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCCC69F-E9DD-4E05-8C72-E6D15378301D}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38082,7 +39413,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="420" t="s">
+      <c r="A5" s="419" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="100">
@@ -38102,7 +39433,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="423" t="s">
+      <c r="A6" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B6" s="216"/>
@@ -38124,7 +39455,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="429" t="s">
+      <c r="A7" s="428" t="s">
         <v>176</v>
       </c>
       <c r="B7" s="100">
@@ -38144,7 +39475,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="423" t="s">
+      <c r="A8" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B8" s="216"/>
@@ -38166,7 +39497,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="420" t="s">
+      <c r="A9" s="419" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="100">
@@ -38186,7 +39517,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="423" t="s">
+      <c r="A10" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="216"/>
@@ -38208,7 +39539,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="430" t="s">
+      <c r="A11" s="429" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="236">
@@ -38233,7 +39564,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="420" t="s">
+      <c r="A12" s="419" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="100">
@@ -38253,7 +39584,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="423" t="s">
+      <c r="A13" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="216"/>
@@ -38275,7 +39606,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="420" t="s">
+      <c r="A14" s="419" t="s">
         <v>180</v>
       </c>
       <c r="B14" s="100">
@@ -38295,7 +39626,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="420" t="s">
+      <c r="A15" s="419" t="s">
         <v>169</v>
       </c>
       <c r="B15" s="100">
@@ -38328,7 +39659,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="420" t="s">
+      <c r="A17" s="419" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="100">
@@ -38348,7 +39679,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="423" t="s">
+      <c r="A18" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="216"/>
@@ -38370,7 +39701,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="429" t="s">
+      <c r="A19" s="428" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="100">
@@ -38390,7 +39721,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="423" t="s">
+      <c r="A20" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B20" s="216"/>
@@ -38412,7 +39743,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="420" t="s">
+      <c r="A21" s="419" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="100">
@@ -38437,7 +39768,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="423" t="s">
+      <c r="A22" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B22" s="216"/>
@@ -38459,7 +39790,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="160" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="430" t="s">
+      <c r="A23" s="429" t="s">
         <v>178</v>
       </c>
       <c r="B23" s="236">
@@ -38484,7 +39815,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="420" t="s">
+      <c r="A24" s="419" t="s">
         <v>182</v>
       </c>
       <c r="B24" s="100">
@@ -38504,7 +39835,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="423" t="s">
+      <c r="A25" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B25" s="216"/>
@@ -38526,7 +39857,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="420" t="s">
+      <c r="A26" s="419" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="100">
@@ -38559,7 +39890,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="420" t="s">
+      <c r="A28" s="419" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="100">
@@ -38579,7 +39910,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="423" t="s">
+      <c r="A29" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B29" s="216"/>
@@ -38601,7 +39932,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="429" t="s">
+      <c r="A30" s="428" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="100">
@@ -38621,7 +39952,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="423" t="s">
+      <c r="A31" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B31" s="216"/>
@@ -38643,7 +39974,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="420" t="s">
+      <c r="A32" s="419" t="s">
         <v>177</v>
       </c>
       <c r="B32" s="100">
@@ -38668,7 +39999,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="423" t="s">
+      <c r="A33" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="216"/>
@@ -38690,7 +40021,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="430" t="s">
+      <c r="A34" s="429" t="s">
         <v>178</v>
       </c>
       <c r="B34" s="236">
@@ -38715,7 +40046,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="420" t="s">
+      <c r="A35" s="419" t="s">
         <v>179</v>
       </c>
       <c r="B35" s="100">
@@ -38735,7 +40066,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="423" t="s">
+      <c r="A36" s="422" t="s">
         <v>175</v>
       </c>
       <c r="B36" s="216"/>
@@ -38757,7 +40088,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="420" t="s">
+      <c r="A37" s="419" t="s">
         <v>169</v>
       </c>
       <c r="B37" s="100">
@@ -38790,7 +40121,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="420" t="s">
+      <c r="A39" s="419" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="100">
@@ -38815,7 +40146,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="431" t="s">
+      <c r="A40" s="430" t="s">
         <v>184</v>
       </c>
       <c r="B40" s="240"/>
@@ -38837,32 +40168,32 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="541" t="s">
+      <c r="A41" s="533" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="542">
+      <c r="B41" s="534">
         <f>'FCF - KONČNI_IZRAČUN'!B5</f>
         <v>2885192</v>
       </c>
-      <c r="C41" s="542">
+      <c r="C41" s="534">
         <f>'FCF - KONČNI_IZRAČUN'!C5</f>
         <v>6276734</v>
       </c>
-      <c r="D41" s="542">
+      <c r="D41" s="534">
         <f>'FCF - KONČNI_IZRAČUN'!D5</f>
         <v>8390559</v>
       </c>
-      <c r="E41" s="542">
+      <c r="E41" s="534">
         <f>'FCF - KONČNI_IZRAČUN'!E5</f>
         <v>10217587</v>
       </c>
-      <c r="F41" s="543">
+      <c r="F41" s="535">
         <f>'FCF - KONČNI_IZRAČUN'!F5</f>
         <v>10844757</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="425" t="s">
+      <c r="A42" s="424" t="s">
         <v>185</v>
       </c>
       <c r="B42" s="242">
@@ -38887,7 +40218,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="423" t="s">
+      <c r="A43" s="422" t="s">
         <v>186</v>
       </c>
       <c r="B43" s="216"/>
@@ -38909,7 +40240,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="420" t="s">
+      <c r="A44" s="419" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="100">
@@ -38934,7 +40265,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="420" t="s">
+      <c r="A45" s="419" t="s">
         <v>169</v>
       </c>
       <c r="B45" s="100">
@@ -38947,7 +40278,7 @@
       <c r="F45" s="211"/>
     </row>
     <row r="46" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="424" t="s">
+      <c r="A46" s="423" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="218"/>
@@ -39090,7 +40421,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="544">
+      <c r="B55" s="536">
         <f>AVERAGE(B54:F54)</f>
         <v>0.1015751990728178</v>
       </c>
@@ -39104,22 +40435,22 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="426" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="209">
@@ -39139,7 +40470,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="420" t="s">
+      <c r="A3" s="419" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="100">
@@ -39164,7 +40495,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="420" t="s">
+      <c r="A4" s="419" t="s">
         <v>136</v>
       </c>
       <c r="B4" s="100">
@@ -39189,7 +40520,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="420" t="s">
+      <c r="A5" s="419" t="s">
         <v>137</v>
       </c>
       <c r="B5" s="100">
@@ -39214,7 +40545,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="420" t="s">
+      <c r="A6" s="419" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="100">
@@ -39239,7 +40570,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="421" t="s">
+      <c r="A7" s="420" t="s">
         <v>139</v>
       </c>
       <c r="B7" s="212">
@@ -39260,7 +40591,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="427" t="s">
+      <c r="A10" s="426" t="s">
         <v>140</v>
       </c>
       <c r="B10" s="209">
@@ -39280,7 +40611,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="420" t="s">
+      <c r="A11" s="419" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="100">
@@ -39305,7 +40636,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="420" t="s">
+      <c r="A12" s="419" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="100">
@@ -39330,7 +40661,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="420" t="s">
+      <c r="A13" s="419" t="s">
         <v>141</v>
       </c>
       <c r="B13" s="100">
@@ -39355,7 +40686,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="420" t="s">
+      <c r="A14" s="419" t="s">
         <v>142</v>
       </c>
       <c r="B14" s="100">
@@ -39378,7 +40709,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="421" t="s">
+      <c r="A15" s="420" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="212">
@@ -39404,7 +40735,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="427" t="s">
+      <c r="A20" s="426" t="s">
         <v>144</v>
       </c>
       <c r="B20" s="209">
@@ -39424,7 +40755,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="420" t="s">
+      <c r="A21" s="419" t="s">
         <v>145</v>
       </c>
       <c r="B21" s="100">
@@ -39449,7 +40780,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="420" t="s">
+      <c r="A22" s="419" t="s">
         <v>146</v>
       </c>
       <c r="B22" s="100">
@@ -39474,7 +40805,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="422" t="s">
+      <c r="A23" s="421" t="s">
         <v>147</v>
       </c>
       <c r="B23" s="214">
@@ -39500,7 +40831,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="427" t="s">
+      <c r="A27" s="426" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="209">
@@ -39520,7 +40851,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="420" t="s">
+      <c r="A28" s="419" t="s">
         <v>149</v>
       </c>
       <c r="B28" s="100">
@@ -39545,7 +40876,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="420" t="s">
+      <c r="A29" s="419" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="100">
@@ -39570,7 +40901,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="423" t="s">
+      <c r="A30" s="422" t="s">
         <v>151</v>
       </c>
       <c r="B30" s="216"/>
@@ -39592,7 +40923,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="424" t="s">
+      <c r="A31" s="423" t="s">
         <v>152</v>
       </c>
       <c r="B31" s="218"/>
@@ -39614,32 +40945,32 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="553" t="s">
+      <c r="A32" s="545" t="s">
         <v>330</v>
       </c>
-      <c r="B32" s="554">
+      <c r="B32" s="546">
         <f>(PASIVA!B3+PASIVA!B6)/'KAZALNIKI - PODJETJE X'!B29</f>
         <v>1.5654143183581095</v>
       </c>
-      <c r="C32" s="554">
+      <c r="C32" s="546">
         <f>(PASIVA!C3+PASIVA!C6)/'KAZALNIKI - PODJETJE X'!C29</f>
         <v>1.015625861530751</v>
       </c>
-      <c r="D32" s="554">
+      <c r="D32" s="546">
         <f>(PASIVA!D3+PASIVA!D6)/'KAZALNIKI - PODJETJE X'!D29</f>
         <v>0.65281307357786678</v>
       </c>
-      <c r="E32" s="554">
+      <c r="E32" s="546">
         <f>(PASIVA!E3+PASIVA!E6)/'KAZALNIKI - PODJETJE X'!E29</f>
         <v>1.0233419604197698</v>
       </c>
-      <c r="F32" s="555">
+      <c r="F32" s="547">
         <f>(PASIVA!F3+PASIVA!F6)/'KAZALNIKI - PODJETJE X'!F29</f>
         <v>1.0543419990149776</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="460"/>
+      <c r="C33" s="454"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -39663,7 +40994,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="428" t="s">
+      <c r="A36" s="427" t="s">
         <v>154</v>
       </c>
       <c r="B36" s="220"/>
@@ -39673,7 +41004,7 @@
       <c r="F36" s="221"/>
     </row>
     <row r="37" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="423" t="s">
+      <c r="A37" s="422" t="s">
         <v>155</v>
       </c>
       <c r="B37" s="216">
@@ -39698,7 +41029,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="425"/>
+      <c r="A38" s="424"/>
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
@@ -39706,7 +41037,7 @@
       <c r="F38" s="222"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="428" t="s">
+      <c r="A39" s="427" t="s">
         <v>156</v>
       </c>
       <c r="B39" s="137"/>
@@ -39716,7 +41047,7 @@
       <c r="F39" s="222"/>
     </row>
     <row r="40" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="423" t="s">
+      <c r="A40" s="422" t="s">
         <v>157</v>
       </c>
       <c r="B40" s="216">
@@ -39741,7 +41072,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="425"/>
+      <c r="A41" s="424"/>
       <c r="B41" s="137"/>
       <c r="C41" s="137"/>
       <c r="D41" s="137"/>
@@ -39749,7 +41080,7 @@
       <c r="F41" s="222"/>
     </row>
     <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="428" t="s">
+      <c r="A42" s="427" t="s">
         <v>158</v>
       </c>
       <c r="B42" s="220"/>
@@ -39759,7 +41090,7 @@
       <c r="F42" s="221"/>
     </row>
     <row r="43" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="424" t="s">
+      <c r="A43" s="423" t="s">
         <v>159</v>
       </c>
       <c r="B43" s="218">
@@ -39805,7 +41136,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="428" t="s">
+      <c r="A49" s="427" t="s">
         <v>161</v>
       </c>
       <c r="B49" s="220"/>
@@ -39815,7 +41146,7 @@
       <c r="F49" s="221"/>
     </row>
     <row r="50" spans="1:6" s="160" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="426" t="s">
+      <c r="A50" s="425" t="s">
         <v>162</v>
       </c>
       <c r="B50" s="223">
@@ -39861,7 +41192,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="428" t="s">
+      <c r="A55" s="427" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="137"/>
@@ -39871,7 +41202,7 @@
       <c r="F55" s="222"/>
     </row>
     <row r="56" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="423" t="s">
+      <c r="A56" s="422" t="s">
         <v>165</v>
       </c>
       <c r="B56" s="216">
@@ -39896,7 +41227,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="425"/>
+      <c r="A57" s="424"/>
       <c r="B57" s="137"/>
       <c r="C57" s="137"/>
       <c r="D57" s="137"/>
@@ -39904,7 +41235,7 @@
       <c r="F57" s="222"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="428" t="s">
+      <c r="A58" s="427" t="s">
         <v>166</v>
       </c>
       <c r="B58" s="137"/>
@@ -39914,7 +41245,7 @@
       <c r="F58" s="222"/>
     </row>
     <row r="59" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="424" t="s">
+      <c r="A59" s="423" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="218">
@@ -39990,7 +41321,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="428" t="s">
+      <c r="A70" s="427" t="s">
         <v>239</v>
       </c>
       <c r="B70" s="220"/>
@@ -40000,7 +41331,7 @@
       <c r="F70" s="221"/>
     </row>
     <row r="71" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="423" t="s">
+      <c r="A71" s="422" t="s">
         <v>172</v>
       </c>
       <c r="B71" s="216">
@@ -40025,7 +41356,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" s="159" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="424" t="s">
+      <c r="A72" s="423" t="s">
         <v>173</v>
       </c>
       <c r="B72" s="218">
@@ -40053,7 +41384,7 @@
       <c r="F74" s="137"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="419"/>
+      <c r="A75" s="418"/>
       <c r="B75" s="162" t="s">
         <v>168</v>
       </c>
@@ -40080,7 +41411,7 @@
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="427" t="s">
+      <c r="A79" s="426" t="s">
         <v>319</v>
       </c>
       <c r="B79" s="209">
@@ -40100,7 +41431,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="425" t="s">
+      <c r="A80" s="424" t="s">
         <v>320</v>
       </c>
       <c r="B80" s="137">
@@ -40125,31 +41456,31 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="545"/>
-      <c r="B81" s="534"/>
-      <c r="C81" s="534"/>
-      <c r="D81" s="534"/>
-      <c r="E81" s="534"/>
-      <c r="F81" s="535"/>
+      <c r="A81" s="537"/>
+      <c r="B81" s="526"/>
+      <c r="C81" s="526"/>
+      <c r="D81" s="526"/>
+      <c r="E81" s="526"/>
+      <c r="F81" s="527"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="544">
+      <c r="B82" s="536">
         <f>AVERAGE(B80:F80)</f>
         <v>6.877818037038877E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="564" t="s">
+      <c r="A88" s="590" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="565"/>
+      <c r="B88" s="591"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="B89" s="548">
+      <c r="B89" s="540">
         <f>AVERAGE(AKTIVA!B17:F17)</f>
         <v>76032002.599999994</v>
       </c>
@@ -40158,20 +41489,20 @@
       <c r="A90" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="B90" s="548">
+      <c r="B90" s="540">
         <f>AVERAGE(PASIVA!B25:F25)</f>
         <v>37744254</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="57"/>
-      <c r="B91" s="548"/>
+      <c r="B91" s="540"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="548">
+      <c r="B92" s="540">
         <f>'ANALIZA DELNICE'!G3*'ANALIZA DELNICE'!G9</f>
         <v>2145767.7735000001</v>
       </c>
@@ -40180,7 +41511,7 @@
       <c r="A93" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="548">
+      <c r="B93" s="540">
         <f>AVERAGE('FCF - KONČNI_IZRAČUN'!B5:F5)</f>
         <v>7722965.7999999998</v>
       </c>
@@ -40193,6 +41524,120 @@
         <f>B82</f>
         <v>6.877818037038877E-2</v>
       </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="555" t="s">
+        <v>332</v>
+      </c>
+      <c r="B97" s="556">
+        <v>2013</v>
+      </c>
+      <c r="C97" s="556">
+        <v>2014</v>
+      </c>
+      <c r="D97" s="556">
+        <v>2015</v>
+      </c>
+      <c r="E97" s="556">
+        <v>2016</v>
+      </c>
+      <c r="F97" s="557">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="B98" s="558">
+        <v>5737566</v>
+      </c>
+      <c r="C98" s="558">
+        <v>8362320</v>
+      </c>
+      <c r="D98" s="558">
+        <v>13033474</v>
+      </c>
+      <c r="E98" s="558">
+        <v>21373193</v>
+      </c>
+      <c r="F98" s="540">
+        <v>22042907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B99" s="558">
+        <f>26884665+18702714+4234638</f>
+        <v>49822017</v>
+      </c>
+      <c r="C99" s="559">
+        <f>25530200 + 5232518 + 18987558</f>
+        <v>49750276</v>
+      </c>
+      <c r="D99" s="558">
+        <f>25671415 + 5043891 + 20100809</f>
+        <v>50816115</v>
+      </c>
+      <c r="E99" s="558">
+        <f>6525151 +23389264 + 22224673</f>
+        <v>52139088</v>
+      </c>
+      <c r="F99" s="540">
+        <f>8346219 + 23726024 +26489861</f>
+        <v>58562104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" s="561">
+        <v>6280570</v>
+      </c>
+      <c r="C100" s="561">
+        <v>8076665</v>
+      </c>
+      <c r="D100" s="561">
+        <v>10029807</v>
+      </c>
+      <c r="E100" s="561">
+        <v>13269198</v>
+      </c>
+      <c r="F100" s="560">
+        <v>19084478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="564" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="495">
+        <f>B98/'PRIHODKI IN STROŠKI'!B2</f>
+        <v>6.8496142264045143E-2</v>
+      </c>
+      <c r="C101" s="495">
+        <f>C98/'PRIHODKI IN STROŠKI'!C2</f>
+        <v>9.0562956000390396E-2</v>
+      </c>
+      <c r="D101" s="495">
+        <f>D98/'PRIHODKI IN STROŠKI'!D2</f>
+        <v>0.12303589280439521</v>
+      </c>
+      <c r="E101" s="495">
+        <f>E98/'PRIHODKI IN STROŠKI'!E2</f>
+        <v>0.17664111194051069</v>
+      </c>
+      <c r="F101" s="496">
+        <f>F98/'PRIHODKI IN STROŠKI'!F2</f>
+        <v>0.15817476359399896</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B103" s="559"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -40210,7 +41655,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40240,7 +41685,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -40262,23 +41707,23 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="432" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="467" t="s">
+    <row r="2" spans="1:12" s="431" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="461" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="468">
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="462">
         <v>11421674</v>
       </c>
-      <c r="G2" s="464"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="465"/>
-      <c r="L2" s="466"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="459"/>
+      <c r="L2" s="460"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
@@ -40426,11 +41871,11 @@
         <f t="shared" si="3"/>
         <v>1.2177480666067659</v>
       </c>
-      <c r="F6" s="392">
+      <c r="F6" s="391">
         <f t="shared" si="3"/>
         <v>1.0613814200945879</v>
       </c>
-      <c r="G6" s="389">
+      <c r="G6" s="388">
         <f>G5/F5</f>
         <v>1.2029617093012404</v>
       </c>
@@ -40471,11 +41916,11 @@
         <f t="shared" si="4"/>
         <v>5.9251504793472132E-2</v>
       </c>
-      <c r="F7" s="393">
+      <c r="F7" s="392">
         <f>F4/F3</f>
         <v>6.0923000455044743E-2</v>
       </c>
-      <c r="G7" s="390">
+      <c r="G7" s="389">
         <v>0.04</v>
       </c>
       <c r="H7" s="280">
@@ -40493,7 +41938,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" s="29"/>
-      <c r="G8" s="391">
+      <c r="G8" s="390">
         <v>5000000</v>
       </c>
       <c r="H8" s="278">
@@ -40773,7 +42218,42 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F16" s="29"/>
+      <c r="B16">
+        <f>C15/B15</f>
+        <v>0.33438189214919473</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:F16" si="7">D15/C15</f>
+        <v>1.5631834558400255</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>-2.6637386309158004</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>0.19039223903071087</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>-3.1192406942028583</v>
+      </c>
+      <c r="G16">
+        <f>H15/G15</f>
+        <v>1.6411864956673201</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:J16" si="8">I15/H15</f>
+        <v>0.56970454873893006</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>1.4109768586280744</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>1.7885888541982691</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
@@ -40786,7 +42266,7 @@
       <c r="F19" s="29"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="432"/>
+      <c r="G20" s="431"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40800,7 +42280,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40819,133 +42299,133 @@
       <c r="E2" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="442" t="s">
+      <c r="F2" s="436" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="486" t="s">
+      <c r="G2" s="478" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="486" t="s">
+      <c r="H2" s="478" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="486" t="s">
+      <c r="I2" s="478" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="479" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="432"/>
-      <c r="B3" s="442" t="s">
+      <c r="A3" s="431"/>
+      <c r="B3" s="436" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="479">
+      <c r="C3" s="472">
         <f>F5/H3</f>
         <v>1.8231347200545721E-2</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="573">
         <v>127169209</v>
       </c>
-      <c r="G3" s="461">
+      <c r="G3" s="562">
         <f>PASIVA!F25</f>
         <v>55347711</v>
       </c>
-      <c r="H3" s="461">
+      <c r="H3" s="562">
         <f>PASIVA!F3+PASIVA!F6</f>
         <v>19983877</v>
       </c>
-      <c r="I3" s="461">
+      <c r="I3" s="562">
         <f>'FCF - KONČNI_IZRAČUN'!F4</f>
         <v>703558</v>
       </c>
-      <c r="J3" s="321">
+      <c r="J3" s="563">
         <f>'FCF - KONČNI_IZRAČUN'!F2</f>
         <v>11421674</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="432"/>
+      <c r="A4" s="431"/>
       <c r="B4" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="480">
+      <c r="C4" s="473">
         <f>I3/J3</f>
         <v>6.1598501235458132E-2</v>
       </c>
-      <c r="D4" s="489">
+      <c r="D4" s="481">
         <v>0.19</v>
       </c>
       <c r="F4" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
+      <c r="I4" s="455"/>
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="432"/>
-      <c r="B5" s="469" t="s">
+      <c r="A5" s="431"/>
+      <c r="B5" s="575" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="481">
-        <f>C3*(1-C4)</f>
-        <v>1.710832353748884E-2</v>
-      </c>
-      <c r="F5" s="93">
+      <c r="C5" s="576">
+        <f>C3*(1-D4)</f>
+        <v>1.4767391232442036E-2</v>
+      </c>
+      <c r="F5" s="574">
         <f>5603+358730</f>
         <v>364333</v>
       </c>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
+      <c r="G5" s="456"/>
+      <c r="H5" s="456"/>
+      <c r="I5" s="456"/>
       <c r="J5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="477"/>
-      <c r="B6" s="475"/>
-      <c r="C6" s="478"/>
+      <c r="A6" s="470"/>
+      <c r="B6" s="468"/>
+      <c r="C6" s="471"/>
     </row>
     <row r="7" spans="1:13" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="477"/>
-      <c r="B7" s="475"/>
-      <c r="C7" s="478"/>
+      <c r="A7" s="470"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="471"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="442" t="s">
+      <c r="B8" s="436" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="499">
+      <c r="C8" s="491">
         <f>F9</f>
         <v>1.01</v>
       </c>
-      <c r="F8" s="442" t="s">
+      <c r="F8" s="436" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="486" t="s">
+      <c r="G8" s="478" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="487" t="s">
+      <c r="H8" s="479" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="470" t="s">
+      <c r="B9" s="463" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="500">
+      <c r="C9" s="492">
         <f>H9</f>
         <v>1.3522079935556053</v>
       </c>
-      <c r="F9" s="488">
+      <c r="F9" s="480">
         <v>1.01</v>
       </c>
       <c r="G9" s="175">
         <f>C11/C10</f>
         <v>0.36106058658866663</v>
       </c>
-      <c r="H9" s="517">
+      <c r="H9" s="509">
         <f>C8*(1+(1-C4)*G9)</f>
         <v>1.3522079935556053</v>
       </c>
@@ -40954,7 +42434,7 @@
       <c r="B10" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="482">
+      <c r="C10" s="474">
         <f>G3/(G3+H3)</f>
         <v>0.73472115044222885</v>
       </c>
@@ -40963,60 +42443,61 @@
       <c r="B11" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="483">
+      <c r="C11" s="475">
         <f>H3/(H3+G3)</f>
         <v>0.26527884955777115</v>
       </c>
+      <c r="E11" s="431"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="515">
+      <c r="C12" s="507">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="556" t="s">
+      <c r="F12" s="582" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="557"/>
-      <c r="H12" s="558"/>
-      <c r="J12" s="507" t="s">
+      <c r="G12" s="583"/>
+      <c r="H12" s="584"/>
+      <c r="J12" s="499" t="s">
         <v>286</v>
       </c>
-      <c r="K12" s="509"/>
-      <c r="L12" s="509"/>
-      <c r="M12" s="504"/>
+      <c r="K12" s="501"/>
+      <c r="L12" s="501"/>
+      <c r="M12" s="496"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="515">
+      <c r="C13" s="507">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="F13" s="493">
+      <c r="F13" s="485">
         <v>42736</v>
       </c>
-      <c r="G13" s="494">
+      <c r="G13" s="486">
         <v>8.6E-3</v>
       </c>
-      <c r="H13" s="498">
+      <c r="H13" s="490">
         <f>AVERAGE(G13:G24)</f>
         <v>9.9416666666666664E-3</v>
       </c>
-      <c r="J13" s="508">
+      <c r="J13" s="500">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="472" t="s">
+      <c r="B14" s="465" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="501">
+      <c r="C14" s="493">
         <f>J13</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F14" s="491">
+      <c r="F14" s="483">
         <v>42767</v>
       </c>
       <c r="G14" s="173">
@@ -41024,50 +42505,50 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="472" t="s">
+      <c r="B15" s="465" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="501">
+      <c r="C15" s="493">
         <f>J16</f>
         <v>0.05</v>
       </c>
-      <c r="F15" s="491">
+      <c r="F15" s="483">
         <v>42795</v>
       </c>
       <c r="G15" s="173">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="556" t="s">
+      <c r="J15" s="582" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="557"/>
-      <c r="L15" s="557"/>
-      <c r="M15" s="558"/>
+      <c r="K15" s="583"/>
+      <c r="L15" s="583"/>
+      <c r="M15" s="584"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="473" t="s">
+      <c r="B16" s="466" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="516"/>
-      <c r="F16" s="491">
+      <c r="C16" s="508"/>
+      <c r="F16" s="483">
         <v>42826</v>
       </c>
       <c r="G16" s="173">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="J16" s="508">
+      <c r="J16" s="500">
         <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="474" t="s">
+      <c r="B17" s="467" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="484">
+      <c r="C17" s="476">
         <f>C12+C13+C14+C15*C9</f>
         <v>0.15501039967778027</v>
       </c>
-      <c r="F17" s="491">
+      <c r="F17" s="483">
         <v>42856</v>
       </c>
       <c r="G17" s="173">
@@ -41075,9 +42556,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" s="137" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="475"/>
-      <c r="C18" s="476"/>
-      <c r="F18" s="491">
+      <c r="B18" s="468"/>
+      <c r="C18" s="469"/>
+      <c r="F18" s="483">
         <v>42887</v>
       </c>
       <c r="G18" s="173">
@@ -41085,230 +42566,230 @@
       </c>
     </row>
     <row r="19" spans="2:9" s="137" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="475"/>
-      <c r="C19" s="476"/>
-      <c r="F19" s="491">
+      <c r="B19" s="468"/>
+      <c r="C19" s="469"/>
+      <c r="F19" s="483">
         <v>42917</v>
       </c>
-      <c r="G19" s="495">
+      <c r="G19" s="487">
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="485" t="s">
+      <c r="B20" s="477" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="484">
+      <c r="C20" s="476">
         <f>C17*C10+C5*C11*(1-D4)</f>
-        <v>0.11756558505433704</v>
-      </c>
-      <c r="F20" s="491">
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="F20" s="483">
         <v>42948</v>
       </c>
-      <c r="G20" s="495">
+      <c r="G20" s="487">
         <v>1.12E-2</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="491">
+      <c r="F21" s="483">
         <v>42979</v>
       </c>
-      <c r="G21" s="495">
+      <c r="G21" s="487">
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="491">
+      <c r="F22" s="483">
         <v>43009</v>
       </c>
-      <c r="G22" s="496">
+      <c r="G22" s="488">
         <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F23" s="491">
+      <c r="F23" s="483">
         <v>43040</v>
       </c>
-      <c r="G23" s="495">
+      <c r="G23" s="487">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F24" s="492">
+      <c r="F24" s="484">
         <v>43070</v>
       </c>
-      <c r="G24" s="497">
+      <c r="G24" s="489">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="510"/>
-      <c r="G25" s="511"/>
+      <c r="F25" s="502"/>
+      <c r="G25" s="503"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="559" t="s">
+      <c r="F26" s="585" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="560"/>
-      <c r="H26" s="561"/>
+      <c r="G26" s="586"/>
+      <c r="H26" s="587"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="512">
+      <c r="F27" s="504">
         <v>42737</v>
       </c>
-      <c r="G27" s="513">
+      <c r="G27" s="505">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H27" s="506">
+      <c r="H27" s="498">
         <f>AVERAGE(G27:G38)</f>
         <v>5.1233333333333332E-2</v>
       </c>
-      <c r="I27" s="505"/>
+      <c r="I27" s="497"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F28" s="491">
+      <c r="F28" s="483">
         <v>42769</v>
       </c>
-      <c r="G28" s="495">
+      <c r="G28" s="487">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="I28" s="505"/>
+      <c r="I28" s="497"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F29" s="491">
+      <c r="F29" s="483">
         <v>42795</v>
       </c>
-      <c r="G29" s="495">
+      <c r="G29" s="487">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="I29" s="505"/>
+      <c r="I29" s="497"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F30" s="491">
+      <c r="F30" s="483">
         <v>42826</v>
       </c>
-      <c r="G30" s="495">
+      <c r="G30" s="487">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="I30" s="505"/>
+      <c r="I30" s="497"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F31" s="491">
+      <c r="F31" s="483">
         <v>42856</v>
       </c>
-      <c r="G31" s="495">
+      <c r="G31" s="487">
         <v>4.87E-2</v>
       </c>
-      <c r="I31" s="505"/>
+      <c r="I31" s="497"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F32" s="491">
+      <c r="F32" s="483">
         <v>42888</v>
       </c>
-      <c r="G32" s="495">
+      <c r="G32" s="487">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="I32" s="505"/>
+      <c r="I32" s="497"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F33" s="491">
+      <c r="F33" s="483">
         <v>42919</v>
       </c>
-      <c r="G33" s="495">
+      <c r="G33" s="487">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="I33" s="505"/>
+      <c r="I33" s="497"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F34" s="491">
+      <c r="F34" s="483">
         <v>42948</v>
       </c>
-      <c r="G34" s="495">
+      <c r="G34" s="487">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="I34" s="505"/>
+      <c r="I34" s="497"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F35" s="491">
+      <c r="F35" s="483">
         <v>42982</v>
       </c>
-      <c r="G35" s="495">
+      <c r="G35" s="487">
         <v>5.04E-2</v>
       </c>
-      <c r="I35" s="505"/>
+      <c r="I35" s="497"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="491">
+      <c r="F36" s="483">
         <v>43012</v>
       </c>
-      <c r="G36" s="495">
+      <c r="G36" s="487">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="I36" s="505"/>
+      <c r="I36" s="497"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="491">
+      <c r="F37" s="483">
         <v>43040</v>
       </c>
-      <c r="G37" s="495">
+      <c r="G37" s="487">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="I37" s="505"/>
+      <c r="I37" s="497"/>
     </row>
     <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F38" s="492">
+      <c r="F38" s="484">
         <v>43070</v>
       </c>
-      <c r="G38" s="497">
+      <c r="G38" s="489">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="I38" s="514"/>
+      <c r="I38" s="506"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="510"/>
-      <c r="G39" s="511"/>
+      <c r="F39" s="502"/>
+      <c r="G39" s="503"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="510"/>
-      <c r="G40" s="511"/>
+      <c r="F40" s="502"/>
+      <c r="G40" s="503"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="510"/>
-      <c r="G41" s="511"/>
+      <c r="F41" s="502"/>
+      <c r="G41" s="503"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="510"/>
-      <c r="G42" s="511"/>
+      <c r="F42" s="502"/>
+      <c r="G42" s="503"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="510"/>
-      <c r="G43" s="511"/>
+      <c r="F43" s="502"/>
+      <c r="G43" s="503"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="490" t="s">
+      <c r="B44" s="482" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="490" t="s">
+      <c r="B45" s="482" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="490" t="s">
+      <c r="B46" s="482" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="490" t="s">
+      <c r="B47" s="482" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="490" t="s">
+      <c r="B48" s="482" t="s">
         <v>294</v>
       </c>
     </row>
@@ -41347,7 +42828,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="530" t="s">
+      <c r="B1" s="522" t="s">
         <v>295</v>
       </c>
     </row>
@@ -41357,25 +42838,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="490" t="s">
+      <c r="B3" s="482" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="527"/>
-      <c r="B7" s="528" t="s">
+      <c r="A7" s="519"/>
+      <c r="B7" s="520" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="529" t="s">
+      <c r="C7" s="521" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="562" t="s">
+      <c r="A8" s="588" t="s">
         <v>308</v>
       </c>
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="455" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="56" t="s">
@@ -41383,8 +42864,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="562"/>
-      <c r="B9" s="461" t="s">
+      <c r="A9" s="588"/>
+      <c r="B9" s="455" t="s">
         <v>304</v>
       </c>
       <c r="C9" s="56" t="s">
@@ -41392,8 +42873,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="562"/>
-      <c r="B10" s="461" t="s">
+      <c r="A10" s="588"/>
+      <c r="B10" s="455" t="s">
         <v>305</v>
       </c>
       <c r="C10" s="56" t="s">
@@ -41401,102 +42882,102 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="563"/>
-      <c r="B11" s="462" t="s">
+      <c r="A11" s="589"/>
+      <c r="B11" s="456" t="s">
         <v>306</v>
       </c>
       <c r="C11" s="96"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="536"/>
-      <c r="B13" s="537" t="s">
+      <c r="A13" s="528"/>
+      <c r="B13" s="529" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="538"/>
+      <c r="C13" s="530"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="531" t="s">
+      <c r="A14" s="523" t="s">
         <v>310</v>
       </c>
-      <c r="B14" s="532" t="s">
+      <c r="B14" s="524" t="s">
         <v>307</v>
       </c>
       <c r="C14" s="222"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="533" t="s">
+      <c r="A15" s="525" t="s">
         <v>311</v>
       </c>
-      <c r="B15" s="539" t="s">
+      <c r="B15" s="531" t="s">
         <v>312</v>
       </c>
       <c r="C15" s="222"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="531"/>
-      <c r="B16" s="539" t="s">
+      <c r="A16" s="523"/>
+      <c r="B16" s="531" t="s">
         <v>313</v>
       </c>
       <c r="C16" s="222"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="531"/>
-      <c r="B17" s="539" t="s">
+      <c r="A17" s="523"/>
+      <c r="B17" s="531" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="222"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="531"/>
-      <c r="B18" s="539" t="s">
+      <c r="A18" s="523"/>
+      <c r="B18" s="531" t="s">
         <v>315</v>
       </c>
       <c r="C18" s="222"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="531"/>
-      <c r="B19" s="539" t="s">
+      <c r="A19" s="523"/>
+      <c r="B19" s="531" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="222"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="531"/>
-      <c r="B20" s="539" t="s">
+      <c r="A20" s="523"/>
+      <c r="B20" s="531" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="222"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="531"/>
-      <c r="B21" s="539"/>
+      <c r="A21" s="523"/>
+      <c r="B21" s="531"/>
       <c r="C21" s="222"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="531"/>
-      <c r="B22" s="539"/>
+      <c r="A22" s="523"/>
+      <c r="B22" s="531"/>
       <c r="C22" s="222"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="531"/>
-      <c r="B23" s="539"/>
+      <c r="A23" s="523"/>
+      <c r="B23" s="531"/>
       <c r="C23" s="222"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="531"/>
-      <c r="B24" s="539"/>
+      <c r="A24" s="523"/>
+      <c r="B24" s="531"/>
       <c r="C24" s="222"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="531"/>
-      <c r="B25" s="539"/>
+      <c r="A25" s="523"/>
+      <c r="B25" s="531"/>
       <c r="C25" s="222"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="533"/>
-      <c r="B26" s="540"/>
-      <c r="C26" s="535"/>
+      <c r="A26" s="525"/>
+      <c r="B26" s="532"/>
+      <c r="C26" s="527"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -41512,16 +42993,185 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
+  <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="577" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="580">
+        <f>'FCF - KONČNI_IZRAČUN'!G15</f>
+        <v>4682367.0678445715</v>
+      </c>
+      <c r="D3" s="580">
+        <f>'FCF - KONČNI_IZRAČUN'!H15</f>
+        <v>7684637.5995038971</v>
+      </c>
+      <c r="E3" s="580">
+        <f>'FCF - KONČNI_IZRAČUN'!I15</f>
+        <v>4377972.9958475828</v>
+      </c>
+      <c r="F3" s="580">
+        <f>'FCF - KONČNI_IZRAČUN'!J15</f>
+        <v>6177218.584839562</v>
+      </c>
+      <c r="G3" s="581">
+        <f>'FCF - KONČNI_IZRAČUN'!K15</f>
+        <v>11048504.310790446</v>
+      </c>
+      <c r="I3" s="600" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="604">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K3" s="455">
+        <f>AVERAGE('FCF - KONČNI_IZRAČUN'!G16:J16)</f>
+        <v>1.3526141893081485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="578" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="506">
+        <f>'WACC IZRAČUN'!$C$20</f>
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="D4" s="506">
+        <f>'WACC IZRAČUN'!$C$20</f>
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="E4" s="506">
+        <f>'WACC IZRAČUN'!$C$20</f>
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="F4" s="506">
+        <f>'WACC IZRAČUN'!$C$20</f>
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="G4" s="579">
+        <f>'WACC IZRAČUN'!$C$20</f>
+        <v>0.11706257519302893</v>
+      </c>
+      <c r="I4" s="597" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="601">
+        <f>'FCF - KONČNI_IZRAČUN'!K15*(1+J3)/(G4-J3)</f>
+        <v>113538108.27619345</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="565" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="526">
+        <v>1</v>
+      </c>
+      <c r="D5" s="526">
+        <v>2</v>
+      </c>
+      <c r="E5" s="526">
+        <v>3</v>
+      </c>
+      <c r="F5" s="526">
+        <v>4</v>
+      </c>
+      <c r="G5" s="527">
+        <v>5</v>
+      </c>
+      <c r="I5" s="597" t="s">
+        <v>344</v>
+      </c>
+      <c r="J5" s="602">
+        <f>J4/(1+G4)^5</f>
+        <v>65276091.753878497</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="594" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="595">
+        <f>C3*(1/(1+C4))</f>
+        <v>4191678.3999638124</v>
+      </c>
+      <c r="D6" s="595">
+        <f>D3*(1/(1+D4)^D5)</f>
+        <v>6158407.0015166849</v>
+      </c>
+      <c r="E6" s="595">
+        <f t="shared" ref="E6:G6" si="0">E3*(1/(1+E4)^E5)</f>
+        <v>3140802.0997780403</v>
+      </c>
+      <c r="F6" s="595">
+        <f t="shared" si="0"/>
+        <v>3967189.6442788779</v>
+      </c>
+      <c r="G6" s="596">
+        <f t="shared" si="0"/>
+        <v>6352080.3022354068</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="597" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="598">
+        <f>SUM(C6:G6)+J5</f>
+        <v>89086249.20165132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="597" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="603">
+        <f>PASIVA!K3+PASIVA!K6-AKTIVA!K10</f>
+        <v>18081167.859627787</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="597" t="s">
+        <v>342</v>
+      </c>
+      <c r="C10" s="599">
+        <f>(C8-C9)/C11</f>
+        <v>138.0844225509243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="592" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="593">
+        <v>514215</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="559"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -41530,7 +43180,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41541,39 +43191,39 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="502">
+      <c r="C2" s="494">
         <v>2013</v>
       </c>
-      <c r="D2" s="503">
+      <c r="D2" s="495">
         <v>2014</v>
       </c>
-      <c r="E2" s="503">
+      <c r="E2" s="495">
         <v>2015</v>
       </c>
-      <c r="F2" s="503">
+      <c r="F2" s="495">
         <v>2016</v>
       </c>
-      <c r="G2" s="504">
+      <c r="G2" s="496">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="436" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="486">
+      <c r="C3" s="478">
         <v>514215</v>
       </c>
-      <c r="D3" s="486">
+      <c r="D3" s="478">
         <v>514215</v>
       </c>
-      <c r="E3" s="486">
+      <c r="E3" s="478">
         <v>514215</v>
       </c>
-      <c r="F3" s="486">
+      <c r="F3" s="478">
         <v>514215</v>
       </c>
-      <c r="G3" s="487">
+      <c r="G3" s="479">
         <v>514215</v>
       </c>
     </row>
@@ -41581,16 +43231,16 @@
       <c r="B4" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="461">
+      <c r="C4" s="455">
         <v>38105</v>
       </c>
-      <c r="D4" s="461">
+      <c r="D4" s="455">
         <v>8911</v>
       </c>
-      <c r="E4" s="461">
+      <c r="E4" s="455">
         <v>157</v>
       </c>
-      <c r="F4" s="461">
+      <c r="F4" s="455">
         <v>580</v>
       </c>
       <c r="G4" s="56">
@@ -41601,16 +43251,16 @@
       <c r="B5" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="461">
+      <c r="C5" s="455">
         <v>209567</v>
       </c>
-      <c r="D5" s="461">
+      <c r="D5" s="455">
         <v>49000</v>
       </c>
-      <c r="E5" s="461">
+      <c r="E5" s="455">
         <v>1372</v>
       </c>
-      <c r="F5" s="461">
+      <c r="F5" s="455">
         <v>3699</v>
       </c>
       <c r="G5" s="56">
@@ -41618,22 +43268,22 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="432" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="525">
+      <c r="C6" s="517">
         <v>64471</v>
       </c>
-      <c r="D6" s="525">
+      <c r="D6" s="517">
         <v>-37933</v>
       </c>
-      <c r="E6" s="525">
+      <c r="E6" s="517">
         <v>63700</v>
       </c>
-      <c r="F6" s="525">
+      <c r="F6" s="517">
         <v>935</v>
       </c>
-      <c r="G6" s="526">
+      <c r="G6" s="518">
         <v>29160</v>
       </c>
     </row>
@@ -41653,52 +43303,52 @@
       <c r="F7" s="170">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G7" s="471">
+      <c r="G7" s="464">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="473" t="s">
+      <c r="B8" s="466" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="546">
+      <c r="C8" s="538">
         <f>1-C4/C3</f>
         <v>0.92589675524829107</v>
       </c>
-      <c r="D8" s="546">
+      <c r="D8" s="538">
         <f t="shared" ref="D8:G8" si="0">1-D4/D3</f>
         <v>0.98267067277306186</v>
       </c>
-      <c r="E8" s="546">
+      <c r="E8" s="538">
         <f t="shared" si="0"/>
         <v>0.99969468024075536</v>
       </c>
-      <c r="F8" s="546">
+      <c r="F8" s="538">
         <f t="shared" si="0"/>
         <v>0.99887206713145282</v>
       </c>
-      <c r="G8" s="547">
+      <c r="G8" s="539">
         <f t="shared" si="0"/>
         <v>0.99872815845512086</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="442" t="s">
+      <c r="B9" s="436" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="486">
+      <c r="C9" s="478">
         <v>4.1729000000000003</v>
       </c>
-      <c r="D9" s="486">
+      <c r="D9" s="478">
         <v>4.1729000000000003</v>
       </c>
-      <c r="E9" s="486">
+      <c r="E9" s="478">
         <v>4.1729000000000003</v>
       </c>
-      <c r="F9" s="486">
+      <c r="F9" s="478">
         <v>4.1729000000000003</v>
       </c>
-      <c r="G9" s="487">
+      <c r="G9" s="479">
         <v>4.1729000000000003</v>
       </c>
     </row>
@@ -41706,16 +43356,16 @@
       <c r="B10" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="461">
+      <c r="C10" s="455">
         <v>5.5</v>
       </c>
-      <c r="D10" s="461">
+      <c r="D10" s="455">
         <v>5.5</v>
       </c>
-      <c r="E10" s="461" t="s">
+      <c r="E10" s="455" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="461" t="s">
+      <c r="F10" s="455" t="s">
         <v>279</v>
       </c>
       <c r="G10" s="56" t="s">
@@ -41726,16 +43376,16 @@
       <c r="B11" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="462" t="s">
+      <c r="C11" s="456" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="462" t="s">
+      <c r="D11" s="456" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="462">
+      <c r="E11" s="456">
         <v>5.5</v>
       </c>
-      <c r="F11" s="462" t="s">
+      <c r="F11" s="456" t="s">
         <v>280</v>
       </c>
       <c r="G11" s="96" t="s">
@@ -41743,23 +43393,23 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="549">
+      <c r="C12" s="541">
         <f>C3*C9-C5</f>
         <v>1936200.7735000001</v>
       </c>
-      <c r="D12" s="549">
+      <c r="D12" s="541">
         <f t="shared" ref="D12:G12" si="1">D3*D9-D5</f>
         <v>2096767.7735000001</v>
       </c>
-      <c r="E12" s="549">
+      <c r="E12" s="541">
         <f t="shared" si="1"/>
         <v>2144395.7735000001</v>
       </c>
-      <c r="F12" s="549">
+      <c r="F12" s="541">
         <f t="shared" si="1"/>
         <v>2142068.7735000001</v>
       </c>
-      <c r="G12" s="549">
+      <c r="G12" s="541">
         <f t="shared" si="1"/>
         <v>2143782.7735000001</v>
       </c>
@@ -41769,39 +43419,39 @@
       <c r="B14" s="283" t="s">
         <v>287</v>
       </c>
-      <c r="C14" s="518">
+      <c r="C14" s="510">
         <v>2013</v>
       </c>
-      <c r="D14" s="519">
+      <c r="D14" s="511">
         <v>2014</v>
       </c>
-      <c r="E14" s="519">
+      <c r="E14" s="511">
         <v>2015</v>
       </c>
-      <c r="F14" s="519">
+      <c r="F14" s="511">
         <v>2016</v>
       </c>
-      <c r="G14" s="520">
+      <c r="G14" s="512">
         <v>2017</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="442" t="s">
+      <c r="B15" s="436" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="522">
+      <c r="C15" s="514">
         <v>0.59040000000000004</v>
       </c>
-      <c r="D15" s="522">
+      <c r="D15" s="514">
         <v>0.62560000000000004</v>
       </c>
-      <c r="E15" s="522">
+      <c r="E15" s="514">
         <v>0.62560000000000004</v>
       </c>
-      <c r="F15" s="522">
+      <c r="F15" s="514">
         <v>0.5877</v>
       </c>
-      <c r="G15" s="523">
+      <c r="G15" s="515">
         <v>0.52659999999999996</v>
       </c>
     </row>
@@ -41821,7 +43471,7 @@
       <c r="F16" s="170">
         <v>0.26040000000000002</v>
       </c>
-      <c r="G16" s="471">
+      <c r="G16" s="464">
         <v>0.30509999999999998</v>
       </c>
     </row>
@@ -41829,7 +43479,7 @@
       <c r="B17" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="521">
+      <c r="C17" s="513">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="D17" s="170">
@@ -41838,10 +43488,10 @@
       <c r="E17" s="170">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F17" s="521">
+      <c r="F17" s="513">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="G17" s="471">
+      <c r="G17" s="464">
         <v>9.06E-2</v>
       </c>
     </row>
@@ -41861,12 +43511,12 @@
       <c r="F18" s="175">
         <v>7.51E-2</v>
       </c>
-      <c r="G18" s="524">
+      <c r="G18" s="516">
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E22" s="505"/>
+      <c r="E22" s="497"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
@@ -41877,10 +43527,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14032AB-04F0-45BC-850D-25E7540A9A60}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41908,7 +43558,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -41931,7 +43581,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="355" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="7">
@@ -41971,7 +43621,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="375" t="s">
+      <c r="A3" s="374" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="46"/>
@@ -42006,10 +43656,10 @@
       <c r="K3" s="34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L3" s="432"/>
+      <c r="L3" s="431"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="355" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="7">
@@ -42052,7 +43702,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="376" t="s">
+      <c r="A5" s="375" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="48"/>
@@ -42089,7 +43739,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="355" t="s">
+      <c r="A6" s="354" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="41">
@@ -42134,49 +43784,49 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="377" t="s">
+      <c r="A7" s="376" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="378"/>
-      <c r="C7" s="378">
+      <c r="B7" s="377"/>
+      <c r="C7" s="377">
         <f t="shared" ref="C7:K7" si="1">C6/B6</f>
         <v>1.1052946690144096</v>
       </c>
-      <c r="D7" s="378">
+      <c r="D7" s="377">
         <f t="shared" si="1"/>
         <v>1.1657796670083127</v>
       </c>
-      <c r="E7" s="378">
+      <c r="E7" s="377">
         <f t="shared" si="1"/>
         <v>1.1400741540911237</v>
       </c>
-      <c r="F7" s="379">
+      <c r="F7" s="378">
         <f t="shared" si="1"/>
         <v>1.1480328788853726</v>
       </c>
-      <c r="G7" s="380">
+      <c r="G7" s="379">
         <f t="shared" si="1"/>
         <v>1.1275581807376454</v>
       </c>
-      <c r="H7" s="378">
+      <c r="H7" s="377">
         <f t="shared" si="1"/>
         <v>1.1181289374874706</v>
       </c>
-      <c r="I7" s="378">
+      <c r="I7" s="377">
         <f t="shared" si="1"/>
         <v>1.1181927419586577</v>
       </c>
-      <c r="J7" s="378">
+      <c r="J7" s="377">
         <f t="shared" si="1"/>
         <v>1.1182544702613335</v>
       </c>
-      <c r="K7" s="381">
+      <c r="K7" s="380">
         <f t="shared" si="1"/>
         <v>1.1183141832490782</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="460"/>
+      <c r="B8" s="454"/>
       <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -42274,7 +43924,7 @@
       <c r="C13" s="245"/>
       <c r="D13" s="245"/>
       <c r="E13" s="245"/>
-      <c r="F13" s="400"/>
+      <c r="F13" s="399"/>
       <c r="G13" s="55"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -42282,7 +43932,7 @@
       <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="301" t="s">
+      <c r="A14" s="300" t="s">
         <v>195</v>
       </c>
       <c r="B14" s="97">
@@ -42316,13 +43966,13 @@
         <f t="shared" si="3"/>
         <v>4619496.0568992784</v>
       </c>
-      <c r="K14" s="337">
+      <c r="K14" s="336">
         <f t="shared" si="3"/>
         <v>5166047.9598936532</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="301" t="s">
+      <c r="A15" s="300" t="s">
         <v>196</v>
       </c>
       <c r="B15" s="97">
@@ -42356,13 +44006,13 @@
         <f t="shared" si="4"/>
         <v>127036141.56473015</v>
       </c>
-      <c r="K15" s="337">
+      <c r="K15" s="336">
         <f t="shared" si="4"/>
         <v>142066318.89707547</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="301" t="s">
+      <c r="A16" s="300" t="s">
         <v>197</v>
       </c>
       <c r="B16" s="97">
@@ -42396,13 +44046,13 @@
         <f t="shared" si="5"/>
         <v>20787732.25604675</v>
       </c>
-      <c r="K16" s="337">
+      <c r="K16" s="336">
         <f t="shared" si="5"/>
         <v>23247215.819521438</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="382" t="s">
+      <c r="A17" s="381" t="s">
         <v>198</v>
       </c>
       <c r="B17" s="46"/>
@@ -42422,7 +44072,7 @@
         <f t="shared" si="6"/>
         <v>1.1519952651333045</v>
       </c>
-      <c r="G17" s="394">
+      <c r="G17" s="393">
         <f t="shared" si="6"/>
         <v>1.145271513373501</v>
       </c>
@@ -42438,7 +44088,7 @@
         <f t="shared" si="6"/>
         <v>1.135458385188431</v>
       </c>
-      <c r="K17" s="383">
+      <c r="K17" s="382">
         <f t="shared" si="6"/>
         <v>1.1183141832490782</v>
       </c>
@@ -42449,8 +44099,8 @@
       <c r="C18" s="246"/>
       <c r="D18" s="246"/>
       <c r="E18" s="246"/>
-      <c r="F18" s="401"/>
-      <c r="G18" s="395"/>
+      <c r="F18" s="400"/>
+      <c r="G18" s="394"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
@@ -42645,7 +44295,7 @@
         <f t="shared" si="9"/>
         <v>135524369</v>
       </c>
-      <c r="G23" s="396">
+      <c r="G23" s="395">
         <f t="shared" si="9"/>
         <v>151612636.41992021</v>
       </c>
@@ -42667,43 +44317,43 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="384" t="s">
+      <c r="A24" s="383" t="s">
         <v>204</v>
       </c>
-      <c r="B24" s="385"/>
-      <c r="C24" s="385">
+      <c r="B24" s="384"/>
+      <c r="C24" s="384">
         <f t="shared" ref="C24:K24" si="10">C23/B23</f>
         <v>1.0792093550449853</v>
       </c>
-      <c r="D24" s="385">
+      <c r="D24" s="384">
         <f t="shared" si="10"/>
         <v>1.1270620497445516</v>
       </c>
-      <c r="E24" s="385">
+      <c r="E24" s="384">
         <f t="shared" si="10"/>
         <v>1.1522100155414798</v>
       </c>
-      <c r="F24" s="402">
+      <c r="F24" s="401">
         <f t="shared" si="10"/>
         <v>1.1476407660461778</v>
       </c>
-      <c r="G24" s="397">
+      <c r="G24" s="396">
         <f t="shared" si="10"/>
         <v>1.1187112512578472</v>
       </c>
-      <c r="H24" s="385">
+      <c r="H24" s="384">
         <f t="shared" si="10"/>
         <v>1.1326787489198478</v>
       </c>
-      <c r="I24" s="385">
+      <c r="I24" s="384">
         <f t="shared" si="10"/>
         <v>1.1095099560217256</v>
       </c>
-      <c r="J24" s="385">
+      <c r="J24" s="384">
         <f t="shared" si="10"/>
         <v>1.1208855573608842</v>
       </c>
-      <c r="K24" s="386">
+      <c r="K24" s="385">
         <f t="shared" si="10"/>
         <v>1.1092380837374414</v>
       </c>
@@ -42713,7 +44363,7 @@
       <c r="C25" s="244"/>
       <c r="D25" s="244"/>
       <c r="E25" s="244"/>
-      <c r="F25" s="403"/>
+      <c r="F25" s="402"/>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="29"/>
@@ -42734,7 +44384,7 @@
       <c r="E27" s="62">
         <v>2016</v>
       </c>
-      <c r="F27" s="304">
+      <c r="F27" s="303">
         <v>2017</v>
       </c>
       <c r="G27" s="63">
@@ -42793,7 +44443,7 @@
         <f t="shared" si="12"/>
         <v>0.66</v>
       </c>
-      <c r="K28" s="374">
+      <c r="K28" s="373">
         <f t="shared" si="12"/>
         <v>0.66</v>
       </c>
@@ -42806,12 +44456,12 @@
       <c r="C29" s="254"/>
       <c r="D29" s="254"/>
       <c r="E29" s="254"/>
-      <c r="F29" s="404"/>
+      <c r="F29" s="403"/>
       <c r="G29" s="80"/>
       <c r="H29" s="81"/>
       <c r="I29" s="81"/>
       <c r="J29" s="81"/>
-      <c r="K29" s="328"/>
+      <c r="K29" s="327"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="174" t="s">
@@ -42837,7 +44487,7 @@
         <f t="shared" si="14"/>
         <v>2.2150682011388253E-2</v>
       </c>
-      <c r="G30" s="398">
+      <c r="G30" s="397">
         <v>0.02</v>
       </c>
       <c r="H30" s="248">
@@ -42849,7 +44499,7 @@
       <c r="J30" s="248">
         <v>0.02</v>
       </c>
-      <c r="K30" s="387">
+      <c r="K30" s="386">
         <v>0.02</v>
       </c>
     </row>
@@ -42877,7 +44527,7 @@
         <f t="shared" si="15"/>
         <v>0.53181728546641316</v>
       </c>
-      <c r="G31" s="398">
+      <c r="G31" s="397">
         <v>0.53</v>
       </c>
       <c r="H31" s="248">
@@ -42892,7 +44542,7 @@
       <c r="K31" s="248">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L31" s="432"/>
+      <c r="L31" s="431"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="174" t="s">
@@ -42918,7 +44568,7 @@
         <f t="shared" si="16"/>
         <v>6.6288142597164146E-2</v>
       </c>
-      <c r="G32" s="398">
+      <c r="G32" s="397">
         <v>0.08</v>
       </c>
       <c r="H32" s="248">
@@ -42940,12 +44590,12 @@
       <c r="C33" s="254"/>
       <c r="D33" s="254"/>
       <c r="E33" s="254"/>
-      <c r="F33" s="404"/>
+      <c r="F33" s="403"/>
       <c r="G33" s="80"/>
       <c r="H33" s="81"/>
       <c r="I33" s="81"/>
       <c r="J33" s="81"/>
-      <c r="K33" s="328"/>
+      <c r="K33" s="327"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="57" t="s">
@@ -42987,7 +44637,7 @@
         <f t="shared" si="18"/>
         <v>0.20649386013634943</v>
       </c>
-      <c r="K34" s="374">
+      <c r="K34" s="373">
         <f t="shared" si="18"/>
         <v>0.20015808135277316</v>
       </c>
@@ -43016,7 +44666,7 @@
         <f t="shared" si="19"/>
         <v>1.0707506993095006E-3</v>
       </c>
-      <c r="G35" s="399">
+      <c r="G35" s="398">
         <v>0</v>
       </c>
       <c r="H35" s="249">
@@ -43028,7 +44678,7 @@
       <c r="J35" s="249">
         <v>0</v>
       </c>
-      <c r="K35" s="388">
+      <c r="K35" s="387">
         <v>0</v>
       </c>
     </row>
@@ -43072,7 +44722,7 @@
         <f t="shared" si="20"/>
         <v>3.8140491584565853E-2</v>
       </c>
-      <c r="K36" s="374">
+      <c r="K36" s="373">
         <f t="shared" si="20"/>
         <v>3.6972052399883042E-2</v>
       </c>
@@ -43101,7 +44751,7 @@
         <f t="shared" si="19"/>
         <v>1.9449217017433035E-2</v>
       </c>
-      <c r="G37" s="399">
+      <c r="G37" s="398">
         <v>0.02</v>
       </c>
       <c r="H37" s="249">
@@ -43113,7 +44763,7 @@
       <c r="J37" s="249">
         <v>0.02</v>
       </c>
-      <c r="K37" s="388">
+      <c r="K37" s="387">
         <v>0.02</v>
       </c>
       <c r="N37" s="137"/>
@@ -43123,43 +44773,43 @@
       <c r="A38" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="B38" s="349">
+      <c r="B38" s="348">
         <f>B23/B$6</f>
         <v>0.96991077863314534</v>
       </c>
-      <c r="C38" s="349">
+      <c r="C38" s="348">
         <f t="shared" si="19"/>
         <v>0.94702056854506556</v>
       </c>
-      <c r="D38" s="349">
+      <c r="D38" s="348">
         <f t="shared" si="19"/>
         <v>0.91556833022636808</v>
       </c>
-      <c r="E38" s="349">
+      <c r="E38" s="348">
         <f t="shared" si="19"/>
         <v>0.92531437206416345</v>
       </c>
-      <c r="F38" s="350">
+      <c r="F38" s="349">
         <f t="shared" si="19"/>
         <v>0.92499832915959945</v>
       </c>
-      <c r="G38" s="363">
+      <c r="G38" s="362">
         <f t="shared" ref="G38:K38" si="21">SUM(G34:G37)+G28</f>
         <v>0.91774070367578409</v>
       </c>
-      <c r="H38" s="364">
+      <c r="H38" s="363">
         <f t="shared" si="21"/>
         <v>0.92968293478582509</v>
       </c>
-      <c r="I38" s="364">
+      <c r="I38" s="363">
         <f t="shared" si="21"/>
         <v>0.92246393075453026</v>
       </c>
-      <c r="J38" s="364">
+      <c r="J38" s="363">
         <f t="shared" si="21"/>
         <v>0.92463435172091535</v>
       </c>
-      <c r="K38" s="365">
+      <c r="K38" s="364">
         <f t="shared" si="21"/>
         <v>0.91713013375265628</v>
       </c>
@@ -43232,10 +44882,10 @@
       <c r="E42" s="8">
         <v>30776943</v>
       </c>
-      <c r="F42" s="445">
+      <c r="F42" s="439">
         <v>34236712</v>
       </c>
-      <c r="G42" s="450">
+      <c r="G42" s="444">
         <f>G43*G44</f>
         <v>37444004.587352239</v>
       </c>
@@ -43255,7 +44905,7 @@
         <f>K43*K44</f>
         <v>51701312.391436085</v>
       </c>
-      <c r="L42" s="449">
+      <c r="L42" s="443">
         <f>SUM(C46:F46)/4</f>
         <v>1.0549655906657875</v>
       </c>
@@ -43276,10 +44926,10 @@
       <c r="E43" s="204">
         <v>1225</v>
       </c>
-      <c r="F43" s="446">
+      <c r="F43" s="440">
         <v>1265</v>
       </c>
-      <c r="G43" s="451">
+      <c r="G43" s="445">
         <f>G2/G47</f>
         <v>1311.4220183486239</v>
       </c>
@@ -43324,7 +44974,7 @@
         <f>F42/F43</f>
         <v>27064.594466403163</v>
       </c>
-      <c r="G44" s="452">
+      <c r="G44" s="446">
         <f>F44*G46</f>
         <v>28552.215887379018</v>
       </c>
@@ -43340,7 +44990,7 @@
         <f t="shared" si="23"/>
         <v>33523.912833117116</v>
       </c>
-      <c r="K44" s="287">
+      <c r="K44" s="286">
         <f t="shared" si="23"/>
         <v>35366.574503417774</v>
       </c>
@@ -43351,126 +45001,126 @@
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48">
-        <f>C43/B43</f>
+        <f t="shared" ref="C45:I45" si="24">C43/B43</f>
         <v>1.0532544378698225</v>
       </c>
       <c r="D45" s="48">
-        <f>D43/C43</f>
+        <f t="shared" si="24"/>
         <v>1.0168539325842696</v>
       </c>
       <c r="E45" s="48">
-        <f>E43/D43</f>
+        <f t="shared" si="24"/>
         <v>1.1279926335174955</v>
       </c>
-      <c r="F45" s="447">
-        <f>F43/E43</f>
+      <c r="F45" s="441">
+        <f t="shared" si="24"/>
         <v>1.0326530612244897</v>
       </c>
-      <c r="G45" s="567">
-        <f>G43/F43</f>
+      <c r="G45" s="549">
+        <f t="shared" si="24"/>
         <v>1.036697247706422</v>
       </c>
-      <c r="H45" s="567">
-        <f>H43/G43</f>
+      <c r="H45" s="549">
+        <f t="shared" si="24"/>
         <v>1.0275229357798166</v>
       </c>
-      <c r="I45" s="567">
-        <f>I43/H43</f>
-        <v>1.0275229357798163</v>
-      </c>
-      <c r="J45" s="567">
-        <f t="shared" ref="H45:K45" si="24">J43/I43</f>
-        <v>1.0275229357798166</v>
-      </c>
-      <c r="K45" s="567">
+      <c r="I45" s="549">
         <f t="shared" si="24"/>
         <v>1.0275229357798163</v>
       </c>
+      <c r="J45" s="549">
+        <f t="shared" ref="J45:K45" si="25">J43/I43</f>
+        <v>1.0275229357798166</v>
+      </c>
+      <c r="K45" s="549">
+        <f t="shared" si="25"/>
+        <v>1.0275229357798163</v>
+      </c>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="438" t="s">
+      <c r="A46" s="432" t="s">
         <v>231</v>
       </c>
-      <c r="B46" s="439"/>
-      <c r="C46" s="440">
+      <c r="B46" s="433"/>
+      <c r="C46" s="434">
         <f>C44/B44</f>
         <v>1.0342314877652128</v>
       </c>
-      <c r="D46" s="440">
-        <f t="shared" ref="D46:F46" si="25">D44/C44</f>
+      <c r="D46" s="434">
+        <f t="shared" ref="D46:E46" si="26">D44/C44</f>
         <v>1.0623203617402275</v>
       </c>
-      <c r="E46" s="440">
-        <f t="shared" si="25"/>
+      <c r="E46" s="434">
+        <f t="shared" si="26"/>
         <v>1.0460713532663635</v>
       </c>
-      <c r="F46" s="448">
+      <c r="F46" s="442">
         <f>F44/E44</f>
         <v>1.0772391598913471</v>
       </c>
-      <c r="G46" s="453">
+      <c r="G46" s="447">
         <f>$L$42</f>
         <v>1.0549655906657875</v>
       </c>
-      <c r="H46" s="441">
-        <f t="shared" ref="H46:K46" si="26">$L$42</f>
+      <c r="H46" s="435">
+        <f t="shared" ref="H46:K46" si="27">$L$42</f>
         <v>1.0549655906657875</v>
       </c>
-      <c r="I46" s="441">
-        <f t="shared" si="26"/>
+      <c r="I46" s="435">
+        <f t="shared" si="27"/>
         <v>1.0549655906657875</v>
       </c>
-      <c r="J46" s="441">
-        <f t="shared" si="26"/>
+      <c r="J46" s="435">
+        <f t="shared" si="27"/>
         <v>1.0549655906657875</v>
       </c>
-      <c r="K46" s="454">
-        <f t="shared" si="26"/>
+      <c r="K46" s="448">
+        <f t="shared" si="27"/>
         <v>1.0549655906657875</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="442" t="s">
+      <c r="A47" s="436" t="s">
         <v>242</v>
       </c>
-      <c r="B47" s="443">
+      <c r="B47" s="437">
         <f>B2/B43</f>
         <v>82608.288954635107</v>
       </c>
-      <c r="C47" s="443">
-        <f t="shared" ref="C47:K47" si="27">C2/C43</f>
+      <c r="C47" s="437">
+        <f t="shared" ref="C47:F47" si="28">C2/C43</f>
         <v>86457.951310861419</v>
       </c>
-      <c r="D47" s="443">
-        <f t="shared" si="27"/>
+      <c r="D47" s="437">
+        <f t="shared" si="28"/>
         <v>97543.546040515648</v>
       </c>
-      <c r="E47" s="443">
-        <f t="shared" si="27"/>
+      <c r="E47" s="437">
+        <f t="shared" si="28"/>
         <v>98773.746938775512</v>
       </c>
-      <c r="F47" s="444">
-        <f t="shared" si="27"/>
+      <c r="F47" s="438">
+        <f t="shared" si="28"/>
         <v>110164.36837944663</v>
       </c>
-      <c r="G47" s="455">
+      <c r="G47" s="449">
         <f>F47*G49</f>
         <v>120079.16153359684</v>
       </c>
-      <c r="H47" s="455">
-        <f t="shared" ref="H47:K47" si="28">G47*H49</f>
+      <c r="H47" s="449">
+        <f t="shared" ref="H47:K47" si="29">G47*H49</f>
         <v>130886.28607162056</v>
       </c>
-      <c r="I47" s="455">
-        <f t="shared" si="28"/>
+      <c r="I47" s="449">
+        <f t="shared" si="29"/>
         <v>142666.05181806642</v>
       </c>
-      <c r="J47" s="455">
-        <f t="shared" si="28"/>
+      <c r="J47" s="449">
+        <f t="shared" si="29"/>
         <v>155505.99648169242</v>
       </c>
-      <c r="K47" s="455">
-        <f t="shared" si="28"/>
+      <c r="K47" s="449">
+        <f t="shared" si="29"/>
         <v>169501.53616504476</v>
       </c>
     </row>
@@ -43498,7 +45148,7 @@
         <f>'FCF - KONČNI_IZRAČUN'!F5/'PRIHODKI IN STROŠKI'!F43</f>
         <v>8572.9304347826092</v>
       </c>
-      <c r="G48" s="456">
+      <c r="G48" s="450">
         <f>'FCF - KONČNI_IZRAČUN'!G5/'PRIHODKI IN STROŠKI'!G43</f>
         <v>9947.8483929255908</v>
       </c>
@@ -43520,47 +45170,50 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="568" t="s">
+      <c r="A49" s="550" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="569"/>
-      <c r="C49" s="570">
+      <c r="B49" s="551"/>
+      <c r="C49" s="552">
         <f>C47/B47</f>
         <v>1.0466014053183015</v>
       </c>
-      <c r="D49" s="570">
-        <f t="shared" ref="D49:F49" si="29">D47/C47</f>
+      <c r="D49" s="552">
+        <f t="shared" ref="D49:F49" si="30">D47/C47</f>
         <v>1.128219493540805</v>
       </c>
-      <c r="E49" s="570">
-        <f t="shared" si="29"/>
+      <c r="E49" s="552">
+        <f t="shared" si="30"/>
         <v>1.012611812346343</v>
       </c>
-      <c r="F49" s="570">
-        <f t="shared" si="29"/>
+      <c r="F49" s="552">
+        <f t="shared" si="30"/>
         <v>1.1153203335267978</v>
       </c>
-      <c r="G49" s="571">
+      <c r="G49" s="553">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H49" s="571">
+      <c r="H49" s="553">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I49" s="571">
+      <c r="I49" s="553">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J49" s="571">
+      <c r="J49" s="553">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K49" s="572">
+      <c r="K49" s="554">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G50" s="432"/>
+      <c r="G50" s="431"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F51" s="566"/>
+      <c r="F51" s="548"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F52" s="454"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43574,7 +45227,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43604,7 +45257,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -43624,7 +45277,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="356" t="s">
+      <c r="A2" s="355" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -43664,22 +45317,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="355" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="292">
+      <c r="B3" s="291">
         <v>240390</v>
       </c>
-      <c r="C3" s="292">
+      <c r="C3" s="291">
         <v>211090</v>
       </c>
-      <c r="D3" s="292">
+      <c r="D3" s="291">
         <v>443644</v>
       </c>
-      <c r="E3" s="292">
+      <c r="E3" s="291">
         <v>244397</v>
       </c>
-      <c r="F3" s="293">
+      <c r="F3" s="292">
         <v>164330</v>
       </c>
       <c r="G3" s="35">
@@ -43704,7 +45357,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="355" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7">
@@ -43742,13 +45395,13 @@
         <f>J31*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0</v>
       </c>
-      <c r="K4" s="287">
+      <c r="K4" s="286">
         <f>K31*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="356" t="s">
+      <c r="A5" s="355" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7">
@@ -43778,12 +45431,12 @@
       <c r="J5" s="20">
         <v>2202223</v>
       </c>
-      <c r="K5" s="366">
+      <c r="K5" s="365">
         <v>2202223</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="355" t="s">
+      <c r="A6" s="354" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="8">
@@ -43823,7 +45476,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="355" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7">
@@ -43857,13 +45510,13 @@
         <f>J34*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>27716976.341395669</v>
       </c>
-      <c r="K7" s="287">
+      <c r="K7" s="286">
         <f>K34*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>30996287.759361919</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="355" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7">
@@ -43897,13 +45550,13 @@
         <f>J35*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0</v>
       </c>
-      <c r="K8" s="287">
+      <c r="K8" s="286">
         <f>K35*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="356" t="s">
+      <c r="A9" s="355" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7">
@@ -43939,13 +45592,13 @@
         <f>J36*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>34646220.426744588</v>
       </c>
-      <c r="K9" s="287">
+      <c r="K9" s="286">
         <f>K36*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>33579311.739308745</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="356" t="s">
+      <c r="A10" s="355" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7">
@@ -43979,13 +45632,13 @@
         <f>J37*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>6929244.0853489172</v>
       </c>
-      <c r="K10" s="287">
+      <c r="K10" s="286">
         <f>K37*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>7749071.9398404798</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="354" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="8">
@@ -44022,13 +45675,13 @@
         <f>J38*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>69292440.853489175</v>
       </c>
-      <c r="K11" s="367">
+      <c r="K11" s="366">
         <f>K38*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>72324671.438511148</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="356"/>
+      <c r="A12" s="355"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -44038,10 +45691,10 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="368"/>
+      <c r="K12" s="367"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="355" t="s">
+      <c r="A13" s="354" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="8">
@@ -44086,7 +45739,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="369" t="s">
+      <c r="A14" s="368" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="9">
@@ -44125,13 +45778,13 @@
         <f t="shared" si="3"/>
         <v>0.54181849556493833</v>
       </c>
-      <c r="K14" s="306">
+      <c r="K14" s="305">
         <f t="shared" si="3"/>
         <v>0.55696883607077985</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="355" t="s">
+      <c r="A15" s="354" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="8">
@@ -44176,7 +45829,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="369" t="s">
+      <c r="A16" s="368" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="9">
@@ -44215,13 +45868,13 @@
         <f t="shared" si="6"/>
         <v>0.45818150443506184</v>
       </c>
-      <c r="K16" s="306">
+      <c r="K16" s="305">
         <f t="shared" si="6"/>
         <v>0.44303116392922021</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="355" t="s">
+      <c r="A17" s="354" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8">
@@ -44266,43 +45919,43 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="370" t="s">
+      <c r="A18" s="369" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="371"/>
-      <c r="C18" s="372">
+      <c r="B18" s="370"/>
+      <c r="C18" s="371">
         <f>C17/B17</f>
         <v>1.0711034228143799</v>
       </c>
-      <c r="D18" s="372">
+      <c r="D18" s="371">
         <f t="shared" ref="D18:K18" si="8">D17/C17</f>
         <v>1.1838488110791734</v>
       </c>
-      <c r="E18" s="372">
+      <c r="E18" s="371">
         <f t="shared" si="8"/>
         <v>1.3157668941947847</v>
       </c>
-      <c r="F18" s="406">
+      <c r="F18" s="405">
         <f t="shared" si="8"/>
         <v>1.1688887509627588</v>
       </c>
-      <c r="G18" s="405">
+      <c r="G18" s="404">
         <f t="shared" si="8"/>
         <v>1.0751120809398902</v>
       </c>
-      <c r="H18" s="372">
+      <c r="H18" s="371">
         <f t="shared" si="8"/>
         <v>1.0745241170181217</v>
       </c>
-      <c r="I18" s="372">
+      <c r="I18" s="371">
         <f t="shared" si="8"/>
         <v>1.1066580991570807</v>
       </c>
-      <c r="J18" s="372">
+      <c r="J18" s="371">
         <f t="shared" si="8"/>
         <v>1.1101658718759977</v>
       </c>
-      <c r="K18" s="373">
+      <c r="K18" s="372">
         <f t="shared" si="8"/>
         <v>1.0794533707514193</v>
       </c>
@@ -44333,7 +45986,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="457"/>
+      <c r="F22" s="451"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -44396,7 +46049,7 @@
       <c r="E28" s="62">
         <v>2016</v>
       </c>
-      <c r="F28" s="304">
+      <c r="F28" s="303">
         <v>2017</v>
       </c>
       <c r="G28" s="146">
@@ -44475,23 +46128,23 @@
         <f>E3/'PRIHODKI IN STROŠKI'!E6</f>
         <v>1.9150219274661183E-3</v>
       </c>
-      <c r="F30" s="413">
+      <c r="F30" s="412">
         <f>F3/'PRIHODKI IN STROŠKI'!F6</f>
         <v>1.1216062214670557E-3</v>
       </c>
-      <c r="G30" s="459">
+      <c r="G30" s="453">
         <v>0</v>
       </c>
-      <c r="H30" s="459">
+      <c r="H30" s="453">
         <v>0</v>
       </c>
-      <c r="I30" s="459">
+      <c r="I30" s="453">
         <v>0</v>
       </c>
-      <c r="J30" s="459">
+      <c r="J30" s="453">
         <v>0</v>
       </c>
-      <c r="K30" s="459">
+      <c r="K30" s="453">
         <v>0</v>
       </c>
     </row>
@@ -44531,7 +46184,7 @@
       <c r="J31" s="39">
         <v>0</v>
       </c>
-      <c r="K31" s="345">
+      <c r="K31" s="344">
         <v>0</v>
       </c>
     </row>
@@ -44575,7 +46228,7 @@
         <f>J$5/'PRIHODKI IN STROŠKI'!J$6</f>
         <v>9.5344729073248199E-3</v>
       </c>
-      <c r="K32" s="346">
+      <c r="K32" s="345">
         <f>K$5/'PRIHODKI IN STROŠKI'!K$6</f>
         <v>8.5257551501528618E-3</v>
       </c>
@@ -44620,7 +46273,7 @@
         <f>SUM(J29:J32)</f>
         <v>0.26953447290732485</v>
       </c>
-      <c r="K33" s="374">
+      <c r="K33" s="373">
         <f>SUM(K29:K32)</f>
         <v>0.26852575515015287</v>
       </c>
@@ -44661,7 +46314,7 @@
       <c r="J34" s="39">
         <v>0.12</v>
       </c>
-      <c r="K34" s="345">
+      <c r="K34" s="344">
         <v>0.12</v>
       </c>
     </row>
@@ -44701,7 +46354,7 @@
       <c r="J35" s="39">
         <v>0</v>
       </c>
-      <c r="K35" s="345">
+      <c r="K35" s="344">
         <v>0</v>
       </c>
     </row>
@@ -44741,7 +46394,7 @@
       <c r="J36" s="39">
         <v>0.15</v>
       </c>
-      <c r="K36" s="345">
+      <c r="K36" s="344">
         <v>0.13</v>
       </c>
     </row>
@@ -44781,51 +46434,51 @@
       <c r="J37" s="39">
         <v>0.03</v>
       </c>
-      <c r="K37" s="345">
+      <c r="K37" s="344">
         <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="348" t="s">
+      <c r="A38" s="347" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="349">
+      <c r="B38" s="348">
         <f>B11/'PRIHODKI IN STROŠKI'!B$6</f>
         <v>0.37631528451303503</v>
       </c>
-      <c r="C38" s="349">
+      <c r="C38" s="348">
         <f>C11/'PRIHODKI IN STROŠKI'!C$6</f>
         <v>0.37251380008770246</v>
       </c>
-      <c r="D38" s="349">
+      <c r="D38" s="348">
         <f>D11/'PRIHODKI IN STROŠKI'!D$6</f>
         <v>0.37007282892826415</v>
       </c>
-      <c r="E38" s="349">
+      <c r="E38" s="348">
         <f>E11/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.3624568725930537</v>
       </c>
-      <c r="F38" s="350">
+      <c r="F38" s="349">
         <f>F11/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.35675683899274097</v>
       </c>
-      <c r="G38" s="363">
+      <c r="G38" s="362">
         <f>SUM(G34:G37)</f>
         <v>0.33000000000000007</v>
       </c>
-      <c r="H38" s="364">
+      <c r="H38" s="363">
         <f>SUM(H34:H37)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I38" s="364">
+      <c r="I38" s="363">
         <f>SUM(I34:I37)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J38" s="364">
+      <c r="J38" s="363">
         <f>SUM(J34:J37)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K38" s="365">
+      <c r="K38" s="364">
         <f>SUM(K34:K37)</f>
         <v>0.28000000000000003</v>
       </c>
@@ -44892,7 +46545,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44922,7 +46575,7 @@
       <c r="E1" s="62">
         <v>2016</v>
       </c>
-      <c r="F1" s="304">
+      <c r="F1" s="303">
         <v>2017</v>
       </c>
       <c r="G1" s="63">
@@ -44981,7 +46634,7 @@
         <f>K14*'PRIHODKI IN STROŠKI'!K$6</f>
         <v>5166047.9598936532</v>
       </c>
-      <c r="L2" s="353" t="s">
+      <c r="L2" s="352" t="s">
         <v>233</v>
       </c>
     </row>
@@ -45052,29 +46705,29 @@
       <c r="F4" s="24">
         <v>57314</v>
       </c>
-      <c r="G4" s="286">
+      <c r="G4" s="285">
         <f>$L$3</f>
         <v>232749</v>
       </c>
-      <c r="H4" s="409">
+      <c r="H4" s="408">
         <f t="shared" ref="H4:K4" si="0">$L$3</f>
         <v>232749</v>
       </c>
-      <c r="I4" s="409">
+      <c r="I4" s="408">
         <f t="shared" si="0"/>
         <v>232749</v>
       </c>
-      <c r="J4" s="409">
+      <c r="J4" s="408">
         <f t="shared" si="0"/>
         <v>232749</v>
       </c>
-      <c r="K4" s="354">
+      <c r="K4" s="353">
         <f t="shared" si="0"/>
         <v>232749</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="355" t="s">
+      <c r="A5" s="354" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="41">
@@ -45097,7 +46750,7 @@
         <f t="shared" si="1"/>
         <v>9552247</v>
       </c>
-      <c r="G5" s="411">
+      <c r="G5" s="410">
         <f t="shared" si="1"/>
         <v>10144871.398800001</v>
       </c>
@@ -45113,13 +46766,13 @@
         <f t="shared" si="1"/>
         <v>11781489.142248195</v>
       </c>
-      <c r="K5" s="412">
+      <c r="K5" s="411">
         <f t="shared" si="1"/>
         <v>13147868.899734132</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="356" t="s">
+      <c r="A6" s="355" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="7">
@@ -45141,15 +46794,15 @@
         <f>G18*'PRIHODKI IN STROŠKI'!G$6</f>
         <v>13216163.1984</v>
       </c>
-      <c r="H6" s="410">
+      <c r="H6" s="409">
         <f>H18*'PRIHODKI IN STROŠKI'!H$6</f>
         <v>14777374.514688</v>
       </c>
-      <c r="I6" s="410">
+      <c r="I6" s="409">
         <f>I18*'PRIHODKI IN STROŠKI'!I$6</f>
         <v>16523952.927528964</v>
       </c>
-      <c r="J6" s="410">
+      <c r="J6" s="409">
         <f>J18*'PRIHODKI IN STROŠKI'!J$6</f>
         <v>16168236.199147476</v>
       </c>
@@ -45159,7 +46812,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="355" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="7">
@@ -45199,43 +46852,43 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="357" t="s">
+      <c r="A8" s="356" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="358">
+      <c r="B8" s="357">
         <f>20629665+857946</f>
         <v>21487611</v>
       </c>
-      <c r="C8" s="358">
+      <c r="C8" s="357">
         <f>21812316+549628</f>
         <v>22361944</v>
       </c>
-      <c r="D8" s="358">
+      <c r="D8" s="357">
         <v>26720323</v>
       </c>
-      <c r="E8" s="358">
+      <c r="E8" s="357">
         <v>33763356</v>
       </c>
-      <c r="F8" s="359">
+      <c r="F8" s="358">
         <v>41434412</v>
       </c>
-      <c r="G8" s="360">
+      <c r="G8" s="359">
         <f>G6+G7</f>
         <v>42952530.3948</v>
       </c>
-      <c r="H8" s="361">
+      <c r="H8" s="360">
         <f>H6+H7</f>
         <v>48026467.172736004</v>
       </c>
-      <c r="I8" s="361">
+      <c r="I8" s="360">
         <f>I6+I7</f>
         <v>51637352.89852801</v>
       </c>
-      <c r="J8" s="361">
+      <c r="J8" s="360">
         <f>J6+J7</f>
         <v>55433952.682791345</v>
       </c>
-      <c r="K8" s="362">
+      <c r="K8" s="361">
         <f>K6+K7</f>
         <v>59409551.538777009</v>
       </c>
@@ -45308,11 +46961,11 @@
         <f>E2/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>2.6024049193850107E-2</v>
       </c>
-      <c r="F14" s="413">
+      <c r="F14" s="412">
         <f>F2/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>2.3991998640176166E-2</v>
       </c>
-      <c r="G14" s="415">
+      <c r="G14" s="414">
         <v>0.02</v>
       </c>
       <c r="H14" s="39">
@@ -45324,7 +46977,7 @@
       <c r="J14" s="39">
         <v>0.02</v>
       </c>
-      <c r="K14" s="345">
+      <c r="K14" s="344">
         <v>0.02</v>
       </c>
     </row>
@@ -45348,11 +47001,11 @@
         <f>E3/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>6.4945294697714817E-2</v>
       </c>
-      <c r="F15" s="413">
+      <c r="F15" s="412">
         <f>F3/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>4.0814037538323536E-2</v>
       </c>
-      <c r="G15" s="415">
+      <c r="G15" s="414">
         <v>0.04</v>
       </c>
       <c r="H15" s="39">
@@ -45364,7 +47017,7 @@
       <c r="J15" s="39">
         <v>0.03</v>
       </c>
-      <c r="K15" s="345">
+      <c r="K15" s="344">
         <v>0.03</v>
       </c>
     </row>
@@ -45388,11 +47041,11 @@
         <f>E4/'PRIHODKI IN STROŠKI'!E6</f>
         <v>1.3170560426527945E-3</v>
       </c>
-      <c r="F16" s="413">
+      <c r="F16" s="412">
         <f>F4/'PRIHODKI IN STROŠKI'!F6</f>
         <v>3.9118687383413154E-4</v>
       </c>
-      <c r="G16" s="416">
+      <c r="G16" s="415">
         <f>G4/'PRIHODKI IN STROŠKI'!G6</f>
         <v>1.4088748542583221E-3</v>
       </c>
@@ -45408,7 +47061,7 @@
         <f>J4/'PRIHODKI IN STROŠKI'!J6</f>
         <v>1.007681345034969E-3</v>
       </c>
-      <c r="K16" s="306">
+      <c r="K16" s="305">
         <f>K4/'PRIHODKI IN STROŠKI'!K6</f>
         <v>9.0107177404056193E-4</v>
       </c>
@@ -45433,11 +47086,11 @@
         <f>E5/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>9.2286399934217722E-2</v>
       </c>
-      <c r="F17" s="413">
+      <c r="F17" s="412">
         <f>F5/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>6.519722305233383E-2</v>
       </c>
-      <c r="G17" s="417">
+      <c r="G17" s="416">
         <f>G14+G15</f>
         <v>0.06</v>
       </c>
@@ -45453,7 +47106,7 @@
         <f>J14+J15</f>
         <v>0.05</v>
       </c>
-      <c r="K17" s="343">
+      <c r="K17" s="342">
         <f>K14+K15</f>
         <v>0.05</v>
       </c>
@@ -45478,11 +47131,11 @@
         <f>E6/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>7.2018033898231776E-2</v>
       </c>
-      <c r="F18" s="413">
+      <c r="F18" s="412">
         <f>F6/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>9.5582486360127158E-2</v>
       </c>
-      <c r="G18" s="415">
+      <c r="G18" s="414">
         <v>0.08</v>
       </c>
       <c r="H18" s="39">
@@ -45494,7 +47147,7 @@
       <c r="J18" s="39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K18" s="345">
+      <c r="K18" s="344">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -45518,11 +47171,11 @@
         <f>E7/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.18229397415831108</v>
       </c>
-      <c r="F19" s="413">
+      <c r="F19" s="412">
         <f>F7/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.17869912461613671</v>
       </c>
-      <c r="G19" s="415">
+      <c r="G19" s="414">
         <v>0.18</v>
       </c>
       <c r="H19" s="39">
@@ -45534,51 +47187,51 @@
       <c r="J19" s="39">
         <v>0.17</v>
       </c>
-      <c r="K19" s="345">
+      <c r="K19" s="344">
         <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="348" t="s">
+      <c r="A20" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="349">
+      <c r="B20" s="348">
         <f>B8/'PRIHODKI IN STROŠKI'!B$6</f>
         <v>0.2473396064894671</v>
       </c>
-      <c r="C20" s="349">
+      <c r="C20" s="348">
         <f>C8/'PRIHODKI IN STROŠKI'!C$6</f>
         <v>0.23288258467449005</v>
       </c>
-      <c r="D20" s="349">
+      <c r="D20" s="348">
         <f>D8/'PRIHODKI IN STROŠKI'!D$6</f>
         <v>0.23870014583938079</v>
       </c>
-      <c r="E20" s="349">
+      <c r="E20" s="348">
         <f>E8/'PRIHODKI IN STROŠKI'!E$6</f>
         <v>0.26455957759237936</v>
       </c>
-      <c r="F20" s="414">
+      <c r="F20" s="413">
         <f>F8/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.28280347034643238</v>
       </c>
-      <c r="G20" s="418">
+      <c r="G20" s="417">
         <f>G18+G19</f>
         <v>0.26</v>
       </c>
-      <c r="H20" s="364">
+      <c r="H20" s="363">
         <f>H18+H19</f>
         <v>0.26</v>
       </c>
-      <c r="I20" s="364">
+      <c r="I20" s="363">
         <f>I18+I19</f>
         <v>0.25</v>
       </c>
-      <c r="J20" s="364">
+      <c r="J20" s="363">
         <f>J18+J19</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="K20" s="365">
+      <c r="K20" s="364">
         <f>K18+K19</f>
         <v>0.23</v>
       </c>
@@ -45628,7 +47281,7 @@
       <c r="E25" s="7">
         <v>45510666</v>
       </c>
-      <c r="F25" s="552">
+      <c r="F25" s="544">
         <v>55347711</v>
       </c>
     </row>
@@ -45636,23 +47289,23 @@
       <c r="A26" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="550">
+      <c r="B26" s="542">
         <f>(B3+B6)/(B3+B6+B25)</f>
         <v>0.36845559048126808</v>
       </c>
-      <c r="C26" s="550">
+      <c r="C26" s="542">
         <f t="shared" ref="C26:F26" si="2">(C3+C6)/(C3+C6+C25)</f>
         <v>0.29424347266592055</v>
       </c>
-      <c r="D26" s="550">
+      <c r="D26" s="542">
         <f t="shared" si="2"/>
         <v>0.20101646098422238</v>
       </c>
-      <c r="E26" s="550">
+      <c r="E26" s="542">
         <f t="shared" si="2"/>
         <v>0.27749450381553842</v>
       </c>
-      <c r="F26" s="550">
+      <c r="F26" s="542">
         <f t="shared" si="2"/>
         <v>0.26527884955777115</v>
       </c>
@@ -45661,23 +47314,23 @@
       <c r="A27" s="93" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="551">
+      <c r="B27" s="543">
         <f>B25/(B25+B3+B6)</f>
         <v>0.63154440951873192</v>
       </c>
-      <c r="C27" s="551">
+      <c r="C27" s="543">
         <f t="shared" ref="C27:F27" si="3">C25/(C25+C3+C6)</f>
         <v>0.70575652733407945</v>
       </c>
-      <c r="D27" s="551">
+      <c r="D27" s="543">
         <f t="shared" si="3"/>
         <v>0.79898353901577757</v>
       </c>
-      <c r="E27" s="551">
+      <c r="E27" s="543">
         <f t="shared" si="3"/>
         <v>0.72250549618446158</v>
       </c>
-      <c r="F27" s="551">
+      <c r="F27" s="543">
         <f t="shared" si="3"/>
         <v>0.73472115044222885</v>
       </c>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9832FEE9-88AC-4356-92BD-9522357EEAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB08F113-5C85-4B19-9362-BC316C29DAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -815,7 +815,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="358">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1887,6 +1887,9 @@
   <si>
     <t>KONTROLNA PREMIJA</t>
   </si>
+  <si>
+    <t>VREDNOST DELNICE PO UPORABI ODBITKOV</t>
+  </si>
 </sst>
 </file>
 
@@ -1902,7 +1905,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -2097,7 +2100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2155,6 +2158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3029,7 +3038,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="614">
+  <cellXfs count="616">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3622,6 +3631,18 @@
     <xf numFmtId="4" fontId="0" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3652,18 +3673,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -40607,7 +40618,7 @@
       <c r="A61" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="B61" s="611" t="s">
+      <c r="B61" s="601" t="s">
         <v>354</v>
       </c>
       <c r="C61" s="229"/>
@@ -41673,10 +41684,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="600" t="s">
+      <c r="A88" s="612" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="601"/>
+      <c r="B88" s="613"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -41856,7 +41867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0A014-21B1-400C-BD7B-7D9025677110}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -42670,11 +42681,11 @@
       <c r="C12" s="505">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="592" t="s">
+      <c r="F12" s="604" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="593"/>
-      <c r="H12" s="594"/>
+      <c r="G12" s="605"/>
+      <c r="H12" s="606"/>
       <c r="J12" s="497" t="s">
         <v>286</v>
       </c>
@@ -42732,12 +42743,12 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="592" t="s">
+      <c r="J15" s="604" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="593"/>
-      <c r="L15" s="593"/>
-      <c r="M15" s="594"/>
+      <c r="K15" s="605"/>
+      <c r="L15" s="605"/>
+      <c r="M15" s="606"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
@@ -42841,11 +42852,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="595" t="s">
+      <c r="F26" s="607" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="596"/>
-      <c r="H26" s="597"/>
+      <c r="G26" s="608"/>
+      <c r="H26" s="609"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43067,7 +43078,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="598" t="s">
+      <c r="A8" s="610" t="s">
         <v>308</v>
       </c>
       <c r="B8" s="453" t="s">
@@ -43078,7 +43089,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="598"/>
+      <c r="A9" s="610"/>
       <c r="B9" s="453" t="s">
         <v>304</v>
       </c>
@@ -43087,7 +43098,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="598"/>
+      <c r="A10" s="610"/>
       <c r="B10" s="453" t="s">
         <v>305</v>
       </c>
@@ -43096,7 +43107,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="599"/>
+      <c r="A11" s="611"/>
       <c r="B11" s="454" t="s">
         <v>306</v>
       </c>
@@ -43208,10 +43219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
-  <dimension ref="B2:K14"/>
+  <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43251,7 +43262,7 @@
       <c r="I3" s="588" t="s">
         <v>339</v>
       </c>
-      <c r="J3" s="602">
+      <c r="J3" s="592">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K3" s="453">
@@ -43385,10 +43396,10 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="613" t="s">
+      <c r="B13" s="603" t="s">
         <v>356</v>
       </c>
-      <c r="C13" s="612">
+      <c r="C13" s="602">
         <v>0.30299999999999999</v>
       </c>
     </row>
@@ -43399,6 +43410,23 @@
       <c r="C14" s="453">
         <f>1-(1/(1+C13))</f>
         <v>0.23254029163468914</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="580" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="453">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="615" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="614">
+        <f>C10*(1-C14)*(1-C15)</f>
+        <v>83.661289680614246</v>
       </c>
     </row>
   </sheetData>
@@ -43568,28 +43596,28 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="603" t="s">
+      <c r="B9" s="593" t="s">
         <v>347</v>
       </c>
-      <c r="C9" s="607"/>
-      <c r="D9" s="609">
+      <c r="C9" s="597"/>
+      <c r="D9" s="599">
         <v>479312</v>
       </c>
-      <c r="E9" s="608"/>
-      <c r="F9" s="604"/>
-      <c r="G9" s="605"/>
+      <c r="E9" s="598"/>
+      <c r="F9" s="594"/>
+      <c r="G9" s="595"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="603" t="s">
+      <c r="B10" s="593" t="s">
         <v>348</v>
       </c>
-      <c r="C10" s="607"/>
-      <c r="D10" s="610">
+      <c r="C10" s="597"/>
+      <c r="D10" s="600">
         <v>34903</v>
       </c>
-      <c r="E10" s="608"/>
-      <c r="F10" s="604"/>
-      <c r="G10" s="605"/>
+      <c r="E10" s="598"/>
+      <c r="F10" s="594"/>
+      <c r="G10" s="595"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="434" t="s">
@@ -43779,7 +43807,7 @@
       <c r="B23" s="434" t="s">
         <v>349</v>
       </c>
-      <c r="C23" s="606">
+      <c r="C23" s="596">
         <f>C24*G3</f>
         <v>17997525</v>
       </c>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB08F113-5C85-4B19-9362-BC316C29DAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A806B-9DEA-48B5-A200-EC44E86FC3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -364,6 +364,30 @@
           </rPr>
           <t xml:space="preserve">
 študije RSM - industrija v letu 2017</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{13F81F63-CF85-4847-8384-FFBB0BE2AD4A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+določen na podlagi pteučevanih študij na prejšnjem zavihku</t>
         </r>
       </text>
     </comment>
@@ -815,7 +839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1890,6 +1914,60 @@
   <si>
     <t>VREDNOST DELNICE PO UPORABI ODBITKOV</t>
   </si>
+  <si>
+    <t>ŠTUDIJA</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>Študije na podlagi restriktivnih delnic</t>
+  </si>
+  <si>
+    <t>SEC Institutional Investor Study</t>
+  </si>
+  <si>
+    <t>Gelman Study</t>
+  </si>
+  <si>
+    <t>Trout Study</t>
+  </si>
+  <si>
+    <t>Moroney Study</t>
+  </si>
+  <si>
+    <t>Maher Study</t>
+  </si>
+  <si>
+    <t>Willamette Management Associates</t>
+  </si>
+  <si>
+    <t>Silber study</t>
+  </si>
+  <si>
+    <t>FMV opinions</t>
+  </si>
+  <si>
+    <t>Management Planning, Inc.</t>
+  </si>
+  <si>
+    <t>ime študije</t>
+  </si>
+  <si>
+    <t>povprečni odbitek</t>
+  </si>
+  <si>
+    <t>komentar</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Študije na podlagi IPO ponudb</t>
+  </si>
+  <si>
+    <t>John D. Emory Study</t>
+  </si>
 </sst>
 </file>
 
@@ -2100,7 +2178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2164,6 +2242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3038,7 +3122,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="616">
+  <cellXfs count="625">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3643,6 +3727,8 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3673,8 +3759,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -41684,10 +41777,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="612" t="s">
+      <c r="A88" s="614" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="613"/>
+      <c r="B88" s="615"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -42681,11 +42774,11 @@
       <c r="C12" s="505">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="604" t="s">
+      <c r="F12" s="606" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="605"/>
-      <c r="H12" s="606"/>
+      <c r="G12" s="607"/>
+      <c r="H12" s="608"/>
       <c r="J12" s="497" t="s">
         <v>286</v>
       </c>
@@ -42743,12 +42836,12 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="604" t="s">
+      <c r="J15" s="606" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="605"/>
-      <c r="L15" s="605"/>
-      <c r="M15" s="606"/>
+      <c r="K15" s="607"/>
+      <c r="L15" s="607"/>
+      <c r="M15" s="608"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
@@ -42852,11 +42945,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="607" t="s">
+      <c r="F26" s="609" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="608"/>
-      <c r="H26" s="609"/>
+      <c r="G26" s="610"/>
+      <c r="H26" s="611"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43039,10 +43132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43050,6 +43143,7 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -43078,7 +43172,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="610" t="s">
+      <c r="A8" s="612" t="s">
         <v>308</v>
       </c>
       <c r="B8" s="453" t="s">
@@ -43089,7 +43183,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="610"/>
+      <c r="A9" s="612"/>
       <c r="B9" s="453" t="s">
         <v>304</v>
       </c>
@@ -43098,7 +43192,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="610"/>
+      <c r="A10" s="612"/>
       <c r="B10" s="453" t="s">
         <v>305</v>
       </c>
@@ -43107,7 +43201,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="611"/>
+      <c r="A11" s="613"/>
       <c r="B11" s="454" t="s">
         <v>306</v>
       </c>
@@ -43146,63 +43240,222 @@
       </c>
       <c r="C16" s="220"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="521"/>
       <c r="B17" s="529" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="220"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="521"/>
       <c r="B18" s="529" t="s">
         <v>315</v>
       </c>
       <c r="C18" s="220"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="521"/>
       <c r="B19" s="529" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="220"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="521"/>
       <c r="B20" s="529" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="220"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="521"/>
       <c r="B21" s="529"/>
       <c r="C21" s="220"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="521"/>
       <c r="B22" s="529"/>
       <c r="C22" s="220"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="521"/>
       <c r="B23" s="529"/>
       <c r="C23" s="220"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="521"/>
       <c r="B24" s="529"/>
       <c r="C24" s="220"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="521"/>
       <c r="B25" s="529"/>
       <c r="C25" s="220"/>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="523"/>
       <c r="B26" s="530"/>
       <c r="C26" s="525"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="616"/>
+      <c r="B28" s="617" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="618"/>
+      <c r="D28" s="619"/>
+    </row>
+    <row r="29" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="620" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="621" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="468"/>
+      <c r="D29" s="622"/>
+    </row>
+    <row r="30" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="623"/>
+      <c r="B30" s="621" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="621" t="s">
+        <v>371</v>
+      </c>
+      <c r="D30" s="624" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="521">
+        <v>1</v>
+      </c>
+      <c r="B31" s="135" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="135"/>
+      <c r="D31" s="220"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="521">
+        <v>2</v>
+      </c>
+      <c r="B32" s="135" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" s="135"/>
+      <c r="D32" s="220"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="521">
+        <v>3</v>
+      </c>
+      <c r="B33" s="135" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="135"/>
+      <c r="D33" s="220"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="521">
+        <v>4</v>
+      </c>
+      <c r="B34" s="135" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="135"/>
+      <c r="D34" s="220"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="521">
+        <v>5</v>
+      </c>
+      <c r="B35" s="135" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="135"/>
+      <c r="D35" s="220"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="521">
+        <v>6</v>
+      </c>
+      <c r="B36" s="135" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="135"/>
+      <c r="D36" s="220"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="521">
+        <v>7</v>
+      </c>
+      <c r="B37" s="135" t="s">
+        <v>367</v>
+      </c>
+      <c r="C37" s="135"/>
+      <c r="D37" s="220"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="521">
+        <v>8</v>
+      </c>
+      <c r="B38" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="135"/>
+      <c r="D38" s="220"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="521">
+        <v>9</v>
+      </c>
+      <c r="B39" s="135" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="135"/>
+      <c r="D39" s="220"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="576" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="218" t="s">
+        <v>374</v>
+      </c>
+      <c r="C40" s="135"/>
+      <c r="D40" s="220"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="521"/>
+      <c r="B41" s="218" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="218" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="219" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="521">
+        <v>1</v>
+      </c>
+      <c r="B42" s="135" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="135"/>
+      <c r="D42" s="220"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="523"/>
+      <c r="B43" s="524"/>
+      <c r="C43" s="524"/>
+      <c r="D43" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -43221,8 +43474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43372,10 +43625,7 @@
         <f>PASIVA!F3+PASIVA!F6-AKTIVA!F10-AKTIVA!F8</f>
         <v>16287656</v>
       </c>
-      <c r="D9" s="557">
-        <f>C8-C9</f>
-        <v>72798593.20165132</v>
-      </c>
+      <c r="D9" s="557"/>
     </row>
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="585" t="s">
@@ -43400,7 +43650,7 @@
         <v>356</v>
       </c>
       <c r="C13" s="602">
-        <v>0.30299999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
@@ -43409,7 +43659,7 @@
       </c>
       <c r="C14" s="453">
         <f>1-(1/(1+C13))</f>
-        <v>0.23254029163468914</v>
+        <v>0.2503748125937032</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -43421,12 +43671,12 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="615" t="s">
+      <c r="B17" s="605" t="s">
         <v>357</v>
       </c>
-      <c r="C17" s="614">
+      <c r="C17" s="604">
         <f>C10*(1-C14)*(1-C15)</f>
-        <v>83.661289680614246</v>
+        <v>81.717136771994262</v>
       </c>
     </row>
   </sheetData>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A806B-9DEA-48B5-A200-EC44E86FC3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DB5F0-6F7E-4254-A25D-3396D58DA1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -387,7 +387,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-določen na podlagi pteučevanih študij na prejšnjem zavihku</t>
+določen na podlagi preučevanih študij na prejšnjem zavihku</t>
         </r>
       </text>
     </comment>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="398">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1924,31 +1924,10 @@
     <t>Študije na podlagi restriktivnih delnic</t>
   </si>
   <si>
-    <t>SEC Institutional Investor Study</t>
-  </si>
-  <si>
-    <t>Gelman Study</t>
-  </si>
-  <si>
-    <t>Trout Study</t>
-  </si>
-  <si>
-    <t>Moroney Study</t>
-  </si>
-  <si>
-    <t>Maher Study</t>
-  </si>
-  <si>
     <t>Willamette Management Associates</t>
   </si>
   <si>
     <t>Silber study</t>
-  </si>
-  <si>
-    <t>FMV opinions</t>
-  </si>
-  <si>
-    <t>Management Planning, Inc.</t>
   </si>
   <si>
     <t>ime študije</t>
@@ -1968,6 +1947,93 @@
   <si>
     <t>John D. Emory Study</t>
   </si>
+  <si>
+    <t>Houlihan Lokey study</t>
+  </si>
+  <si>
+    <t>Columbia Financial</t>
+  </si>
+  <si>
+    <t>Munroe, Park &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Management Planning</t>
+  </si>
+  <si>
+    <t>FMV Opinions </t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Standard Research </t>
+  </si>
+  <si>
+    <t>Moroney</t>
+  </si>
+  <si>
+    <t>Trout</t>
+  </si>
+  <si>
+    <t>Maher</t>
+  </si>
+  <si>
+    <t>Institutional investor study</t>
+  </si>
+  <si>
+    <t>Gelman</t>
+  </si>
+  <si>
+    <t>držanje delnice 2 leti - 17%; držanje delnice 1 leto - 8%</t>
+  </si>
+  <si>
+    <t>Dokaz, da je odbitek močno povezan z dobo, ko delnice ne moreš prodati - na sredini raziskave se je čas držanja restriktivne delnice zmanjšala za polovico</t>
+  </si>
+  <si>
+    <t>držanje delnice 2 leti - 14%; držanje delnice 1 leto - 9%</t>
+  </si>
+  <si>
+    <t>Zajetih 72 transakcij v letih 1991 - 1995</t>
+  </si>
+  <si>
+    <t>Preučevanih 115 zasebnih transakcij, vključeno z lastnimi delnicami večjih industrijskih korporacij. Večina se jih je prodajala z diskontom, nekaj pa tudi s premijo ali kar točno po tržni ceni.  Da bi dobili bolj objektivne rezultate so naknadno izključili vse transakcije podjetij z manj kot 3 milijoni prihodkov.</t>
+  </si>
+  <si>
+    <t>Analiziranih preko 100 transakcij - rezultat potrjuje, da je odbitek močno povezan z višino prihodkov podjetja.</t>
+  </si>
+  <si>
+    <t>Preučevanih 44 zasebnih transakcij - z rezultati si lahko razlagajo le 67 odstotkov odbitkov, raziskava ni dosegla željenih rezultatov</t>
+  </si>
+  <si>
+    <t>Preučevanih 28 transakcij</t>
+  </si>
+  <si>
+    <t>Preučevanih 33 transakcij</t>
+  </si>
+  <si>
+    <t>Preučevanih 69 transakcij</t>
+  </si>
+  <si>
+    <t>Preučevanih 146 transakcij desetih večjih korporacij</t>
+  </si>
+  <si>
+    <t>Študije restriktivnih delnic podjetij glede na 4 dejavnike: prodaja, zaslužek, način prodaje delnic (borza ali interno), regulatorne omejitve pri nadaljni prodaji.Od teh je zaslužek po rezultatih najbolj merodajen. Naše podjetje - glede na prodajo (10 - 20), glede na zaslužek (10 - 20), ker pa se prodaja izven reguliranega borznega trga - (20 - 30).</t>
+  </si>
+  <si>
+    <t>Preučevanih 89 transakcij 4 večjih podjetij, pred letom 1970.</t>
+  </si>
+  <si>
+    <t>Preučevanih 60 transakcij večjih skladov</t>
+  </si>
+  <si>
+    <t>Preučevanih 34 transakcij</t>
+  </si>
+  <si>
+    <t>879 transakcij - primerjajo vrednost pred in po prvi javni ponudbi</t>
+  </si>
+  <si>
+    <t>283 transakcij v letih 1997 - 2000, primerjava cene delnice 5 mesecev pred prvo javno ponudbo in takoj po njej</t>
+  </si>
 </sst>
 </file>
 
@@ -1985,7 +2051,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2176,6 +2242,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3122,7 +3204,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="625">
+  <cellXfs count="633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3729,6 +3811,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3759,15 +3850,20 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -41777,10 +41873,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="614" t="s">
+      <c r="A88" s="623" t="s">
         <v>322</v>
       </c>
-      <c r="B88" s="615"/>
+      <c r="B88" s="624"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -41961,7 +42057,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42774,11 +42870,11 @@
       <c r="C12" s="505">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="606" t="s">
+      <c r="F12" s="615" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="607"/>
-      <c r="H12" s="608"/>
+      <c r="G12" s="616"/>
+      <c r="H12" s="617"/>
       <c r="J12" s="497" t="s">
         <v>286</v>
       </c>
@@ -42836,12 +42932,12 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="606" t="s">
+      <c r="J15" s="615" t="s">
         <v>293</v>
       </c>
-      <c r="K15" s="607"/>
-      <c r="L15" s="607"/>
-      <c r="M15" s="608"/>
+      <c r="K15" s="616"/>
+      <c r="L15" s="616"/>
+      <c r="M15" s="617"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
@@ -42945,11 +43041,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="609" t="s">
+      <c r="F26" s="618" t="s">
         <v>285</v>
       </c>
-      <c r="G26" s="610"/>
-      <c r="H26" s="611"/>
+      <c r="G26" s="619"/>
+      <c r="H26" s="620"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43132,10 +43228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43143,7 +43239,7 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -43172,7 +43268,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="612" t="s">
+      <c r="A8" s="621" t="s">
         <v>308</v>
       </c>
       <c r="B8" s="453" t="s">
@@ -43183,7 +43279,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="612"/>
+      <c r="A9" s="621"/>
       <c r="B9" s="453" t="s">
         <v>304</v>
       </c>
@@ -43192,7 +43288,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="612"/>
+      <c r="A10" s="621"/>
       <c r="B10" s="453" t="s">
         <v>305</v>
       </c>
@@ -43201,7 +43297,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="613"/>
+      <c r="A11" s="622"/>
       <c r="B11" s="454" t="s">
         <v>306</v>
       </c>
@@ -43300,162 +43396,280 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="616"/>
-      <c r="B28" s="617" t="s">
+      <c r="A28" s="606"/>
+      <c r="B28" s="607" t="s">
         <v>358</v>
       </c>
-      <c r="C28" s="618"/>
-      <c r="D28" s="619"/>
+      <c r="C28" s="608"/>
+      <c r="D28" s="609"/>
     </row>
     <row r="29" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="620" t="s">
+      <c r="A29" s="610" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="621" t="s">
+      <c r="B29" s="611" t="s">
         <v>360</v>
       </c>
       <c r="C29" s="468"/>
-      <c r="D29" s="622"/>
+      <c r="D29" s="612"/>
     </row>
     <row r="30" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="623"/>
-      <c r="B30" s="621" t="s">
-        <v>370</v>
-      </c>
-      <c r="C30" s="621" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="624" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="521">
+      <c r="A30" s="613"/>
+      <c r="B30" s="611" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="611" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="614" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="429" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="613">
         <v>1</v>
       </c>
-      <c r="B31" s="135" t="s">
-        <v>361</v>
-      </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="220"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="627" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" s="625" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" s="626" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="521">
         <v>2</v>
       </c>
-      <c r="B32" s="135" t="s">
-        <v>362</v>
-      </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="220"/>
+      <c r="B32" s="629" t="s">
+        <v>370</v>
+      </c>
+      <c r="C32" s="625" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="626" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="521">
+      <c r="A33" s="613">
         <v>3</v>
       </c>
-      <c r="B33" s="135" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="220"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="629" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="135">
+        <v>20</v>
+      </c>
+      <c r="D33" s="220" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="521">
         <v>4</v>
       </c>
-      <c r="B34" s="135" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="220"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="521">
+      <c r="B34" s="629" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="135">
+        <v>26</v>
+      </c>
+      <c r="D34" s="631" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="613">
         <v>5</v>
       </c>
-      <c r="B35" s="135" t="s">
-        <v>365</v>
-      </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="220"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="629" t="s">
+        <v>373</v>
+      </c>
+      <c r="C35" s="468">
+        <v>23</v>
+      </c>
+      <c r="D35" s="631" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="521">
         <v>6</v>
       </c>
-      <c r="B36" s="135" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="220"/>
+      <c r="B36" s="629" t="s">
+        <v>374</v>
+      </c>
+      <c r="C36" s="468">
+        <v>24</v>
+      </c>
+      <c r="D36" s="631" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="521">
+      <c r="A37" s="613">
         <v>7</v>
       </c>
-      <c r="B37" s="135" t="s">
-        <v>367</v>
-      </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="220"/>
+      <c r="B37" s="629" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="468">
+        <v>45</v>
+      </c>
+      <c r="D37" s="220" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="521">
         <v>8</v>
       </c>
-      <c r="B38" s="135" t="s">
-        <v>368</v>
-      </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="220"/>
+      <c r="B38" s="628" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="468">
+        <v>31</v>
+      </c>
+      <c r="D38" s="220" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="521">
+      <c r="A39" s="613">
         <v>9</v>
       </c>
-      <c r="B39" s="135" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="220"/>
+      <c r="B39" s="628" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" s="468">
+        <v>34</v>
+      </c>
+      <c r="D39" s="220" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="576" t="s">
-        <v>373</v>
-      </c>
-      <c r="B40" s="218" t="s">
-        <v>374</v>
-      </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="220"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="521"/>
-      <c r="B41" s="218" t="s">
-        <v>370</v>
-      </c>
-      <c r="C41" s="218" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="219" t="s">
-        <v>372</v>
+      <c r="A40" s="521">
+        <v>10</v>
+      </c>
+      <c r="B40" s="629" t="s">
+        <v>376</v>
+      </c>
+      <c r="C40" s="468">
+        <v>33</v>
+      </c>
+      <c r="D40" s="220" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="613">
+        <v>11</v>
+      </c>
+      <c r="B41" s="629" t="s">
+        <v>379</v>
+      </c>
+      <c r="C41" s="468">
+        <v>24</v>
+      </c>
+      <c r="D41" s="631" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="521">
+        <v>12</v>
+      </c>
+      <c r="B42" s="629" t="s">
+        <v>380</v>
+      </c>
+      <c r="C42" s="468">
+        <v>33</v>
+      </c>
+      <c r="D42" s="220" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="613">
+        <v>13</v>
+      </c>
+      <c r="B43" s="629" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="468">
+        <v>34</v>
+      </c>
+      <c r="D43" s="220" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="521">
+        <v>14</v>
+      </c>
+      <c r="B44" s="630" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" s="468">
+        <v>35</v>
+      </c>
+      <c r="D44" s="220" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="576" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" s="218" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="135"/>
+      <c r="D45" s="220"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="521"/>
+      <c r="B46" s="218" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="218" t="s">
+        <v>364</v>
+      </c>
+      <c r="D46" s="219" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="521">
         <v>1</v>
       </c>
-      <c r="B42" s="135" t="s">
-        <v>375</v>
-      </c>
-      <c r="C42" s="135"/>
-      <c r="D42" s="220"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="523"/>
-      <c r="B43" s="524"/>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
+      <c r="B47" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="468">
+        <v>52</v>
+      </c>
+      <c r="D47" s="631" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="523">
+        <v>2</v>
+      </c>
+      <c r="B48" s="524" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="524">
+        <v>52</v>
+      </c>
+      <c r="D48" s="632" t="s">
+        <v>396</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -43474,8 +43688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43667,7 +43881,7 @@
         <v>295</v>
       </c>
       <c r="C15" s="453">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -43676,7 +43890,7 @@
       </c>
       <c r="C17" s="604">
         <f>C10*(1-C14)*(1-C15)</f>
-        <v>81.717136771994262</v>
+        <v>79.594613738955445</v>
       </c>
     </row>
   </sheetData>
@@ -44083,7 +44297,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DB5F0-6F7E-4254-A25D-3396D58DA1A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2F5BE-F0C9-4AC1-BE63-40E5F1560B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -97,6 +97,33 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={004DA307-EE52-4AC4-8614-885AF783F445}</author>
+    <author>tc={633554F2-1BD0-4956-A841-637F04420044}</author>
+  </authors>
+  <commentList>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{004DA307-EE52-4AC4-8614-885AF783F445}">
+      <text>
+        <t>[Pripomba v niti]
+Vaša različica programa Excel dovoljuje branje te pripombe v niti, vendar pa bodo vse spremembe odstranjene, če bo datoteka odprta v novejši različici programa Excel. Več informacij: https://go.microsoft.com/fwlink/?linkid=870924.
+Pripomba:
+    predpisana</t>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="1" shapeId="0" xr:uid="{633554F2-1BD0-4956-A841-637F04420044}">
+      <text>
+        <t>[Pripomba v niti]
+Vaša različica programa Excel dovoljuje branje te pripombe v niti, vendar pa bodo vse spremembe odstranjene, če bo datoteka odprta v novejši različici programa Excel. Več informacij: https://go.microsoft.com/fwlink/?linkid=870924.
+Pripomba:
+    vzeta</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Neža</author>
   </authors>
   <commentList>
@@ -170,6 +197,30 @@
     <author>tc={9467D0CF-F058-4ABF-BD48-4110E57393EB}</author>
   </authors>
   <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{F3A509BB-9359-4FF5-B945-EBFD79448AB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kratkoročne in dolgoročne finančne obveznosti</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CBD4E641-95D1-45E2-BAD6-71B6C3D23F6E}">
       <text>
         <r>
@@ -192,6 +243,32 @@
           <t xml:space="preserve">
 dolgoročno zakonsko določena davčna stopnja za Slovenijo
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{0705B7FB-3230-4871-B505-E273EC547C31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+malo zvišana netvegana stopnja donosa</t>
         </r>
       </text>
     </comment>
@@ -260,6 +337,143 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Neža</author>
+  </authors>
+  <commentList>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{1C00D69D-CE6F-48BC-AAD7-D03EDD8DF1E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.abi.org/abi-journal/update-on-study-of-discount-for-lack-of-marketability#1a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{D9184218-3433-4CF3-9A69-040F1C76E012}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+prvih 10 dejavnikov je zajetih iz skupine mandelbaum factors!! Služijo za prilagoditev odbitka, ugotovijenega iz zgornjih raziskav</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A61" authorId="0" shapeId="0" xr:uid="{6B8066AA-8C59-4FF9-9D31-D0F59A584170}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+po restricted stocks raziskavah - trije ključni dejavniki 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{D93067B5-77D5-45F7-B909-4ECD138D8379}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+http://www.willamette.com/insights_journal/16/winter_2016_5.pdf
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{DEB82F84-5463-44C8-B506-5E497DE8D0BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+9 faktorjev
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Neža</author>
@@ -341,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{4BD38653-AF60-408A-9F98-7BBF0C7824A2}">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{32F7EBF8-57B3-48EE-9001-1FA15A80E82F}">
       <text>
         <r>
           <rPr>
@@ -349,8 +563,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t>Neža:</t>
         </r>
@@ -359,11 +572,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <family val="2"/>
-            <charset val="238"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-študije RSM - industrija v letu 2017</t>
+vzeto iz študij, po dejavnosti</t>
         </r>
       </text>
     </comment>
@@ -395,7 +607,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={83CD7CC0-628D-4BE5-951D-5983173DE0CC}</author>
@@ -467,7 +679,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0D60E299-A915-44F1-B99E-B8BF4859DA93}</author>
@@ -604,7 +816,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A1714CF8-2995-4680-AFC8-079E09211D55}</author>
@@ -676,7 +888,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={0520480E-BD66-4C31-90D2-D7A7C5E90B15}</author>
@@ -748,7 +960,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9A790A48-4BFE-4F5C-A7E2-46ECB47B203E}</author>
@@ -811,35 +1023,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={004DA307-EE52-4AC4-8614-885AF783F445}</author>
-    <author>tc={633554F2-1BD0-4956-A841-637F04420044}</author>
-  </authors>
-  <commentList>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{004DA307-EE52-4AC4-8614-885AF783F445}">
-      <text>
-        <t>[Pripomba v niti]
-Vaša različica programa Excel dovoljuje branje te pripombe v niti, vendar pa bodo vse spremembe odstranjene, če bo datoteka odprta v novejši različici programa Excel. Več informacij: https://go.microsoft.com/fwlink/?linkid=870924.
-Pripomba:
-    predpisana</t>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="1" shapeId="0" xr:uid="{633554F2-1BD0-4956-A841-637F04420044}">
-      <text>
-        <t>[Pripomba v niti]
-Vaša različica programa Excel dovoljuje branje te pripombe v niti, vendar pa bodo vse spremembe odstranjene, če bo datoteka odprta v novejši različici programa Excel. Več informacij: https://go.microsoft.com/fwlink/?linkid=870924.
-Pripomba:
-    vzeta</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="434">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -1612,16 +1797,10 @@
     <t>v 2017:</t>
   </si>
   <si>
-    <t xml:space="preserve">plačane obresti </t>
-  </si>
-  <si>
     <t>finančne obveznosti</t>
   </si>
   <si>
     <t>plačani davki</t>
-  </si>
-  <si>
-    <t>finančni odhodki iz poslovnih obveznosti</t>
   </si>
   <si>
     <t>nom. obrestna mera</t>
@@ -1727,72 +1906,6 @@
   </si>
   <si>
     <t>ODBITEK ZA POMANJKANJE TRŽLJIVOSTI</t>
-  </si>
-  <si>
-    <t>Viri:</t>
-  </si>
-  <si>
-    <t>http://www.cek.ef.uni-lj.si/u_diplome/pfajfar4276.pdf</t>
-  </si>
-  <si>
-    <t>ZAČETNE JAVNE PONUDBE:</t>
-  </si>
-  <si>
-    <t>RESTRIKTIVNE DELNICE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> najvišji odbitki doseženi pri teh študijah (tudi do 70%)</t>
-  </si>
-  <si>
-    <t>odbitki okoli dobrih 30%</t>
-  </si>
-  <si>
-    <t>nezanesljivo - majhni vzorci, večinoma manj kot 100</t>
-  </si>
-  <si>
-    <t>primerja se ceni podobnih delnic, od katerih je ena tržljiva, druga pa ne (restriktivna)</t>
-  </si>
-  <si>
-    <t>primerja se ceno delnice nekega podjetja pred in po prvotni javni ponudbi delnic</t>
-  </si>
-  <si>
-    <t>nezanesljivo - spet majhni vzorci</t>
-  </si>
-  <si>
-    <t>podjetje v času, ko postaja odprto za trg, lahko precej spremeni politiko</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/46555514_The_Discount_for_Lack_of_Marketability_in_Privately_Owned_Companies_A_Multiples_Approach</t>
-  </si>
-  <si>
-    <t>primerjava - splošno</t>
-  </si>
-  <si>
-    <t>ŠTUDIJE:</t>
-  </si>
-  <si>
-    <t>1.)</t>
-  </si>
-  <si>
-    <t>ugotovitve:</t>
-  </si>
-  <si>
-    <t>Študija, ki primerja transakcije privatnega podjetja s transakcijami javnih</t>
-  </si>
-  <si>
-    <t>v povprečju 65% do 70% odbitki, presegajo pa tudi 80% na nekaterih področjih ekonomije</t>
-  </si>
-  <si>
-    <t>večja podjetja s pozitivnimi neto prihodki, in manjšimi tveganji imajo odbitke manjše</t>
-  </si>
-  <si>
-    <t>v primerjavo zajeta javna in zasebna podjetja v letih od 1994 do 2008</t>
-  </si>
-  <si>
-    <t>431 primerjav</t>
-  </si>
-  <si>
-    <t>primerjava MVIC s prodajo in z EBITDA</t>
   </si>
   <si>
     <t>čisti dobiček po davkih</t>
@@ -2017,9 +2130,6 @@
     <t>Preučevanih 146 transakcij desetih večjih korporacij</t>
   </si>
   <si>
-    <t>Študije restriktivnih delnic podjetij glede na 4 dejavnike: prodaja, zaslužek, način prodaje delnic (borza ali interno), regulatorne omejitve pri nadaljni prodaji.Od teh je zaslužek po rezultatih najbolj merodajen. Naše podjetje - glede na prodajo (10 - 20), glede na zaslužek (10 - 20), ker pa se prodaja izven reguliranega borznega trga - (20 - 30).</t>
-  </si>
-  <si>
     <t>Preučevanih 89 transakcij 4 večjih podjetij, pred letom 1970.</t>
   </si>
   <si>
@@ -2029,10 +2139,193 @@
     <t>Preučevanih 34 transakcij</t>
   </si>
   <si>
-    <t>879 transakcij - primerjajo vrednost pred in po prvi javni ponudbi</t>
+    <t>poslovni odhodki</t>
   </si>
   <si>
-    <t>283 transakcij v letih 1997 - 2000, primerjava cene delnice 5 mesecev pred prvo javno ponudbo in takoj po njej</t>
+    <t>izdatki za obresti, ki se nanašajo na financiranje</t>
+  </si>
+  <si>
+    <t>finančni odhodki pri poslovanju</t>
+  </si>
+  <si>
+    <t>fin. obveznosti</t>
+  </si>
+  <si>
+    <t>ugotovitev za podjetje X</t>
+  </si>
+  <si>
+    <t>47 - 48%</t>
+  </si>
+  <si>
+    <t>283 transakcij v letih 1997 - 2000, primerjava cene delnice 5 mesecev pred prvo javno ponudbo in takoj po njej, naredil skupno 11 raziskav do leta 2000 (593 transakcij)</t>
+  </si>
+  <si>
+    <t>Hitchner Study No. 2</t>
+  </si>
+  <si>
+    <t>pre IPO raziskave vključujejo več transakcij - z vidika znanstvenikov so bolj verodostojne, saj imajo restriktivne raziskave premajhne vzorce, čeprav je narejenih več. Zato sem se bolj osredotočila na pre IPO raziskave. Poleg tega je podjetje X, kot sem že omenila, zelo naklonjeno ohranjanju zaprtega lastništva, pri restriktivnih delnicah pa vseeno obstaja čas, ko bodo le te prosto prodajljive. Zato se mi za naše podjetje zdi najbolj logično, da pri raziskavah gledamo pre IPO študije, pri katerih so primerjave cen vzete v kar najdaljših časovnih razmikih, ko se za vstop podjetja na trg še ni vedelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879 transakcij - primerjajo vrednost od 1 do 36 mesecev pred in po prvi javni ponudbi, skupno 18 raziskav do leta 1997, na podobnem principu kot Emory, izključene so vse transakcije, pri katerih so vključene osebe imele višji položaj v podjetju, ker cena transakcije lahko ne bi bila relevantna. Ker so zajete transakcije v obdobju treh let, so vzete cene delnice prilagajali glede na stanje v industriji, da so prišli na skupni imenovalec in so imele primerjane vrednosti res enako težo. Pri podjetjih, kjer so imeli dovolj podatkov tudi o zaslužku, so primerjali koeficient (price/earnings) - kvalitetna raziskava, ker upošteva razvoj industrije v času. Različica raziskave v letih 2001 in 2002 zaradi majhnega vzorca ni dobra in določa previsoke odbitke. </t>
+  </si>
+  <si>
+    <t>najbolj relevanten v letu 1998 - 35% povprečje in 49% mediana</t>
+  </si>
+  <si>
+    <t>v letu 1997 se je spremenila doba obveznega držanja restriktivne delnice brez prodaje, iz dveh na eno leto, kar je povzročilo upad odbitka po raziskavah restriktivnih delnic. Sama bi to označila za manj relevanten podatek, saj veš, da boš v prihodnosti delnico vseeno lahko prodal, pri našem podjetju pa temu ni tako.</t>
+  </si>
+  <si>
+    <t>DEJAVNIKI VPLIVA NA VIŠINO ODBITKA ZA POMANJKANJE TRŽLJIVOSTI:</t>
+  </si>
+  <si>
+    <t>DEJAVNIK</t>
+  </si>
+  <si>
+    <t>VPLIV</t>
+  </si>
+  <si>
+    <t>politika dividend v podjetju</t>
+  </si>
+  <si>
+    <t>majhen</t>
+  </si>
+  <si>
+    <t>zgodovina podjetja, ugled in status v industriji</t>
+  </si>
+  <si>
+    <t>srednji</t>
+  </si>
+  <si>
+    <t>omejitve pri prenosu lastništva</t>
+  </si>
+  <si>
+    <t>transakcijski stroški</t>
+  </si>
+  <si>
+    <t>velik</t>
+  </si>
+  <si>
+    <t>analiza finančnega poslovanja</t>
+  </si>
+  <si>
+    <t>vodstvo podjetja</t>
+  </si>
+  <si>
+    <t>doba lastništva po nakupu</t>
+  </si>
+  <si>
+    <t>SMER VPLIVA PRI PODJETJU X</t>
+  </si>
+  <si>
+    <t>KOMENTAR</t>
+  </si>
+  <si>
+    <t>podjetje redno izplačuje dividende, ki iz leta v leto rastejo, tudi v prihodnosti se tega nameravajo držati</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po statutu vsak delničar mora za prodajo delnice osebi zunaj obstoječega kroga delničarjev pridobiti soglasje s strani uprave. </t>
+  </si>
+  <si>
+    <t>ni posebej relevantno</t>
+  </si>
+  <si>
+    <t>vodstvo se je nedolgo nazaj zamenjalo, a stremi k podobnim ciljem</t>
+  </si>
+  <si>
+    <t>kontrola v podjetju, pridobljena z deležem</t>
+  </si>
+  <si>
+    <t>z lastništvom delnice podjetja imamo navzgor enako omejene možnosti kot večji lastniki, namreč na skupščini lahko posamezni delničar odloča z največ 2% delom vseh izdanih delnic, ne glede na to kakšen delež si lasti.</t>
+  </si>
+  <si>
+    <t>https://marinercapitaladvisors.com/resources/defending-marketability-discounts-with-mandelbaum-factors/</t>
+  </si>
+  <si>
+    <t>v preučevanih letih so poslovali z dobičkom, pozitivne napovedi tudi za naprej, kratkoročni koeficient nad 1, v javnosti dobro ime</t>
+  </si>
+  <si>
+    <t>podjetje posluje uspešno, ima velik trg, širi ponudbo in razvija nove produkte tudi na novih, perspektivnih področjih, tržni delež velik</t>
+  </si>
+  <si>
+    <t>ko delnico prejmeš doba lastništva ni omejena niti navzgor niti navzdol</t>
+  </si>
+  <si>
+    <t>kot omenjeno, prodaja delnice tretji osebi je komplicirana, pred tem ima predhodno pravico uprava, zaradi ohranjanja internega lastništva</t>
+  </si>
+  <si>
+    <t>predkupna pravica uprave</t>
+  </si>
+  <si>
+    <t>https://www.businessvalue.com/resources/Valuation-Articles/Mandelbaum-Case-Analysis.pdf</t>
+  </si>
+  <si>
+    <t>javna ali zasebna delnica</t>
+  </si>
+  <si>
+    <t>delnica je zasebna</t>
+  </si>
+  <si>
+    <t>količina delnic v prodaji</t>
+  </si>
+  <si>
+    <t>prodaja se ena delnica</t>
+  </si>
+  <si>
+    <t>(-) večji diskont povzročajo večja količina delnic v prodaji (v paketu), nižji zaslužki podjetja in nižja prodaja, nižja tržna vrednost podjetja, količina restriktivnih delnic znotraj vseh izdanih delnic podjetja</t>
+  </si>
+  <si>
+    <t>Raziskave restriktivnih delnic od začetka niso upoštevale, da lahko diskont pri vrednosti restriktivne delnice povzroča tudi kompenzacija za investitorja za v prihodnosti predvidene storitve podjetju, ne pa izključno pomanjkljivost tržljivosti.</t>
+  </si>
+  <si>
+    <t>volatilnost cene delnice</t>
+  </si>
+  <si>
+    <t>velikost podjetja</t>
+  </si>
+  <si>
+    <t>raznolikost produktov</t>
+  </si>
+  <si>
+    <t>geografska razpršenost trga</t>
+  </si>
+  <si>
+    <t>odvisnost od dobaviteljev</t>
+  </si>
+  <si>
+    <t>odvisnost od strank</t>
+  </si>
+  <si>
+    <t>prelaganje izdatkov</t>
+  </si>
+  <si>
+    <t>Ker pre IPO raziskave vključujejo le uspešna podjetja, za katera je znano, da bodo v prihodnosti postala javna, je odbitek pri teh raziskavah prevelik, oziroma je prevelik pomen nižje vrednosti pred prvo javno ponudbo posvečen pomanjkanju tržljivosti. Na večjo razliko namreč vplivajo tudi drugi dejavniki. Zato sem pri svojem ocenjevanju izhajala iz spodnjih mej odbitkov, ugotovljenih pri teh raziskavah. Če pri tem posebej izpostavim WMA študijo (zadnjo narejeno, za leta 1988-2000), ta izključuje vse transakcije z osebami, ki so na sumljiv način povezane z vodstvom in drugimi koristi v podjetjih, zato sem znotraj preIPO študij to vzela za najbolj relevantno.</t>
+  </si>
+  <si>
+    <t>POVZETKI:</t>
+  </si>
+  <si>
+    <t>Pri ocenjevanju torej izhajam iz bolj relevantnih ocen za odbitke, torej ocene po pre IPO študijah. Te v povprečju določajo 45% odbitek, pri čemer pa sem sama v začetku izhajala iz raziskave WMA, ki je po moji oceni najbolj relevantna in za naše podjetje najprimernejša. Za izhodišče sem vzela spodnji del ugotovljenih odbitkov te raziskave (35%). Glede na navedenih 10 faktorjev, ki naj bi bili najbolj relevantni pri vplivu na spreminjanje odbitka glede na posebne lastnosti podjetij, bi našemu podjetju pripisala odbitek v višini 32%, saj sta od vseh faktorjev na povečanje odbitka vplivali le omejitev pri prenosu lastništva in predkupna pravica uprave do delnice v prodaji tretji osebi. Vsi ostali faktorji so diskont zniževali.</t>
+  </si>
+  <si>
+    <t>ZAKLJUČEK:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je najbolj relevantna za oceno našega podjetja, ker : jemlje transakcije do treh let pred prvo javno ponudbo delnice (daljša doba v primerjavi z ostalimi tovrstnimi študijami - pri našem podjetju ni upanja, da bo v bližnji prihodnosti postalo javno, zato iščem raziskavo, kjer se o potencialni odprtosti podjetja ne ve še nič), iz vzorca izključi vse morebitne transakcije, povezane z osebami, ki imajo dolgoročno korist od podjetij ali so vpletene v vodstvene položaje, upošteva razvoj in spremembe v industriji skozi čas med merjenjem prve transakcije in transakcije po prvi javni ponudbi, v skupnem je preučevanih 879 transakcij, kar je v primerjavi z ostalimi študijami nadpovprečno (boljši vzorec). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Naše podjetje - glede na prodajo (10 - 20), glede na zaslužek (10 - 20), ker pa se prodaja izven reguliranega borznega trga - (20 - 30).</t>
+  </si>
+  <si>
+    <t>Študije restriktivnih delnic podjetij glede na 4 dejavnike: prodaja, zaslužek, način prodaje delnic (borza ali interno), regulatorne omejitve pri nadaljni prodaji.</t>
+  </si>
+  <si>
+    <t>(-) doba vezave delnice, ko jo enkrat kupiš, v našem podjetju ni določena</t>
+  </si>
+  <si>
+    <t>(-) rast prihodkov našemu podjetju, tudi pri napovedih v prihodnosti</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2344,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2259,8 +2552,16 @@
       <charset val="238"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2330,6 +2631,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3204,7 +3517,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="657">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3710,8 +4023,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -3722,20 +4033,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3797,7 +4098,6 @@
     <xf numFmtId="4" fontId="0" fillId="7" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="7" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3807,8 +4107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3820,6 +4118,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3838,11 +4167,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3850,19 +4179,71 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -34650,7 +35031,7 @@
         <f>F20/'PRIHODKI IN STROŠKI'!F$6</f>
         <v>0.15592942626780612</v>
       </c>
-      <c r="G21" s="568">
+      <c r="G21" s="556">
         <f>G20/'PRIHODKI IN STROŠKI'!G$6</f>
         <v>0.15000000000000005</v>
       </c>
@@ -34666,49 +35047,49 @@
         <f>J20/'PRIHODKI IN STROŠKI'!J$6</f>
         <v>0.13</v>
       </c>
-      <c r="K21" s="566">
+      <c r="K21" s="554">
         <f>K20/'PRIHODKI IN STROŠKI'!K$6</f>
         <v>0.12000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="563" t="s">
+      <c r="A22" s="551" t="s">
         <v>224</v>
       </c>
-      <c r="B22" s="564"/>
-      <c r="C22" s="565">
+      <c r="B22" s="552"/>
+      <c r="C22" s="553">
         <f>C20-B20</f>
         <v>3685368</v>
       </c>
-      <c r="D22" s="565">
+      <c r="D22" s="553">
         <f t="shared" ref="D22:K22" si="1">D20-C20</f>
         <v>-241232</v>
       </c>
-      <c r="E22" s="565">
+      <c r="E22" s="553">
         <f t="shared" si="1"/>
         <v>-60617</v>
       </c>
-      <c r="F22" s="569">
+      <c r="F22" s="557">
         <f t="shared" si="1"/>
         <v>3134223</v>
       </c>
-      <c r="G22" s="570">
+      <c r="G22" s="558">
         <f t="shared" si="1"/>
         <v>1934602.9970000051</v>
       </c>
-      <c r="H22" s="565">
+      <c r="H22" s="553">
         <f t="shared" si="1"/>
         <v>-2614244.2249679938</v>
       </c>
-      <c r="I22" s="565">
+      <c r="I22" s="553">
         <f t="shared" si="1"/>
         <v>4685361.7352025472</v>
       </c>
-      <c r="J22" s="565">
+      <c r="J22" s="553">
         <f t="shared" si="1"/>
         <v>3175300.8626107499</v>
       </c>
-      <c r="K22" s="567">
+      <c r="K22" s="555">
         <f t="shared" si="1"/>
         <v>969563.38951661438</v>
       </c>
@@ -40536,26 +40917,26 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="157" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="531" t="s">
-        <v>318</v>
-      </c>
-      <c r="B41" s="532">
+      <c r="A41" s="519" t="s">
+        <v>294</v>
+      </c>
+      <c r="B41" s="520">
         <f>'FCF - KONČNI_IZRAČUN'!B5</f>
         <v>2885192</v>
       </c>
-      <c r="C41" s="532">
+      <c r="C41" s="520">
         <f>'FCF - KONČNI_IZRAČUN'!C5</f>
         <v>6276734</v>
       </c>
-      <c r="D41" s="532">
+      <c r="D41" s="520">
         <f>'FCF - KONČNI_IZRAČUN'!D5</f>
         <v>8390559</v>
       </c>
-      <c r="E41" s="532">
+      <c r="E41" s="520">
         <f>'FCF - KONČNI_IZRAČUN'!E5</f>
         <v>10217587</v>
       </c>
-      <c r="F41" s="533">
+      <c r="F41" s="521">
         <f>'FCF - KONČNI_IZRAČUN'!F5</f>
         <v>10844757</v>
       </c>
@@ -40789,7 +41170,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="534">
+      <c r="B55" s="522">
         <f>AVERAGE(B54:F54)</f>
         <v>0.1015751990728178</v>
       </c>
@@ -40797,18 +41178,18 @@
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="434" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B60" s="477" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="601" t="s">
-        <v>354</v>
+        <v>329</v>
+      </c>
+      <c r="B61" s="588" t="s">
+        <v>330</v>
       </c>
       <c r="C61" s="229"/>
     </row>
@@ -40816,7 +41197,7 @@
       <c r="A62" s="55">
         <v>2011</v>
       </c>
-      <c r="B62" s="538">
+      <c r="B62" s="526">
         <v>333923</v>
       </c>
     </row>
@@ -40824,7 +41205,7 @@
       <c r="A63" s="91">
         <v>2016</v>
       </c>
-      <c r="B63" s="558">
+      <c r="B63" s="546">
         <v>12230</v>
       </c>
     </row>
@@ -40839,8 +41220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41347,26 +41728,26 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="157" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="543" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" s="544">
+      <c r="A32" s="531" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="532">
         <f>(PASIVA!B3+PASIVA!B6)/'KAZALNIKI - PODJETJE X'!B29</f>
         <v>1.5654143183581095</v>
       </c>
-      <c r="C32" s="544">
+      <c r="C32" s="532">
         <f>(PASIVA!C3+PASIVA!C6)/'KAZALNIKI - PODJETJE X'!C29</f>
         <v>1.015625861530751</v>
       </c>
-      <c r="D32" s="544">
+      <c r="D32" s="532">
         <f>(PASIVA!D3+PASIVA!D6)/'KAZALNIKI - PODJETJE X'!D29</f>
         <v>0.65281307357786678</v>
       </c>
-      <c r="E32" s="544">
+      <c r="E32" s="532">
         <f>(PASIVA!E3+PASIVA!E6)/'KAZALNIKI - PODJETJE X'!E29</f>
         <v>1.0233419604197698</v>
       </c>
-      <c r="F32" s="545">
+      <c r="F32" s="533">
         <f>(PASIVA!F3+PASIVA!F6)/'KAZALNIKI - PODJETJE X'!F29</f>
         <v>1.0543419990149776</v>
       </c>
@@ -41814,7 +42195,7 @@
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="79" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="424" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B79" s="207">
         <v>2013</v>
@@ -41834,7 +42215,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="422" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B80" s="135">
         <f>'FCF - KONČNI_IZRAČUN'!B5/'PRIHODKI IN STROŠKI'!B2</f>
@@ -41858,69 +42239,69 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="535"/>
-      <c r="B81" s="524"/>
-      <c r="C81" s="524"/>
-      <c r="D81" s="524"/>
-      <c r="E81" s="524"/>
-      <c r="F81" s="525"/>
+      <c r="A81" s="523"/>
+      <c r="B81" s="517"/>
+      <c r="C81" s="517"/>
+      <c r="D81" s="517"/>
+      <c r="E81" s="517"/>
+      <c r="F81" s="518"/>
     </row>
     <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="534">
+      <c r="B82" s="522">
         <f>AVERAGE(B80:F80)</f>
         <v>6.877818037038877E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="623" t="s">
-        <v>322</v>
-      </c>
-      <c r="B88" s="624"/>
+      <c r="A88" s="631" t="s">
+        <v>298</v>
+      </c>
+      <c r="B88" s="632"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="B89" s="538">
+        <v>299</v>
+      </c>
+      <c r="B89" s="526">
         <f>AVERAGE(AKTIVA!B17:F17)</f>
         <v>76032002.599999994</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="B90" s="538">
+        <v>300</v>
+      </c>
+      <c r="B90" s="526">
         <f>AVERAGE(PASIVA!B25:F25)</f>
         <v>37744254</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="55"/>
-      <c r="B91" s="538"/>
+      <c r="B91" s="526"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="B92" s="538">
+        <v>303</v>
+      </c>
+      <c r="B92" s="526">
         <f>'ANALIZA DELNICE'!G3*'ANALIZA DELNICE'!G11</f>
         <v>2145767.7735000001</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="B93" s="538">
+        <v>301</v>
+      </c>
+      <c r="B93" s="526">
         <f>AVERAGE('FCF - KONČNI_IZRAČUN'!B5:F5)</f>
         <v>7722965.7999999998</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="55" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B94" s="187">
         <f>B82</f>
@@ -41929,93 +42310,93 @@
     </row>
     <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="553" t="s">
-        <v>332</v>
-      </c>
-      <c r="B97" s="554">
+      <c r="A97" s="541" t="s">
+        <v>308</v>
+      </c>
+      <c r="B97" s="542">
         <v>2013</v>
       </c>
-      <c r="C97" s="554">
+      <c r="C97" s="542">
         <v>2014</v>
       </c>
-      <c r="D97" s="554">
+      <c r="D97" s="542">
         <v>2015</v>
       </c>
-      <c r="E97" s="554">
+      <c r="E97" s="542">
         <v>2016</v>
       </c>
-      <c r="F97" s="555">
+      <c r="F97" s="543">
         <v>2017</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="B98" s="556">
+        <v>309</v>
+      </c>
+      <c r="B98" s="544">
         <v>5737566</v>
       </c>
-      <c r="C98" s="556">
+      <c r="C98" s="544">
         <v>8362320</v>
       </c>
-      <c r="D98" s="556">
+      <c r="D98" s="544">
         <v>13033474</v>
       </c>
-      <c r="E98" s="556">
+      <c r="E98" s="544">
         <v>21373193</v>
       </c>
-      <c r="F98" s="538">
+      <c r="F98" s="526">
         <v>22042907</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="B99" s="556">
+        <v>310</v>
+      </c>
+      <c r="B99" s="544">
         <f>26884665+18702714+4234638</f>
         <v>49822017</v>
       </c>
-      <c r="C99" s="557">
+      <c r="C99" s="545">
         <f>25530200 + 5232518 + 18987558</f>
         <v>49750276</v>
       </c>
-      <c r="D99" s="556">
+      <c r="D99" s="544">
         <f>25671415 + 5043891 + 20100809</f>
         <v>50816115</v>
       </c>
-      <c r="E99" s="556">
+      <c r="E99" s="544">
         <f>6525151 +23389264 + 22224673</f>
         <v>52139088</v>
       </c>
-      <c r="F99" s="538">
+      <c r="F99" s="526">
         <f>8346219 + 23726024 +26489861</f>
         <v>58562104</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="B100" s="559">
+        <v>311</v>
+      </c>
+      <c r="B100" s="547">
         <v>6280570</v>
       </c>
-      <c r="C100" s="559">
+      <c r="C100" s="547">
         <v>8076665</v>
       </c>
-      <c r="D100" s="559">
+      <c r="D100" s="547">
         <v>10029807</v>
       </c>
-      <c r="E100" s="559">
+      <c r="E100" s="547">
         <v>13269198</v>
       </c>
-      <c r="F100" s="558">
+      <c r="F100" s="546">
         <v>19084478</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="562" t="s">
-        <v>336</v>
+      <c r="A101" s="550" t="s">
+        <v>312</v>
       </c>
       <c r="B101" s="493">
         <f>B98/'PRIHODKI IN STROŠKI'!B2</f>
@@ -42039,7 +42420,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="557"/>
+      <c r="B103" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -42691,10 +43072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1F9833-C2AF-4369-842E-D77BA2F0D344}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42706,62 +43087,103 @@
     <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="12" max="12" width="26.21875" customWidth="1"/>
+    <col min="13" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>256</v>
       </c>
       <c r="F2" s="434" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="G2" s="476" t="s">
         <v>254</v>
       </c>
       <c r="H2" s="476" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="476" t="s">
         <v>258</v>
-      </c>
-      <c r="I2" s="476" t="s">
-        <v>259</v>
       </c>
       <c r="J2" s="477" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="492"/>
+      <c r="M2" s="493">
+        <v>2013</v>
+      </c>
+      <c r="N2" s="493">
+        <v>2014</v>
+      </c>
+      <c r="O2" s="493">
+        <v>2015</v>
+      </c>
+      <c r="P2" s="493">
+        <v>2016</v>
+      </c>
+      <c r="Q2" s="494">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="429"/>
       <c r="B3" s="434" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C3" s="470">
         <f>F5/H3</f>
         <v>1.8231347200545721E-2</v>
       </c>
-      <c r="F3" s="571">
+      <c r="F3" s="559">
         <v>127169209</v>
       </c>
-      <c r="G3" s="560">
+      <c r="G3" s="548">
         <f>PASIVA!F25</f>
         <v>55347711</v>
       </c>
-      <c r="H3" s="560">
+      <c r="H3" s="548">
         <f>PASIVA!F3+PASIVA!F6</f>
         <v>19983877</v>
       </c>
-      <c r="I3" s="560">
+      <c r="I3" s="548">
         <f>'FCF - KONČNI_IZRAČUN'!F4</f>
         <v>703558</v>
       </c>
-      <c r="J3" s="561">
+      <c r="J3" s="549">
         <f>'FCF - KONČNI_IZRAČUN'!F2</f>
         <v>11421674</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="515" t="s">
+        <v>374</v>
+      </c>
+      <c r="M3" s="606">
+        <f>PASIVA!B3+PASIVA!B6</f>
+        <v>13424486</v>
+      </c>
+      <c r="N3" s="606">
+        <f>PASIVA!C3+PASIVA!C6</f>
+        <v>11917558</v>
+      </c>
+      <c r="O3" s="606">
+        <f>PASIVA!D3+PASIVA!D6</f>
+        <v>9124698</v>
+      </c>
+      <c r="P3" s="606">
+        <f>PASIVA!E3+PASIVA!E6</f>
+        <v>17479396</v>
+      </c>
+      <c r="Q3" s="607">
+        <f>PASIVA!F3+PASIVA!F6</f>
+        <v>19983877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="429"/>
       <c r="B4" s="91" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C4" s="471">
         <f>I3/J3</f>
@@ -42771,42 +43193,91 @@
         <v>0.19</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="G4" s="453"/>
+        <v>373</v>
+      </c>
+      <c r="G4" s="453" t="s">
+        <v>372</v>
+      </c>
       <c r="H4" s="453"/>
       <c r="I4" s="453"/>
       <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="515" t="s">
+        <v>373</v>
+      </c>
+      <c r="M4" s="135">
+        <v>184191</v>
+      </c>
+      <c r="N4" s="135">
+        <v>278847</v>
+      </c>
+      <c r="O4" s="608">
+        <v>475197</v>
+      </c>
+      <c r="P4" s="135">
+        <f>326452 + 3309</f>
+        <v>329761</v>
+      </c>
+      <c r="Q4" s="220">
+        <f>5603+358730</f>
+        <v>364333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="429"/>
-      <c r="B5" s="573" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="574">
+      <c r="B5" s="561" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="562">
         <f>C3*(1-D4)</f>
         <v>1.4767391232442036E-2</v>
       </c>
-      <c r="F5" s="572">
+      <c r="D5" s="605">
+        <f>3.6%</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="F5" s="560">
         <f>5603+358730</f>
         <v>364333</v>
       </c>
-      <c r="G5" s="454"/>
+      <c r="G5" s="454">
+        <v>248401</v>
+      </c>
       <c r="H5" s="454"/>
       <c r="I5" s="454"/>
       <c r="J5" s="94"/>
-    </row>
-    <row r="6" spans="1:13" s="135" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="516"/>
+      <c r="M5" s="609">
+        <f>M4/M3</f>
+        <v>1.3720525314712236E-2</v>
+      </c>
+      <c r="N5" s="609">
+        <f t="shared" ref="N5:Q5" si="0">N4/N3</f>
+        <v>2.3397998146935807E-2</v>
+      </c>
+      <c r="O5" s="609">
+        <f t="shared" si="0"/>
+        <v>5.2078107132970321E-2</v>
+      </c>
+      <c r="P5" s="609">
+        <f t="shared" si="0"/>
+        <v>1.8865697647676156E-2</v>
+      </c>
+      <c r="Q5" s="610">
+        <f t="shared" si="0"/>
+        <v>1.8231347200545721E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="468"/>
       <c r="B6" s="466"/>
       <c r="C6" s="469"/>
     </row>
-    <row r="7" spans="1:13" s="135" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" s="135" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="468"/>
       <c r="B7" s="466"/>
       <c r="C7" s="469"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="434" t="s">
         <v>245</v>
       </c>
@@ -42818,15 +43289,15 @@
         <v>245</v>
       </c>
       <c r="G8" s="476" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="477" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="461" t="s">
         <v>267</v>
-      </c>
-      <c r="H8" s="477" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="461" t="s">
-        <v>269</v>
       </c>
       <c r="C9" s="490">
         <f>H9</f>
@@ -42839,23 +43310,23 @@
         <f>C11/C10</f>
         <v>0.36106058658866663</v>
       </c>
-      <c r="H9" s="507">
+      <c r="H9" s="505">
         <f>C8*(1+(1-C4)*G9)</f>
         <v>1.3522079935556053</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" s="472">
         <f>G3/(G3+H3)</f>
         <v>0.73472115044222885</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="473">
         <f>H3/(H3+G3)</f>
@@ -42863,30 +43334,30 @@
       </c>
       <c r="E11" s="429"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="505">
+      <c r="C12" s="473">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="615" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="616"/>
-      <c r="H12" s="617"/>
+      <c r="F12" s="623" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="624"/>
+      <c r="H12" s="625"/>
       <c r="J12" s="497" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K12" s="499"/>
       <c r="L12" s="499"/>
       <c r="M12" s="494"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="505">
+      <c r="C13" s="473">
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="F13" s="483">
@@ -42903,7 +43374,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="463" t="s">
         <v>248</v>
       </c>
@@ -42918,7 +43389,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="463" t="s">
         <v>249</v>
       </c>
@@ -42932,18 +43403,18 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="615" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15" s="616"/>
-      <c r="L15" s="616"/>
-      <c r="M15" s="617"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="623" t="s">
+        <v>291</v>
+      </c>
+      <c r="K15" s="624"/>
+      <c r="L15" s="624"/>
+      <c r="M15" s="625"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="506"/>
+      <c r="C16" s="622"/>
       <c r="F16" s="481">
         <v>42826</v>
       </c>
@@ -42956,7 +43427,7 @@
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="465" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C17" s="474">
         <f>C12+C13+C14+C15*C9</f>
@@ -42994,8 +43465,8 @@
         <v>251</v>
       </c>
       <c r="C20" s="474">
-        <f>C17*C10+C5*C11*(1-D4)</f>
-        <v>0.11706257519302893</v>
+        <f>C17*C10+D5*C11*(1-D4)</f>
+        <v>0.12162495043487304</v>
       </c>
       <c r="F20" s="481">
         <v>42948</v>
@@ -43041,11 +43512,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="618" t="s">
-        <v>285</v>
-      </c>
-      <c r="G26" s="619"/>
-      <c r="H26" s="620"/>
+      <c r="F26" s="626" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="627"/>
+      <c r="H26" s="628"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43177,34 +43648,34 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F43" s="500"/>
       <c r="G43" s="501"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="480" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="480" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="480" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="480" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="480" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -43227,11 +43698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43239,448 +43710,797 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" customWidth="1"/>
+    <col min="5" max="5" width="192.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="520" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="480" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="517"/>
-      <c r="B7" s="518" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="519" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="621" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="453" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="621"/>
-      <c r="B9" s="453" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="621"/>
-      <c r="B10" s="453" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="622"/>
-      <c r="B11" s="454" t="s">
-        <v>306</v>
-      </c>
-      <c r="C11" s="94"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="526"/>
-      <c r="B13" s="527" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="528"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="521" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="522" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="220"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="523" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="529" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="220"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="521"/>
-      <c r="B16" s="529" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="220"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="521"/>
-      <c r="B17" s="529" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="220"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="521"/>
-      <c r="B18" s="529" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="220"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="521"/>
-      <c r="B19" s="529" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="220"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="521"/>
-      <c r="B20" s="529" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" s="220"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="521"/>
-      <c r="B21" s="529"/>
-      <c r="C21" s="220"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="521"/>
-      <c r="B22" s="529"/>
-      <c r="C22" s="220"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="521"/>
-      <c r="B23" s="529"/>
-      <c r="C23" s="220"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="521"/>
-      <c r="B24" s="529"/>
-      <c r="C24" s="220"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="521"/>
-      <c r="B25" s="529"/>
-      <c r="C25" s="220"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="523"/>
-      <c r="B26" s="530"/>
-      <c r="C26" s="525"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="606"/>
-      <c r="B28" s="607" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="591"/>
+      <c r="B2" s="592" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="593"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="594"/>
+    </row>
+    <row r="3" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="595" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="596" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="597"/>
+    </row>
+    <row r="4" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="598"/>
+      <c r="B4" s="596" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="596" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="596" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="599" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="429" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="598">
+        <v>1</v>
+      </c>
+      <c r="B5" s="601" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="600" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="615" t="s">
         <v>358</v>
       </c>
-      <c r="C28" s="608"/>
-      <c r="D28" s="609"/>
-    </row>
-    <row r="29" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="610" t="s">
+      <c r="E5" s="655" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="515">
+        <v>2</v>
+      </c>
+      <c r="B6" s="603" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="600" t="s">
         <v>359</v>
       </c>
-      <c r="B29" s="611" t="s">
+      <c r="D6" s="615" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="655"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="598">
+        <v>3</v>
+      </c>
+      <c r="B7" s="603" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="135">
+        <v>20</v>
+      </c>
+      <c r="D7" s="135" t="s">
         <v>360</v>
       </c>
-      <c r="C29" s="468"/>
-      <c r="D29" s="612"/>
-    </row>
-    <row r="30" spans="1:4" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="613"/>
-      <c r="B30" s="611" t="s">
+      <c r="E7" s="220"/>
+    </row>
+    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="515">
+        <v>4</v>
+      </c>
+      <c r="B8" s="603" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="135">
+        <v>26</v>
+      </c>
+      <c r="D8" s="616" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="604"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="598">
+        <v>5</v>
+      </c>
+      <c r="B9" s="603" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="468">
+        <v>23</v>
+      </c>
+      <c r="D9" s="616" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="656" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="515">
+        <v>6</v>
+      </c>
+      <c r="B10" s="603" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="468">
+        <v>24</v>
+      </c>
+      <c r="D10" s="616" t="s">
         <v>363</v>
       </c>
-      <c r="C30" s="611" t="s">
+      <c r="E10" s="654"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="598">
+        <v>7</v>
+      </c>
+      <c r="B11" s="603" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="468">
+        <v>45</v>
+      </c>
+      <c r="D11" s="135" t="s">
         <v>364</v>
       </c>
-      <c r="D30" s="614" t="s">
+      <c r="E11" s="220"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="515">
+        <v>8</v>
+      </c>
+      <c r="B12" s="602" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="468">
+        <v>31</v>
+      </c>
+      <c r="D12" s="135" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="429" customFormat="1" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="613">
+      <c r="E12" s="220"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="598">
+        <v>9</v>
+      </c>
+      <c r="B13" s="602" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="468">
+        <v>34</v>
+      </c>
+      <c r="D13" s="135" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" s="641" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="515">
+        <v>10</v>
+      </c>
+      <c r="B14" s="603" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="468">
+        <v>33</v>
+      </c>
+      <c r="D14" s="135" t="s">
+        <v>367</v>
+      </c>
+      <c r="E14" s="220"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="598">
+        <v>11</v>
+      </c>
+      <c r="B15" s="603" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" s="468">
+        <v>24</v>
+      </c>
+      <c r="D15" s="616" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" s="656" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="515">
+        <v>12</v>
+      </c>
+      <c r="B16" s="603" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="468">
+        <v>33</v>
+      </c>
+      <c r="D16" s="135" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="220"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="598">
+        <v>13</v>
+      </c>
+      <c r="B17" s="603" t="s">
+        <v>353</v>
+      </c>
+      <c r="C17" s="468">
+        <v>34</v>
+      </c>
+      <c r="D17" s="135" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" s="220"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="515">
+        <v>14</v>
+      </c>
+      <c r="B18" s="603" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="468">
+        <v>35</v>
+      </c>
+      <c r="D18" s="135" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="220"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="564" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="218" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="220"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="515"/>
+      <c r="B20" s="218" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="218" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="218" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="219"/>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="515">
         <v>1</v>
       </c>
-      <c r="B31" s="627" t="s">
-        <v>369</v>
-      </c>
-      <c r="C31" s="625" t="s">
+      <c r="B21" s="135" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="468" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="616" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="604"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="515">
+        <v>2</v>
+      </c>
+      <c r="B22" s="135" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="618">
+        <v>0.52</v>
+      </c>
+      <c r="D22" s="616"/>
+      <c r="E22" s="604"/>
+    </row>
+    <row r="23" spans="1:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="516">
+        <v>3</v>
+      </c>
+      <c r="B23" s="517" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="517" t="s">
         <v>381</v>
       </c>
-      <c r="D31" s="626" t="s">
+      <c r="D23" s="617" t="s">
+        <v>380</v>
+      </c>
+      <c r="E23" s="653" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="652" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="645" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="648" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="648" t="s">
+        <v>425</v>
+      </c>
+      <c r="E29" s="648" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="521">
-        <v>2</v>
-      </c>
-      <c r="B32" s="629" t="s">
-        <v>370</v>
-      </c>
-      <c r="C32" s="625" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="646"/>
+      <c r="C30" s="649"/>
+      <c r="D30" s="649"/>
+      <c r="E30" s="649"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="646"/>
+      <c r="C31" s="649"/>
+      <c r="D31" s="649"/>
+      <c r="E31" s="649"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="646"/>
+      <c r="C32" s="649"/>
+      <c r="D32" s="649"/>
+      <c r="E32" s="649"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="646"/>
+      <c r="C33" s="649"/>
+      <c r="D33" s="649"/>
+      <c r="E33" s="649"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="646"/>
+      <c r="C34" s="649"/>
+      <c r="D34" s="649"/>
+      <c r="E34" s="649"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="647"/>
+      <c r="C35" s="650"/>
+      <c r="D35" s="650"/>
+      <c r="E35" s="650"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="629" t="s">
         <v>383</v>
       </c>
-      <c r="D32" s="626" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="613">
-        <v>3</v>
-      </c>
-      <c r="B33" s="629" t="s">
-        <v>371</v>
-      </c>
-      <c r="C33" s="135">
-        <v>20</v>
-      </c>
-      <c r="D33" s="220" t="s">
+      <c r="B48" s="630"/>
+      <c r="C48" s="630"/>
+      <c r="D48" s="630"/>
+      <c r="E48" s="619"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="515"/>
+      <c r="B49" s="218" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="521">
-        <v>4</v>
-      </c>
-      <c r="B34" s="629" t="s">
-        <v>372</v>
-      </c>
-      <c r="C34" s="135">
-        <v>26</v>
-      </c>
-      <c r="D34" s="631" t="s">
+      <c r="C49" s="218" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="613">
-        <v>5</v>
-      </c>
-      <c r="B35" s="629" t="s">
-        <v>373</v>
-      </c>
-      <c r="C35" s="468">
-        <v>23</v>
-      </c>
-      <c r="D35" s="631" t="s">
+      <c r="D49" s="218" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="599" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="515"/>
+      <c r="B50" s="135" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="521">
-        <v>6</v>
-      </c>
-      <c r="B36" s="629" t="s">
-        <v>374</v>
-      </c>
-      <c r="C36" s="468">
-        <v>24</v>
-      </c>
-      <c r="D36" s="631" t="s">
+      <c r="C50" s="135" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="613">
-        <v>7</v>
-      </c>
-      <c r="B37" s="629" t="s">
-        <v>375</v>
-      </c>
-      <c r="C37" s="468">
-        <v>45</v>
-      </c>
-      <c r="D37" s="220" t="s">
+      <c r="D50" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="220" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="515"/>
+      <c r="B51" s="135" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="521">
-        <v>8</v>
-      </c>
-      <c r="B38" s="628" t="s">
-        <v>361</v>
-      </c>
-      <c r="C38" s="468">
-        <v>31</v>
-      </c>
-      <c r="D38" s="220" t="s">
+      <c r="C51" s="135" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="613">
-        <v>9</v>
-      </c>
-      <c r="B39" s="628" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="468">
-        <v>34</v>
-      </c>
-      <c r="D39" s="220" t="s">
+      <c r="D51" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="220" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="515"/>
+      <c r="B52" s="468" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="521">
-        <v>10</v>
-      </c>
-      <c r="B40" s="629" t="s">
-        <v>376</v>
-      </c>
-      <c r="C40" s="468">
-        <v>33</v>
-      </c>
-      <c r="D40" s="220" t="s">
+      <c r="C52" s="468" t="s">
+        <v>387</v>
+      </c>
+      <c r="D52" s="634" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="220" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="515"/>
+      <c r="B53" s="620" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="613">
-        <v>11</v>
-      </c>
-      <c r="B41" s="629" t="s">
-        <v>379</v>
-      </c>
-      <c r="C41" s="468">
-        <v>24</v>
-      </c>
-      <c r="D41" s="631" t="s">
+      <c r="C53" s="620" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="521">
-        <v>12</v>
-      </c>
-      <c r="B42" s="629" t="s">
-        <v>380</v>
-      </c>
-      <c r="C42" s="468">
-        <v>33</v>
-      </c>
-      <c r="D42" s="220" t="s">
+      <c r="D53" s="635"/>
+      <c r="E53" s="621" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="515"/>
+      <c r="B54" s="468" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="613">
-        <v>13</v>
-      </c>
-      <c r="B43" s="629" t="s">
-        <v>377</v>
-      </c>
-      <c r="C43" s="468">
-        <v>34</v>
-      </c>
-      <c r="D43" s="220" t="s">
+      <c r="C54" s="468" t="s">
+        <v>387</v>
+      </c>
+      <c r="D54" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="220" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="515"/>
+      <c r="B55" s="468" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="521">
-        <v>14</v>
-      </c>
-      <c r="B44" s="630" t="s">
-        <v>378</v>
-      </c>
-      <c r="C44" s="468">
-        <v>35</v>
-      </c>
-      <c r="D44" s="220" t="s">
+      <c r="C55" s="468" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="220" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="515"/>
+      <c r="B56" s="468" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" s="468" t="s">
+        <v>392</v>
+      </c>
+      <c r="D56" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="220" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="515"/>
+      <c r="B57" s="468" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="576" t="s">
-        <v>366</v>
-      </c>
-      <c r="B45" s="218" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" s="135"/>
-      <c r="D45" s="220"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="521"/>
-      <c r="B46" s="218" t="s">
-        <v>363</v>
-      </c>
-      <c r="C46" s="218" t="s">
-        <v>364</v>
-      </c>
-      <c r="D46" s="219" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="521">
-        <v>1</v>
-      </c>
-      <c r="B47" s="135" t="s">
-        <v>368</v>
-      </c>
-      <c r="C47" s="468">
-        <v>52</v>
-      </c>
-      <c r="D47" s="631" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="523">
-        <v>2</v>
-      </c>
-      <c r="B48" s="524" t="s">
-        <v>361</v>
-      </c>
-      <c r="C48" s="524">
-        <v>52</v>
-      </c>
-      <c r="D48" s="632" t="s">
-        <v>396</v>
+      <c r="C57" s="468" t="s">
+        <v>387</v>
+      </c>
+      <c r="D57" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="220" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="515"/>
+      <c r="B58" s="468" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" s="468" t="s">
+        <v>387</v>
+      </c>
+      <c r="D58" s="634" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="220" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="515"/>
+      <c r="B59" s="468" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="468" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="634" t="s">
+        <v>399</v>
+      </c>
+      <c r="E59" s="220" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="515"/>
+      <c r="B60" s="468"/>
+      <c r="C60" s="468"/>
+      <c r="D60" s="634"/>
+      <c r="E60" s="220"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="515"/>
+      <c r="B61" s="468" t="s">
+        <v>414</v>
+      </c>
+      <c r="C61" s="468"/>
+      <c r="D61" s="634" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" s="220" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="515"/>
+      <c r="B62" s="468" t="s">
+        <v>418</v>
+      </c>
+      <c r="C62" s="468"/>
+      <c r="D62" s="634"/>
+      <c r="E62" s="220"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="515"/>
+      <c r="B63" s="468" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63" s="468"/>
+      <c r="D63" s="634"/>
+      <c r="E63" s="220"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="515"/>
+      <c r="B64" s="468"/>
+      <c r="C64" s="468"/>
+      <c r="D64" s="634"/>
+      <c r="E64" s="220"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="515"/>
+      <c r="B65" s="468" t="s">
+        <v>420</v>
+      </c>
+      <c r="C65" s="468"/>
+      <c r="D65" s="634"/>
+      <c r="E65" s="220"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="515"/>
+      <c r="B66" s="468" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" s="468"/>
+      <c r="D66" s="634"/>
+      <c r="E66" s="220"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="515"/>
+      <c r="B67" s="468" t="s">
+        <v>422</v>
+      </c>
+      <c r="C67" s="468"/>
+      <c r="D67" s="634"/>
+      <c r="E67" s="220"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="515"/>
+      <c r="B68" s="468" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" s="468"/>
+      <c r="D68" s="634"/>
+      <c r="E68" s="220"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="515"/>
+      <c r="B69" s="468" t="s">
+        <v>424</v>
+      </c>
+      <c r="C69" s="468"/>
+      <c r="D69" s="634"/>
+      <c r="E69" s="220"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="515"/>
+      <c r="B70" s="468"/>
+      <c r="C70" s="468"/>
+      <c r="D70" s="634"/>
+      <c r="E70" s="220"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="515"/>
+      <c r="B71" s="468"/>
+      <c r="C71" s="468"/>
+      <c r="D71" s="634"/>
+      <c r="E71" s="220"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="515"/>
+      <c r="B72" s="468"/>
+      <c r="C72" s="468"/>
+      <c r="D72" s="634"/>
+      <c r="E72" s="220"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="515"/>
+      <c r="B73" s="468"/>
+      <c r="C73" s="468"/>
+      <c r="D73" s="634"/>
+      <c r="E73" s="220"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="515"/>
+      <c r="B74" s="468"/>
+      <c r="C74" s="468"/>
+      <c r="D74" s="634"/>
+      <c r="E74" s="220"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="515"/>
+      <c r="B75" s="651" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="220"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="515"/>
+      <c r="B76" s="638" t="s">
+        <v>427</v>
+      </c>
+      <c r="C76" s="643"/>
+      <c r="D76" s="633"/>
+      <c r="E76" s="636"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="515"/>
+      <c r="B77" s="639"/>
+      <c r="C77" s="643"/>
+      <c r="D77" s="633"/>
+      <c r="E77" s="636"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="515"/>
+      <c r="B78" s="639"/>
+      <c r="C78" s="643"/>
+      <c r="D78" s="633"/>
+      <c r="E78" s="636"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="515"/>
+      <c r="B79" s="639"/>
+      <c r="C79" s="643"/>
+      <c r="D79" s="633"/>
+      <c r="E79" s="636"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="515"/>
+      <c r="B80" s="639"/>
+      <c r="C80" s="643"/>
+      <c r="D80" s="633"/>
+      <c r="E80" s="636"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="515"/>
+      <c r="B81" s="639"/>
+      <c r="C81" s="643"/>
+      <c r="D81" s="633"/>
+      <c r="E81" s="636"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="515"/>
+      <c r="B82" s="639"/>
+      <c r="C82" s="643"/>
+      <c r="D82" s="633"/>
+      <c r="E82" s="636"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="515"/>
+      <c r="B83" s="639"/>
+      <c r="C83" s="643"/>
+      <c r="D83" s="633"/>
+      <c r="E83" s="636"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="515"/>
+      <c r="B84" s="639"/>
+      <c r="C84" s="643"/>
+      <c r="D84" s="633"/>
+      <c r="E84" s="636"/>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="516"/>
+      <c r="B85" s="640"/>
+      <c r="C85" s="644"/>
+      <c r="D85" s="642"/>
+      <c r="E85" s="637"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="480" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="480" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="10">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B76:B85"/>
+    <mergeCell ref="C76:C85"/>
+    <mergeCell ref="D76:D85"/>
+    <mergeCell ref="E76:E85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{528567E0-764A-4649-84A6-3563080A4636}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{93F97943-F902-4F5D-A97C-352634335EF9}"/>
+    <hyperlink ref="B87" r:id="rId1" xr:uid="{9D02BFCE-101F-4872-A0AA-D4924452351B}"/>
+    <hyperlink ref="B88" r:id="rId2" xr:uid="{4C39F3D6-024C-4D38-9577-41321950542F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -43688,8 +44508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43697,39 +44517,39 @@
     <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.21875" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="575" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="578">
+      <c r="B3" s="563" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="566">
         <f>'FCF - KONČNI_IZRAČUN'!G15</f>
         <v>4682367.0678445715</v>
       </c>
-      <c r="D3" s="578">
+      <c r="D3" s="566">
         <f>'FCF - KONČNI_IZRAČUN'!H15</f>
         <v>7684637.5995038971</v>
       </c>
-      <c r="E3" s="578">
+      <c r="E3" s="566">
         <f>'FCF - KONČNI_IZRAČUN'!I15</f>
         <v>4377972.9958475828</v>
       </c>
-      <c r="F3" s="578">
+      <c r="F3" s="566">
         <f>'FCF - KONČNI_IZRAČUN'!J15</f>
         <v>6177218.584839562</v>
       </c>
-      <c r="G3" s="579">
+      <c r="G3" s="567">
         <f>'FCF - KONČNI_IZRAČUN'!K15</f>
         <v>11048504.310790446</v>
       </c>
-      <c r="I3" s="588" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="592">
+      <c r="I3" s="576" t="s">
+        <v>315</v>
+      </c>
+      <c r="J3" s="611">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K3" s="453">
@@ -43738,159 +44558,159 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="576" t="s">
+      <c r="B4" s="564" t="s">
         <v>251</v>
       </c>
       <c r="C4" s="504">
         <f>'WACC IZRAČUN'!$C$20</f>
-        <v>0.11706257519302893</v>
+        <v>0.12162495043487304</v>
       </c>
       <c r="D4" s="504">
         <f>'WACC IZRAČUN'!$C$20</f>
-        <v>0.11706257519302893</v>
+        <v>0.12162495043487304</v>
       </c>
       <c r="E4" s="504">
         <f>'WACC IZRAČUN'!$C$20</f>
-        <v>0.11706257519302893</v>
+        <v>0.12162495043487304</v>
       </c>
       <c r="F4" s="504">
         <f>'WACC IZRAČUN'!$C$20</f>
-        <v>0.11706257519302893</v>
-      </c>
-      <c r="G4" s="577">
+        <v>0.12162495043487304</v>
+      </c>
+      <c r="G4" s="565">
         <f>'WACC IZRAČUN'!$C$20</f>
-        <v>0.11706257519302893</v>
-      </c>
-      <c r="I4" s="585" t="s">
-        <v>340</v>
-      </c>
-      <c r="J4" s="589">
+        <v>0.12162495043487304</v>
+      </c>
+      <c r="I4" s="573" t="s">
+        <v>316</v>
+      </c>
+      <c r="J4" s="577">
         <f>'FCF - KONČNI_IZRAČUN'!K15*(1+J3)/(G4-J3)</f>
-        <v>113538108.27619345</v>
+        <v>108539278.82410431</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="563" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="524">
+      <c r="B5" s="551" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="517">
         <v>1</v>
       </c>
-      <c r="D5" s="524">
+      <c r="D5" s="517">
         <v>2</v>
       </c>
-      <c r="E5" s="524">
+      <c r="E5" s="517">
         <v>3</v>
       </c>
-      <c r="F5" s="524">
+      <c r="F5" s="517">
         <v>4</v>
       </c>
-      <c r="G5" s="525">
+      <c r="G5" s="518">
         <v>5</v>
       </c>
-      <c r="I5" s="585" t="s">
-        <v>343</v>
-      </c>
-      <c r="J5" s="590">
+      <c r="I5" s="573" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="578">
         <f>J4/(1+G4)^5</f>
-        <v>65276091.753878497</v>
+        <v>61143264.693499111</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="582" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="583">
+      <c r="B6" s="570" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="571">
         <f>C3*(1/(1+C4))</f>
-        <v>4191678.3999638124</v>
-      </c>
-      <c r="D6" s="583">
+        <v>4174628.1286174478</v>
+      </c>
+      <c r="D6" s="571">
         <f>D3*(1/(1+D4)^D5)</f>
-        <v>6158407.0015166849</v>
-      </c>
-      <c r="E6" s="583">
+        <v>6108408.4358711075</v>
+      </c>
+      <c r="E6" s="571">
         <f t="shared" ref="E6:G6" si="0">E3*(1/(1+E4)^E5)</f>
-        <v>3140802.0997780403</v>
-      </c>
-      <c r="F6" s="583">
+        <v>3102630.7591693401</v>
+      </c>
+      <c r="F6" s="571">
         <f t="shared" si="0"/>
-        <v>3967189.6442788779</v>
-      </c>
-      <c r="G6" s="584">
+        <v>3903033.8977019624</v>
+      </c>
+      <c r="G6" s="572">
         <f t="shared" si="0"/>
-        <v>6352080.3022354068</v>
+        <v>6223936.9089294374</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="585" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="586">
+      <c r="B8" s="573" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="574">
         <f>SUM(C6:G6)+J5</f>
-        <v>89086249.20165132</v>
+        <v>84655902.823788404</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="585" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="591">
+      <c r="B9" s="573" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="579">
         <f>PASIVA!F3+PASIVA!F6-AKTIVA!F10-AKTIVA!F8</f>
         <v>16287656</v>
       </c>
-      <c r="D9" s="557"/>
+      <c r="D9" s="545"/>
     </row>
     <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="585" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="587">
+      <c r="B10" s="573" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="575">
         <f>(C8-C9)/C11</f>
-        <v>141.57228630368877</v>
+        <v>132.95653923706701</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="580" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" s="581">
+      <c r="B11" s="568" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="569">
         <f>'ANALIZA DELNICE'!G3</f>
         <v>514215</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="603" t="s">
-        <v>356</v>
-      </c>
-      <c r="C13" s="602">
+      <c r="B13" s="612" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="613">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="453" t="s">
-        <v>355</v>
-      </c>
-      <c r="C14" s="453">
+      <c r="B14" s="614" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="614">
         <f>1-(1/(1+C13))</f>
         <v>0.2503748125937032</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="580" t="s">
-        <v>295</v>
+      <c r="B15" s="568" t="s">
+        <v>293</v>
       </c>
       <c r="C15" s="453">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="605" t="s">
-        <v>357</v>
-      </c>
-      <c r="C17" s="604">
-        <f>C10*(1-C14)*(1-C15)</f>
-        <v>79.594613738955445</v>
+      <c r="B17" s="590" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="589">
+        <f>C10*(1-C15)</f>
+        <v>82.433054326981548</v>
       </c>
     </row>
   </sheetData>
@@ -43936,7 +44756,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="434" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" s="476">
         <v>514215</v>
@@ -43956,7 +44776,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" s="453">
         <v>38105</v>
@@ -43976,7 +44796,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="453">
         <v>209567</v>
@@ -43996,27 +44816,27 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="430" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="515">
+        <v>290</v>
+      </c>
+      <c r="C6" s="513">
         <v>64471</v>
       </c>
-      <c r="D6" s="515">
+      <c r="D6" s="513">
         <v>-37933</v>
       </c>
-      <c r="E6" s="515">
+      <c r="E6" s="513">
         <v>63700</v>
       </c>
-      <c r="F6" s="515">
+      <c r="F6" s="513">
         <v>935</v>
       </c>
-      <c r="G6" s="516">
+      <c r="G6" s="514">
         <v>29160</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="168">
         <v>9.7699999999999995E-2</v>
@@ -44036,56 +44856,56 @@
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="464" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="536">
+        <v>297</v>
+      </c>
+      <c r="C8" s="524">
         <f>1-C4/C3</f>
         <v>0.92589675524829107</v>
       </c>
-      <c r="D8" s="536">
+      <c r="D8" s="524">
         <f>1-D4/D3</f>
         <v>0.98267067277306186</v>
       </c>
-      <c r="E8" s="536">
+      <c r="E8" s="524">
         <f>1-E4/E3</f>
         <v>0.99969468024075536</v>
       </c>
-      <c r="F8" s="536">
+      <c r="F8" s="524">
         <f>1-F4/F3</f>
         <v>0.99887206713145282</v>
       </c>
-      <c r="G8" s="537">
+      <c r="G8" s="525">
         <f>1-G4/G3</f>
         <v>0.99872815845512086</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="593" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="597"/>
-      <c r="D9" s="599">
+      <c r="B9" s="580" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="584"/>
+      <c r="D9" s="586">
         <v>479312</v>
       </c>
-      <c r="E9" s="598"/>
-      <c r="F9" s="594"/>
-      <c r="G9" s="595"/>
+      <c r="E9" s="585"/>
+      <c r="F9" s="581"/>
+      <c r="G9" s="582"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="593" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="597"/>
-      <c r="D10" s="600">
+      <c r="B10" s="580" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="584"/>
+      <c r="D10" s="587">
         <v>34903</v>
       </c>
-      <c r="E10" s="598"/>
-      <c r="F10" s="594"/>
-      <c r="G10" s="595"/>
+      <c r="E10" s="585"/>
+      <c r="F10" s="581"/>
+      <c r="G10" s="582"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="434" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C11" s="476">
         <v>4.1729000000000003</v>
@@ -44105,7 +44925,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C12" s="453">
         <v>5.5</v>
@@ -44114,53 +44934,53 @@
         <v>5.5</v>
       </c>
       <c r="E12" s="453" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="453" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="454" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="454" t="s">
-        <v>280</v>
-      </c>
       <c r="D13" s="454" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" s="454">
         <v>5.5</v>
       </c>
       <c r="F13" s="454" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G13" s="94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="539">
+      <c r="C14" s="527">
         <f>C3*C11-C5</f>
         <v>1936200.7735000001</v>
       </c>
-      <c r="D14" s="539">
+      <c r="D14" s="527">
         <f>D3*D11-D5</f>
         <v>2096767.7735000001</v>
       </c>
-      <c r="E14" s="539">
+      <c r="E14" s="527">
         <f>E3*E11-E5</f>
         <v>2144395.7735000001</v>
       </c>
-      <c r="F14" s="539">
+      <c r="F14" s="527">
         <f>F3*F11-F5</f>
         <v>2142068.7735000001</v>
       </c>
-      <c r="G14" s="539">
+      <c r="G14" s="527">
         <f>G3*G11-G5</f>
         <v>2143782.7735000001</v>
       </c>
@@ -44168,47 +44988,47 @@
     <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="281" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="508">
+        <v>285</v>
+      </c>
+      <c r="C16" s="506">
         <v>2013</v>
       </c>
-      <c r="D16" s="509">
+      <c r="D16" s="507">
         <v>2014</v>
       </c>
-      <c r="E16" s="509">
+      <c r="E16" s="507">
         <v>2015</v>
       </c>
-      <c r="F16" s="509">
+      <c r="F16" s="507">
         <v>2016</v>
       </c>
-      <c r="G16" s="510">
+      <c r="G16" s="508">
         <v>2017</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="434" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="512">
+        <v>286</v>
+      </c>
+      <c r="C17" s="510">
         <v>0.59040000000000004</v>
       </c>
-      <c r="D17" s="512">
+      <c r="D17" s="510">
         <v>0.62560000000000004</v>
       </c>
-      <c r="E17" s="512">
+      <c r="E17" s="510">
         <v>0.62560000000000004</v>
       </c>
-      <c r="F17" s="512">
+      <c r="F17" s="510">
         <v>0.5877</v>
       </c>
-      <c r="G17" s="513">
+      <c r="G17" s="511">
         <v>0.52659999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C18" s="168">
         <v>0.1968</v>
@@ -44228,9 +45048,9 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="511">
+        <v>288</v>
+      </c>
+      <c r="C19" s="509">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="D19" s="168">
@@ -44239,7 +45059,7 @@
       <c r="E19" s="168">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="F19" s="511">
+      <c r="F19" s="509">
         <v>7.5700000000000003E-2</v>
       </c>
       <c r="G19" s="462">
@@ -44248,7 +45068,7 @@
     </row>
     <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C20" s="173">
         <v>7.0999999999999994E-2</v>
@@ -44262,25 +45082,25 @@
       <c r="F20" s="173">
         <v>7.51E-2</v>
       </c>
-      <c r="G20" s="514">
+      <c r="G20" s="512">
         <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="434" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="596">
+        <v>325</v>
+      </c>
+      <c r="C23" s="583">
         <f>C24*G3</f>
         <v>17997525</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="558">
+        <v>326</v>
+      </c>
+      <c r="C24" s="546">
         <v>35</v>
       </c>
       <c r="E24" s="495"/>
@@ -44297,7 +45117,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45783,23 +46603,23 @@
         <f t="shared" si="24"/>
         <v>1.0326530612244897</v>
       </c>
-      <c r="G45" s="547">
+      <c r="G45" s="535">
         <f t="shared" si="24"/>
         <v>1.036697247706422</v>
       </c>
-      <c r="H45" s="547">
+      <c r="H45" s="535">
         <f t="shared" si="24"/>
         <v>1.0275229357798166</v>
       </c>
-      <c r="I45" s="547">
+      <c r="I45" s="535">
         <f t="shared" si="24"/>
         <v>1.0275229357798163</v>
       </c>
-      <c r="J45" s="547">
+      <c r="J45" s="535">
         <f t="shared" ref="J45:K45" si="25">J43/I43</f>
         <v>1.0275229357798166</v>
       </c>
-      <c r="K45" s="547">
+      <c r="K45" s="535">
         <f t="shared" si="25"/>
         <v>1.0275229357798163</v>
       </c>
@@ -45937,39 +46757,39 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="548" t="s">
-        <v>331</v>
-      </c>
-      <c r="B49" s="549"/>
-      <c r="C49" s="550">
+      <c r="A49" s="536" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" s="537"/>
+      <c r="C49" s="538">
         <f>C47/B47</f>
         <v>1.0466014053183015</v>
       </c>
-      <c r="D49" s="550">
+      <c r="D49" s="538">
         <f t="shared" ref="D49:F49" si="30">D47/C47</f>
         <v>1.128219493540805</v>
       </c>
-      <c r="E49" s="550">
+      <c r="E49" s="538">
         <f t="shared" si="30"/>
         <v>1.012611812346343</v>
       </c>
-      <c r="F49" s="550">
+      <c r="F49" s="538">
         <f t="shared" si="30"/>
         <v>1.1153203335267978</v>
       </c>
-      <c r="G49" s="551">
+      <c r="G49" s="539">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H49" s="551">
+      <c r="H49" s="539">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I49" s="551">
+      <c r="I49" s="539">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J49" s="551">
+      <c r="J49" s="539">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K49" s="552">
+      <c r="K49" s="540">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -45977,7 +46797,7 @@
       <c r="G50" s="429"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F51" s="546"/>
+      <c r="F51" s="534"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F52" s="452"/>
@@ -47312,7 +48132,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48048,56 +48868,56 @@
       <c r="E25" s="7">
         <v>45510666</v>
       </c>
-      <c r="F25" s="542">
+      <c r="F25" s="530">
         <v>55347711</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="B26" s="540">
+        <v>304</v>
+      </c>
+      <c r="B26" s="528">
         <f>(B3+B6)/(B3+B6+B25)</f>
         <v>0.36845559048126808</v>
       </c>
-      <c r="C26" s="540">
+      <c r="C26" s="528">
         <f t="shared" ref="C26:F26" si="2">(C3+C6)/(C3+C6+C25)</f>
         <v>0.29424347266592055</v>
       </c>
-      <c r="D26" s="540">
+      <c r="D26" s="528">
         <f t="shared" si="2"/>
         <v>0.20101646098422238</v>
       </c>
-      <c r="E26" s="540">
+      <c r="E26" s="528">
         <f t="shared" si="2"/>
         <v>0.27749450381553842</v>
       </c>
-      <c r="F26" s="540">
+      <c r="F26" s="528">
         <f t="shared" si="2"/>
         <v>0.26527884955777115</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27" s="541">
+        <v>305</v>
+      </c>
+      <c r="B27" s="529">
         <f>B25/(B25+B3+B6)</f>
         <v>0.63154440951873192</v>
       </c>
-      <c r="C27" s="541">
+      <c r="C27" s="529">
         <f t="shared" ref="C27:F27" si="3">C25/(C25+C3+C6)</f>
         <v>0.70575652733407945</v>
       </c>
-      <c r="D27" s="541">
+      <c r="D27" s="529">
         <f t="shared" si="3"/>
         <v>0.79898353901577757</v>
       </c>
-      <c r="E27" s="541">
+      <c r="E27" s="529">
         <f t="shared" si="3"/>
         <v>0.72250549618446158</v>
       </c>
-      <c r="F27" s="541">
+      <c r="F27" s="529">
         <f t="shared" si="3"/>
         <v>0.73472115044222885</v>
       </c>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2F5BE-F0C9-4AC1-BE63-40E5F1560B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914AC70-ADDB-47A5-A6FC-91B3DDF1C037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -342,6 +342,30 @@
     <author>Neža</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{DC6C5F55-943D-48AB-A485-9CFB8CE57658}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.sec.gov/Archives/edgar/data/48272/000104746904029419/a2143709zex-99_c2.htm</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D23" authorId="0" shapeId="0" xr:uid="{1C00D69D-CE6F-48BC-AAD7-D03EDD8DF1E7}">
       <text>
         <r>
@@ -363,6 +387,30 @@
           </rPr>
           <t xml:space="preserve">
 https://www.abi.org/abi-journal/update-on-study-of-discount-for-lack-of-marketability#1a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{A2518D1A-B261-47A9-95D5-BB3FE1430D26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+http://www.philipsaunders.com/TheFirm/Publications/MarketabilityDiscounts/tabid/97/Default.aspx</t>
         </r>
       </text>
     </comment>
@@ -417,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{D93067B5-77D5-45F7-B909-4ECD138D8379}">
+    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{D93067B5-77D5-45F7-B909-4ECD138D8379}">
       <text>
         <r>
           <rPr>
@@ -442,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{DEB82F84-5463-44C8-B506-5E497DE8D0BF}">
+    <comment ref="A82" authorId="0" shapeId="0" xr:uid="{DEB82F84-5463-44C8-B506-5E497DE8D0BF}">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1072,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="433">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -2109,22 +2157,10 @@
     <t>Zajetih 72 transakcij v letih 1991 - 1995</t>
   </si>
   <si>
-    <t>Preučevanih 115 zasebnih transakcij, vključeno z lastnimi delnicami večjih industrijskih korporacij. Večina se jih je prodajala z diskontom, nekaj pa tudi s premijo ali kar točno po tržni ceni.  Da bi dobili bolj objektivne rezultate so naknadno izključili vse transakcije podjetij z manj kot 3 milijoni prihodkov.</t>
-  </si>
-  <si>
-    <t>Analiziranih preko 100 transakcij - rezultat potrjuje, da je odbitek močno povezan z višino prihodkov podjetja.</t>
-  </si>
-  <si>
-    <t>Preučevanih 44 zasebnih transakcij - z rezultati si lahko razlagajo le 67 odstotkov odbitkov, raziskava ni dosegla željenih rezultatov</t>
-  </si>
-  <si>
     <t>Preučevanih 28 transakcij</t>
   </si>
   <si>
     <t>Preučevanih 33 transakcij</t>
-  </si>
-  <si>
-    <t>Preučevanih 69 transakcij</t>
   </si>
   <si>
     <t>Preučevanih 146 transakcij desetih večjih korporacij</t>
@@ -2229,9 +2265,6 @@
     <t xml:space="preserve">po statutu vsak delničar mora za prodajo delnice osebi zunaj obstoječega kroga delničarjev pridobiti soglasje s strani uprave. </t>
   </si>
   <si>
-    <t>ni posebej relevantno</t>
-  </si>
-  <si>
     <t>vodstvo se je nedolgo nazaj zamenjalo, a stremi k podobnim ciljem</t>
   </si>
   <si>
@@ -2274,16 +2307,7 @@
     <t>prodaja se ena delnica</t>
   </si>
   <si>
-    <t>(-) večji diskont povzročajo večja količina delnic v prodaji (v paketu), nižji zaslužki podjetja in nižja prodaja, nižja tržna vrednost podjetja, količina restriktivnih delnic znotraj vseh izdanih delnic podjetja</t>
-  </si>
-  <si>
     <t>Raziskave restriktivnih delnic od začetka niso upoštevale, da lahko diskont pri vrednosti restriktivne delnice povzroča tudi kompenzacija za investitorja za v prihodnosti predvidene storitve podjetju, ne pa izključno pomanjkljivost tržljivosti.</t>
-  </si>
-  <si>
-    <t>volatilnost cene delnice</t>
-  </si>
-  <si>
-    <t>velikost podjetja</t>
   </si>
   <si>
     <t>raznolikost produktov</t>
@@ -2292,22 +2316,7 @@
     <t>geografska razpršenost trga</t>
   </si>
   <si>
-    <t>odvisnost od dobaviteljev</t>
-  </si>
-  <si>
-    <t>odvisnost od strank</t>
-  </si>
-  <si>
-    <t>prelaganje izdatkov</t>
-  </si>
-  <si>
-    <t>Ker pre IPO raziskave vključujejo le uspešna podjetja, za katera je znano, da bodo v prihodnosti postala javna, je odbitek pri teh raziskavah prevelik, oziroma je prevelik pomen nižje vrednosti pred prvo javno ponudbo posvečen pomanjkanju tržljivosti. Na večjo razliko namreč vplivajo tudi drugi dejavniki. Zato sem pri svojem ocenjevanju izhajala iz spodnjih mej odbitkov, ugotovljenih pri teh raziskavah. Če pri tem posebej izpostavim WMA študijo (zadnjo narejeno, za leta 1988-2000), ta izključuje vse transakcije z osebami, ki so na sumljiv način povezane z vodstvom in drugimi koristi v podjetjih, zato sem znotraj preIPO študij to vzela za najbolj relevantno.</t>
-  </si>
-  <si>
     <t>POVZETKI:</t>
-  </si>
-  <si>
-    <t>Pri ocenjevanju torej izhajam iz bolj relevantnih ocen za odbitke, torej ocene po pre IPO študijah. Te v povprečju določajo 45% odbitek, pri čemer pa sem sama v začetku izhajala iz raziskave WMA, ki je po moji oceni najbolj relevantna in za naše podjetje najprimernejša. Za izhodišče sem vzela spodnji del ugotovljenih odbitkov te raziskave (35%). Glede na navedenih 10 faktorjev, ki naj bi bili najbolj relevantni pri vplivu na spreminjanje odbitka glede na posebne lastnosti podjetij, bi našemu podjetju pripisala odbitek v višini 32%, saj sta od vseh faktorjev na povečanje odbitka vplivali le omejitev pri prenosu lastništva in predkupna pravica uprave do delnice v prodaji tretji osebi. Vsi ostali faktorji so diskont zniževali.</t>
   </si>
   <si>
     <t>ZAKLJUČEK:</t>
@@ -2327,6 +2336,42 @@
   <si>
     <t>(-) rast prihodkov našemu podjetju, tudi pri napovedih v prihodnosti</t>
   </si>
+  <si>
+    <t>Dokaz, da je odbitek močno povezan z dobo, ko delnice ne moreš prodati - na sredini raziskave se je čas držanja restriktivne delnice zmanjšala za polovico. Ugotovljeni vplivi na odbitek: negativno (večji prihodki, večja vrednost paketa restriktivnih delnic na trgu, večja tržna vrednost podjetja, večji dobiček, večje izplačilo dividend) in pozitivno (večji paket restriktivnih delnic, ki se prodaja, daljše obdobje minimalnega držanja kupljenih delnic).</t>
+  </si>
+  <si>
+    <t>Preučevanih 115 zasebnih transakcij, vključeno z lastnimi delnicami večjih industrijskih korporacij. Večina se jih je prodajala z diskontom, nekaj pa tudi s premijo ali kar točno po tržni ceni.  Da bi dobili bolj objektivne rezultate so naknadno izključili vse transakcije podjetij z manj kot 3 milijoni prihodkov. V nadgradnji raziskave so vključili zasebna podjetja, pri katerih: je razkrito finančno stanje javnosti, se restriktivne delnice po vseh drugih lastnostih (razen tržljivosti) ujemajo z javno tržljivimi, je na voljo dovolj podatkov za analizo, se delnica na odprtem trgu prodaja za vsaj 2 dolarja, podjetje ni v fazi razvoja, ni zaznane finančne izgube v letu pred transakcijo. Ugotovitve: večji odbitek pri manjših podjetjih (glede na prihodek), pri počasneje rastočih podjetjih, pri manjši stabilnosti prihodka, pri podjetjih z manjšo vrednostjo delnice, z manjšo tržno kapitalizacijo, z večjim blokom delnic v prodaji, z daljšim minimalnim obdobjem držanja delnice pred možnostjo prodaje.</t>
+  </si>
+  <si>
+    <t>dejavniki zajeti v spodnjem povzetku</t>
+  </si>
+  <si>
+    <t>Analiziranih preko 100 transakcij - rezultat potrjuje, da je odbitek močno povezan z višino prihodkov podjetja, tržno kapitailzacijo podjetja, velikostjo bloka delnic v prodaji.</t>
+  </si>
+  <si>
+    <t>Preučevanih 44 zasebnih transakcij - z rezultati si lahko razlagajo le 67 odstotkov odbitkov, raziskava ni dosegla željenih rezultatov.</t>
+  </si>
+  <si>
+    <t>Preučevanih 69 transakcij, ugotovitev da večji diskont povzročajo večja količina delnic v prodaji (v paketu), nižji zaslužki podjetja in nižja prodaja, nižja tržna vrednost podjetja, količina restriktivnih delnic znotraj vseh izdanih delnic podjetja.</t>
+  </si>
+  <si>
+    <t>dejavniki obrazloženi v spodnjem povzetku</t>
+  </si>
+  <si>
+    <t>Ker preIPO raziskave vsebujejo transakcije podjetij, ki v prihodnosti uspešno prodrejo na javni trg, so ti odbitki višji, čim večje je tveganje vstopa. Zato pri našem podjetju izhajam iz zgornjih mej ugotovljenih odbitkov, saj o izstopu iz zasebnega lastništva vodstvo ne razmišlja. Če pri tem posebej izpostavim WMA študijo (zadnjo narejeno, za leta 1988-2000), ta izključuje tudi vse transakcije z osebami, ki so na sumljiv način povezane z vodstvom in drugimi koristi v podjetjih, vzete so preIPO cene iz do treh let pred prvo javno ponudbo, zato sem to raziskavo vzela za najbolj relevantno.</t>
+  </si>
+  <si>
+    <t>Pri ocenjevanju torej izhajam iz bolj relevantnih ocen za odbitke, torej ocene po pre IPO študijah. Te v povprečju določajo 45% odbitek, pri čemer pa sem sama v začetku izhajala iz raziskave WMA, ki je po moji oceni najbolj relevantna in za naše podjetje najprimernejša. Za izhodišče sem vzela zgornji del ugotovljenih odbitkov te raziskave, kot opisano v povzetkih (49%). Glede na navedenih 10 faktorjev, ki naj bi bili najbolj relevantni pri vplivu na spreminjanje odbitka glede na posebne lastnosti podjetij, bi našemu podjetju pripisala odbitek v višini 40%, saj sta od vseh faktorjev na povečanje odbitka vplivali le omejitev pri prenosu lastništva in predkupna pravica uprave do delnice v prodaji tretji osebi. Vsi ostali faktorji so diskont zniževali.</t>
+  </si>
+  <si>
+    <t>http://www.philipsaunders.com/TheFirm/Publications/MarketabilityDiscounts/tabid/97/Default.aspx</t>
+  </si>
+  <si>
+    <t>širjenje proizvodnje, novi trgi in proizvodi</t>
+  </si>
+  <si>
+    <t>tuj trg, podružnica na Kitajskem, možnost širjenja</t>
+  </si>
 </sst>
 </file>
 
@@ -2344,7 +2389,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ &quot;€&quot;_-;\-* #,##0.000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2552,16 +2597,8 @@
       <charset val="238"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2643,6 +2680,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,7 +3560,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="657">
+  <cellXfs count="666">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4113,15 +4156,8 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4144,11 +4180,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4167,50 +4215,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4231,20 +4236,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -42254,10 +42326,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="631" t="s">
+      <c r="A88" s="644" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="632"/>
+      <c r="B88" s="645"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -43075,7 +43147,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43097,7 +43169,7 @@
         <v>256</v>
       </c>
       <c r="F2" s="434" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G2" s="476" t="s">
         <v>254</v>
@@ -43157,25 +43229,25 @@
         <v>11421674</v>
       </c>
       <c r="L3" s="515" t="s">
-        <v>374</v>
-      </c>
-      <c r="M3" s="606">
+        <v>370</v>
+      </c>
+      <c r="M3" s="599">
         <f>PASIVA!B3+PASIVA!B6</f>
         <v>13424486</v>
       </c>
-      <c r="N3" s="606">
+      <c r="N3" s="599">
         <f>PASIVA!C3+PASIVA!C6</f>
         <v>11917558</v>
       </c>
-      <c r="O3" s="606">
+      <c r="O3" s="599">
         <f>PASIVA!D3+PASIVA!D6</f>
         <v>9124698</v>
       </c>
-      <c r="P3" s="606">
+      <c r="P3" s="599">
         <f>PASIVA!E3+PASIVA!E6</f>
         <v>17479396</v>
       </c>
-      <c r="Q3" s="607">
+      <c r="Q3" s="600">
         <f>PASIVA!F3+PASIVA!F6</f>
         <v>19983877</v>
       </c>
@@ -43193,16 +43265,16 @@
         <v>0.19</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G4" s="453" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H4" s="453"/>
       <c r="I4" s="453"/>
       <c r="J4" s="54"/>
       <c r="L4" s="515" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M4" s="135">
         <v>184191</v>
@@ -43210,7 +43282,7 @@
       <c r="N4" s="135">
         <v>278847</v>
       </c>
-      <c r="O4" s="608">
+      <c r="O4" s="601">
         <v>475197</v>
       </c>
       <c r="P4" s="135">
@@ -43231,7 +43303,7 @@
         <f>C3*(1-D4)</f>
         <v>1.4767391232442036E-2</v>
       </c>
-      <c r="D5" s="605">
+      <c r="D5" s="598">
         <f>3.6%</f>
         <v>3.6000000000000004E-2</v>
       </c>
@@ -43246,23 +43318,23 @@
       <c r="I5" s="454"/>
       <c r="J5" s="94"/>
       <c r="L5" s="516"/>
-      <c r="M5" s="609">
+      <c r="M5" s="602">
         <f>M4/M3</f>
         <v>1.3720525314712236E-2</v>
       </c>
-      <c r="N5" s="609">
+      <c r="N5" s="602">
         <f t="shared" ref="N5:Q5" si="0">N4/N3</f>
         <v>2.3397998146935807E-2</v>
       </c>
-      <c r="O5" s="609">
+      <c r="O5" s="602">
         <f t="shared" si="0"/>
         <v>5.2078107132970321E-2</v>
       </c>
-      <c r="P5" s="609">
+      <c r="P5" s="602">
         <f t="shared" si="0"/>
         <v>1.8865697647676156E-2</v>
       </c>
-      <c r="Q5" s="610">
+      <c r="Q5" s="603">
         <f t="shared" si="0"/>
         <v>1.8231347200545721E-2</v>
       </c>
@@ -43341,11 +43413,11 @@
       <c r="C12" s="473">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="623" t="s">
+      <c r="F12" s="620" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="624"/>
-      <c r="H12" s="625"/>
+      <c r="G12" s="621"/>
+      <c r="H12" s="622"/>
       <c r="J12" s="497" t="s">
         <v>284</v>
       </c>
@@ -43403,18 +43475,18 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="623" t="s">
+      <c r="J15" s="620" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="624"/>
-      <c r="L15" s="624"/>
-      <c r="M15" s="625"/>
+      <c r="K15" s="621"/>
+      <c r="L15" s="621"/>
+      <c r="M15" s="622"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="622"/>
+      <c r="C16" s="612"/>
       <c r="F16" s="481">
         <v>42826</v>
       </c>
@@ -43512,11 +43584,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="626" t="s">
+      <c r="F26" s="623" t="s">
         <v>283</v>
       </c>
-      <c r="G26" s="627"/>
-      <c r="H26" s="628"/>
+      <c r="G26" s="624"/>
+      <c r="H26" s="625"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43699,10 +43771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A65" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43725,71 +43797,71 @@
       <c r="E2" s="594"/>
     </row>
     <row r="3" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="595" t="s">
+      <c r="A3" s="654" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="596" t="s">
+      <c r="B3" s="655" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="597"/>
+      <c r="C3" s="656"/>
+      <c r="D3" s="657"/>
+      <c r="E3" s="658"/>
     </row>
     <row r="4" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="598"/>
-      <c r="B4" s="596" t="s">
+      <c r="A4" s="659"/>
+      <c r="B4" s="655" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="596" t="s">
+      <c r="C4" s="655" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="596" t="s">
+      <c r="D4" s="660" t="s">
         <v>341</v>
       </c>
-      <c r="E4" s="599" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="429" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="598">
+      <c r="E4" s="661" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="429" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="595">
         <v>1</v>
       </c>
-      <c r="B5" s="601" t="s">
+      <c r="B5" s="647" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="600" t="s">
+      <c r="C5" s="648" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="615" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="655" t="s">
-        <v>432</v>
+      <c r="D5" s="608" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="626" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="515">
         <v>2</v>
       </c>
-      <c r="B6" s="603" t="s">
+      <c r="B6" s="649" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="600" t="s">
+      <c r="C6" s="648" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="615" t="s">
+      <c r="D6" s="608" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="655"/>
+      <c r="E6" s="626"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="598">
+      <c r="A7" s="595">
         <v>3</v>
       </c>
-      <c r="B7" s="603" t="s">
+      <c r="B7" s="649" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="135">
+      <c r="C7" s="650">
         <v>20</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -43797,65 +43869,67 @@
       </c>
       <c r="E7" s="220"/>
     </row>
-    <row r="8" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A8" s="515">
         <v>4</v>
       </c>
-      <c r="B8" s="603" t="s">
+      <c r="B8" s="649" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="135">
+      <c r="C8" s="650">
         <v>26</v>
       </c>
-      <c r="D8" s="616" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="604"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="598">
+      <c r="D8" s="609" t="s">
+        <v>422</v>
+      </c>
+      <c r="E8" s="619" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="595">
         <v>5</v>
       </c>
-      <c r="B9" s="603" t="s">
+      <c r="B9" s="649" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="468">
+      <c r="C9" s="646">
         <v>23</v>
       </c>
-      <c r="D9" s="616" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" s="656" t="s">
-        <v>433</v>
+      <c r="D9" s="609" t="s">
+        <v>424</v>
+      </c>
+      <c r="E9" s="619" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="515">
         <v>6</v>
       </c>
-      <c r="B10" s="603" t="s">
+      <c r="B10" s="649" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="468">
+      <c r="C10" s="646">
         <v>24</v>
       </c>
-      <c r="D10" s="616" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10" s="654"/>
+      <c r="D10" s="609" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="618"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="598">
+      <c r="A11" s="595">
         <v>7</v>
       </c>
-      <c r="B11" s="603" t="s">
+      <c r="B11" s="649" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="468">
+      <c r="C11" s="646">
         <v>45</v>
       </c>
       <c r="D11" s="135" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E11" s="220"/>
     </row>
@@ -43863,93 +43937,93 @@
       <c r="A12" s="515">
         <v>8</v>
       </c>
-      <c r="B12" s="602" t="s">
+      <c r="B12" s="651" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="468">
+      <c r="C12" s="646">
         <v>31</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E12" s="220"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="598">
+      <c r="A13" s="595">
         <v>9</v>
       </c>
-      <c r="B13" s="602" t="s">
+      <c r="B13" s="651" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="468">
+      <c r="C13" s="646">
         <v>34</v>
       </c>
       <c r="D13" s="135" t="s">
-        <v>366</v>
-      </c>
-      <c r="E13" s="641" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="E13" s="615" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="515">
         <v>10</v>
       </c>
-      <c r="B14" s="603" t="s">
+      <c r="B14" s="649" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="468">
+      <c r="C14" s="646">
         <v>33</v>
       </c>
       <c r="D14" s="135" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E14" s="220"/>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="598">
+      <c r="A15" s="595">
         <v>11</v>
       </c>
-      <c r="B15" s="603" t="s">
+      <c r="B15" s="649" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="468">
+      <c r="C15" s="646">
         <v>24</v>
       </c>
-      <c r="D15" s="616" t="s">
-        <v>431</v>
-      </c>
-      <c r="E15" s="656" t="s">
-        <v>430</v>
+      <c r="D15" s="609" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="619" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="515">
         <v>12</v>
       </c>
-      <c r="B16" s="603" t="s">
+      <c r="B16" s="649" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="468">
+      <c r="C16" s="646">
         <v>33</v>
       </c>
       <c r="D16" s="135" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E16" s="220"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="598">
+      <c r="A17" s="595">
         <v>13</v>
       </c>
-      <c r="B17" s="603" t="s">
+      <c r="B17" s="649" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="468">
+      <c r="C17" s="646">
         <v>34</v>
       </c>
       <c r="D17" s="135" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E17" s="220"/>
     </row>
@@ -43957,550 +44031,517 @@
       <c r="A18" s="515">
         <v>14</v>
       </c>
-      <c r="B18" s="603" t="s">
+      <c r="B18" s="649" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="468">
+      <c r="C18" s="646">
         <v>35</v>
       </c>
       <c r="D18" s="135" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E18" s="220"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="564" t="s">
+      <c r="A19" s="654" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="218" t="s">
+      <c r="B19" s="655" t="s">
         <v>343</v>
       </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="220"/>
+      <c r="C19" s="656"/>
+      <c r="D19" s="657"/>
+      <c r="E19" s="658"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="515"/>
-      <c r="B20" s="218" t="s">
+      <c r="A20" s="659"/>
+      <c r="B20" s="655" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="218" t="s">
+      <c r="C20" s="655" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="218" t="s">
+      <c r="D20" s="660" t="s">
         <v>341</v>
       </c>
-      <c r="E20" s="219"/>
+      <c r="E20" s="661"/>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="515">
         <v>1</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="650" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="468" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" s="616" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" s="604"/>
+      <c r="C21" s="646" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" s="609" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" s="597"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="515">
         <v>2</v>
       </c>
-      <c r="B22" s="135" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="618">
+      <c r="B22" s="650" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="652">
         <v>0.52</v>
       </c>
-      <c r="D22" s="616"/>
-      <c r="E22" s="604"/>
+      <c r="D22" s="609"/>
+      <c r="E22" s="597"/>
     </row>
     <row r="23" spans="1:5" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="516">
         <v>3</v>
       </c>
-      <c r="B23" s="517" t="s">
+      <c r="B23" s="653" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="517" t="s">
-        <v>381</v>
-      </c>
-      <c r="D23" s="617" t="s">
-        <v>380</v>
-      </c>
-      <c r="E23" s="653" t="s">
-        <v>429</v>
+      <c r="C23" s="653" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="610" t="s">
+        <v>376</v>
+      </c>
+      <c r="E23" s="662" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="652" t="s">
-        <v>426</v>
+      <c r="B27" s="617" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="645" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="648" t="s">
-        <v>417</v>
-      </c>
-      <c r="D29" s="648" t="s">
-        <v>425</v>
-      </c>
-      <c r="E29" s="648" t="s">
-        <v>382</v>
+      <c r="B29" s="627" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="630" t="s">
+        <v>411</v>
+      </c>
+      <c r="D29" s="630" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" s="630" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="646"/>
-      <c r="C30" s="649"/>
-      <c r="D30" s="649"/>
-      <c r="E30" s="649"/>
+      <c r="B30" s="628"/>
+      <c r="C30" s="631"/>
+      <c r="D30" s="631"/>
+      <c r="E30" s="631"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="646"/>
-      <c r="C31" s="649"/>
-      <c r="D31" s="649"/>
-      <c r="E31" s="649"/>
+      <c r="B31" s="628"/>
+      <c r="C31" s="631"/>
+      <c r="D31" s="631"/>
+      <c r="E31" s="631"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="646"/>
-      <c r="C32" s="649"/>
-      <c r="D32" s="649"/>
-      <c r="E32" s="649"/>
+      <c r="B32" s="628"/>
+      <c r="C32" s="631"/>
+      <c r="D32" s="631"/>
+      <c r="E32" s="631"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="646"/>
-      <c r="C33" s="649"/>
-      <c r="D33" s="649"/>
-      <c r="E33" s="649"/>
+      <c r="B33" s="628"/>
+      <c r="C33" s="631"/>
+      <c r="D33" s="631"/>
+      <c r="E33" s="631"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="646"/>
-      <c r="C34" s="649"/>
-      <c r="D34" s="649"/>
-      <c r="E34" s="649"/>
+      <c r="B34" s="628"/>
+      <c r="C34" s="631"/>
+      <c r="D34" s="631"/>
+      <c r="E34" s="631"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="647"/>
-      <c r="C35" s="650"/>
-      <c r="D35" s="650"/>
-      <c r="E35" s="650"/>
+      <c r="B35" s="629"/>
+      <c r="C35" s="632"/>
+      <c r="D35" s="632"/>
+      <c r="E35" s="632"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="629" t="s">
-        <v>383</v>
-      </c>
-      <c r="B48" s="630"/>
-      <c r="C48" s="630"/>
-      <c r="D48" s="630"/>
-      <c r="E48" s="619"/>
+      <c r="A48" s="633" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="634"/>
+      <c r="C48" s="634"/>
+      <c r="D48" s="634"/>
+      <c r="E48" s="611"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="515"/>
       <c r="B49" s="218" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C49" s="218" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D49" s="218" t="s">
-        <v>396</v>
-      </c>
-      <c r="E49" s="599" t="s">
-        <v>397</v>
+        <v>392</v>
+      </c>
+      <c r="E49" s="596" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="515"/>
       <c r="B50" s="135" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C50" s="135" t="s">
-        <v>387</v>
-      </c>
-      <c r="D50" s="634" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="220" t="s">
-        <v>398</v>
+      <c r="E50" s="663" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="515"/>
       <c r="B51" s="135" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>389</v>
-      </c>
-      <c r="D51" s="634" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="220" t="s">
-        <v>407</v>
+      <c r="E51" s="663" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="515"/>
       <c r="B52" s="468" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C52" s="468" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" s="634" t="s">
-        <v>399</v>
-      </c>
-      <c r="E52" s="220" t="s">
-        <v>400</v>
+        <v>383</v>
+      </c>
+      <c r="D52" s="613" t="s">
+        <v>395</v>
+      </c>
+      <c r="E52" s="663" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="515"/>
-      <c r="B53" s="620" t="s">
-        <v>391</v>
-      </c>
-      <c r="C53" s="620" t="s">
-        <v>392</v>
-      </c>
-      <c r="D53" s="635"/>
-      <c r="E53" s="621" t="s">
-        <v>401</v>
-      </c>
+      <c r="B53" s="664" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="664" t="s">
+        <v>388</v>
+      </c>
+      <c r="D53" s="614"/>
+      <c r="E53" s="665"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="515"/>
       <c r="B54" s="468" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C54" s="468" t="s">
-        <v>387</v>
-      </c>
-      <c r="D54" s="634" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E54" s="220" t="s">
-        <v>406</v>
+      <c r="E54" s="663" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="515"/>
       <c r="B55" s="468" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C55" s="468" t="s">
-        <v>389</v>
-      </c>
-      <c r="D55" s="634" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E55" s="220" t="s">
-        <v>402</v>
+      <c r="E55" s="663" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="515"/>
       <c r="B56" s="468" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C56" s="468" t="s">
-        <v>392</v>
-      </c>
-      <c r="D56" s="634" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="220" t="s">
-        <v>404</v>
+      <c r="E56" s="663" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="515"/>
       <c r="B57" s="468" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C57" s="468" t="s">
-        <v>387</v>
-      </c>
-      <c r="D57" s="634" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E57" s="220" t="s">
-        <v>408</v>
+      <c r="E57" s="663" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="515"/>
       <c r="B58" s="468" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C58" s="468" t="s">
-        <v>387</v>
-      </c>
-      <c r="D58" s="634" t="s">
-        <v>399</v>
-      </c>
-      <c r="E58" s="220" t="s">
-        <v>409</v>
+        <v>383</v>
+      </c>
+      <c r="D58" s="613" t="s">
+        <v>395</v>
+      </c>
+      <c r="E58" s="663" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="515"/>
       <c r="B59" s="468" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C59" s="468" t="s">
-        <v>389</v>
-      </c>
-      <c r="D59" s="634" t="s">
-        <v>399</v>
-      </c>
-      <c r="E59" s="220" t="s">
-        <v>413</v>
+        <v>385</v>
+      </c>
+      <c r="D59" s="613" t="s">
+        <v>395</v>
+      </c>
+      <c r="E59" s="663" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="515"/>
       <c r="B60" s="468"/>
       <c r="C60" s="468"/>
-      <c r="D60" s="634"/>
-      <c r="E60" s="220"/>
+      <c r="D60" s="613"/>
+      <c r="E60" s="663"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="515"/>
       <c r="B61" s="468" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C61" s="468"/>
-      <c r="D61" s="634" t="s">
+      <c r="D61" s="613" t="s">
         <v>278</v>
       </c>
-      <c r="E61" s="220" t="s">
-        <v>415</v>
+      <c r="E61" s="663" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="515"/>
-      <c r="B62" s="468" t="s">
-        <v>418</v>
-      </c>
+      <c r="B62" s="468"/>
       <c r="C62" s="468"/>
-      <c r="D62" s="634"/>
-      <c r="E62" s="220"/>
+      <c r="D62" s="613"/>
+      <c r="E62" s="663"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="515"/>
       <c r="B63" s="468" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C63" s="468"/>
-      <c r="D63" s="634"/>
-      <c r="E63" s="220"/>
+      <c r="D63" s="613" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="663" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="515"/>
-      <c r="B64" s="468"/>
+      <c r="B64" s="468" t="s">
+        <v>413</v>
+      </c>
       <c r="C64" s="468"/>
-      <c r="D64" s="634"/>
-      <c r="E64" s="220"/>
+      <c r="D64" s="613" t="s">
+        <v>278</v>
+      </c>
+      <c r="E64" s="663" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="515"/>
-      <c r="B65" s="468" t="s">
-        <v>420</v>
-      </c>
+      <c r="B65" s="468"/>
       <c r="C65" s="468"/>
-      <c r="D65" s="634"/>
-      <c r="E65" s="220"/>
+      <c r="D65" s="613"/>
+      <c r="E65" s="663"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="515"/>
-      <c r="B66" s="468" t="s">
-        <v>421</v>
-      </c>
+      <c r="B66" s="468"/>
       <c r="C66" s="468"/>
-      <c r="D66" s="634"/>
-      <c r="E66" s="220"/>
+      <c r="D66" s="613"/>
+      <c r="E66" s="663"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="515"/>
-      <c r="B67" s="468" t="s">
-        <v>422</v>
-      </c>
+      <c r="B67" s="468"/>
       <c r="C67" s="468"/>
-      <c r="D67" s="634"/>
-      <c r="E67" s="220"/>
+      <c r="D67" s="613"/>
+      <c r="E67" s="663"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="515"/>
-      <c r="B68" s="468" t="s">
-        <v>423</v>
-      </c>
+      <c r="B68" s="468"/>
       <c r="C68" s="468"/>
-      <c r="D68" s="634"/>
-      <c r="E68" s="220"/>
+      <c r="D68" s="613"/>
+      <c r="E68" s="663"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="515"/>
-      <c r="B69" s="468" t="s">
-        <v>424</v>
-      </c>
+      <c r="B69" s="468"/>
       <c r="C69" s="468"/>
-      <c r="D69" s="634"/>
-      <c r="E69" s="220"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D69" s="613"/>
+      <c r="E69" s="663"/>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="515"/>
-      <c r="B70" s="468"/>
-      <c r="C70" s="468"/>
-      <c r="D70" s="634"/>
+      <c r="B70" s="616" t="s">
+        <v>415</v>
+      </c>
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
       <c r="E70" s="220"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="515"/>
-      <c r="B71" s="468"/>
-      <c r="C71" s="468"/>
-      <c r="D71" s="634"/>
-      <c r="E71" s="220"/>
+      <c r="B71" s="635" t="s">
+        <v>429</v>
+      </c>
+      <c r="C71" s="638"/>
+      <c r="D71" s="640"/>
+      <c r="E71" s="642"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="515"/>
-      <c r="B72" s="468"/>
-      <c r="C72" s="468"/>
-      <c r="D72" s="634"/>
-      <c r="E72" s="220"/>
+      <c r="B72" s="636"/>
+      <c r="C72" s="638"/>
+      <c r="D72" s="640"/>
+      <c r="E72" s="642"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="515"/>
-      <c r="B73" s="468"/>
-      <c r="C73" s="468"/>
-      <c r="D73" s="634"/>
-      <c r="E73" s="220"/>
+      <c r="B73" s="636"/>
+      <c r="C73" s="638"/>
+      <c r="D73" s="640"/>
+      <c r="E73" s="642"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="515"/>
-      <c r="B74" s="468"/>
-      <c r="C74" s="468"/>
-      <c r="D74" s="634"/>
-      <c r="E74" s="220"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="636"/>
+      <c r="C74" s="638"/>
+      <c r="D74" s="640"/>
+      <c r="E74" s="642"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="515"/>
-      <c r="B75" s="651" t="s">
-        <v>428</v>
-      </c>
-      <c r="C75" s="135"/>
-      <c r="D75" s="135"/>
-      <c r="E75" s="220"/>
+      <c r="B75" s="636"/>
+      <c r="C75" s="638"/>
+      <c r="D75" s="640"/>
+      <c r="E75" s="642"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="515"/>
-      <c r="B76" s="638" t="s">
-        <v>427</v>
-      </c>
-      <c r="C76" s="643"/>
-      <c r="D76" s="633"/>
-      <c r="E76" s="636"/>
+      <c r="B76" s="636"/>
+      <c r="C76" s="638"/>
+      <c r="D76" s="640"/>
+      <c r="E76" s="642"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="515"/>
-      <c r="B77" s="639"/>
-      <c r="C77" s="643"/>
-      <c r="D77" s="633"/>
-      <c r="E77" s="636"/>
+      <c r="B77" s="636"/>
+      <c r="C77" s="638"/>
+      <c r="D77" s="640"/>
+      <c r="E77" s="642"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="515"/>
-      <c r="B78" s="639"/>
-      <c r="C78" s="643"/>
-      <c r="D78" s="633"/>
-      <c r="E78" s="636"/>
+      <c r="B78" s="636"/>
+      <c r="C78" s="638"/>
+      <c r="D78" s="640"/>
+      <c r="E78" s="642"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="515"/>
-      <c r="B79" s="639"/>
-      <c r="C79" s="643"/>
-      <c r="D79" s="633"/>
-      <c r="E79" s="636"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="515"/>
-      <c r="B80" s="639"/>
-      <c r="C80" s="643"/>
-      <c r="D80" s="633"/>
-      <c r="E80" s="636"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="515"/>
-      <c r="B81" s="639"/>
-      <c r="C81" s="643"/>
-      <c r="D81" s="633"/>
-      <c r="E81" s="636"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="515"/>
-      <c r="B82" s="639"/>
-      <c r="C82" s="643"/>
-      <c r="D82" s="633"/>
-      <c r="E82" s="636"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="515"/>
-      <c r="B83" s="639"/>
-      <c r="C83" s="643"/>
-      <c r="D83" s="633"/>
-      <c r="E83" s="636"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="515"/>
-      <c r="B84" s="639"/>
-      <c r="C84" s="643"/>
-      <c r="D84" s="633"/>
-      <c r="E84" s="636"/>
-    </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="516"/>
-      <c r="B85" s="640"/>
-      <c r="C85" s="644"/>
-      <c r="D85" s="642"/>
-      <c r="E85" s="637"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="480" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="480" t="s">
-        <v>411</v>
+      <c r="B79" s="636"/>
+      <c r="C79" s="638"/>
+      <c r="D79" s="640"/>
+      <c r="E79" s="642"/>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="516"/>
+      <c r="B80" s="637"/>
+      <c r="C80" s="639"/>
+      <c r="D80" s="641"/>
+      <c r="E80" s="643"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="480" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="480" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="480" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="C71:C80"/>
+    <mergeCell ref="D71:D80"/>
+    <mergeCell ref="E71:E80"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="E29:E35"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="D76:D85"/>
-    <mergeCell ref="E76:E85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B87" r:id="rId1" xr:uid="{9D02BFCE-101F-4872-A0AA-D4924452351B}"/>
-    <hyperlink ref="B88" r:id="rId2" xr:uid="{4C39F3D6-024C-4D38-9577-41321950542F}"/>
+    <hyperlink ref="B82" r:id="rId1" xr:uid="{9D02BFCE-101F-4872-A0AA-D4924452351B}"/>
+    <hyperlink ref="B83" r:id="rId2" xr:uid="{4C39F3D6-024C-4D38-9577-41321950542F}"/>
+    <hyperlink ref="B84" r:id="rId3" xr:uid="{C78ED554-B2C7-45F9-B92A-3E4E3DD6A893}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -44508,8 +44549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44549,7 +44590,7 @@
       <c r="I3" s="576" t="s">
         <v>315</v>
       </c>
-      <c r="J3" s="611">
+      <c r="J3" s="604">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K3" s="453">
@@ -44680,18 +44721,18 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="612" t="s">
+      <c r="B13" s="605" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="613">
+      <c r="C13" s="606">
         <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="614" t="s">
+      <c r="B14" s="607" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="614">
+      <c r="C14" s="607">
         <f>1-(1/(1+C13))</f>
         <v>0.2503748125937032</v>
       </c>
@@ -44701,7 +44742,7 @@
         <v>293</v>
       </c>
       <c r="C15" s="453">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -44710,7 +44751,7 @@
       </c>
       <c r="C17" s="589">
         <f>C10*(1-C15)</f>
-        <v>82.433054326981548</v>
+        <v>79.773923542240198</v>
       </c>
     </row>
   </sheetData>

--- a/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
+++ b/Diploma podatki/ANALIZA_POSLOVANJA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neža\Documents\GitHub\Diplomska-naloga-\Diploma podatki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914AC70-ADDB-47A5-A6FC-91B3DDF1C037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E4178C-CDA8-4A4F-A99E-9F0A3BAEA8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{0DAC0375-5244-478E-9483-C7B8579F68F1}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -513,6 +513,80 @@
           </rPr>
           <t xml:space="preserve">
 9 faktorjev
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0" shapeId="0" xr:uid="{839710EC-541D-4E03-89B0-AF623B387E81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+razlaga razlik med vrednostmi odbitkov pri eni in drugi vrsti raziskav ter podrobneje WMA študija
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B86" authorId="0" shapeId="0" xr:uid="{DBB95BC3-BF77-47A1-A6CA-B115A013AE1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+prednosti - slabosti pre ipo študij</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="0" shapeId="0" xr:uid="{13E7CBE9-EF6B-4F46-9D1C-89FCEEA6C2B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Neža:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+vrednotenje tekstilna industrija - zaprta družba
 </t>
         </r>
       </text>
@@ -1072,7 +1146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="440">
   <si>
     <t>opredmetena osnovna</t>
   </si>
@@ -2259,9 +2333,6 @@
     <t>podjetje redno izplačuje dividende, ki iz leta v leto rastejo, tudi v prihodnosti se tega nameravajo držati</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t xml:space="preserve">po statutu vsak delničar mora za prodajo delnice osebi zunaj obstoječega kroga delničarjev pridobiti soglasje s strani uprave. </t>
   </si>
   <si>
@@ -2361,9 +2432,6 @@
     <t>Ker preIPO raziskave vsebujejo transakcije podjetij, ki v prihodnosti uspešno prodrejo na javni trg, so ti odbitki višji, čim večje je tveganje vstopa. Zato pri našem podjetju izhajam iz zgornjih mej ugotovljenih odbitkov, saj o izstopu iz zasebnega lastništva vodstvo ne razmišlja. Če pri tem posebej izpostavim WMA študijo (zadnjo narejeno, za leta 1988-2000), ta izključuje tudi vse transakcije z osebami, ki so na sumljiv način povezane z vodstvom in drugimi koristi v podjetjih, vzete so preIPO cene iz do treh let pred prvo javno ponudbo, zato sem to raziskavo vzela za najbolj relevantno.</t>
   </si>
   <si>
-    <t>Pri ocenjevanju torej izhajam iz bolj relevantnih ocen za odbitke, torej ocene po pre IPO študijah. Te v povprečju določajo 45% odbitek, pri čemer pa sem sama v začetku izhajala iz raziskave WMA, ki je po moji oceni najbolj relevantna in za naše podjetje najprimernejša. Za izhodišče sem vzela zgornji del ugotovljenih odbitkov te raziskave, kot opisano v povzetkih (49%). Glede na navedenih 10 faktorjev, ki naj bi bili najbolj relevantni pri vplivu na spreminjanje odbitka glede na posebne lastnosti podjetij, bi našemu podjetju pripisala odbitek v višini 40%, saj sta od vseh faktorjev na povečanje odbitka vplivali le omejitev pri prenosu lastništva in predkupna pravica uprave do delnice v prodaji tretji osebi. Vsi ostali faktorji so diskont zniževali.</t>
-  </si>
-  <si>
     <t>http://www.philipsaunders.com/TheFirm/Publications/MarketabilityDiscounts/tabid/97/Default.aspx</t>
   </si>
   <si>
@@ -2371,6 +2439,33 @@
   </si>
   <si>
     <t>tuj trg, podružnica na Kitajskem, možnost širjenja</t>
+  </si>
+  <si>
+    <t>http://www.willamette.com/pubs/presentations/tax_lawyer_article.pdf</t>
+  </si>
+  <si>
+    <t>https://www.irs.gov/pub/irs-utl/dlom.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobro organiziran trg delnic uvršča podjetje X med tista, ki so navadno zajeta v raziskavah restriktivnih delnic. Pri teh raziskavah navadno dobimo manjše odbitke kot pri drugih, kar sem pri vmesno dobljenem odbitku še dodatno upoštevala. Poleg tega so rezultati raziskave WMA, ki jo sama ocenjujem za merodajno, v letih od 1990 dalje nižji kot poprej, pri čemer let 1999 - 2002 ne gledamo, ker je v njih zajetih premalo vzorcev. Povprečna vrednost raziskav WMA v letih od 1990 do 1998 je 33,6%. </t>
+  </si>
+  <si>
+    <t>file:///C:/Users/Ne%C5%BEa/Downloads/Tekstina_cenitev31122007_%20(1).pdf</t>
+  </si>
+  <si>
+    <t>https://books.google.si/books?id=wtK1DgAAQBAJ&amp;pg=PT513&amp;lpg=PT513&amp;dq=dlom+valuation+industrial&amp;source=bl&amp;ots=Ijb8yFf-bs&amp;sig=ACfU3U16iiEJ2fDPMYY5nLl2oYhC7axDXA&amp;hl=sl&amp;sa=X&amp;ved=2ahUKEwiE0MLvnqLqAhWmlIsKHQf6DaIQ6AEwDHoECAkQAQ#v=onepage&amp;q=dlom%20valuation%20industrial&amp;f=false</t>
+  </si>
+  <si>
+    <t>organiziran delniški trg</t>
+  </si>
+  <si>
+    <t>majhen ampak dobro organiziran delniški trg, interni</t>
+  </si>
+  <si>
+    <t>Pri ocenjevanju torej izhajam iz bolj relevantnih ocen za odbitke, torej ocene po pre IPO študijah. Te v povprečju določajo 45% odbitek, pri čemer pa sem sama v začetku izhajala iz raziskave WMA, ki je po moji oceni najbolj relevantna in za naše podjetje najprimernejša. Za izhodišče sem vzela zgornji del ugotovljenih odbitkov te raziskave, kot opisano v povzetkih (49% mediana in 35% povprečje). Glede na navedenih 10 faktorjev, ki naj bi bili najbolj relevantni pri vplivu na spreminjanje odbitka glede na posebne lastnosti podjetij, bi našemu podjetju pripisala odbitek v višini 25%, saj sta od vseh faktorjev na povečanje odbitka vplivali le omejitev pri prenosu lastništva in predkupna pravica uprave do delnice v prodaji tretji osebi. Vsi ostali faktorji so diskont zniževali, dodatno pa ima podjetje dobro organiziran notranji delniški trg.</t>
+  </si>
+  <si>
+    <t>SKUPNI POPRAVEK DLOM:</t>
   </si>
 </sst>
 </file>
@@ -4189,91 +4284,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4317,6 +4333,87 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hiperpovezava" xfId="9" builtinId="8"/>
@@ -35187,7 +35284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C193876C-D9A5-4827-B21A-157B2F90BC90}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -36279,7 +36376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B39DD-43BF-4414-9258-52BD9D95E4C8}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -38512,7 +38609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0E449A-96AB-4A84-BE80-DE3A976793FE}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
@@ -40195,7 +40292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCCC69F-E9DD-4E05-8C72-E6D15378301D}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -41292,7 +41389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523C1896-62AA-4E45-8BD7-018962592130}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -42326,10 +42423,10 @@
     </row>
     <row r="87" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="644" t="s">
+      <c r="A88" s="661" t="s">
         <v>298</v>
       </c>
-      <c r="B88" s="645"/>
+      <c r="B88" s="662"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="55" t="s">
@@ -43413,11 +43510,11 @@
       <c r="C12" s="473">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="F12" s="620" t="s">
+      <c r="F12" s="639" t="s">
         <v>270</v>
       </c>
-      <c r="G12" s="621"/>
-      <c r="H12" s="622"/>
+      <c r="G12" s="640"/>
+      <c r="H12" s="641"/>
       <c r="J12" s="497" t="s">
         <v>284</v>
       </c>
@@ -43475,12 +43572,12 @@
       <c r="G15" s="171">
         <v>1.03E-2</v>
       </c>
-      <c r="J15" s="620" t="s">
+      <c r="J15" s="639" t="s">
         <v>291</v>
       </c>
-      <c r="K15" s="621"/>
-      <c r="L15" s="621"/>
-      <c r="M15" s="622"/>
+      <c r="K15" s="640"/>
+      <c r="L15" s="640"/>
+      <c r="M15" s="641"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="464" t="s">
@@ -43584,11 +43681,11 @@
       <c r="G25" s="501"/>
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="623" t="s">
+      <c r="F26" s="642" t="s">
         <v>283</v>
       </c>
-      <c r="G26" s="624"/>
-      <c r="H26" s="625"/>
+      <c r="G26" s="643"/>
+      <c r="H26" s="644"/>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="502">
@@ -43771,10 +43868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF3F75-511C-494C-979E-3E00983A6C23}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43783,7 +43880,7 @@
     <col min="2" max="2" width="69.44140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
     <col min="4" max="4" width="50.109375" customWidth="1"/>
-    <col min="5" max="5" width="192.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="192.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -43797,28 +43894,28 @@
       <c r="E2" s="594"/>
     </row>
     <row r="3" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="654" t="s">
+      <c r="A3" s="627" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="655" t="s">
+      <c r="B3" s="628" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="656"/>
-      <c r="D3" s="657"/>
-      <c r="E3" s="658"/>
+      <c r="C3" s="629"/>
+      <c r="D3" s="630"/>
+      <c r="E3" s="631"/>
     </row>
     <row r="4" spans="1:5" s="429" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="659"/>
-      <c r="B4" s="655" t="s">
+      <c r="A4" s="632"/>
+      <c r="B4" s="628" t="s">
         <v>339</v>
       </c>
-      <c r="C4" s="655" t="s">
+      <c r="C4" s="628" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="660" t="s">
+      <c r="D4" s="633" t="s">
         <v>341</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="634" t="s">
         <v>371</v>
       </c>
     </row>
@@ -43826,42 +43923,42 @@
       <c r="A5" s="595">
         <v>1</v>
       </c>
-      <c r="B5" s="647" t="s">
+      <c r="B5" s="620" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="648" t="s">
+      <c r="C5" s="621" t="s">
         <v>357</v>
       </c>
       <c r="D5" s="608" t="s">
-        <v>421</v>
-      </c>
-      <c r="E5" s="626" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="E5" s="654" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="515">
         <v>2</v>
       </c>
-      <c r="B6" s="649" t="s">
+      <c r="B6" s="622" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="648" t="s">
+      <c r="C6" s="621" t="s">
         <v>359</v>
       </c>
       <c r="D6" s="608" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="626"/>
+      <c r="E6" s="654"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="595">
         <v>3</v>
       </c>
-      <c r="B7" s="649" t="s">
+      <c r="B7" s="622" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="650">
+      <c r="C7" s="623">
         <v>20</v>
       </c>
       <c r="D7" s="135" t="s">
@@ -43873,59 +43970,59 @@
       <c r="A8" s="515">
         <v>4</v>
       </c>
-      <c r="B8" s="649" t="s">
+      <c r="B8" s="622" t="s">
         <v>348</v>
       </c>
-      <c r="C8" s="650">
+      <c r="C8" s="623">
         <v>26</v>
       </c>
       <c r="D8" s="609" t="s">
+        <v>421</v>
+      </c>
+      <c r="E8" s="618" t="s">
         <v>422</v>
-      </c>
-      <c r="E8" s="619" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="595">
         <v>5</v>
       </c>
-      <c r="B9" s="649" t="s">
+      <c r="B9" s="622" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="646">
+      <c r="C9" s="619">
         <v>23</v>
       </c>
       <c r="D9" s="609" t="s">
-        <v>424</v>
-      </c>
-      <c r="E9" s="619" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="E9" s="618" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="515">
         <v>6</v>
       </c>
-      <c r="B10" s="649" t="s">
+      <c r="B10" s="622" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="646">
+      <c r="C10" s="619">
         <v>24</v>
       </c>
       <c r="D10" s="609" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="618"/>
+        <v>424</v>
+      </c>
+      <c r="E10" s="617"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="595">
         <v>7</v>
       </c>
-      <c r="B11" s="649" t="s">
+      <c r="B11" s="622" t="s">
         <v>351</v>
       </c>
-      <c r="C11" s="646">
+      <c r="C11" s="619">
         <v>45</v>
       </c>
       <c r="D11" s="135" t="s">
@@ -43937,10 +44034,10 @@
       <c r="A12" s="515">
         <v>8</v>
       </c>
-      <c r="B12" s="651" t="s">
+      <c r="B12" s="624" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="646">
+      <c r="C12" s="619">
         <v>31</v>
       </c>
       <c r="D12" s="135" t="s">
@@ -43952,27 +44049,27 @@
       <c r="A13" s="595">
         <v>9</v>
       </c>
-      <c r="B13" s="651" t="s">
+      <c r="B13" s="624" t="s">
         <v>338</v>
       </c>
-      <c r="C13" s="646">
+      <c r="C13" s="619">
         <v>34</v>
       </c>
       <c r="D13" s="135" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="615" t="s">
         <v>426</v>
-      </c>
-      <c r="E13" s="615" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="515">
         <v>10</v>
       </c>
-      <c r="B14" s="649" t="s">
+      <c r="B14" s="622" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="646">
+      <c r="C14" s="619">
         <v>33</v>
       </c>
       <c r="D14" s="135" t="s">
@@ -43984,27 +44081,27 @@
       <c r="A15" s="595">
         <v>11</v>
       </c>
-      <c r="B15" s="649" t="s">
+      <c r="B15" s="622" t="s">
         <v>355</v>
       </c>
-      <c r="C15" s="646">
+      <c r="C15" s="619">
         <v>24</v>
       </c>
       <c r="D15" s="609" t="s">
-        <v>418</v>
-      </c>
-      <c r="E15" s="619" t="s">
         <v>417</v>
+      </c>
+      <c r="E15" s="618" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="515">
         <v>12</v>
       </c>
-      <c r="B16" s="649" t="s">
+      <c r="B16" s="622" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="646">
+      <c r="C16" s="619">
         <v>33</v>
       </c>
       <c r="D16" s="135" t="s">
@@ -44016,10 +44113,10 @@
       <c r="A17" s="595">
         <v>13</v>
       </c>
-      <c r="B17" s="649" t="s">
+      <c r="B17" s="622" t="s">
         <v>353</v>
       </c>
-      <c r="C17" s="646">
+      <c r="C17" s="619">
         <v>34</v>
       </c>
       <c r="D17" s="135" t="s">
@@ -44031,10 +44128,10 @@
       <c r="A18" s="515">
         <v>14</v>
       </c>
-      <c r="B18" s="649" t="s">
+      <c r="B18" s="622" t="s">
         <v>354</v>
       </c>
-      <c r="C18" s="646">
+      <c r="C18" s="619">
         <v>35</v>
       </c>
       <c r="D18" s="135" t="s">
@@ -44043,37 +44140,37 @@
       <c r="E18" s="220"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="654" t="s">
+      <c r="A19" s="627" t="s">
         <v>342</v>
       </c>
-      <c r="B19" s="655" t="s">
+      <c r="B19" s="628" t="s">
         <v>343</v>
       </c>
-      <c r="C19" s="656"/>
-      <c r="D19" s="657"/>
-      <c r="E19" s="658"/>
+      <c r="C19" s="629"/>
+      <c r="D19" s="630"/>
+      <c r="E19" s="631"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="659"/>
-      <c r="B20" s="655" t="s">
+      <c r="A20" s="632"/>
+      <c r="B20" s="628" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="655" t="s">
+      <c r="C20" s="628" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="660" t="s">
+      <c r="D20" s="633" t="s">
         <v>341</v>
       </c>
-      <c r="E20" s="661"/>
+      <c r="E20" s="634"/>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="515">
         <v>1</v>
       </c>
-      <c r="B21" s="650" t="s">
+      <c r="B21" s="623" t="s">
         <v>344</v>
       </c>
-      <c r="C21" s="646" t="s">
+      <c r="C21" s="619" t="s">
         <v>372</v>
       </c>
       <c r="D21" s="609" t="s">
@@ -44085,10 +44182,10 @@
       <c r="A22" s="515">
         <v>2</v>
       </c>
-      <c r="B22" s="650" t="s">
+      <c r="B22" s="623" t="s">
         <v>374</v>
       </c>
-      <c r="C22" s="652">
+      <c r="C22" s="625">
         <v>0.52</v>
       </c>
       <c r="D22" s="609"/>
@@ -44098,82 +44195,82 @@
       <c r="A23" s="516">
         <v>3</v>
       </c>
-      <c r="B23" s="653" t="s">
+      <c r="B23" s="626" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="653" t="s">
+      <c r="C23" s="626" t="s">
         <v>377</v>
       </c>
       <c r="D23" s="610" t="s">
         <v>376</v>
       </c>
-      <c r="E23" s="662" t="s">
-        <v>416</v>
+      <c r="E23" s="635" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="617" t="s">
-        <v>414</v>
+      <c r="B27" s="616" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="627" t="s">
+      <c r="B29" s="655" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="630" t="s">
-        <v>411</v>
-      </c>
-      <c r="D29" s="630" t="s">
-        <v>428</v>
-      </c>
-      <c r="E29" s="630" t="s">
+      <c r="C29" s="658" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="658" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="658" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="628"/>
-      <c r="C30" s="631"/>
-      <c r="D30" s="631"/>
-      <c r="E30" s="631"/>
+      <c r="B30" s="656"/>
+      <c r="C30" s="659"/>
+      <c r="D30" s="659"/>
+      <c r="E30" s="659"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="628"/>
-      <c r="C31" s="631"/>
-      <c r="D31" s="631"/>
-      <c r="E31" s="631"/>
+      <c r="B31" s="656"/>
+      <c r="C31" s="659"/>
+      <c r="D31" s="659"/>
+      <c r="E31" s="659"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="628"/>
-      <c r="C32" s="631"/>
-      <c r="D32" s="631"/>
-      <c r="E32" s="631"/>
+      <c r="B32" s="656"/>
+      <c r="C32" s="659"/>
+      <c r="D32" s="659"/>
+      <c r="E32" s="659"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="628"/>
-      <c r="C33" s="631"/>
-      <c r="D33" s="631"/>
-      <c r="E33" s="631"/>
+      <c r="B33" s="656"/>
+      <c r="C33" s="659"/>
+      <c r="D33" s="659"/>
+      <c r="E33" s="659"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="628"/>
-      <c r="C34" s="631"/>
-      <c r="D34" s="631"/>
-      <c r="E34" s="631"/>
+      <c r="B34" s="656"/>
+      <c r="C34" s="659"/>
+      <c r="D34" s="659"/>
+      <c r="E34" s="659"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="629"/>
-      <c r="C35" s="632"/>
-      <c r="D35" s="632"/>
-      <c r="E35" s="632"/>
+      <c r="B35" s="657"/>
+      <c r="C35" s="660"/>
+      <c r="D35" s="660"/>
+      <c r="E35" s="660"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="633" t="s">
+      <c r="A48" s="645" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="634"/>
-      <c r="C48" s="634"/>
-      <c r="D48" s="634"/>
+      <c r="B48" s="646"/>
+      <c r="C48" s="646"/>
+      <c r="D48" s="646"/>
       <c r="E48" s="611"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -44199,10 +44296,10 @@
       <c r="C50" s="135" t="s">
         <v>383</v>
       </c>
-      <c r="D50" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E50" s="663" t="s">
+      <c r="D50" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E50" s="636" t="s">
         <v>394</v>
       </c>
     </row>
@@ -44214,11 +44311,11 @@
       <c r="C51" s="135" t="s">
         <v>385</v>
       </c>
-      <c r="D51" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="663" t="s">
-        <v>402</v>
+      <c r="D51" s="663">
+        <v>-0.02</v>
+      </c>
+      <c r="E51" s="636" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -44229,23 +44326,23 @@
       <c r="C52" s="468" t="s">
         <v>383</v>
       </c>
-      <c r="D52" s="613" t="s">
+      <c r="D52" s="663">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="636" t="s">
         <v>395</v>
-      </c>
-      <c r="E52" s="663" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="515"/>
-      <c r="B53" s="664" t="s">
+      <c r="B53" s="637" t="s">
         <v>387</v>
       </c>
-      <c r="C53" s="664" t="s">
+      <c r="C53" s="637" t="s">
         <v>388</v>
       </c>
       <c r="D53" s="614"/>
-      <c r="E53" s="665"/>
+      <c r="E53" s="638"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="515"/>
@@ -44255,11 +44352,11 @@
       <c r="C54" s="468" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" s="663" t="s">
-        <v>401</v>
+      <c r="D54" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E54" s="636" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -44270,26 +44367,26 @@
       <c r="C55" s="468" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E55" s="663" t="s">
-        <v>397</v>
+      <c r="D55" s="663">
+        <v>-0.02</v>
+      </c>
+      <c r="E55" s="636" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="515"/>
       <c r="B56" s="468" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C56" s="468" t="s">
         <v>388</v>
       </c>
-      <c r="D56" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="663" t="s">
-        <v>399</v>
+      <c r="D56" s="663">
+        <v>-0.02</v>
+      </c>
+      <c r="E56" s="636" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -44300,41 +44397,41 @@
       <c r="C57" s="468" t="s">
         <v>383</v>
       </c>
-      <c r="D57" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E57" s="663" t="s">
-        <v>403</v>
+      <c r="D57" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E57" s="636" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="515"/>
       <c r="B58" s="468" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C58" s="468" t="s">
         <v>383</v>
       </c>
-      <c r="D58" s="613" t="s">
-        <v>395</v>
-      </c>
-      <c r="E58" s="663" t="s">
-        <v>404</v>
+      <c r="D58" s="663">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="636" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="515"/>
       <c r="B59" s="468" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C59" s="468" t="s">
         <v>385</v>
       </c>
-      <c r="D59" s="613" t="s">
-        <v>395</v>
-      </c>
-      <c r="E59" s="663" t="s">
-        <v>408</v>
+      <c r="D59" s="663">
+        <v>0.02</v>
+      </c>
+      <c r="E59" s="636" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -44342,19 +44439,19 @@
       <c r="B60" s="468"/>
       <c r="C60" s="468"/>
       <c r="D60" s="613"/>
-      <c r="E60" s="663"/>
+      <c r="E60" s="636"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="515"/>
       <c r="B61" s="468" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="468"/>
+      <c r="D61" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E61" s="636" t="s">
         <v>409</v>
-      </c>
-      <c r="C61" s="468"/>
-      <c r="D61" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" s="663" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -44362,73 +44459,84 @@
       <c r="B62" s="468"/>
       <c r="C62" s="468"/>
       <c r="D62" s="613"/>
-      <c r="E62" s="663"/>
+      <c r="E62" s="636"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="515"/>
       <c r="B63" s="468" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C63" s="468"/>
-      <c r="D63" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E63" s="663" t="s">
-        <v>431</v>
+      <c r="D63" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E63" s="636" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="515"/>
       <c r="B64" s="468" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C64" s="468"/>
-      <c r="D64" s="613" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" s="663" t="s">
-        <v>432</v>
+      <c r="D64" s="663">
+        <v>-0.01</v>
+      </c>
+      <c r="E64" s="636" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="515"/>
-      <c r="B65" s="468"/>
+      <c r="B65" s="468" t="s">
+        <v>436</v>
+      </c>
       <c r="C65" s="468"/>
-      <c r="D65" s="613"/>
-      <c r="E65" s="663"/>
+      <c r="D65" s="663">
+        <v>-0.02</v>
+      </c>
+      <c r="E65" s="636" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="515"/>
       <c r="B66" s="468"/>
       <c r="C66" s="468"/>
       <c r="D66" s="613"/>
-      <c r="E66" s="663"/>
+      <c r="E66" s="636"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="515"/>
       <c r="B67" s="468"/>
       <c r="C67" s="468"/>
       <c r="D67" s="613"/>
-      <c r="E67" s="663"/>
+      <c r="E67" s="636"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="515"/>
       <c r="B68" s="468"/>
       <c r="C68" s="468"/>
-      <c r="D68" s="613"/>
-      <c r="E68" s="663"/>
+      <c r="D68" s="665" t="s">
+        <v>439</v>
+      </c>
+      <c r="E68" s="636"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="515"/>
       <c r="B69" s="468"/>
       <c r="C69" s="468"/>
-      <c r="D69" s="613"/>
-      <c r="E69" s="663"/>
+      <c r="D69" s="664">
+        <f>SUM(D50:D65)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="E69" s="636"/>
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="515"/>
-      <c r="B70" s="616" t="s">
-        <v>415</v>
+      <c r="B70" s="96" t="s">
+        <v>414</v>
       </c>
       <c r="C70" s="135"/>
       <c r="D70" s="135"/>
@@ -44436,112 +44544,138 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="515"/>
-      <c r="B71" s="635" t="s">
-        <v>429</v>
-      </c>
-      <c r="C71" s="638"/>
-      <c r="D71" s="640"/>
-      <c r="E71" s="642"/>
+      <c r="B71" s="647" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" s="647" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" s="650"/>
+      <c r="E71" s="652"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="515"/>
-      <c r="B72" s="636"/>
-      <c r="C72" s="638"/>
-      <c r="D72" s="640"/>
-      <c r="E72" s="642"/>
+      <c r="B72" s="648"/>
+      <c r="C72" s="648"/>
+      <c r="D72" s="650"/>
+      <c r="E72" s="652"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="515"/>
-      <c r="B73" s="636"/>
-      <c r="C73" s="638"/>
-      <c r="D73" s="640"/>
-      <c r="E73" s="642"/>
+      <c r="B73" s="648"/>
+      <c r="C73" s="648"/>
+      <c r="D73" s="650"/>
+      <c r="E73" s="652"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="515"/>
-      <c r="B74" s="636"/>
-      <c r="C74" s="638"/>
-      <c r="D74" s="640"/>
-      <c r="E74" s="642"/>
+      <c r="B74" s="648"/>
+      <c r="C74" s="648"/>
+      <c r="D74" s="650"/>
+      <c r="E74" s="652"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="515"/>
-      <c r="B75" s="636"/>
-      <c r="C75" s="638"/>
-      <c r="D75" s="640"/>
-      <c r="E75" s="642"/>
+      <c r="B75" s="648"/>
+      <c r="C75" s="648"/>
+      <c r="D75" s="650"/>
+      <c r="E75" s="652"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="515"/>
-      <c r="B76" s="636"/>
-      <c r="C76" s="638"/>
-      <c r="D76" s="640"/>
-      <c r="E76" s="642"/>
+      <c r="B76" s="648"/>
+      <c r="C76" s="648"/>
+      <c r="D76" s="650"/>
+      <c r="E76" s="652"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="515"/>
-      <c r="B77" s="636"/>
-      <c r="C77" s="638"/>
-      <c r="D77" s="640"/>
-      <c r="E77" s="642"/>
+      <c r="B77" s="648"/>
+      <c r="C77" s="648"/>
+      <c r="D77" s="650"/>
+      <c r="E77" s="652"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="515"/>
-      <c r="B78" s="636"/>
-      <c r="C78" s="638"/>
-      <c r="D78" s="640"/>
-      <c r="E78" s="642"/>
+      <c r="B78" s="648"/>
+      <c r="C78" s="648"/>
+      <c r="D78" s="650"/>
+      <c r="E78" s="652"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="515"/>
-      <c r="B79" s="636"/>
-      <c r="C79" s="638"/>
-      <c r="D79" s="640"/>
-      <c r="E79" s="642"/>
+      <c r="B79" s="648"/>
+      <c r="C79" s="648"/>
+      <c r="D79" s="650"/>
+      <c r="E79" s="652"/>
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="516"/>
-      <c r="B80" s="637"/>
-      <c r="C80" s="639"/>
-      <c r="D80" s="641"/>
-      <c r="E80" s="643"/>
+      <c r="B80" s="649"/>
+      <c r="C80" s="649"/>
+      <c r="D80" s="651"/>
+      <c r="E80" s="653"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B82" s="480" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" s="480" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" s="480" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="480" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="480" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="480" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="480" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="E29:E35"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="B71:B80"/>
     <mergeCell ref="C71:C80"/>
     <mergeCell ref="D71:D80"/>
     <mergeCell ref="E71:E80"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="E29:E35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B82" r:id="rId1" xr:uid="{9D02BFCE-101F-4872-A0AA-D4924452351B}"/>
     <hyperlink ref="B83" r:id="rId2" xr:uid="{4C39F3D6-024C-4D38-9577-41321950542F}"/>
     <hyperlink ref="B84" r:id="rId3" xr:uid="{C78ED554-B2C7-45F9-B92A-3E4E3DD6A893}"/>
+    <hyperlink ref="B85" r:id="rId4" xr:uid="{73475488-51E9-453C-AC97-64CEC368D740}"/>
+    <hyperlink ref="B86" r:id="rId5" xr:uid="{9BCED1A7-204D-4B8E-A2C6-A9FD9B146252}"/>
+    <hyperlink ref="B90" r:id="rId6" display="../../../../../Ne%25C5%25BEa/Downloads/Tekstina_cenitev31122007_ (1).pdf" xr:uid="{896AF3F2-89FD-4AA5-897E-912F3E5379C1}"/>
+    <hyperlink ref="B87" r:id="rId7" location="v=onepage&amp;q=dlom%20valuation%20industrial&amp;f=false" display="v=onepage&amp;q=dlom%20valuation%20industrial&amp;f=false" xr:uid="{D61FA428-EF47-49F9-B1E6-C938A689B6BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -44549,8 +44683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F4A1B7-CCDE-4E0D-A100-110DCDF83F93}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44742,7 +44876,7 @@
         <v>293</v>
       </c>
       <c r="C15" s="453">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -44751,7 +44885,7 @@
       </c>
       <c r="C17" s="589">
         <f>C10*(1-C15)</f>
-        <v>79.773923542240198</v>
+        <v>93.069577465946892</v>
       </c>
     </row>
   </sheetData>
@@ -44765,8 +44899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26207D2D-D345-4415-BB7E-16436BF85CD2}">
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45157,7 +45291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14032AB-04F0-45BC-850D-25E7540A9A60}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
